--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['42', '65']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -1248,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,7 +1510,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1919,7 +1922,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2203,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ5">
         <v>0.43</v>
@@ -2331,7 +2334,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2537,7 +2540,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3155,7 +3158,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3236,7 +3239,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3439,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3567,7 +3570,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3851,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -3979,7 +3982,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4803,7 +4806,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5009,7 +5012,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5215,7 +5218,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5293,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5421,7 +5424,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5502,7 +5505,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ21">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5627,7 +5630,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5833,7 +5836,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5911,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>1.43</v>
@@ -6039,7 +6042,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6326,7 +6329,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6529,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -7356,7 +7359,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ30">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR30">
         <v>0.89</v>
@@ -7481,7 +7484,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7687,7 +7690,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -8099,7 +8102,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8177,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8511,7 +8514,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8589,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8717,7 +8720,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8798,7 +8801,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.62</v>
@@ -8923,7 +8926,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9001,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>2.13</v>
@@ -9416,7 +9419,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.58</v>
@@ -9747,7 +9750,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9828,7 +9831,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>0.79</v>
@@ -10159,7 +10162,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10365,7 +10368,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10446,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10649,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>0.43</v>
@@ -10777,7 +10780,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11395,7 +11398,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -12219,7 +12222,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12425,7 +12428,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12506,7 +12509,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>0.83</v>
@@ -12712,7 +12715,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ56">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.23</v>
@@ -12837,7 +12840,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13455,7 +13458,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13661,7 +13664,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13739,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13945,7 +13948,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>1.43</v>
@@ -14073,7 +14076,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14279,7 +14282,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14360,7 +14363,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14563,7 +14566,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14897,7 +14900,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>2.05</v>
@@ -15103,7 +15106,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15309,7 +15312,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>1.83</v>
@@ -15390,7 +15393,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.27</v>
@@ -15596,7 +15599,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ70">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR70">
         <v>1.51</v>
@@ -15721,7 +15724,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15927,7 +15930,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.3</v>
@@ -16133,7 +16136,7 @@
         <v>96</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16339,7 +16342,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16545,7 +16548,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>4.33</v>
@@ -16626,7 +16629,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ75">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR75">
         <v>0.86</v>
@@ -16751,7 +16754,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>2.4</v>
@@ -16829,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -16957,7 +16960,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17163,7 +17166,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17781,7 +17784,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18686,7 +18689,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18811,7 +18814,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19017,7 +19020,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19095,7 +19098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ87">
         <v>2.13</v>
@@ -19301,7 +19304,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>0.43</v>
@@ -19429,7 +19432,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19635,7 +19638,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19713,10 +19716,10 @@
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19841,7 +19844,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20047,7 +20050,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20125,7 +20128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20540,7 +20543,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.15</v>
@@ -20665,7 +20668,7 @@
         <v>159</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21077,7 +21080,7 @@
         <v>161</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>2.5</v>
@@ -21155,10 +21158,10 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR97">
         <v>1.61</v>
@@ -21361,7 +21364,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98">
         <v>0.75</v>
@@ -21489,7 +21492,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21695,7 +21698,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21901,7 +21904,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22107,7 +22110,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>4.5</v>
@@ -22600,7 +22603,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ104">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.27</v>
@@ -22725,7 +22728,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>2.63</v>
@@ -22931,7 +22934,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -23421,7 +23424,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ108">
         <v>0.86</v>
@@ -23755,7 +23758,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23836,7 +23839,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ110">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -24167,7 +24170,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24373,7 +24376,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>1.91</v>
@@ -24657,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ114">
         <v>0.43</v>
@@ -24866,7 +24869,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ115">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR115">
         <v>1.39</v>
@@ -24991,7 +24994,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25197,7 +25200,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25403,7 +25406,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25896,7 +25899,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ120">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26433,7 +26436,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26639,7 +26642,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -26845,7 +26848,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27129,7 +27132,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126">
         <v>0.86</v>
@@ -27463,7 +27466,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27541,10 +27544,10 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.56</v>
@@ -27750,7 +27753,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR129">
         <v>1.58</v>
@@ -28159,7 +28162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
         <v>0.5</v>
@@ -28287,7 +28290,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28574,7 +28577,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR133">
         <v>1.01</v>
@@ -28699,7 +28702,7 @@
         <v>99</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28777,7 +28780,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ134">
         <v>0.71</v>
@@ -28905,7 +28908,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29111,7 +29114,7 @@
         <v>96</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>2.3</v>
@@ -29317,7 +29320,7 @@
         <v>103</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>2.05</v>
@@ -29395,10 +29398,10 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -29523,7 +29526,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29935,7 +29938,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30965,7 +30968,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31046,7 +31049,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ145">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR145">
         <v>1.04</v>
@@ -31458,7 +31461,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ147">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31583,7 +31586,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>3.2</v>
@@ -31995,7 +31998,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32076,7 +32079,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR150">
         <v>1.28</v>
@@ -32279,7 +32282,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ151">
         <v>0.43</v>
@@ -32613,7 +32616,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32691,7 +32694,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ153">
         <v>0.86</v>
@@ -32897,7 +32900,7 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ154">
         <v>0.71</v>
@@ -33025,7 +33028,7 @@
         <v>109</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>3.5</v>
@@ -33231,7 +33234,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33312,7 +33315,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ156">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -33518,7 +33521,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ157">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR157">
         <v>1.02</v>
@@ -33643,7 +33646,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33721,7 +33724,7 @@
         <v>1.83</v>
       </c>
       <c r="AP158">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
         <v>2.13</v>
@@ -34467,7 +34470,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q162">
         <v>3.6</v>
@@ -34545,10 +34548,10 @@
         <v>1.83</v>
       </c>
       <c r="AP162">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ162">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -34673,7 +34676,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34957,7 +34960,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ164">
         <v>1.71</v>
@@ -35085,7 +35088,7 @@
         <v>207</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35784,7 +35787,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ168">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.64</v>
@@ -35987,7 +35990,7 @@
         <v>1.17</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36115,7 +36118,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36272,6 +36275,1036 @@
       </c>
       <c r="BP170">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7727037</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45612.39583333334</v>
+      </c>
+      <c r="F171">
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>81</v>
+      </c>
+      <c r="H171" t="s">
+        <v>89</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>96</v>
+      </c>
+      <c r="P171" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q171">
+        <v>3.2</v>
+      </c>
+      <c r="R171">
+        <v>2.1</v>
+      </c>
+      <c r="S171">
+        <v>3.5</v>
+      </c>
+      <c r="T171">
+        <v>1.44</v>
+      </c>
+      <c r="U171">
+        <v>2.63</v>
+      </c>
+      <c r="V171">
+        <v>3</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>9</v>
+      </c>
+      <c r="Y171">
+        <v>1.07</v>
+      </c>
+      <c r="Z171">
+        <v>2.6</v>
+      </c>
+      <c r="AA171">
+        <v>3.25</v>
+      </c>
+      <c r="AB171">
+        <v>2.61</v>
+      </c>
+      <c r="AC171">
+        <v>1.06</v>
+      </c>
+      <c r="AD171">
+        <v>8.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.3</v>
+      </c>
+      <c r="AF171">
+        <v>3.4</v>
+      </c>
+      <c r="AG171">
+        <v>1.99</v>
+      </c>
+      <c r="AH171">
+        <v>1.73</v>
+      </c>
+      <c r="AI171">
+        <v>1.8</v>
+      </c>
+      <c r="AJ171">
+        <v>1.95</v>
+      </c>
+      <c r="AK171">
+        <v>1.42</v>
+      </c>
+      <c r="AL171">
+        <v>1.28</v>
+      </c>
+      <c r="AM171">
+        <v>1.5</v>
+      </c>
+      <c r="AN171">
+        <v>2</v>
+      </c>
+      <c r="AO171">
+        <v>1.71</v>
+      </c>
+      <c r="AP171">
+        <v>1.86</v>
+      </c>
+      <c r="AQ171">
+        <v>1.63</v>
+      </c>
+      <c r="AR171">
+        <v>1.45</v>
+      </c>
+      <c r="AS171">
+        <v>1.02</v>
+      </c>
+      <c r="AT171">
+        <v>2.47</v>
+      </c>
+      <c r="AU171">
+        <v>2</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>2</v>
+      </c>
+      <c r="AX171">
+        <v>9</v>
+      </c>
+      <c r="AY171">
+        <v>8</v>
+      </c>
+      <c r="AZ171">
+        <v>15</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>1.66</v>
+      </c>
+      <c r="BE171">
+        <v>6.5</v>
+      </c>
+      <c r="BF171">
+        <v>2.32</v>
+      </c>
+      <c r="BG171">
+        <v>1.24</v>
+      </c>
+      <c r="BH171">
+        <v>3.55</v>
+      </c>
+      <c r="BI171">
+        <v>1.39</v>
+      </c>
+      <c r="BJ171">
+        <v>2.75</v>
+      </c>
+      <c r="BK171">
+        <v>1.67</v>
+      </c>
+      <c r="BL171">
+        <v>2.08</v>
+      </c>
+      <c r="BM171">
+        <v>2.08</v>
+      </c>
+      <c r="BN171">
+        <v>1.67</v>
+      </c>
+      <c r="BO171">
+        <v>2.68</v>
+      </c>
+      <c r="BP171">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7727033</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F172">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>91</v>
+      </c>
+      <c r="H172" t="s">
+        <v>87</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>96</v>
+      </c>
+      <c r="P172" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q172">
+        <v>2.1</v>
+      </c>
+      <c r="R172">
+        <v>2.38</v>
+      </c>
+      <c r="S172">
+        <v>5.5</v>
+      </c>
+      <c r="T172">
+        <v>1.33</v>
+      </c>
+      <c r="U172">
+        <v>3.25</v>
+      </c>
+      <c r="V172">
+        <v>2.63</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>6.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.11</v>
+      </c>
+      <c r="Z172">
+        <v>1.59</v>
+      </c>
+      <c r="AA172">
+        <v>4.07</v>
+      </c>
+      <c r="AB172">
+        <v>4.65</v>
+      </c>
+      <c r="AC172">
+        <v>1.04</v>
+      </c>
+      <c r="AD172">
+        <v>10</v>
+      </c>
+      <c r="AE172">
+        <v>1.22</v>
+      </c>
+      <c r="AF172">
+        <v>4.2</v>
+      </c>
+      <c r="AG172">
+        <v>1.68</v>
+      </c>
+      <c r="AH172">
+        <v>2.05</v>
+      </c>
+      <c r="AI172">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172">
+        <v>1.95</v>
+      </c>
+      <c r="AK172">
+        <v>1.14</v>
+      </c>
+      <c r="AL172">
+        <v>1.18</v>
+      </c>
+      <c r="AM172">
+        <v>2.35</v>
+      </c>
+      <c r="AN172">
+        <v>1.29</v>
+      </c>
+      <c r="AO172">
+        <v>0.86</v>
+      </c>
+      <c r="AP172">
+        <v>1.25</v>
+      </c>
+      <c r="AQ172">
+        <v>0.88</v>
+      </c>
+      <c r="AR172">
+        <v>1.6</v>
+      </c>
+      <c r="AS172">
+        <v>1</v>
+      </c>
+      <c r="AT172">
+        <v>2.6</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>9</v>
+      </c>
+      <c r="AX172">
+        <v>4</v>
+      </c>
+      <c r="AY172">
+        <v>18</v>
+      </c>
+      <c r="AZ172">
+        <v>14</v>
+      </c>
+      <c r="BA172">
+        <v>5</v>
+      </c>
+      <c r="BB172">
+        <v>6</v>
+      </c>
+      <c r="BC172">
+        <v>11</v>
+      </c>
+      <c r="BD172">
+        <v>1.4</v>
+      </c>
+      <c r="BE172">
+        <v>6.75</v>
+      </c>
+      <c r="BF172">
+        <v>3.05</v>
+      </c>
+      <c r="BG172">
+        <v>1.3</v>
+      </c>
+      <c r="BH172">
+        <v>3.1</v>
+      </c>
+      <c r="BI172">
+        <v>1.52</v>
+      </c>
+      <c r="BJ172">
+        <v>2.32</v>
+      </c>
+      <c r="BK172">
+        <v>1.95</v>
+      </c>
+      <c r="BL172">
+        <v>1.85</v>
+      </c>
+      <c r="BM172">
+        <v>2.32</v>
+      </c>
+      <c r="BN172">
+        <v>1.52</v>
+      </c>
+      <c r="BO172">
+        <v>2.95</v>
+      </c>
+      <c r="BP172">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7727035</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>88</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>119</v>
+      </c>
+      <c r="P173" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q173">
+        <v>4.33</v>
+      </c>
+      <c r="R173">
+        <v>2.25</v>
+      </c>
+      <c r="S173">
+        <v>2.5</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.63</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>7</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>4.38</v>
+      </c>
+      <c r="AA173">
+        <v>3.65</v>
+      </c>
+      <c r="AB173">
+        <v>1.7</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>9.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.25</v>
+      </c>
+      <c r="AF173">
+        <v>3.8</v>
+      </c>
+      <c r="AG173">
+        <v>1.68</v>
+      </c>
+      <c r="AH173">
+        <v>2.05</v>
+      </c>
+      <c r="AI173">
+        <v>1.67</v>
+      </c>
+      <c r="AJ173">
+        <v>2.1</v>
+      </c>
+      <c r="AK173">
+        <v>1.85</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.25</v>
+      </c>
+      <c r="AN173">
+        <v>1.17</v>
+      </c>
+      <c r="AO173">
+        <v>2.14</v>
+      </c>
+      <c r="AP173">
+        <v>1.14</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1.32</v>
+      </c>
+      <c r="AS173">
+        <v>1.15</v>
+      </c>
+      <c r="AT173">
+        <v>2.47</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>4</v>
+      </c>
+      <c r="AX173">
+        <v>10</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>15</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>2.33</v>
+      </c>
+      <c r="BE173">
+        <v>6.4</v>
+      </c>
+      <c r="BF173">
+        <v>1.65</v>
+      </c>
+      <c r="BG173">
+        <v>1.25</v>
+      </c>
+      <c r="BH173">
+        <v>3.58</v>
+      </c>
+      <c r="BI173">
+        <v>1.45</v>
+      </c>
+      <c r="BJ173">
+        <v>2.55</v>
+      </c>
+      <c r="BK173">
+        <v>1.75</v>
+      </c>
+      <c r="BL173">
+        <v>1.96</v>
+      </c>
+      <c r="BM173">
+        <v>2.21</v>
+      </c>
+      <c r="BN173">
+        <v>1.59</v>
+      </c>
+      <c r="BO173">
+        <v>2.9</v>
+      </c>
+      <c r="BP173">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7727041</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F174">
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>71</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>212</v>
+      </c>
+      <c r="P174" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>2.2</v>
+      </c>
+      <c r="S174">
+        <v>3.5</v>
+      </c>
+      <c r="T174">
+        <v>1.4</v>
+      </c>
+      <c r="U174">
+        <v>2.75</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>8</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>2.25</v>
+      </c>
+      <c r="AA174">
+        <v>3.42</v>
+      </c>
+      <c r="AB174">
+        <v>2.83</v>
+      </c>
+      <c r="AC174">
+        <v>1.05</v>
+      </c>
+      <c r="AD174">
+        <v>9.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.28</v>
+      </c>
+      <c r="AF174">
+        <v>3.55</v>
+      </c>
+      <c r="AG174">
+        <v>1.8</v>
+      </c>
+      <c r="AH174">
+        <v>1.9</v>
+      </c>
+      <c r="AI174">
+        <v>1.75</v>
+      </c>
+      <c r="AJ174">
+        <v>2</v>
+      </c>
+      <c r="AK174">
+        <v>1.4</v>
+      </c>
+      <c r="AL174">
+        <v>1.25</v>
+      </c>
+      <c r="AM174">
+        <v>1.6</v>
+      </c>
+      <c r="AN174">
+        <v>1.75</v>
+      </c>
+      <c r="AO174">
+        <v>1.29</v>
+      </c>
+      <c r="AP174">
+        <v>1.89</v>
+      </c>
+      <c r="AQ174">
+        <v>1.13</v>
+      </c>
+      <c r="AR174">
+        <v>1.58</v>
+      </c>
+      <c r="AS174">
+        <v>1.07</v>
+      </c>
+      <c r="AT174">
+        <v>2.65</v>
+      </c>
+      <c r="AU174">
+        <v>8</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>7</v>
+      </c>
+      <c r="AY174">
+        <v>20</v>
+      </c>
+      <c r="AZ174">
+        <v>10</v>
+      </c>
+      <c r="BA174">
+        <v>8</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>1.78</v>
+      </c>
+      <c r="BE174">
+        <v>6.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.08</v>
+      </c>
+      <c r="BG174">
+        <v>1.27</v>
+      </c>
+      <c r="BH174">
+        <v>3.38</v>
+      </c>
+      <c r="BI174">
+        <v>1.49</v>
+      </c>
+      <c r="BJ174">
+        <v>2.44</v>
+      </c>
+      <c r="BK174">
+        <v>1.82</v>
+      </c>
+      <c r="BL174">
+        <v>1.88</v>
+      </c>
+      <c r="BM174">
+        <v>2.32</v>
+      </c>
+      <c r="BN174">
+        <v>1.54</v>
+      </c>
+      <c r="BO174">
+        <v>3.05</v>
+      </c>
+      <c r="BP174">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7727034</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F175">
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>77</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>96</v>
+      </c>
+      <c r="P175" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q175">
+        <v>2.75</v>
+      </c>
+      <c r="R175">
+        <v>2.2</v>
+      </c>
+      <c r="S175">
+        <v>4</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2.02</v>
+      </c>
+      <c r="AA175">
+        <v>3.32</v>
+      </c>
+      <c r="AB175">
+        <v>3.42</v>
+      </c>
+      <c r="AC175">
+        <v>1.05</v>
+      </c>
+      <c r="AD175">
+        <v>9</v>
+      </c>
+      <c r="AE175">
+        <v>1.28</v>
+      </c>
+      <c r="AF175">
+        <v>3.55</v>
+      </c>
+      <c r="AG175">
+        <v>1.8</v>
+      </c>
+      <c r="AH175">
+        <v>1.9</v>
+      </c>
+      <c r="AI175">
+        <v>1.7</v>
+      </c>
+      <c r="AJ175">
+        <v>2.05</v>
+      </c>
+      <c r="AK175">
+        <v>1.3</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.7</v>
+      </c>
+      <c r="AN175">
+        <v>1.86</v>
+      </c>
+      <c r="AO175">
+        <v>0.57</v>
+      </c>
+      <c r="AP175">
+        <v>1.75</v>
+      </c>
+      <c r="AQ175">
+        <v>0.63</v>
+      </c>
+      <c r="AR175">
+        <v>1.16</v>
+      </c>
+      <c r="AS175">
+        <v>1.38</v>
+      </c>
+      <c r="AT175">
+        <v>2.54</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>11</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>14</v>
+      </c>
+      <c r="BD175">
+        <v>1.7</v>
+      </c>
+      <c r="BE175">
+        <v>6.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.23</v>
+      </c>
+      <c r="BG175">
+        <v>1.23</v>
+      </c>
+      <c r="BH175">
+        <v>3.65</v>
+      </c>
+      <c r="BI175">
+        <v>1.36</v>
+      </c>
+      <c r="BJ175">
+        <v>2.88</v>
+      </c>
+      <c r="BK175">
+        <v>1.62</v>
+      </c>
+      <c r="BL175">
+        <v>2.16</v>
+      </c>
+      <c r="BM175">
+        <v>1.99</v>
+      </c>
+      <c r="BN175">
+        <v>1.72</v>
+      </c>
+      <c r="BO175">
+        <v>2.55</v>
+      </c>
+      <c r="BP175">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -36706,7 +36706,7 @@
         <v>45612.5</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G173" t="s">
         <v>88</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -36829,10 +36829,10 @@
         <v>2.47</v>
       </c>
       <c r="AU173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV173">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW173">
         <v>4</v>
@@ -36841,10 +36841,10 @@
         <v>10</v>
       </c>
       <c r="AY173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ173">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA173">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['61', '63']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -580,13 +583,13 @@
     <t>['8', '17', '28', '70', '73']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['3', '86']</t>
   </si>
   <si>
     <t>['34', '90+5']</t>
+  </si>
+  <si>
+    <t>['42', '66']</t>
   </si>
   <si>
     <t>['5', '45+5', '59']</t>
@@ -596,9 +599,6 @@
   </si>
   <si>
     <t>['16', '29', '55']</t>
-  </si>
-  <si>
-    <t>['42', '66']</t>
   </si>
   <si>
     <t>['16', '63']</t>
@@ -631,9 +631,6 @@
     <t>['10', '51']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['30', '47', '55', '62', '90']</t>
   </si>
   <si>
@@ -652,7 +649,16 @@
     <t>['42', '65']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['31', '38', '55']</t>
+  </si>
+  <si>
+    <t>['53', '90+4']</t>
   </si>
   <si>
     <t>['13', '18']</t>
@@ -847,6 +853,9 @@
     <t>['27', '90+2']</t>
   </si>
   <si>
+    <t>['29', '62']</t>
+  </si>
+  <si>
     <t>['16', '53', '81']</t>
   </si>
   <si>
@@ -859,16 +868,13 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['29', '62']</t>
-  </si>
-  <si>
     <t>['77', '90+3']</t>
   </si>
   <si>
-    <t>['45+2', '47']</t>
+    <t>['9']</t>
   </si>
   <si>
-    <t>['9']</t>
+    <t>['45+2', '47']</t>
   </si>
   <si>
     <t>['16', '72']</t>
@@ -890,6 +896,9 @@
   </si>
   <si>
     <t>['59', '68']</t>
+  </si>
+  <si>
+    <t>['44', '76']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1519,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1922,7 +1931,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2334,7 +2343,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2540,7 +2549,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2824,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3033,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3158,7 +3167,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3570,7 +3579,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3982,7 +3991,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4060,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4269,7 +4278,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4806,7 +4815,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4887,7 +4896,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5012,7 +5021,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5218,7 +5227,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5424,7 +5433,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5630,7 +5639,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5836,7 +5845,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6042,7 +6051,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6326,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -7484,7 +7493,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7690,7 +7699,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7771,7 +7780,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.32</v>
@@ -8102,7 +8111,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8514,7 +8523,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8595,7 +8604,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.53</v>
@@ -8720,7 +8729,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8926,7 +8935,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9416,7 +9425,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.63</v>
@@ -9750,7 +9759,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -10034,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -10162,7 +10171,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10368,7 +10377,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10780,7 +10789,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10858,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -11398,7 +11407,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -12222,7 +12231,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12428,7 +12437,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12712,7 +12721,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12840,7 +12849,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13124,7 +13133,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13458,7 +13467,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13539,7 +13548,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13664,7 +13673,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14076,7 +14085,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14154,7 +14163,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>1.14</v>
@@ -14282,7 +14291,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14900,7 +14909,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.05</v>
@@ -15106,7 +15115,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15312,7 +15321,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>1.83</v>
@@ -15724,7 +15733,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15805,7 +15814,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR71">
         <v>1.19</v>
@@ -15930,7 +15939,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>2.3</v>
@@ -16008,7 +16017,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>0.71</v>
@@ -16136,7 +16145,7 @@
         <v>96</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16217,7 +16226,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ73">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR73">
         <v>1.79</v>
@@ -16342,7 +16351,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16548,7 +16557,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>4.33</v>
@@ -16754,7 +16763,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>2.4</v>
@@ -16835,7 +16844,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.92</v>
@@ -16960,7 +16969,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17041,7 +17050,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
         <v>1.35</v>
@@ -17166,7 +17175,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17784,7 +17793,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18068,7 +18077,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ82">
         <v>0.75</v>
@@ -18274,7 +18283,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18814,7 +18823,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19020,7 +19029,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19432,7 +19441,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19638,7 +19647,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19844,7 +19853,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20050,7 +20059,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20540,7 +20549,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ94">
         <v>1.13</v>
@@ -20668,7 +20677,7 @@
         <v>159</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21080,7 +21089,7 @@
         <v>161</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>2.5</v>
@@ -21492,7 +21501,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21698,7 +21707,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21904,7 +21913,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22110,7 +22119,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>4.5</v>
@@ -22188,7 +22197,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
         <v>1.43</v>
@@ -22728,7 +22737,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>2.63</v>
@@ -22934,7 +22943,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -23221,7 +23230,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR107">
         <v>1.42</v>
@@ -23633,7 +23642,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ109">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.52</v>
@@ -23758,7 +23767,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -24045,7 +24054,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR111">
         <v>1.26</v>
@@ -24170,7 +24179,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24376,7 +24385,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>1.91</v>
@@ -24454,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113">
         <v>0.5</v>
@@ -24994,7 +25003,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25200,7 +25209,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25406,7 +25415,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25484,7 +25493,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ118">
         <v>1.43</v>
@@ -26105,7 +26114,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ121">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26436,7 +26445,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26517,7 +26526,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ123">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR123">
         <v>1.41</v>
@@ -26642,7 +26651,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -26848,7 +26857,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27338,7 +27347,7 @@
         <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
         <v>0.43</v>
@@ -27466,7 +27475,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27836,7 +27845,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7727007</v>
+        <v>7727006</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27851,82 +27860,82 @@
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H130" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O130" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="Q130">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R130">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T130">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U130">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V130">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="W130">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X130">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="Y130">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z130">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA130">
         <v>3.3</v>
       </c>
       <c r="AB130">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="AC130">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD130">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE130">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF130">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG130">
         <v>1.8</v>
@@ -27935,106 +27944,106 @@
         <v>1.9</v>
       </c>
       <c r="AI130">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AJ130">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK130">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AL130">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM130">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN130">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO130">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AR130">
-        <v>1.61</v>
+        <v>0.95</v>
       </c>
       <c r="AS130">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT130">
-        <v>2.87</v>
+        <v>2.14</v>
       </c>
       <c r="AU130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>10</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>24</v>
+      </c>
+      <c r="AZ130">
+        <v>5</v>
+      </c>
+      <c r="BA130">
         <v>4</v>
       </c>
-      <c r="AW130">
-        <v>3</v>
-      </c>
-      <c r="AX130">
-        <v>3</v>
-      </c>
-      <c r="AY130">
-        <v>6</v>
-      </c>
-      <c r="AZ130">
-        <v>10</v>
-      </c>
-      <c r="BA130">
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
         <v>5</v>
       </c>
-      <c r="BB130">
-        <v>3</v>
-      </c>
-      <c r="BC130">
-        <v>8</v>
-      </c>
       <c r="BD130">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="BE130">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF130">
         <v>2.07</v>
       </c>
       <c r="BG130">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BH130">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="BI130">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BJ130">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="BK130">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BL130">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="BM130">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BN130">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BO130">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP130">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28081,7 +28090,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P131" t="s">
         <v>96</v>
@@ -28287,10 +28296,10 @@
         <v>5</v>
       </c>
       <c r="O132" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28493,7 +28502,7 @@
         <v>3</v>
       </c>
       <c r="O133" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P133" t="s">
         <v>96</v>
@@ -28702,7 +28711,7 @@
         <v>99</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28905,10 +28914,10 @@
         <v>6</v>
       </c>
       <c r="O135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28989,7 +28998,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.19</v>
@@ -29114,7 +29123,7 @@
         <v>96</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>2.3</v>
@@ -29192,7 +29201,7 @@
         <v>0</v>
       </c>
       <c r="AP136">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
         <v>0.43</v>
@@ -29320,7 +29329,7 @@
         <v>103</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>2.05</v>
@@ -29484,7 +29493,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7727006</v>
+        <v>7727007</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29499,82 +29508,82 @@
         <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O138" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="Q138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R138">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T138">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U138">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="V138">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="W138">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X138">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="Y138">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z138">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AA138">
         <v>3.3</v>
       </c>
       <c r="AB138">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AC138">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD138">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE138">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AG138">
         <v>1.8</v>
@@ -29583,106 +29592,106 @@
         <v>1.9</v>
       </c>
       <c r="AI138">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ138">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK138">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AL138">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM138">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN138">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO138">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP138">
+        <v>2.71</v>
+      </c>
+      <c r="AQ138">
         <v>1.14</v>
       </c>
-      <c r="AQ138">
-        <v>2</v>
-      </c>
       <c r="AR138">
-        <v>0.95</v>
+        <v>1.61</v>
       </c>
       <c r="AS138">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT138">
-        <v>2.14</v>
+        <v>2.87</v>
       </c>
       <c r="AU138">
+        <v>2</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>6</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
         <v>5</v>
       </c>
-      <c r="AV138">
-        <v>3</v>
-      </c>
-      <c r="AW138">
-        <v>10</v>
-      </c>
-      <c r="AX138">
-        <v>2</v>
-      </c>
-      <c r="AY138">
-        <v>24</v>
-      </c>
-      <c r="AZ138">
-        <v>5</v>
-      </c>
-      <c r="BA138">
-        <v>4</v>
-      </c>
       <c r="BB138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC138">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD138">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="BE138">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF138">
         <v>2.07</v>
       </c>
       <c r="BG138">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="BH138">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="BI138">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="BJ138">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="BK138">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="BL138">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="BM138">
-        <v>2.33</v>
+        <v>2.02</v>
       </c>
       <c r="BN138">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BO138">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BP138">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29938,7 +29947,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30308,7 +30317,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7727014</v>
+        <v>7727016</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30323,70 +30332,70 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>1</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="Q142">
+        <v>2.3</v>
+      </c>
+      <c r="R142">
+        <v>2.38</v>
+      </c>
+      <c r="S142">
+        <v>4.5</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.4</v>
+      </c>
+      <c r="V142">
+        <v>2.5</v>
+      </c>
+      <c r="W142">
+        <v>1.5</v>
+      </c>
+      <c r="X142">
+        <v>6</v>
+      </c>
+      <c r="Y142">
+        <v>1.13</v>
+      </c>
+      <c r="Z142">
+        <v>1.73</v>
+      </c>
+      <c r="AA142">
+        <v>3.8</v>
+      </c>
+      <c r="AB142">
         <v>4.33</v>
-      </c>
-      <c r="R142">
-        <v>2.4</v>
-      </c>
-      <c r="S142">
-        <v>2.3</v>
-      </c>
-      <c r="T142">
-        <v>1.29</v>
-      </c>
-      <c r="U142">
-        <v>3.5</v>
-      </c>
-      <c r="V142">
-        <v>2.38</v>
-      </c>
-      <c r="W142">
-        <v>1.53</v>
-      </c>
-      <c r="X142">
-        <v>5.5</v>
-      </c>
-      <c r="Y142">
-        <v>1.14</v>
-      </c>
-      <c r="Z142">
-        <v>3.1</v>
-      </c>
-      <c r="AA142">
-        <v>3.4</v>
-      </c>
-      <c r="AB142">
-        <v>2.15</v>
       </c>
       <c r="AC142">
         <v>1.02</v>
@@ -30401,112 +30410,112 @@
         <v>4.2</v>
       </c>
       <c r="AG142">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="AH142">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AI142">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ142">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK142">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="AL142">
         <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.22</v>
+        <v>2.05</v>
       </c>
       <c r="AN142">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AO142">
-        <v>2.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.71</v>
+        <v>2.57</v>
       </c>
       <c r="AQ142">
-        <v>2.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR142">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS142">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT142">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AU142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV142">
         <v>5</v>
       </c>
       <c r="AW142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX142">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY142">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ142">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC142">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD142">
-        <v>2.48</v>
+        <v>1.49</v>
       </c>
       <c r="BE142">
         <v>6.75</v>
       </c>
       <c r="BF142">
-        <v>1.57</v>
+        <v>2.65</v>
       </c>
       <c r="BG142">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BH142">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="BI142">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BJ142">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BK142">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="BL142">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="BM142">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN142">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="BO142">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BP142">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30514,7 +30523,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7727016</v>
+        <v>7727014</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30529,70 +30538,70 @@
         <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143">
         <v>1</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O143" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q143">
+        <v>4.33</v>
+      </c>
+      <c r="R143">
+        <v>2.4</v>
+      </c>
+      <c r="S143">
         <v>2.3</v>
       </c>
-      <c r="R143">
+      <c r="T143">
+        <v>1.29</v>
+      </c>
+      <c r="U143">
+        <v>3.5</v>
+      </c>
+      <c r="V143">
         <v>2.38</v>
       </c>
-      <c r="S143">
-        <v>4.5</v>
-      </c>
-      <c r="T143">
-        <v>1.3</v>
-      </c>
-      <c r="U143">
+      <c r="W143">
+        <v>1.53</v>
+      </c>
+      <c r="X143">
+        <v>5.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.14</v>
+      </c>
+      <c r="Z143">
+        <v>3.1</v>
+      </c>
+      <c r="AA143">
         <v>3.4</v>
       </c>
-      <c r="V143">
-        <v>2.5</v>
-      </c>
-      <c r="W143">
-        <v>1.5</v>
-      </c>
-      <c r="X143">
-        <v>6</v>
-      </c>
-      <c r="Y143">
-        <v>1.13</v>
-      </c>
-      <c r="Z143">
-        <v>1.73</v>
-      </c>
-      <c r="AA143">
-        <v>3.8</v>
-      </c>
       <c r="AB143">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="AC143">
         <v>1.02</v>
@@ -30607,112 +30616,112 @@
         <v>4.2</v>
       </c>
       <c r="AG143">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AH143">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AI143">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ143">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK143">
-        <v>1.22</v>
+        <v>2.05</v>
       </c>
       <c r="AL143">
         <v>1.2</v>
       </c>
       <c r="AM143">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="AN143">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO143">
-        <v>0.67</v>
+        <v>2.4</v>
       </c>
       <c r="AP143">
-        <v>2.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ143">
-        <v>0.57</v>
+        <v>1.86</v>
       </c>
       <c r="AR143">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS143">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT143">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AU143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV143">
         <v>5</v>
       </c>
       <c r="AW143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX143">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY143">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ143">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB143">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC143">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD143">
-        <v>1.49</v>
+        <v>2.48</v>
       </c>
       <c r="BE143">
         <v>6.75</v>
       </c>
       <c r="BF143">
-        <v>2.65</v>
+        <v>1.57</v>
       </c>
       <c r="BG143">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BH143">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BI143">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BJ143">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BK143">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="BL143">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="BM143">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN143">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="BO143">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BP143">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30720,7 +30729,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7727019</v>
+        <v>7727013</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30732,28 +30741,28 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F144">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144">
         <v>2</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144">
         <v>3</v>
@@ -30762,43 +30771,43 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="Q144">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R144">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S144">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T144">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>2.6</v>
+      </c>
+      <c r="AA144">
         <v>3.25</v>
       </c>
-      <c r="V144">
-        <v>2.5</v>
-      </c>
-      <c r="W144">
-        <v>1.5</v>
-      </c>
-      <c r="X144">
-        <v>6</v>
-      </c>
-      <c r="Y144">
-        <v>1.13</v>
-      </c>
-      <c r="Z144">
-        <v>1.93</v>
-      </c>
-      <c r="AA144">
-        <v>3.4</v>
-      </c>
       <c r="AB144">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC144">
         <v>1.05</v>
@@ -30813,46 +30822,46 @@
         <v>3.3</v>
       </c>
       <c r="AG144">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="AH144">
+        <v>1.85</v>
+      </c>
+      <c r="AI144">
+        <v>1.7</v>
+      </c>
+      <c r="AJ144">
         <v>2.05</v>
       </c>
-      <c r="AI144">
-        <v>1.62</v>
-      </c>
-      <c r="AJ144">
-        <v>2.2</v>
-      </c>
       <c r="AK144">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AL144">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM144">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="AN144">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AO144">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ144">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR144">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>0.98</v>
+        <v>1.33</v>
       </c>
       <c r="AT144">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -30861,64 +30870,64 @@
         <v>3</v>
       </c>
       <c r="AW144">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY144">
+        <v>13</v>
+      </c>
+      <c r="AZ144">
+        <v>7</v>
+      </c>
+      <c r="BA144">
+        <v>11</v>
+      </c>
+      <c r="BB144">
+        <v>4</v>
+      </c>
+      <c r="BC144">
         <v>15</v>
       </c>
-      <c r="AZ144">
-        <v>5</v>
-      </c>
-      <c r="BA144">
-        <v>2</v>
-      </c>
-      <c r="BB144">
-        <v>6</v>
-      </c>
-      <c r="BC144">
-        <v>8</v>
-      </c>
       <c r="BD144">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="BE144">
         <v>6.4</v>
       </c>
       <c r="BF144">
-        <v>2.33</v>
+        <v>1.98</v>
       </c>
       <c r="BG144">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH144">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI144">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="BJ144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BK144">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BL144">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="BM144">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="BN144">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BO144">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP144">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30926,7 +30935,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7727018</v>
+        <v>7727019</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30938,46 +30947,46 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O145" t="s">
+        <v>192</v>
+      </c>
+      <c r="P145" t="s">
         <v>96</v>
       </c>
-      <c r="P145" t="s">
-        <v>283</v>
-      </c>
       <c r="Q145">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R145">
         <v>2.3</v>
       </c>
       <c r="S145">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T145">
         <v>1.33</v>
@@ -30986,43 +30995,43 @@
         <v>3.25</v>
       </c>
       <c r="V145">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W145">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X145">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y145">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z145">
-        <v>3.8</v>
+        <v>1.93</v>
       </c>
       <c r="AA145">
         <v>3.4</v>
       </c>
       <c r="AB145">
-        <v>1.93</v>
+        <v>3.8</v>
       </c>
       <c r="AC145">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD145">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE145">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AG145">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AH145">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AI145">
         <v>1.62</v>
@@ -31031,100 +31040,100 @@
         <v>2.2</v>
       </c>
       <c r="AK145">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="AL145">
         <v>1.25</v>
       </c>
       <c r="AM145">
-        <v>1.3</v>
+        <v>1.87</v>
       </c>
       <c r="AN145">
-        <v>0.67</v>
+        <v>2.4</v>
       </c>
       <c r="AO145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.57</v>
+        <v>2.5</v>
       </c>
       <c r="AQ145">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AR145">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="AS145">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT145">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
       <c r="AU145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY145">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AZ145">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB145">
+        <v>6</v>
+      </c>
+      <c r="BC145">
         <v>8</v>
       </c>
-      <c r="BC145">
-        <v>12</v>
-      </c>
       <c r="BD145">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="BE145">
         <v>6.4</v>
       </c>
       <c r="BF145">
-        <v>1.79</v>
+        <v>2.33</v>
       </c>
       <c r="BG145">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BH145">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="BI145">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="BJ145">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BK145">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BL145">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="BM145">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="BN145">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BO145">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP145">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31132,7 +31141,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7727017</v>
+        <v>7727018</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31144,193 +31153,193 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F146">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N146">
         <v>2</v>
       </c>
       <c r="O146" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>2.5</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
         <v>2.63</v>
       </c>
-      <c r="R146">
-        <v>2.1</v>
-      </c>
-      <c r="S146">
-        <v>4.5</v>
-      </c>
-      <c r="T146">
+      <c r="W146">
         <v>1.44</v>
       </c>
-      <c r="U146">
-        <v>2.63</v>
-      </c>
-      <c r="V146">
-        <v>3.25</v>
-      </c>
-      <c r="W146">
-        <v>1.33</v>
-      </c>
       <c r="X146">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y146">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z146">
-        <v>1.93</v>
+        <v>3.8</v>
       </c>
       <c r="AA146">
         <v>3.4</v>
       </c>
       <c r="AB146">
-        <v>3.9</v>
+        <v>1.93</v>
       </c>
       <c r="AC146">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AD146">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE146">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AF146">
-        <v>2.37</v>
+        <v>3.75</v>
       </c>
       <c r="AG146">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="AH146">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AI146">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AJ146">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK146">
+        <v>1.78</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
         <v>1.3</v>
       </c>
-      <c r="AL146">
-        <v>1.28</v>
-      </c>
-      <c r="AM146">
-        <v>1.72</v>
-      </c>
       <c r="AN146">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO146">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AP146">
-        <v>1.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ146">
-        <v>0.71</v>
+        <v>2</v>
       </c>
       <c r="AR146">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AS146">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT146">
-        <v>2.74</v>
+        <v>2.15</v>
       </c>
       <c r="AU146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV146">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>2</v>
+      </c>
+      <c r="AY146">
         <v>4</v>
       </c>
-      <c r="AX146">
-        <v>2</v>
-      </c>
-      <c r="AY146">
-        <v>14</v>
-      </c>
       <c r="AZ146">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB146">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC146">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD146">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="BE146">
         <v>6.4</v>
       </c>
       <c r="BF146">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="BG146">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH146">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BI146">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="BJ146">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BK146">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="BL146">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="BM146">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BN146">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="BO146">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BP146">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31338,7 +31347,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7727015</v>
+        <v>7727017</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31353,28 +31362,28 @@
         <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M147">
         <v>0</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O147" t="s">
         <v>193</v>
@@ -31383,160 +31392,160 @@
         <v>96</v>
       </c>
       <c r="Q147">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R147">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S147">
+        <v>4.5</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>1.93</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>3.9</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>8.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.53</v>
+      </c>
+      <c r="AF147">
+        <v>2.37</v>
+      </c>
+      <c r="AG147">
+        <v>2.05</v>
+      </c>
+      <c r="AH147">
+        <v>1.68</v>
+      </c>
+      <c r="AI147">
+        <v>1.95</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>1.3</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.72</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>0.83</v>
+      </c>
+      <c r="AP147">
+        <v>1.57</v>
+      </c>
+      <c r="AQ147">
+        <v>0.71</v>
+      </c>
+      <c r="AR147">
+        <v>1.62</v>
+      </c>
+      <c r="AS147">
+        <v>1.12</v>
+      </c>
+      <c r="AT147">
+        <v>2.74</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>2</v>
+      </c>
+      <c r="AW147">
         <v>4</v>
       </c>
-      <c r="T147">
-        <v>1.33</v>
-      </c>
-      <c r="U147">
-        <v>3.25</v>
-      </c>
-      <c r="V147">
-        <v>2.5</v>
-      </c>
-      <c r="W147">
-        <v>1.5</v>
-      </c>
-      <c r="X147">
-        <v>6.5</v>
-      </c>
-      <c r="Y147">
-        <v>1.11</v>
-      </c>
-      <c r="Z147">
-        <v>1.98</v>
-      </c>
-      <c r="AA147">
-        <v>3.5</v>
-      </c>
-      <c r="AB147">
-        <v>3.6</v>
-      </c>
-      <c r="AC147">
-        <v>1.03</v>
-      </c>
-      <c r="AD147">
-        <v>13</v>
-      </c>
-      <c r="AE147">
-        <v>1.25</v>
-      </c>
-      <c r="AF147">
-        <v>3.75</v>
-      </c>
-      <c r="AG147">
-        <v>1.68</v>
-      </c>
-      <c r="AH147">
-        <v>2.05</v>
-      </c>
-      <c r="AI147">
-        <v>1.62</v>
-      </c>
-      <c r="AJ147">
-        <v>2.2</v>
-      </c>
-      <c r="AK147">
-        <v>1.33</v>
-      </c>
-      <c r="AL147">
-        <v>1.22</v>
-      </c>
-      <c r="AM147">
-        <v>1.78</v>
-      </c>
-      <c r="AN147">
-        <v>1.17</v>
-      </c>
-      <c r="AO147">
-        <v>0.6</v>
-      </c>
-      <c r="AP147">
-        <v>1.43</v>
-      </c>
-      <c r="AQ147">
-        <v>0.63</v>
-      </c>
-      <c r="AR147">
-        <v>1.26</v>
-      </c>
-      <c r="AS147">
-        <v>1.5</v>
-      </c>
-      <c r="AT147">
-        <v>2.76</v>
-      </c>
-      <c r="AU147">
-        <v>5</v>
-      </c>
-      <c r="AV147">
-        <v>4</v>
-      </c>
-      <c r="AW147">
-        <v>5</v>
-      </c>
       <c r="AX147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY147">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA147">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
         <v>9</v>
       </c>
-      <c r="BC147">
-        <v>17</v>
-      </c>
       <c r="BD147">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BE147">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF147">
+        <v>2.4</v>
+      </c>
+      <c r="BG147">
+        <v>1.27</v>
+      </c>
+      <c r="BH147">
+        <v>3.3</v>
+      </c>
+      <c r="BI147">
+        <v>1.47</v>
+      </c>
+      <c r="BJ147">
         <v>2.48</v>
       </c>
-      <c r="BG147">
-        <v>1.33</v>
-      </c>
-      <c r="BH147">
-        <v>2.95</v>
-      </c>
-      <c r="BI147">
-        <v>1.56</v>
-      </c>
-      <c r="BJ147">
-        <v>2.23</v>
-      </c>
       <c r="BK147">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="BL147">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="BM147">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BN147">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BO147">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="BP147">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31544,7 +31553,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7727013</v>
+        <v>7727015</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31556,28 +31565,28 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H148" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>2</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
         <v>3</v>
@@ -31586,151 +31595,151 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="Q148">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R148">
+        <v>2.3</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.5</v>
+      </c>
+      <c r="W148">
+        <v>1.5</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.98</v>
+      </c>
+      <c r="AA148">
+        <v>3.5</v>
+      </c>
+      <c r="AB148">
+        <v>3.6</v>
+      </c>
+      <c r="AC148">
+        <v>1.03</v>
+      </c>
+      <c r="AD148">
+        <v>13</v>
+      </c>
+      <c r="AE148">
+        <v>1.25</v>
+      </c>
+      <c r="AF148">
+        <v>3.75</v>
+      </c>
+      <c r="AG148">
+        <v>1.68</v>
+      </c>
+      <c r="AH148">
+        <v>2.05</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
         <v>2.2</v>
       </c>
-      <c r="S148">
-        <v>3.25</v>
-      </c>
-      <c r="T148">
-        <v>1.4</v>
-      </c>
-      <c r="U148">
-        <v>2.75</v>
-      </c>
-      <c r="V148">
-        <v>2.75</v>
-      </c>
-      <c r="W148">
-        <v>1.4</v>
-      </c>
-      <c r="X148">
-        <v>8</v>
-      </c>
-      <c r="Y148">
-        <v>1.08</v>
-      </c>
-      <c r="Z148">
-        <v>2.6</v>
-      </c>
-      <c r="AA148">
-        <v>3.25</v>
-      </c>
-      <c r="AB148">
-        <v>2.6</v>
-      </c>
-      <c r="AC148">
-        <v>1.05</v>
-      </c>
-      <c r="AD148">
-        <v>10</v>
-      </c>
-      <c r="AE148">
+      <c r="AK148">
         <v>1.33</v>
       </c>
-      <c r="AF148">
-        <v>3.3</v>
-      </c>
-      <c r="AG148">
-        <v>1.83</v>
-      </c>
-      <c r="AH148">
-        <v>1.85</v>
-      </c>
-      <c r="AI148">
-        <v>1.7</v>
-      </c>
-      <c r="AJ148">
-        <v>2.05</v>
-      </c>
-      <c r="AK148">
-        <v>1.45</v>
-      </c>
       <c r="AL148">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM148">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="AN148">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AO148">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AQ148">
-        <v>1.43</v>
+        <v>0.63</v>
       </c>
       <c r="AR148">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT148">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW148">
         <v>5</v>
       </c>
       <c r="AX148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY148">
         <v>13</v>
       </c>
       <c r="AZ148">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA148">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB148">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC148">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD148">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BE148">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF148">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="BG148">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BH148">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BI148">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="BJ148">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="BK148">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="BL148">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="BM148">
         <v>2.4</v>
@@ -31998,7 +32007,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32488,7 +32497,7 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32616,7 +32625,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -33028,7 +33037,7 @@
         <v>109</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3.5</v>
@@ -33106,7 +33115,7 @@
         <v>1.8</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ155">
         <v>1.71</v>
@@ -33234,7 +33243,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33646,7 +33655,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34428,7 +34437,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7727022</v>
+        <v>7727021</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34440,22 +34449,22 @@
         <v>45605.5</v>
       </c>
       <c r="F162">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H162" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -34467,166 +34476,166 @@
         <v>2</v>
       </c>
       <c r="O162" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="Q162">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="R162">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="S162">
-        <v>2.88</v>
+        <v>9</v>
       </c>
       <c r="T162">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U162">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V162">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W162">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X162">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y162">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z162">
-        <v>3.1</v>
+        <v>1.22</v>
       </c>
       <c r="AA162">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB162">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="AC162">
+        <v>1.02</v>
+      </c>
+      <c r="AD162">
+        <v>19</v>
+      </c>
+      <c r="AE162">
+        <v>1.18</v>
+      </c>
+      <c r="AF162">
+        <v>4.75</v>
+      </c>
+      <c r="AG162">
+        <v>1.54</v>
+      </c>
+      <c r="AH162">
+        <v>2.32</v>
+      </c>
+      <c r="AI162">
+        <v>2.05</v>
+      </c>
+      <c r="AJ162">
+        <v>1.7</v>
+      </c>
+      <c r="AK162">
+        <v>1.04</v>
+      </c>
+      <c r="AL162">
+        <v>1.12</v>
+      </c>
+      <c r="AM162">
+        <v>3.95</v>
+      </c>
+      <c r="AN162">
+        <v>2.67</v>
+      </c>
+      <c r="AO162">
+        <v>0.83</v>
+      </c>
+      <c r="AP162">
+        <v>2.43</v>
+      </c>
+      <c r="AQ162">
+        <v>0.88</v>
+      </c>
+      <c r="AR162">
+        <v>1.64</v>
+      </c>
+      <c r="AS162">
         <v>1.05</v>
       </c>
-      <c r="AD162">
-        <v>11</v>
-      </c>
-      <c r="AE162">
-        <v>1.3</v>
-      </c>
-      <c r="AF162">
-        <v>3.4</v>
-      </c>
-      <c r="AG162">
-        <v>1.9</v>
-      </c>
-      <c r="AH162">
-        <v>1.8</v>
-      </c>
-      <c r="AI162">
-        <v>1.75</v>
-      </c>
-      <c r="AJ162">
-        <v>2</v>
-      </c>
-      <c r="AK162">
-        <v>1.63</v>
-      </c>
-      <c r="AL162">
-        <v>1.28</v>
-      </c>
-      <c r="AM162">
-        <v>1.38</v>
-      </c>
-      <c r="AN162">
-        <v>2</v>
-      </c>
-      <c r="AO162">
-        <v>1.83</v>
-      </c>
-      <c r="AP162">
-        <v>1.75</v>
-      </c>
-      <c r="AQ162">
-        <v>1.63</v>
-      </c>
-      <c r="AR162">
-        <v>1.2</v>
-      </c>
-      <c r="AS162">
-        <v>1</v>
-      </c>
       <c r="AT162">
-        <v>2.2</v>
+        <v>2.69</v>
       </c>
       <c r="AU162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV162">
         <v>4</v>
       </c>
       <c r="AW162">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY162">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AZ162">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA162">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC162">
         <v>12</v>
       </c>
       <c r="BD162">
-        <v>2.07</v>
+        <v>1.23</v>
       </c>
       <c r="BE162">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF162">
-        <v>1.82</v>
+        <v>4.1</v>
       </c>
       <c r="BG162">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH162">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI162">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ162">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="BK162">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="BL162">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="BM162">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="BN162">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="BO162">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP162">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34676,7 +34685,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34879,7 +34888,7 @@
         <v>5</v>
       </c>
       <c r="O164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P164" t="s">
         <v>96</v>
@@ -35085,10 +35094,10 @@
         <v>2</v>
       </c>
       <c r="O165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35166,7 +35175,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ165">
         <v>0.71</v>
@@ -35291,7 +35300,7 @@
         <v>7</v>
       </c>
       <c r="O166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P166" t="s">
         <v>197</v>
@@ -35497,7 +35506,7 @@
         <v>3</v>
       </c>
       <c r="O167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P167" t="s">
         <v>96</v>
@@ -35581,7 +35590,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR167">
         <v>1.35</v>
@@ -35664,7 +35673,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7727021</v>
+        <v>7727025</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35679,10 +35688,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H168" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -35697,172 +35706,172 @@
         <v>1</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O168" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="Q168">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="R168">
+        <v>2.1</v>
+      </c>
+      <c r="S168">
+        <v>3.4</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
         <v>2.63</v>
       </c>
-      <c r="S168">
+      <c r="V168">
+        <v>3.25</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
         <v>9</v>
       </c>
-      <c r="T168">
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>2.5</v>
+      </c>
+      <c r="AA168">
+        <v>3.4</v>
+      </c>
+      <c r="AB168">
+        <v>2.7</v>
+      </c>
+      <c r="AC168">
+        <v>1.05</v>
+      </c>
+      <c r="AD168">
+        <v>11</v>
+      </c>
+      <c r="AE168">
+        <v>1.33</v>
+      </c>
+      <c r="AF168">
+        <v>3.25</v>
+      </c>
+      <c r="AG168">
+        <v>2</v>
+      </c>
+      <c r="AH168">
+        <v>1.72</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.95</v>
+      </c>
+      <c r="AK168">
+        <v>1.45</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.55</v>
+      </c>
+      <c r="AN168">
+        <v>1.8</v>
+      </c>
+      <c r="AO168">
+        <v>1.17</v>
+      </c>
+      <c r="AP168">
+        <v>1.86</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1.49</v>
+      </c>
+      <c r="AS168">
+        <v>1.1</v>
+      </c>
+      <c r="AT168">
+        <v>2.59</v>
+      </c>
+      <c r="AU168">
+        <v>3</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>14</v>
+      </c>
+      <c r="AZ168">
+        <v>13</v>
+      </c>
+      <c r="BA168">
+        <v>13</v>
+      </c>
+      <c r="BB168">
+        <v>8</v>
+      </c>
+      <c r="BC168">
+        <v>21</v>
+      </c>
+      <c r="BD168">
+        <v>1.7</v>
+      </c>
+      <c r="BE168">
+        <v>6.75</v>
+      </c>
+      <c r="BF168">
+        <v>2.23</v>
+      </c>
+      <c r="BG168">
+        <v>1.17</v>
+      </c>
+      <c r="BH168">
+        <v>4.35</v>
+      </c>
+      <c r="BI168">
         <v>1.29</v>
       </c>
-      <c r="U168">
-        <v>3.5</v>
-      </c>
-      <c r="V168">
-        <v>2.25</v>
-      </c>
-      <c r="W168">
-        <v>1.57</v>
-      </c>
-      <c r="X168">
-        <v>5.5</v>
-      </c>
-      <c r="Y168">
-        <v>1.14</v>
-      </c>
-      <c r="Z168">
-        <v>1.22</v>
-      </c>
-      <c r="AA168">
-        <v>5.5</v>
-      </c>
-      <c r="AB168">
-        <v>12</v>
-      </c>
-      <c r="AC168">
-        <v>1.02</v>
-      </c>
-      <c r="AD168">
-        <v>19</v>
-      </c>
-      <c r="AE168">
-        <v>1.18</v>
-      </c>
-      <c r="AF168">
-        <v>4.75</v>
-      </c>
-      <c r="AG168">
-        <v>1.54</v>
-      </c>
-      <c r="AH168">
-        <v>2.32</v>
-      </c>
-      <c r="AI168">
-        <v>2.05</v>
-      </c>
-      <c r="AJ168">
-        <v>1.7</v>
-      </c>
-      <c r="AK168">
-        <v>1.04</v>
-      </c>
-      <c r="AL168">
-        <v>1.12</v>
-      </c>
-      <c r="AM168">
-        <v>3.95</v>
-      </c>
-      <c r="AN168">
-        <v>2.67</v>
-      </c>
-      <c r="AO168">
-        <v>0.83</v>
-      </c>
-      <c r="AP168">
+      <c r="BJ168">
+        <v>3.2</v>
+      </c>
+      <c r="BK168">
+        <v>1.47</v>
+      </c>
+      <c r="BL168">
         <v>2.43</v>
       </c>
-      <c r="AQ168">
-        <v>0.88</v>
-      </c>
-      <c r="AR168">
-        <v>1.64</v>
-      </c>
-      <c r="AS168">
-        <v>1.05</v>
-      </c>
-      <c r="AT168">
-        <v>2.69</v>
-      </c>
-      <c r="AU168">
-        <v>4</v>
-      </c>
-      <c r="AV168">
-        <v>4</v>
-      </c>
-      <c r="AW168">
-        <v>10</v>
-      </c>
-      <c r="AX168">
-        <v>1</v>
-      </c>
-      <c r="AY168">
-        <v>26</v>
-      </c>
-      <c r="AZ168">
-        <v>6</v>
-      </c>
-      <c r="BA168">
-        <v>10</v>
-      </c>
-      <c r="BB168">
-        <v>2</v>
-      </c>
-      <c r="BC168">
-        <v>12</v>
-      </c>
-      <c r="BD168">
-        <v>1.23</v>
-      </c>
-      <c r="BE168">
-        <v>7.5</v>
-      </c>
-      <c r="BF168">
-        <v>4.1</v>
-      </c>
-      <c r="BG168">
-        <v>1.3</v>
-      </c>
-      <c r="BH168">
-        <v>3.05</v>
-      </c>
-      <c r="BI168">
-        <v>1.52</v>
-      </c>
-      <c r="BJ168">
-        <v>2.33</v>
-      </c>
-      <c r="BK168">
-        <v>1.84</v>
-      </c>
-      <c r="BL168">
-        <v>1.84</v>
-      </c>
       <c r="BM168">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="BN168">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="BO168">
-        <v>2.9</v>
+        <v>2.17</v>
       </c>
       <c r="BP168">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -35870,7 +35879,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7727025</v>
+        <v>7727024</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35882,193 +35891,193 @@
         <v>45605.5</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H169" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O169" t="s">
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="Q169">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="R169">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S169">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.63</v>
+      </c>
+      <c r="W169">
         <v>1.44</v>
       </c>
-      <c r="U169">
-        <v>2.63</v>
-      </c>
-      <c r="V169">
-        <v>3.25</v>
-      </c>
-      <c r="W169">
-        <v>1.33</v>
-      </c>
       <c r="X169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y169">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z169">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AA169">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB169">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="AC169">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD169">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE169">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF169">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AG169">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AH169">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="AI169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
         <v>1.95</v>
       </c>
-      <c r="AK169">
-        <v>1.45</v>
-      </c>
       <c r="AL169">
+        <v>1.22</v>
+      </c>
+      <c r="AM169">
         <v>1.25</v>
       </c>
-      <c r="AM169">
-        <v>1.55</v>
-      </c>
       <c r="AN169">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO169">
         <v>1.17</v>
       </c>
       <c r="AP169">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR169">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="AS169">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AT169">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
       <c r="AU169">
         <v>3</v>
       </c>
       <c r="AV169">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW169">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY169">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AZ169">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA169">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BB169">
         <v>8</v>
       </c>
       <c r="BC169">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BD169">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="BE169">
         <v>6.75</v>
       </c>
       <c r="BF169">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="BG169">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="BH169">
-        <v>4.35</v>
+        <v>3.65</v>
       </c>
       <c r="BI169">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BJ169">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BK169">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="BL169">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
       <c r="BM169">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="BN169">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="BO169">
-        <v>2.17</v>
+        <v>2.55</v>
       </c>
       <c r="BP169">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -36076,7 +36085,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7727024</v>
+        <v>7727022</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36091,10 +36100,10 @@
         <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -36106,73 +36115,73 @@
         <v>1</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="Q170">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>2.88</v>
+      </c>
+      <c r="T170">
+        <v>1.4</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>8</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>3.1</v>
+      </c>
+      <c r="AA170">
+        <v>3.3</v>
+      </c>
+      <c r="AB170">
         <v>2.25</v>
       </c>
-      <c r="S170">
-        <v>2.5</v>
-      </c>
-      <c r="T170">
-        <v>1.36</v>
-      </c>
-      <c r="U170">
-        <v>3</v>
-      </c>
-      <c r="V170">
-        <v>2.63</v>
-      </c>
-      <c r="W170">
-        <v>1.44</v>
-      </c>
-      <c r="X170">
-        <v>7</v>
-      </c>
-      <c r="Y170">
-        <v>1.1</v>
-      </c>
-      <c r="Z170">
-        <v>4</v>
-      </c>
-      <c r="AA170">
-        <v>3.6</v>
-      </c>
-      <c r="AB170">
-        <v>1.85</v>
-      </c>
       <c r="AC170">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD170">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE170">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF170">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG170">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="AH170">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AI170">
         <v>1.75</v>
@@ -36181,100 +36190,100 @@
         <v>2</v>
       </c>
       <c r="AK170">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AL170">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM170">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO170">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ170">
-        <v>1.14</v>
+        <v>1.63</v>
       </c>
       <c r="AR170">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="AS170">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AT170">
+        <v>2.2</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>9</v>
+      </c>
+      <c r="AZ170">
+        <v>14</v>
+      </c>
+      <c r="BA170">
+        <v>6</v>
+      </c>
+      <c r="BB170">
+        <v>6</v>
+      </c>
+      <c r="BC170">
+        <v>12</v>
+      </c>
+      <c r="BD170">
+        <v>2.07</v>
+      </c>
+      <c r="BE170">
+        <v>6.4</v>
+      </c>
+      <c r="BF170">
+        <v>1.82</v>
+      </c>
+      <c r="BG170">
+        <v>1.27</v>
+      </c>
+      <c r="BH170">
+        <v>3.3</v>
+      </c>
+      <c r="BI170">
+        <v>1.47</v>
+      </c>
+      <c r="BJ170">
+        <v>2.43</v>
+      </c>
+      <c r="BK170">
+        <v>1.78</v>
+      </c>
+      <c r="BL170">
+        <v>1.9</v>
+      </c>
+      <c r="BM170">
         <v>2.23</v>
       </c>
-      <c r="AU170">
-        <v>3</v>
-      </c>
-      <c r="AV170">
-        <v>7</v>
-      </c>
-      <c r="AW170">
-        <v>0</v>
-      </c>
-      <c r="AX170">
-        <v>2</v>
-      </c>
-      <c r="AY170">
-        <v>4</v>
-      </c>
-      <c r="AZ170">
-        <v>12</v>
-      </c>
-      <c r="BA170">
-        <v>1</v>
-      </c>
-      <c r="BB170">
-        <v>8</v>
-      </c>
-      <c r="BC170">
-        <v>9</v>
-      </c>
-      <c r="BD170">
-        <v>2.55</v>
-      </c>
-      <c r="BE170">
-        <v>6.75</v>
-      </c>
-      <c r="BF170">
-        <v>1.55</v>
-      </c>
-      <c r="BG170">
-        <v>1.23</v>
-      </c>
-      <c r="BH170">
-        <v>3.65</v>
-      </c>
-      <c r="BI170">
-        <v>1.4</v>
-      </c>
-      <c r="BJ170">
-        <v>2.65</v>
-      </c>
-      <c r="BK170">
-        <v>1.65</v>
-      </c>
-      <c r="BL170">
-        <v>2.08</v>
-      </c>
-      <c r="BM170">
-        <v>2.02</v>
-      </c>
       <c r="BN170">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="BO170">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP170">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -36488,7 +36497,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7727033</v>
+        <v>7727034</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36503,10 +36512,10 @@
         <v>16</v>
       </c>
       <c r="G172" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H172" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -36533,160 +36542,160 @@
         <v>96</v>
       </c>
       <c r="Q172">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="R172">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S172">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T172">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V172">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W172">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X172">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y172">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z172">
-        <v>1.59</v>
+        <v>2.02</v>
       </c>
       <c r="AA172">
-        <v>4.07</v>
+        <v>3.32</v>
       </c>
       <c r="AB172">
-        <v>4.65</v>
+        <v>3.42</v>
       </c>
       <c r="AC172">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD172">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE172">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF172">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="AG172">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AH172">
+        <v>1.9</v>
+      </c>
+      <c r="AI172">
+        <v>1.7</v>
+      </c>
+      <c r="AJ172">
         <v>2.05</v>
       </c>
-      <c r="AI172">
-        <v>1.8</v>
-      </c>
-      <c r="AJ172">
-        <v>1.95</v>
-      </c>
       <c r="AK172">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AL172">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM172">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="AN172">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="AO172">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AP172">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ172">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR172">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AS172">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AT172">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
         <v>5</v>
       </c>
-      <c r="AV172">
-        <v>6</v>
-      </c>
-      <c r="AW172">
-        <v>9</v>
-      </c>
       <c r="AX172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY172">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ172">
         <v>14</v>
       </c>
       <c r="BA172">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB172">
         <v>6</v>
       </c>
       <c r="BC172">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD172">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="BE172">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF172">
-        <v>3.05</v>
+        <v>2.23</v>
       </c>
       <c r="BG172">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BH172">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="BI172">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="BJ172">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="BK172">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="BL172">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="BM172">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="BN172">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="BO172">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BP172">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36900,7 +36909,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7727041</v>
+        <v>7727033</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36915,187 +36924,187 @@
         <v>16</v>
       </c>
       <c r="G174" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H174" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174">
         <v>0</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="P174" t="s">
         <v>96</v>
       </c>
       <c r="Q174">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R174">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S174">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3.25</v>
+      </c>
+      <c r="V174">
+        <v>2.63</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>6.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.11</v>
+      </c>
+      <c r="Z174">
+        <v>1.59</v>
+      </c>
+      <c r="AA174">
+        <v>4.07</v>
+      </c>
+      <c r="AB174">
+        <v>4.65</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>10</v>
+      </c>
+      <c r="AE174">
+        <v>1.22</v>
+      </c>
+      <c r="AF174">
+        <v>4.2</v>
+      </c>
+      <c r="AG174">
+        <v>1.68</v>
+      </c>
+      <c r="AH174">
+        <v>2.05</v>
+      </c>
+      <c r="AI174">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.14</v>
+      </c>
+      <c r="AL174">
+        <v>1.18</v>
+      </c>
+      <c r="AM174">
+        <v>2.35</v>
+      </c>
+      <c r="AN174">
+        <v>1.29</v>
+      </c>
+      <c r="AO174">
+        <v>0.86</v>
+      </c>
+      <c r="AP174">
+        <v>1.25</v>
+      </c>
+      <c r="AQ174">
+        <v>0.88</v>
+      </c>
+      <c r="AR174">
+        <v>1.6</v>
+      </c>
+      <c r="AS174">
+        <v>1</v>
+      </c>
+      <c r="AT174">
+        <v>2.6</v>
+      </c>
+      <c r="AU174">
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>9</v>
+      </c>
+      <c r="AX174">
+        <v>4</v>
+      </c>
+      <c r="AY174">
+        <v>18</v>
+      </c>
+      <c r="AZ174">
+        <v>14</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>6</v>
+      </c>
+      <c r="BC174">
+        <v>11</v>
+      </c>
+      <c r="BD174">
         <v>1.4</v>
       </c>
-      <c r="U174">
-        <v>2.75</v>
-      </c>
-      <c r="V174">
-        <v>2.75</v>
-      </c>
-      <c r="W174">
-        <v>1.4</v>
-      </c>
-      <c r="X174">
-        <v>8</v>
-      </c>
-      <c r="Y174">
-        <v>1.08</v>
-      </c>
-      <c r="Z174">
-        <v>2.25</v>
-      </c>
-      <c r="AA174">
-        <v>3.42</v>
-      </c>
-      <c r="AB174">
-        <v>2.83</v>
-      </c>
-      <c r="AC174">
-        <v>1.05</v>
-      </c>
-      <c r="AD174">
-        <v>9.5</v>
-      </c>
-      <c r="AE174">
-        <v>1.28</v>
-      </c>
-      <c r="AF174">
-        <v>3.55</v>
-      </c>
-      <c r="AG174">
-        <v>1.8</v>
-      </c>
-      <c r="AH174">
-        <v>1.9</v>
-      </c>
-      <c r="AI174">
-        <v>1.75</v>
-      </c>
-      <c r="AJ174">
-        <v>2</v>
-      </c>
-      <c r="AK174">
-        <v>1.4</v>
-      </c>
-      <c r="AL174">
-        <v>1.25</v>
-      </c>
-      <c r="AM174">
-        <v>1.6</v>
-      </c>
-      <c r="AN174">
-        <v>1.75</v>
-      </c>
-      <c r="AO174">
-        <v>1.29</v>
-      </c>
-      <c r="AP174">
-        <v>1.89</v>
-      </c>
-      <c r="AQ174">
-        <v>1.13</v>
-      </c>
-      <c r="AR174">
-        <v>1.58</v>
-      </c>
-      <c r="AS174">
-        <v>1.07</v>
-      </c>
-      <c r="AT174">
-        <v>2.65</v>
-      </c>
-      <c r="AU174">
-        <v>8</v>
-      </c>
-      <c r="AV174">
-        <v>2</v>
-      </c>
-      <c r="AW174">
-        <v>8</v>
-      </c>
-      <c r="AX174">
-        <v>7</v>
-      </c>
-      <c r="AY174">
-        <v>20</v>
-      </c>
-      <c r="AZ174">
-        <v>10</v>
-      </c>
-      <c r="BA174">
-        <v>8</v>
-      </c>
-      <c r="BB174">
-        <v>2</v>
-      </c>
-      <c r="BC174">
-        <v>10</v>
-      </c>
-      <c r="BD174">
-        <v>1.78</v>
-      </c>
       <c r="BE174">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF174">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="BG174">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH174">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="BI174">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BJ174">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="BK174">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL174">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BM174">
         <v>2.32</v>
       </c>
       <c r="BN174">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="BO174">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BP174">
         <v>1.33</v>
@@ -37106,7 +37115,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7727034</v>
+        <v>7727041</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37121,49 +37130,49 @@
         <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H175" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="P175" t="s">
         <v>96</v>
       </c>
       <c r="Q175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R175">
         <v>2.2</v>
       </c>
       <c r="S175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T175">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U175">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V175">
         <v>2.75</v>
@@ -37178,19 +37187,19 @@
         <v>1.08</v>
       </c>
       <c r="Z175">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="AA175">
-        <v>3.32</v>
+        <v>3.42</v>
       </c>
       <c r="AB175">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="AC175">
         <v>1.05</v>
       </c>
       <c r="AD175">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE175">
         <v>1.28</v>
@@ -37205,106 +37214,724 @@
         <v>1.9</v>
       </c>
       <c r="AI175">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ175">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK175">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AL175">
         <v>1.25</v>
       </c>
       <c r="AM175">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AN175">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AO175">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AP175">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ175">
-        <v>0.63</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="AT175">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AU175">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW175">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY175">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ175">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA175">
         <v>8</v>
       </c>
       <c r="BB175">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC175">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD175">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="BE175">
         <v>6.5</v>
       </c>
       <c r="BF175">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BG175">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="BH175">
-        <v>3.65</v>
+        <v>3.38</v>
       </c>
       <c r="BI175">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="BJ175">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="BK175">
+        <v>1.82</v>
+      </c>
+      <c r="BL175">
+        <v>1.88</v>
+      </c>
+      <c r="BM175">
+        <v>2.32</v>
+      </c>
+      <c r="BN175">
+        <v>1.54</v>
+      </c>
+      <c r="BO175">
+        <v>3.05</v>
+      </c>
+      <c r="BP175">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7727053</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F176">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176" t="s">
+        <v>80</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+      <c r="O176" t="s">
+        <v>213</v>
+      </c>
+      <c r="P176" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q176">
+        <v>7.5</v>
+      </c>
+      <c r="R176">
+        <v>2.4</v>
+      </c>
+      <c r="S176">
+        <v>1.91</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.63</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>6.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>7.2</v>
+      </c>
+      <c r="AA176">
+        <v>4.33</v>
+      </c>
+      <c r="AB176">
+        <v>1.29</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>4.2</v>
+      </c>
+      <c r="AG176">
+        <v>1.75</v>
+      </c>
+      <c r="AH176">
+        <v>1.95</v>
+      </c>
+      <c r="AI176">
+        <v>2</v>
+      </c>
+      <c r="AJ176">
+        <v>1.75</v>
+      </c>
+      <c r="AK176">
+        <v>3</v>
+      </c>
+      <c r="AL176">
+        <v>1.14</v>
+      </c>
+      <c r="AM176">
+        <v>1.07</v>
+      </c>
+      <c r="AN176">
+        <v>0.57</v>
+      </c>
+      <c r="AO176">
+        <v>2.17</v>
+      </c>
+      <c r="AP176">
+        <v>0.88</v>
+      </c>
+      <c r="AQ176">
+        <v>1.86</v>
+      </c>
+      <c r="AR176">
+        <v>0.99</v>
+      </c>
+      <c r="AS176">
+        <v>1.18</v>
+      </c>
+      <c r="AT176">
+        <v>2.17</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>3</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>13</v>
+      </c>
+      <c r="BA176">
+        <v>1</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>3</v>
+      </c>
+      <c r="BD176">
+        <v>3.4</v>
+      </c>
+      <c r="BE176">
+        <v>7</v>
+      </c>
+      <c r="BF176">
+        <v>1.3</v>
+      </c>
+      <c r="BG176">
+        <v>1.21</v>
+      </c>
+      <c r="BH176">
+        <v>3.8</v>
+      </c>
+      <c r="BI176">
+        <v>1.4</v>
+      </c>
+      <c r="BJ176">
+        <v>2.7</v>
+      </c>
+      <c r="BK176">
+        <v>1.65</v>
+      </c>
+      <c r="BL176">
+        <v>2.07</v>
+      </c>
+      <c r="BM176">
+        <v>2</v>
+      </c>
+      <c r="BN176">
+        <v>1.71</v>
+      </c>
+      <c r="BO176">
+        <v>2.48</v>
+      </c>
+      <c r="BP176">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7727054</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F177">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>76</v>
+      </c>
+      <c r="H177" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>96</v>
+      </c>
+      <c r="P177" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q177">
+        <v>3.4</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
+        <v>1.53</v>
+      </c>
+      <c r="U177">
+        <v>2.38</v>
+      </c>
+      <c r="V177">
+        <v>3.75</v>
+      </c>
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>2.28</v>
+      </c>
+      <c r="AA177">
+        <v>2.86</v>
+      </c>
+      <c r="AB177">
+        <v>2.82</v>
+      </c>
+      <c r="AC177">
+        <v>1.09</v>
+      </c>
+      <c r="AD177">
+        <v>7.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.5</v>
+      </c>
+      <c r="AF177">
+        <v>2.4</v>
+      </c>
+      <c r="AG177">
+        <v>2.35</v>
+      </c>
+      <c r="AH177">
+        <v>1.53</v>
+      </c>
+      <c r="AI177">
+        <v>2</v>
+      </c>
+      <c r="AJ177">
+        <v>1.75</v>
+      </c>
+      <c r="AK177">
+        <v>1.42</v>
+      </c>
+      <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.52</v>
+      </c>
+      <c r="AN177">
+        <v>1.63</v>
+      </c>
+      <c r="AO177">
+        <v>0.86</v>
+      </c>
+      <c r="AP177">
+        <v>1.56</v>
+      </c>
+      <c r="AQ177">
+        <v>0.88</v>
+      </c>
+      <c r="AR177">
+        <v>1.11</v>
+      </c>
+      <c r="AS177">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT177">
+        <v>2.05</v>
+      </c>
+      <c r="AU177">
+        <v>2</v>
+      </c>
+      <c r="AV177">
+        <v>2</v>
+      </c>
+      <c r="AW177">
+        <v>2</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>5</v>
+      </c>
+      <c r="AZ177">
+        <v>4</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>9</v>
+      </c>
+      <c r="BD177">
+        <v>1.74</v>
+      </c>
+      <c r="BE177">
+        <v>6.4</v>
+      </c>
+      <c r="BF177">
+        <v>2.18</v>
+      </c>
+      <c r="BG177">
+        <v>1.34</v>
+      </c>
+      <c r="BH177">
+        <v>2.9</v>
+      </c>
+      <c r="BI177">
+        <v>1.58</v>
+      </c>
+      <c r="BJ177">
+        <v>2.2</v>
+      </c>
+      <c r="BK177">
+        <v>1.93</v>
+      </c>
+      <c r="BL177">
+        <v>1.76</v>
+      </c>
+      <c r="BM177">
+        <v>2.48</v>
+      </c>
+      <c r="BN177">
+        <v>1.47</v>
+      </c>
+      <c r="BO177">
+        <v>3.2</v>
+      </c>
+      <c r="BP177">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7727045</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>93</v>
+      </c>
+      <c r="H178" t="s">
+        <v>91</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>214</v>
+      </c>
+      <c r="P178" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q178">
+        <v>2.5</v>
+      </c>
+      <c r="R178">
+        <v>2.3</v>
+      </c>
+      <c r="S178">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>1.33</v>
+      </c>
+      <c r="U178">
+        <v>3.25</v>
+      </c>
+      <c r="V178">
+        <v>2.5</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>6</v>
+      </c>
+      <c r="Y178">
+        <v>1.13</v>
+      </c>
+      <c r="Z178">
+        <v>1.25</v>
+      </c>
+      <c r="AA178">
+        <v>7.85</v>
+      </c>
+      <c r="AB178">
+        <v>5.44</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>15</v>
+      </c>
+      <c r="AE178">
+        <v>1.2</v>
+      </c>
+      <c r="AF178">
+        <v>4.33</v>
+      </c>
+      <c r="AG178">
         <v>1.62</v>
       </c>
-      <c r="BL175">
-        <v>2.16</v>
-      </c>
-      <c r="BM175">
-        <v>1.99</v>
-      </c>
-      <c r="BN175">
-        <v>1.72</v>
-      </c>
-      <c r="BO175">
-        <v>2.55</v>
-      </c>
-      <c r="BP175">
-        <v>1.45</v>
+      <c r="AH178">
+        <v>2.15</v>
+      </c>
+      <c r="AI178">
+        <v>1.57</v>
+      </c>
+      <c r="AJ178">
+        <v>2.25</v>
+      </c>
+      <c r="AK178">
+        <v>1.28</v>
+      </c>
+      <c r="AL178">
+        <v>1.22</v>
+      </c>
+      <c r="AM178">
+        <v>1.9</v>
+      </c>
+      <c r="AN178">
+        <v>1.57</v>
+      </c>
+      <c r="AO178">
+        <v>1</v>
+      </c>
+      <c r="AP178">
+        <v>1.75</v>
+      </c>
+      <c r="AQ178">
+        <v>0.88</v>
+      </c>
+      <c r="AR178">
+        <v>1.67</v>
+      </c>
+      <c r="AS178">
+        <v>1.3</v>
+      </c>
+      <c r="AT178">
+        <v>2.97</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>15</v>
+      </c>
+      <c r="AZ178">
+        <v>7</v>
+      </c>
+      <c r="BA178">
+        <v>1</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>4</v>
+      </c>
+      <c r="BD178">
+        <v>1.58</v>
+      </c>
+      <c r="BE178">
+        <v>6.75</v>
+      </c>
+      <c r="BF178">
+        <v>2.43</v>
+      </c>
+      <c r="BG178">
+        <v>1.21</v>
+      </c>
+      <c r="BH178">
+        <v>3.8</v>
+      </c>
+      <c r="BI178">
+        <v>1.38</v>
+      </c>
+      <c r="BJ178">
+        <v>2.75</v>
+      </c>
+      <c r="BK178">
+        <v>1.64</v>
+      </c>
+      <c r="BL178">
+        <v>2.1</v>
+      </c>
+      <c r="BM178">
+        <v>2</v>
+      </c>
+      <c r="BN178">
+        <v>1.71</v>
+      </c>
+      <c r="BO178">
+        <v>2.5</v>
+      </c>
+      <c r="BP178">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,15 @@
     <t>['53', '90+4']</t>
   </si>
   <si>
+    <t>['13', '63']</t>
+  </si>
+  <si>
+    <t>['14', '87']</t>
+  </si>
+  <si>
+    <t>['7', '25', '72']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -899,6 +908,18 @@
   </si>
   <si>
     <t>['44', '76']</t>
+  </si>
+  <si>
+    <t>['30', '42', '59']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['35', '43', '72']</t>
+  </si>
+  <si>
+    <t>['9', '23']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1540,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1597,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1803,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ3">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1931,7 +1952,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2012,7 +2033,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2218,7 +2239,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ5">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2343,7 +2364,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2421,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2549,7 +2570,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3039,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3167,7 +3188,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3245,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ10">
         <v>1.63</v>
@@ -3579,7 +3600,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3660,7 +3681,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3866,7 +3887,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3991,7 +4012,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4484,7 +4505,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4690,7 +4711,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4815,7 +4836,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5021,7 +5042,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5099,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5227,7 +5248,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5433,7 +5454,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5511,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5639,7 +5660,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5717,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>0.71</v>
@@ -5845,7 +5866,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5926,7 +5947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6051,7 +6072,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6129,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.43</v>
@@ -6544,7 +6565,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6747,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ27">
         <v>0.71</v>
@@ -6956,7 +6977,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>0.87</v>
@@ -7159,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.43</v>
@@ -7493,7 +7514,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7571,7 +7592,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7699,7 +7720,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7983,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8111,7 +8132,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8523,7 +8544,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8729,7 +8750,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8807,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>0.88</v>
@@ -8935,7 +8956,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9016,7 +9037,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -9634,7 +9655,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.98</v>
@@ -9759,7 +9780,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9837,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -10171,7 +10192,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10249,10 +10270,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR44">
         <v>1.81</v>
@@ -10377,7 +10398,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10455,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10664,7 +10685,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10789,7 +10810,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10870,7 +10891,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -11076,7 +11097,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11279,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>0.43</v>
@@ -11407,7 +11428,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11485,10 +11506,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11691,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -11900,7 +11921,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -12103,10 +12124,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.26</v>
@@ -12231,7 +12252,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12309,10 +12330,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -12437,7 +12458,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12515,7 +12536,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12849,7 +12870,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13136,7 +13157,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.21</v>
@@ -13339,10 +13360,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>0.65</v>
@@ -13467,7 +13488,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13673,7 +13694,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13754,7 +13775,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.3</v>
@@ -13960,7 +13981,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -14085,7 +14106,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14291,7 +14312,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14781,10 +14802,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.83</v>
@@ -14909,7 +14930,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.05</v>
@@ -14987,10 +15008,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>0.98</v>
@@ -15115,7 +15136,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15193,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15321,7 +15342,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>1.83</v>
@@ -15399,7 +15420,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -15605,7 +15626,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ70">
         <v>0.63</v>
@@ -15733,7 +15754,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15939,7 +15960,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.3</v>
@@ -16020,7 +16041,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16145,7 +16166,7 @@
         <v>96</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16351,7 +16372,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16432,7 +16453,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16557,7 +16578,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>4.33</v>
@@ -16635,7 +16656,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16763,7 +16784,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>2.4</v>
@@ -16969,7 +16990,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17047,7 +17068,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>0.88</v>
@@ -17175,7 +17196,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17793,7 +17814,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17871,7 +17892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -18080,7 +18101,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>1.22</v>
@@ -18286,7 +18307,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.2</v>
@@ -18492,7 +18513,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18823,7 +18844,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18901,7 +18922,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -19029,7 +19050,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19110,7 +19131,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ87">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19441,7 +19462,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19647,7 +19668,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19853,7 +19874,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19931,10 +19952,10 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.71</v>
@@ -20059,7 +20080,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20140,7 +20161,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20677,7 +20698,7 @@
         <v>159</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20755,10 +20776,10 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR95">
         <v>1.6</v>
@@ -21089,7 +21110,7 @@
         <v>161</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>2.5</v>
@@ -21376,7 +21397,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
         <v>1.36</v>
@@ -21501,7 +21522,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21579,7 +21600,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21707,7 +21728,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21788,7 +21809,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ100">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.27</v>
@@ -21913,7 +21934,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -21991,7 +22012,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>1.71</v>
@@ -22119,7 +22140,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>4.5</v>
@@ -22200,7 +22221,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -22609,7 +22630,7 @@
         <v>2.25</v>
       </c>
       <c r="AP104">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -22737,7 +22758,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>2.63</v>
@@ -22815,7 +22836,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105">
         <v>0.71</v>
@@ -22943,7 +22964,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -23024,7 +23045,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.55</v>
@@ -23227,7 +23248,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>0.88</v>
@@ -23436,7 +23457,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.76</v>
@@ -23639,7 +23660,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23767,7 +23788,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23845,7 +23866,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ110">
         <v>0.88</v>
@@ -24179,7 +24200,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24257,10 +24278,10 @@
         <v>0.25</v>
       </c>
       <c r="AP112">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ112">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR112">
         <v>0.92</v>
@@ -24385,7 +24406,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>1.91</v>
@@ -24672,7 +24693,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ114">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -25003,7 +25024,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25081,10 +25102,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>1.13</v>
@@ -25209,7 +25230,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25287,7 +25308,7 @@
         <v>0.2</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25415,7 +25436,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25496,7 +25517,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ118">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR118">
         <v>0.98</v>
@@ -26111,7 +26132,7 @@
         <v>1.2</v>
       </c>
       <c r="AP121">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
         <v>0.88</v>
@@ -26317,7 +26338,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -26445,7 +26466,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26523,7 +26544,7 @@
         <v>2.25</v>
       </c>
       <c r="AP123">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ123">
         <v>1.86</v>
@@ -26651,7 +26672,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -26729,10 +26750,10 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ124">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -26857,7 +26878,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26938,7 +26959,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ125">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR125">
         <v>1.2</v>
@@ -27144,7 +27165,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ126">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27475,7 +27496,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27887,7 +27908,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28299,7 +28320,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28377,10 +28398,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ132">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR132">
         <v>1.07</v>
@@ -28583,7 +28604,7 @@
         <v>2.2</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ133">
         <v>1.63</v>
@@ -28711,7 +28732,7 @@
         <v>99</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28792,7 +28813,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ134">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.36</v>
@@ -28917,7 +28938,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28995,7 +29016,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -29123,7 +29144,7 @@
         <v>96</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>2.3</v>
@@ -29204,7 +29225,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.1</v>
@@ -29329,7 +29350,7 @@
         <v>103</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>2.05</v>
@@ -29613,7 +29634,7 @@
         <v>1.2</v>
       </c>
       <c r="AP138">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ138">
         <v>1.14</v>
@@ -29947,7 +29968,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30025,10 +30046,10 @@
         <v>1.2</v>
       </c>
       <c r="AP140">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -30234,7 +30255,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ141">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR141">
         <v>1.33</v>
@@ -30440,7 +30461,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ142">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30643,7 +30664,7 @@
         <v>2.4</v>
       </c>
       <c r="AP143">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>1.86</v>
@@ -30771,7 +30792,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30849,10 +30870,10 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
         <v>1.33</v>
@@ -31183,7 +31204,7 @@
         <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31673,7 +31694,7 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>0.63</v>
@@ -31879,10 +31900,10 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32007,7 +32028,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32625,7 +32646,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32706,7 +32727,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ153">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -32912,7 +32933,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ154">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR154">
         <v>1.62</v>
@@ -33037,7 +33058,7 @@
         <v>109</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>3.5</v>
@@ -33243,7 +33264,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33321,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ156">
         <v>0.88</v>
@@ -33527,7 +33548,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ157">
         <v>0.63</v>
@@ -33655,7 +33676,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33736,7 +33757,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ158">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR158">
         <v>1.7</v>
@@ -33939,10 +33960,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ159">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34145,7 +34166,7 @@
         <v>2.4</v>
       </c>
       <c r="AP160">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ160">
         <v>2</v>
@@ -34351,7 +34372,7 @@
         <v>0.57</v>
       </c>
       <c r="AP161">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ161">
         <v>0.5</v>
@@ -34685,7 +34706,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34766,7 +34787,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ163">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR163">
         <v>1.09</v>
@@ -35097,7 +35118,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35178,7 +35199,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ165">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.16</v>
@@ -35381,10 +35402,10 @@
         <v>0.5</v>
       </c>
       <c r="AP166">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR166">
         <v>1.2</v>
@@ -35796,7 +35817,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -35921,7 +35942,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>4.33</v>
@@ -35999,7 +36020,7 @@
         <v>1.17</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ169">
         <v>1.14</v>
@@ -36127,7 +36148,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q170">
         <v>3.6</v>
@@ -37363,7 +37384,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q176">
         <v>7.5</v>
@@ -37932,6 +37953,1860 @@
       </c>
       <c r="BP178">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7727046</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F179">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>73</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>96</v>
+      </c>
+      <c r="P179" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q179">
+        <v>4.33</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>2.6</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>3.28</v>
+      </c>
+      <c r="AA179">
+        <v>3.01</v>
+      </c>
+      <c r="AB179">
+        <v>1.88</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>11</v>
+      </c>
+      <c r="AE179">
+        <v>1.28</v>
+      </c>
+      <c r="AF179">
+        <v>3.6</v>
+      </c>
+      <c r="AG179">
+        <v>1.9</v>
+      </c>
+      <c r="AH179">
+        <v>1.86</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.83</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.28</v>
+      </c>
+      <c r="AN179">
+        <v>0.71</v>
+      </c>
+      <c r="AO179">
+        <v>1.43</v>
+      </c>
+      <c r="AP179">
+        <v>0.63</v>
+      </c>
+      <c r="AQ179">
+        <v>1.63</v>
+      </c>
+      <c r="AR179">
+        <v>1.08</v>
+      </c>
+      <c r="AS179">
+        <v>1.25</v>
+      </c>
+      <c r="AT179">
+        <v>2.33</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>11</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>4</v>
+      </c>
+      <c r="AY179">
+        <v>7</v>
+      </c>
+      <c r="AZ179">
+        <v>16</v>
+      </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>6</v>
+      </c>
+      <c r="BD179">
+        <v>2.4</v>
+      </c>
+      <c r="BE179">
+        <v>6.25</v>
+      </c>
+      <c r="BF179">
+        <v>1.63</v>
+      </c>
+      <c r="BG179">
+        <v>1.34</v>
+      </c>
+      <c r="BH179">
+        <v>2.9</v>
+      </c>
+      <c r="BI179">
+        <v>1.58</v>
+      </c>
+      <c r="BJ179">
+        <v>2.2</v>
+      </c>
+      <c r="BK179">
+        <v>1.94</v>
+      </c>
+      <c r="BL179">
+        <v>1.76</v>
+      </c>
+      <c r="BM179">
+        <v>2.43</v>
+      </c>
+      <c r="BN179">
+        <v>1.47</v>
+      </c>
+      <c r="BO179">
+        <v>3.15</v>
+      </c>
+      <c r="BP179">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7727050</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>92</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>96</v>
+      </c>
+      <c r="P180" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q180">
+        <v>2.3</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>4.75</v>
+      </c>
+      <c r="T180">
+        <v>1.36</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.67</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>4</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>13</v>
+      </c>
+      <c r="AE180">
+        <v>1.25</v>
+      </c>
+      <c r="AF180">
+        <v>3.75</v>
+      </c>
+      <c r="AG180">
+        <v>1.8</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.95</v>
+      </c>
+      <c r="AK180">
+        <v>1.2</v>
+      </c>
+      <c r="AL180">
+        <v>1.2</v>
+      </c>
+      <c r="AM180">
+        <v>2.1</v>
+      </c>
+      <c r="AN180">
+        <v>1.71</v>
+      </c>
+      <c r="AO180">
+        <v>0.57</v>
+      </c>
+      <c r="AP180">
+        <v>1.5</v>
+      </c>
+      <c r="AQ180">
+        <v>0.88</v>
+      </c>
+      <c r="AR180">
+        <v>1.27</v>
+      </c>
+      <c r="AS180">
+        <v>1.08</v>
+      </c>
+      <c r="AT180">
+        <v>2.35</v>
+      </c>
+      <c r="AU180">
+        <v>5</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>20</v>
+      </c>
+      <c r="AZ180">
+        <v>14</v>
+      </c>
+      <c r="BA180">
+        <v>8</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>12</v>
+      </c>
+      <c r="BD180">
+        <v>1.43</v>
+      </c>
+      <c r="BE180">
+        <v>6.75</v>
+      </c>
+      <c r="BF180">
+        <v>2.9</v>
+      </c>
+      <c r="BG180">
+        <v>1.21</v>
+      </c>
+      <c r="BH180">
+        <v>3.8</v>
+      </c>
+      <c r="BI180">
+        <v>1.38</v>
+      </c>
+      <c r="BJ180">
+        <v>2.7</v>
+      </c>
+      <c r="BK180">
+        <v>1.63</v>
+      </c>
+      <c r="BL180">
+        <v>2.12</v>
+      </c>
+      <c r="BM180">
+        <v>1.98</v>
+      </c>
+      <c r="BN180">
+        <v>1.72</v>
+      </c>
+      <c r="BO180">
+        <v>2.48</v>
+      </c>
+      <c r="BP180">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7727048</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>90</v>
+      </c>
+      <c r="H181" t="s">
+        <v>83</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>215</v>
+      </c>
+      <c r="P181" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q181">
+        <v>2.4</v>
+      </c>
+      <c r="R181">
+        <v>2.2</v>
+      </c>
+      <c r="S181">
+        <v>4.75</v>
+      </c>
+      <c r="T181">
+        <v>1.4</v>
+      </c>
+      <c r="U181">
+        <v>2.75</v>
+      </c>
+      <c r="V181">
+        <v>3</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>8</v>
+      </c>
+      <c r="Y181">
+        <v>1.08</v>
+      </c>
+      <c r="Z181">
+        <v>1.69</v>
+      </c>
+      <c r="AA181">
+        <v>3.29</v>
+      </c>
+      <c r="AB181">
+        <v>4.06</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.33</v>
+      </c>
+      <c r="AF181">
+        <v>3.3</v>
+      </c>
+      <c r="AG181">
+        <v>1.98</v>
+      </c>
+      <c r="AH181">
+        <v>1.78</v>
+      </c>
+      <c r="AI181">
+        <v>1.91</v>
+      </c>
+      <c r="AJ181">
+        <v>1.91</v>
+      </c>
+      <c r="AK181">
+        <v>1.22</v>
+      </c>
+      <c r="AL181">
+        <v>1.22</v>
+      </c>
+      <c r="AM181">
+        <v>2</v>
+      </c>
+      <c r="AN181">
+        <v>2.14</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>2.25</v>
+      </c>
+      <c r="AQ181">
+        <v>0.88</v>
+      </c>
+      <c r="AR181">
+        <v>1.41</v>
+      </c>
+      <c r="AS181">
+        <v>1.09</v>
+      </c>
+      <c r="AT181">
+        <v>2.5</v>
+      </c>
+      <c r="AU181">
+        <v>7</v>
+      </c>
+      <c r="AV181">
+        <v>2</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>15</v>
+      </c>
+      <c r="AZ181">
+        <v>10</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>7</v>
+      </c>
+      <c r="BC181">
+        <v>12</v>
+      </c>
+      <c r="BD181">
+        <v>1.47</v>
+      </c>
+      <c r="BE181">
+        <v>6.75</v>
+      </c>
+      <c r="BF181">
+        <v>2.8</v>
+      </c>
+      <c r="BG181">
+        <v>1.22</v>
+      </c>
+      <c r="BH181">
+        <v>3.65</v>
+      </c>
+      <c r="BI181">
+        <v>1.41</v>
+      </c>
+      <c r="BJ181">
+        <v>2.65</v>
+      </c>
+      <c r="BK181">
+        <v>1.65</v>
+      </c>
+      <c r="BL181">
+        <v>2.08</v>
+      </c>
+      <c r="BM181">
+        <v>2.02</v>
+      </c>
+      <c r="BN181">
+        <v>1.68</v>
+      </c>
+      <c r="BO181">
+        <v>2.55</v>
+      </c>
+      <c r="BP181">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7727049</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F182">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>89</v>
+      </c>
+      <c r="H182" t="s">
+        <v>86</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>3</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182" t="s">
+        <v>216</v>
+      </c>
+      <c r="P182" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q182">
+        <v>3.4</v>
+      </c>
+      <c r="R182">
+        <v>2.1</v>
+      </c>
+      <c r="S182">
+        <v>3.25</v>
+      </c>
+      <c r="T182">
+        <v>1.44</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>3</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>9</v>
+      </c>
+      <c r="Y182">
+        <v>1.07</v>
+      </c>
+      <c r="Z182">
+        <v>2.56</v>
+      </c>
+      <c r="AA182">
+        <v>3.04</v>
+      </c>
+      <c r="AB182">
+        <v>2.36</v>
+      </c>
+      <c r="AC182">
+        <v>1.06</v>
+      </c>
+      <c r="AD182">
+        <v>10</v>
+      </c>
+      <c r="AE182">
+        <v>1.35</v>
+      </c>
+      <c r="AF182">
+        <v>3.2</v>
+      </c>
+      <c r="AG182">
+        <v>1.95</v>
+      </c>
+      <c r="AH182">
+        <v>1.85</v>
+      </c>
+      <c r="AI182">
+        <v>1.8</v>
+      </c>
+      <c r="AJ182">
+        <v>1.95</v>
+      </c>
+      <c r="AK182">
+        <v>1.47</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.5</v>
+      </c>
+      <c r="AN182">
+        <v>1.86</v>
+      </c>
+      <c r="AO182">
+        <v>2.13</v>
+      </c>
+      <c r="AP182">
+        <v>1.63</v>
+      </c>
+      <c r="AQ182">
+        <v>2.22</v>
+      </c>
+      <c r="AR182">
+        <v>1.35</v>
+      </c>
+      <c r="AS182">
+        <v>1.5</v>
+      </c>
+      <c r="AT182">
+        <v>2.85</v>
+      </c>
+      <c r="AU182">
+        <v>7</v>
+      </c>
+      <c r="AV182">
+        <v>7</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>15</v>
+      </c>
+      <c r="AZ182">
+        <v>17</v>
+      </c>
+      <c r="BA182">
+        <v>4</v>
+      </c>
+      <c r="BB182">
+        <v>7</v>
+      </c>
+      <c r="BC182">
+        <v>11</v>
+      </c>
+      <c r="BD182">
+        <v>1.84</v>
+      </c>
+      <c r="BE182">
+        <v>6.25</v>
+      </c>
+      <c r="BF182">
+        <v>2.05</v>
+      </c>
+      <c r="BG182">
+        <v>1.28</v>
+      </c>
+      <c r="BH182">
+        <v>3.2</v>
+      </c>
+      <c r="BI182">
+        <v>1.49</v>
+      </c>
+      <c r="BJ182">
+        <v>2.4</v>
+      </c>
+      <c r="BK182">
+        <v>1.81</v>
+      </c>
+      <c r="BL182">
+        <v>1.88</v>
+      </c>
+      <c r="BM182">
+        <v>2.28</v>
+      </c>
+      <c r="BN182">
+        <v>1.55</v>
+      </c>
+      <c r="BO182">
+        <v>2.9</v>
+      </c>
+      <c r="BP182">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7727051</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F183">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>87</v>
+      </c>
+      <c r="H183" t="s">
+        <v>88</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>96</v>
+      </c>
+      <c r="P183" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>3.75</v>
+      </c>
+      <c r="T183">
+        <v>1.44</v>
+      </c>
+      <c r="U183">
+        <v>2.63</v>
+      </c>
+      <c r="V183">
+        <v>3.25</v>
+      </c>
+      <c r="W183">
+        <v>1.33</v>
+      </c>
+      <c r="X183">
+        <v>9</v>
+      </c>
+      <c r="Y183">
+        <v>1.07</v>
+      </c>
+      <c r="Z183">
+        <v>2.17</v>
+      </c>
+      <c r="AA183">
+        <v>3.03</v>
+      </c>
+      <c r="AB183">
+        <v>2.86</v>
+      </c>
+      <c r="AC183">
+        <v>1.06</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.36</v>
+      </c>
+      <c r="AF183">
+        <v>3.2</v>
+      </c>
+      <c r="AG183">
+        <v>1.95</v>
+      </c>
+      <c r="AH183">
+        <v>1.75</v>
+      </c>
+      <c r="AI183">
+        <v>1.8</v>
+      </c>
+      <c r="AJ183">
+        <v>1.95</v>
+      </c>
+      <c r="AK183">
+        <v>1.38</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.62</v>
+      </c>
+      <c r="AN183">
+        <v>1.43</v>
+      </c>
+      <c r="AO183">
+        <v>0.43</v>
+      </c>
+      <c r="AP183">
+        <v>1.38</v>
+      </c>
+      <c r="AQ183">
+        <v>0.5</v>
+      </c>
+      <c r="AR183">
+        <v>1.26</v>
+      </c>
+      <c r="AS183">
+        <v>1.11</v>
+      </c>
+      <c r="AT183">
+        <v>2.37</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>6</v>
+      </c>
+      <c r="AY183">
+        <v>12</v>
+      </c>
+      <c r="AZ183">
+        <v>12</v>
+      </c>
+      <c r="BA183">
+        <v>4</v>
+      </c>
+      <c r="BB183">
+        <v>8</v>
+      </c>
+      <c r="BC183">
+        <v>12</v>
+      </c>
+      <c r="BD183">
+        <v>1.72</v>
+      </c>
+      <c r="BE183">
+        <v>6.25</v>
+      </c>
+      <c r="BF183">
+        <v>2.23</v>
+      </c>
+      <c r="BG183">
+        <v>1.41</v>
+      </c>
+      <c r="BH183">
+        <v>2.65</v>
+      </c>
+      <c r="BI183">
+        <v>1.71</v>
+      </c>
+      <c r="BJ183">
+        <v>2</v>
+      </c>
+      <c r="BK183">
+        <v>2.12</v>
+      </c>
+      <c r="BL183">
+        <v>1.63</v>
+      </c>
+      <c r="BM183">
+        <v>2.7</v>
+      </c>
+      <c r="BN183">
+        <v>1.38</v>
+      </c>
+      <c r="BO183">
+        <v>3.65</v>
+      </c>
+      <c r="BP183">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7727052</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>74</v>
+      </c>
+      <c r="H184" t="s">
+        <v>84</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>145</v>
+      </c>
+      <c r="P184" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q184">
+        <v>2.4</v>
+      </c>
+      <c r="R184">
+        <v>2.5</v>
+      </c>
+      <c r="S184">
+        <v>3.75</v>
+      </c>
+      <c r="T184">
+        <v>1.25</v>
+      </c>
+      <c r="U184">
+        <v>3.75</v>
+      </c>
+      <c r="V184">
+        <v>2.2</v>
+      </c>
+      <c r="W184">
+        <v>1.62</v>
+      </c>
+      <c r="X184">
+        <v>5</v>
+      </c>
+      <c r="Y184">
+        <v>1.17</v>
+      </c>
+      <c r="Z184">
+        <v>1.84</v>
+      </c>
+      <c r="AA184">
+        <v>3.4</v>
+      </c>
+      <c r="AB184">
+        <v>3.29</v>
+      </c>
+      <c r="AC184">
+        <v>1.04</v>
+      </c>
+      <c r="AD184">
+        <v>10</v>
+      </c>
+      <c r="AE184">
+        <v>1.14</v>
+      </c>
+      <c r="AF184">
+        <v>5.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.45</v>
+      </c>
+      <c r="AH184">
+        <v>2.55</v>
+      </c>
+      <c r="AI184">
+        <v>1.44</v>
+      </c>
+      <c r="AJ184">
+        <v>2.63</v>
+      </c>
+      <c r="AK184">
+        <v>1.3</v>
+      </c>
+      <c r="AL184">
+        <v>1.2</v>
+      </c>
+      <c r="AM184">
+        <v>1.9</v>
+      </c>
+      <c r="AN184">
+        <v>1.75</v>
+      </c>
+      <c r="AO184">
+        <v>0.71</v>
+      </c>
+      <c r="AP184">
+        <v>1.56</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AR184">
+        <v>1.26</v>
+      </c>
+      <c r="AS184">
+        <v>1.19</v>
+      </c>
+      <c r="AT184">
+        <v>2.45</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>7</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>8</v>
+      </c>
+      <c r="AY184">
+        <v>22</v>
+      </c>
+      <c r="AZ184">
+        <v>18</v>
+      </c>
+      <c r="BA184">
+        <v>10</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>12</v>
+      </c>
+      <c r="BD184">
+        <v>1.49</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>2.65</v>
+      </c>
+      <c r="BG184">
+        <v>1.17</v>
+      </c>
+      <c r="BH184">
+        <v>4.3</v>
+      </c>
+      <c r="BI184">
+        <v>1.3</v>
+      </c>
+      <c r="BJ184">
+        <v>3.05</v>
+      </c>
+      <c r="BK184">
+        <v>1.52</v>
+      </c>
+      <c r="BL184">
+        <v>2.32</v>
+      </c>
+      <c r="BM184">
+        <v>1.82</v>
+      </c>
+      <c r="BN184">
+        <v>1.86</v>
+      </c>
+      <c r="BO184">
+        <v>2.23</v>
+      </c>
+      <c r="BP184">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7727055</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F185">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>71</v>
+      </c>
+      <c r="H185" t="s">
+        <v>81</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>217</v>
+      </c>
+      <c r="P185" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q185">
+        <v>2.4</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>4.75</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>3</v>
+      </c>
+      <c r="W185">
+        <v>1.36</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>1.63</v>
+      </c>
+      <c r="AA185">
+        <v>3.38</v>
+      </c>
+      <c r="AB185">
+        <v>4.26</v>
+      </c>
+      <c r="AC185">
+        <v>1.05</v>
+      </c>
+      <c r="AD185">
+        <v>11</v>
+      </c>
+      <c r="AE185">
+        <v>1.33</v>
+      </c>
+      <c r="AF185">
+        <v>3.3</v>
+      </c>
+      <c r="AG185">
+        <v>1.95</v>
+      </c>
+      <c r="AH185">
+        <v>1.85</v>
+      </c>
+      <c r="AI185">
+        <v>1.91</v>
+      </c>
+      <c r="AJ185">
+        <v>1.91</v>
+      </c>
+      <c r="AK185">
+        <v>1.22</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>2</v>
+      </c>
+      <c r="AN185">
+        <v>2.71</v>
+      </c>
+      <c r="AO185">
+        <v>1.43</v>
+      </c>
+      <c r="AP185">
+        <v>2.75</v>
+      </c>
+      <c r="AQ185">
+        <v>1.25</v>
+      </c>
+      <c r="AR185">
+        <v>1.44</v>
+      </c>
+      <c r="AS185">
+        <v>0.93</v>
+      </c>
+      <c r="AT185">
+        <v>2.37</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>14</v>
+      </c>
+      <c r="AZ185">
+        <v>11</v>
+      </c>
+      <c r="BA185">
+        <v>8</v>
+      </c>
+      <c r="BB185">
+        <v>9</v>
+      </c>
+      <c r="BC185">
+        <v>17</v>
+      </c>
+      <c r="BD185">
+        <v>1.52</v>
+      </c>
+      <c r="BE185">
+        <v>6.75</v>
+      </c>
+      <c r="BF185">
+        <v>2.55</v>
+      </c>
+      <c r="BG185">
+        <v>1.2</v>
+      </c>
+      <c r="BH185">
+        <v>3.9</v>
+      </c>
+      <c r="BI185">
+        <v>1.36</v>
+      </c>
+      <c r="BJ185">
+        <v>2.8</v>
+      </c>
+      <c r="BK185">
+        <v>1.58</v>
+      </c>
+      <c r="BL185">
+        <v>2.18</v>
+      </c>
+      <c r="BM185">
+        <v>1.9</v>
+      </c>
+      <c r="BN185">
+        <v>1.79</v>
+      </c>
+      <c r="BO185">
+        <v>2.35</v>
+      </c>
+      <c r="BP185">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7727047</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F186">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>77</v>
+      </c>
+      <c r="H186" t="s">
+        <v>85</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>105</v>
+      </c>
+      <c r="P186" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q186">
+        <v>4.33</v>
+      </c>
+      <c r="R186">
+        <v>2.2</v>
+      </c>
+      <c r="S186">
+        <v>2.6</v>
+      </c>
+      <c r="T186">
+        <v>1.36</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186">
+        <v>2.75</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>3.16</v>
+      </c>
+      <c r="AA186">
+        <v>2.99</v>
+      </c>
+      <c r="AB186">
+        <v>1.93</v>
+      </c>
+      <c r="AC186">
+        <v>1.04</v>
+      </c>
+      <c r="AD186">
+        <v>12</v>
+      </c>
+      <c r="AE186">
+        <v>1.28</v>
+      </c>
+      <c r="AF186">
+        <v>3.6</v>
+      </c>
+      <c r="AG186">
+        <v>1.9</v>
+      </c>
+      <c r="AH186">
+        <v>1.86</v>
+      </c>
+      <c r="AI186">
+        <v>1.75</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.87</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.28</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
+        <v>0.75</v>
+      </c>
+      <c r="AP186">
+        <v>1.22</v>
+      </c>
+      <c r="AQ186">
+        <v>0.67</v>
+      </c>
+      <c r="AR186">
+        <v>0.97</v>
+      </c>
+      <c r="AS186">
+        <v>1.29</v>
+      </c>
+      <c r="AT186">
+        <v>2.26</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>4</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>11</v>
+      </c>
+      <c r="AZ186">
+        <v>8</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>9</v>
+      </c>
+      <c r="BD186">
+        <v>2.3</v>
+      </c>
+      <c r="BE186">
+        <v>6.75</v>
+      </c>
+      <c r="BF186">
+        <v>1.66</v>
+      </c>
+      <c r="BG186">
+        <v>1.2</v>
+      </c>
+      <c r="BH186">
+        <v>3.9</v>
+      </c>
+      <c r="BI186">
+        <v>1.36</v>
+      </c>
+      <c r="BJ186">
+        <v>2.85</v>
+      </c>
+      <c r="BK186">
+        <v>1.58</v>
+      </c>
+      <c r="BL186">
+        <v>2.18</v>
+      </c>
+      <c r="BM186">
+        <v>1.93</v>
+      </c>
+      <c r="BN186">
+        <v>1.76</v>
+      </c>
+      <c r="BO186">
+        <v>2.4</v>
+      </c>
+      <c r="BP186">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7727044</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F187">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>70</v>
+      </c>
+      <c r="H187" t="s">
+        <v>72</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>96</v>
+      </c>
+      <c r="P187" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q187">
+        <v>2.6</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>4.33</v>
+      </c>
+      <c r="T187">
+        <v>1.4</v>
+      </c>
+      <c r="U187">
+        <v>2.75</v>
+      </c>
+      <c r="V187">
+        <v>2.75</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.08</v>
+      </c>
+      <c r="Z187">
+        <v>2.02</v>
+      </c>
+      <c r="AA187">
+        <v>3.05</v>
+      </c>
+      <c r="AB187">
+        <v>3.14</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>12</v>
+      </c>
+      <c r="AE187">
+        <v>1.3</v>
+      </c>
+      <c r="AF187">
+        <v>3.5</v>
+      </c>
+      <c r="AG187">
+        <v>1.9</v>
+      </c>
+      <c r="AH187">
+        <v>1.86</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.3</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.83</v>
+      </c>
+      <c r="AN187">
+        <v>1.43</v>
+      </c>
+      <c r="AO187">
+        <v>0.86</v>
+      </c>
+      <c r="AP187">
+        <v>1.25</v>
+      </c>
+      <c r="AQ187">
+        <v>1.13</v>
+      </c>
+      <c r="AR187">
+        <v>1.64</v>
+      </c>
+      <c r="AS187">
+        <v>1.08</v>
+      </c>
+      <c r="AT187">
+        <v>2.72</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>7</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>21</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>10</v>
+      </c>
+      <c r="BB187">
+        <v>2</v>
+      </c>
+      <c r="BC187">
+        <v>12</v>
+      </c>
+      <c r="BD187">
+        <v>1.68</v>
+      </c>
+      <c r="BE187">
+        <v>6.4</v>
+      </c>
+      <c r="BF187">
+        <v>2.3</v>
+      </c>
+      <c r="BG187">
+        <v>1.33</v>
+      </c>
+      <c r="BH187">
+        <v>2.95</v>
+      </c>
+      <c r="BI187">
+        <v>1.55</v>
+      </c>
+      <c r="BJ187">
+        <v>2.25</v>
+      </c>
+      <c r="BK187">
+        <v>1.9</v>
+      </c>
+      <c r="BL187">
+        <v>1.79</v>
+      </c>
+      <c r="BM187">
+        <v>2.4</v>
+      </c>
+      <c r="BN187">
+        <v>1.5</v>
+      </c>
+      <c r="BO187">
+        <v>3.15</v>
+      </c>
+      <c r="BP187">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -577,9 +577,6 @@
     <t>['34', '63']</t>
   </si>
   <si>
-    <t>['46', '73', '90+5']</t>
-  </si>
-  <si>
     <t>['8', '17', '28', '70', '73']</t>
   </si>
   <si>
@@ -589,7 +586,10 @@
     <t>['34', '90+5']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['46', '73', '90+5']</t>
+  </si>
+  <si>
+    <t>['16', '63']</t>
   </si>
   <si>
     <t>['5', '45+5', '59']</t>
@@ -601,7 +601,7 @@
     <t>['16', '29', '55']</t>
   </si>
   <si>
-    <t>['16', '63']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
     <t>['23', '90+7']</t>
@@ -625,10 +625,13 @@
     <t>['32', '86']</t>
   </si>
   <si>
+    <t>['10', '51']</t>
+  </si>
+  <si>
     <t>['6']</t>
   </si>
   <si>
-    <t>['10', '51']</t>
+    <t>['35']</t>
   </si>
   <si>
     <t>['30', '47', '55', '62', '90']</t>
@@ -649,19 +652,16 @@
     <t>['42', '65']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['24']</t>
   </si>
   <si>
-    <t>['31', '38', '55']</t>
+    <t>['13', '63']</t>
   </si>
   <si>
     <t>['53', '90+4']</t>
   </si>
   <si>
-    <t>['13', '63']</t>
+    <t>['31', '38', '55']</t>
   </si>
   <si>
     <t>['14', '87']</t>
@@ -880,10 +880,10 @@
     <t>['77', '90+3']</t>
   </si>
   <si>
-    <t>['9']</t>
+    <t>['45+2', '47']</t>
   </si>
   <si>
-    <t>['45+2', '47']</t>
+    <t>['9']</t>
   </si>
   <si>
     <t>['16', '72']</t>
@@ -907,19 +907,19 @@
     <t>['59', '68']</t>
   </si>
   <si>
-    <t>['44', '76']</t>
-  </si>
-  <si>
     <t>['30', '42', '59']</t>
   </si>
   <si>
-    <t>['49']</t>
+    <t>['44', '76']</t>
   </si>
   <si>
     <t>['35', '43', '72']</t>
   </si>
   <si>
     <t>['9', '23']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -13282,7 +13282,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -28484,7 +28484,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7727000</v>
+        <v>7727001</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28499,49 +28499,49 @@
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N133">
         <v>3</v>
       </c>
       <c r="O133" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="Q133">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="R133">
         <v>2.2</v>
       </c>
       <c r="S133">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="T133">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V133">
         <v>2.75</v>
@@ -28550,19 +28550,19 @@
         <v>1.4</v>
       </c>
       <c r="X133">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y133">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
-        <v>3.78</v>
+        <v>2.3</v>
       </c>
       <c r="AA133">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB133">
-        <v>1.97</v>
+        <v>2.89</v>
       </c>
       <c r="AC133">
         <v>1.05</v>
@@ -28571,118 +28571,118 @@
         <v>11</v>
       </c>
       <c r="AE133">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG133">
+        <v>1.8</v>
+      </c>
+      <c r="AH133">
         <v>1.9</v>
       </c>
-      <c r="AH133">
-        <v>1.8</v>
-      </c>
       <c r="AI133">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ133">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK133">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AL133">
         <v>1.25</v>
       </c>
       <c r="AM133">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AN133">
-        <v>0.67</v>
+        <v>2.25</v>
       </c>
       <c r="AO133">
-        <v>2.2</v>
+        <v>0.25</v>
       </c>
       <c r="AP133">
-        <v>1.22</v>
+        <v>1.86</v>
       </c>
       <c r="AQ133">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR133">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="AS133">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>1.98</v>
+        <v>2.56</v>
       </c>
       <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>9</v>
+      </c>
+      <c r="AX133">
+        <v>1</v>
+      </c>
+      <c r="AY133">
+        <v>20</v>
+      </c>
+      <c r="AZ133">
+        <v>12</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
         <v>5</v>
       </c>
-      <c r="AV133">
-        <v>3</v>
-      </c>
-      <c r="AW133">
-        <v>3</v>
-      </c>
-      <c r="AX133">
-        <v>4</v>
-      </c>
-      <c r="AY133">
-        <v>9</v>
-      </c>
-      <c r="AZ133">
-        <v>9</v>
-      </c>
-      <c r="BA133">
-        <v>0</v>
-      </c>
-      <c r="BB133">
-        <v>10</v>
-      </c>
       <c r="BC133">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD133">
+        <v>1.7</v>
+      </c>
+      <c r="BE133">
+        <v>6.75</v>
+      </c>
+      <c r="BF133">
+        <v>2.23</v>
+      </c>
+      <c r="BG133">
+        <v>1.17</v>
+      </c>
+      <c r="BH133">
+        <v>4.35</v>
+      </c>
+      <c r="BI133">
+        <v>1.3</v>
+      </c>
+      <c r="BJ133">
+        <v>3.05</v>
+      </c>
+      <c r="BK133">
+        <v>1.52</v>
+      </c>
+      <c r="BL133">
         <v>2.33</v>
       </c>
-      <c r="BE133">
-        <v>6.4</v>
-      </c>
-      <c r="BF133">
-        <v>1.65</v>
-      </c>
-      <c r="BG133">
-        <v>1.27</v>
-      </c>
-      <c r="BH133">
-        <v>3.3</v>
-      </c>
-      <c r="BI133">
-        <v>1.48</v>
-      </c>
-      <c r="BJ133">
-        <v>2.45</v>
-      </c>
-      <c r="BK133">
-        <v>1.76</v>
-      </c>
-      <c r="BL133">
-        <v>1.93</v>
-      </c>
       <c r="BM133">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="BN133">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="BO133">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="BP133">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28690,7 +28690,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7727001</v>
+        <v>7727002</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28705,190 +28705,190 @@
         <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H134" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="Q134">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R134">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
+        <v>3.25</v>
+      </c>
+      <c r="T134">
+        <v>1.44</v>
+      </c>
+      <c r="U134">
+        <v>2.63</v>
+      </c>
+      <c r="V134">
         <v>3.4</v>
       </c>
-      <c r="T134">
-        <v>1.36</v>
-      </c>
-      <c r="U134">
-        <v>3</v>
-      </c>
-      <c r="V134">
-        <v>2.75</v>
-      </c>
       <c r="W134">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y134">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z134">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AA134">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB134">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="AC134">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD134">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE134">
+        <v>1.35</v>
+      </c>
+      <c r="AF134">
+        <v>3.2</v>
+      </c>
+      <c r="AG134">
+        <v>2</v>
+      </c>
+      <c r="AH134">
+        <v>1.72</v>
+      </c>
+      <c r="AI134">
+        <v>1.91</v>
+      </c>
+      <c r="AJ134">
+        <v>1.91</v>
+      </c>
+      <c r="AK134">
+        <v>1.5</v>
+      </c>
+      <c r="AL134">
         <v>1.28</v>
       </c>
-      <c r="AF134">
-        <v>3.6</v>
-      </c>
-      <c r="AG134">
-        <v>1.8</v>
-      </c>
-      <c r="AH134">
-        <v>1.9</v>
-      </c>
-      <c r="AI134">
-        <v>1.67</v>
-      </c>
-      <c r="AJ134">
-        <v>2.1</v>
-      </c>
-      <c r="AK134">
-        <v>1.42</v>
-      </c>
-      <c r="AL134">
-        <v>1.25</v>
-      </c>
       <c r="AM134">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AN134">
-        <v>2.25</v>
+        <v>0.4</v>
       </c>
       <c r="AO134">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR134">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="AT134">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="AU134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
         <v>6</v>
       </c>
-      <c r="AW134">
-        <v>9</v>
-      </c>
       <c r="AX134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY134">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
         <v>12</v>
       </c>
       <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
         <v>8</v>
       </c>
-      <c r="BB134">
-        <v>5</v>
-      </c>
       <c r="BC134">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD134">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="BE134">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF134">
-        <v>2.23</v>
+        <v>1.97</v>
       </c>
       <c r="BG134">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="BH134">
-        <v>4.35</v>
+        <v>3.15</v>
       </c>
       <c r="BI134">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="BJ134">
+        <v>2.3</v>
+      </c>
+      <c r="BK134">
+        <v>1.88</v>
+      </c>
+      <c r="BL134">
+        <v>1.81</v>
+      </c>
+      <c r="BM134">
+        <v>2.33</v>
+      </c>
+      <c r="BN134">
+        <v>1.5</v>
+      </c>
+      <c r="BO134">
         <v>3.05</v>
       </c>
-      <c r="BK134">
-        <v>1.52</v>
-      </c>
-      <c r="BL134">
-        <v>2.33</v>
-      </c>
-      <c r="BM134">
-        <v>1.81</v>
-      </c>
-      <c r="BN134">
-        <v>1.88</v>
-      </c>
-      <c r="BO134">
-        <v>2.23</v>
-      </c>
       <c r="BP134">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28935,7 +28935,7 @@
         <v>6</v>
       </c>
       <c r="O135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P135" t="s">
         <v>245</v>
@@ -29759,7 +29759,7 @@
         <v>2</v>
       </c>
       <c r="O139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P139" t="s">
         <v>96</v>
@@ -29965,7 +29965,7 @@
         <v>4</v>
       </c>
       <c r="O140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P140" t="s">
         <v>287</v>
@@ -30132,7 +30132,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7727002</v>
+        <v>7727000</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30147,10 +30147,10 @@
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H141" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -30162,175 +30162,175 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O141" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="P141" t="s">
         <v>96</v>
       </c>
       <c r="Q141">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S141">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="T141">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U141">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V141">
+        <v>2.75</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>8</v>
+      </c>
+      <c r="Y141">
+        <v>1.08</v>
+      </c>
+      <c r="Z141">
+        <v>3.78</v>
+      </c>
+      <c r="AA141">
+        <v>3.3</v>
+      </c>
+      <c r="AB141">
+        <v>1.97</v>
+      </c>
+      <c r="AC141">
+        <v>1.05</v>
+      </c>
+      <c r="AD141">
+        <v>11</v>
+      </c>
+      <c r="AE141">
+        <v>1.3</v>
+      </c>
+      <c r="AF141">
         <v>3.4</v>
       </c>
-      <c r="W141">
-        <v>1.3</v>
-      </c>
-      <c r="X141">
+      <c r="AG141">
+        <v>1.9</v>
+      </c>
+      <c r="AH141">
+        <v>1.8</v>
+      </c>
+      <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.95</v>
+      </c>
+      <c r="AK141">
+        <v>1.85</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.28</v>
+      </c>
+      <c r="AN141">
+        <v>0.67</v>
+      </c>
+      <c r="AO141">
+        <v>2.2</v>
+      </c>
+      <c r="AP141">
+        <v>1.22</v>
+      </c>
+      <c r="AQ141">
+        <v>1.63</v>
+      </c>
+      <c r="AR141">
+        <v>1.01</v>
+      </c>
+      <c r="AS141">
+        <v>0.97</v>
+      </c>
+      <c r="AT141">
+        <v>1.98</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>3</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>9</v>
+      </c>
+      <c r="AZ141">
+        <v>9</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
         <v>10</v>
       </c>
-      <c r="Y141">
-        <v>1.06</v>
-      </c>
-      <c r="Z141">
-        <v>2.6</v>
-      </c>
-      <c r="AA141">
-        <v>3.2</v>
-      </c>
-      <c r="AB141">
-        <v>2.65</v>
-      </c>
-      <c r="AC141">
-        <v>1.06</v>
-      </c>
-      <c r="AD141">
-        <v>9.5</v>
-      </c>
-      <c r="AE141">
-        <v>1.35</v>
-      </c>
-      <c r="AF141">
-        <v>3.2</v>
-      </c>
-      <c r="AG141">
-        <v>2</v>
-      </c>
-      <c r="AH141">
-        <v>1.72</v>
-      </c>
-      <c r="AI141">
-        <v>1.91</v>
-      </c>
-      <c r="AJ141">
-        <v>1.91</v>
-      </c>
-      <c r="AK141">
-        <v>1.5</v>
-      </c>
-      <c r="AL141">
-        <v>1.28</v>
-      </c>
-      <c r="AM141">
-        <v>1.47</v>
-      </c>
-      <c r="AN141">
-        <v>0.4</v>
-      </c>
-      <c r="AO141">
-        <v>1</v>
-      </c>
-      <c r="AP141">
-        <v>1.14</v>
-      </c>
-      <c r="AQ141">
-        <v>0.67</v>
-      </c>
-      <c r="AR141">
-        <v>1.33</v>
-      </c>
-      <c r="AS141">
-        <v>1.41</v>
-      </c>
-      <c r="AT141">
-        <v>2.74</v>
-      </c>
-      <c r="AU141">
-        <v>6</v>
-      </c>
-      <c r="AV141">
-        <v>3</v>
-      </c>
-      <c r="AW141">
-        <v>6</v>
-      </c>
-      <c r="AX141">
-        <v>5</v>
-      </c>
-      <c r="AY141">
-        <v>13</v>
-      </c>
-      <c r="AZ141">
-        <v>12</v>
-      </c>
-      <c r="BA141">
-        <v>3</v>
-      </c>
-      <c r="BB141">
-        <v>8</v>
-      </c>
       <c r="BC141">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD141">
+        <v>2.33</v>
+      </c>
+      <c r="BE141">
+        <v>6.4</v>
+      </c>
+      <c r="BF141">
+        <v>1.65</v>
+      </c>
+      <c r="BG141">
+        <v>1.27</v>
+      </c>
+      <c r="BH141">
+        <v>3.3</v>
+      </c>
+      <c r="BI141">
+        <v>1.48</v>
+      </c>
+      <c r="BJ141">
+        <v>2.45</v>
+      </c>
+      <c r="BK141">
+        <v>1.76</v>
+      </c>
+      <c r="BL141">
         <v>1.93</v>
       </c>
-      <c r="BE141">
-        <v>6.25</v>
-      </c>
-      <c r="BF141">
-        <v>1.97</v>
-      </c>
-      <c r="BG141">
-        <v>1.3</v>
-      </c>
-      <c r="BH141">
-        <v>3.15</v>
-      </c>
-      <c r="BI141">
-        <v>1.53</v>
-      </c>
-      <c r="BJ141">
-        <v>2.3</v>
-      </c>
-      <c r="BK141">
-        <v>1.88</v>
-      </c>
-      <c r="BL141">
-        <v>1.81</v>
-      </c>
       <c r="BM141">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="BN141">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BO141">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP141">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30750,7 +30750,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7727013</v>
+        <v>7727012</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30762,193 +30762,193 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H144" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L144">
         <v>2</v>
       </c>
       <c r="M144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O144" t="s">
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="Q144">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R144">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S144">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="T144">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V144">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y144">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="AA144">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AB144">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE144">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AG144">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AH144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI144">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK144">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AL144">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AM144">
-        <v>1.52</v>
+        <v>2.25</v>
       </c>
       <c r="AN144">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO144">
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>0.97</v>
       </c>
       <c r="AT144">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="AU144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW144">
+        <v>1</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>9</v>
+      </c>
+      <c r="AZ144">
         <v>5</v>
       </c>
-      <c r="AX144">
-        <v>2</v>
-      </c>
-      <c r="AY144">
-        <v>13</v>
-      </c>
-      <c r="AZ144">
+      <c r="BA144">
         <v>7</v>
-      </c>
-      <c r="BA144">
-        <v>11</v>
       </c>
       <c r="BB144">
         <v>4</v>
       </c>
       <c r="BC144">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD144">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="BE144">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF144">
-        <v>1.98</v>
+        <v>2.65</v>
       </c>
       <c r="BG144">
+        <v>1.17</v>
+      </c>
+      <c r="BH144">
+        <v>4.3</v>
+      </c>
+      <c r="BI144">
         <v>1.3</v>
       </c>
-      <c r="BH144">
-        <v>3.05</v>
-      </c>
-      <c r="BI144">
+      <c r="BJ144">
+        <v>3.15</v>
+      </c>
+      <c r="BK144">
+        <v>1.52</v>
+      </c>
+      <c r="BL144">
+        <v>2.33</v>
+      </c>
+      <c r="BM144">
+        <v>1.83</v>
+      </c>
+      <c r="BN144">
+        <v>1.85</v>
+      </c>
+      <c r="BO144">
+        <v>2.25</v>
+      </c>
+      <c r="BP144">
         <v>1.55</v>
-      </c>
-      <c r="BJ144">
-        <v>2.25</v>
-      </c>
-      <c r="BK144">
-        <v>1.9</v>
-      </c>
-      <c r="BL144">
-        <v>1.79</v>
-      </c>
-      <c r="BM144">
-        <v>2.4</v>
-      </c>
-      <c r="BN144">
-        <v>1.49</v>
-      </c>
-      <c r="BO144">
-        <v>3.15</v>
-      </c>
-      <c r="BP144">
-        <v>1.3</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -31204,7 +31204,7 @@
         <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31780,7 +31780,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7727012</v>
+        <v>7727013</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31792,193 +31792,193 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F149">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H149" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L149">
         <v>2</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O149" t="s">
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="Q149">
+        <v>3.2</v>
+      </c>
+      <c r="R149">
         <v>2.2</v>
       </c>
-      <c r="R149">
-        <v>2.25</v>
-      </c>
       <c r="S149">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T149">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V149">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W149">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y149">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z149">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="AA149">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="AB149">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC149">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD149">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE149">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF149">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AG149">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AH149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AI149">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ149">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK149">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AL149">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AM149">
-        <v>2.25</v>
+        <v>1.52</v>
       </c>
       <c r="AN149">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO149">
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AR149">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>0.97</v>
+        <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>2.43</v>
+        <v>2.66</v>
       </c>
       <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
         <v>5</v>
       </c>
-      <c r="AV149">
-        <v>2</v>
-      </c>
-      <c r="AW149">
-        <v>1</v>
-      </c>
       <c r="AX149">
         <v>2</v>
       </c>
       <c r="AY149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA149">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB149">
         <v>4</v>
       </c>
       <c r="BC149">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD149">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BE149">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF149">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="BG149">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="BH149">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI149">
+        <v>1.55</v>
+      </c>
+      <c r="BJ149">
+        <v>2.25</v>
+      </c>
+      <c r="BK149">
+        <v>1.9</v>
+      </c>
+      <c r="BL149">
+        <v>1.79</v>
+      </c>
+      <c r="BM149">
+        <v>2.4</v>
+      </c>
+      <c r="BN149">
+        <v>1.49</v>
+      </c>
+      <c r="BO149">
+        <v>3.15</v>
+      </c>
+      <c r="BP149">
         <v>1.3</v>
-      </c>
-      <c r="BJ149">
-        <v>3.15</v>
-      </c>
-      <c r="BK149">
-        <v>1.52</v>
-      </c>
-      <c r="BL149">
-        <v>2.33</v>
-      </c>
-      <c r="BM149">
-        <v>1.83</v>
-      </c>
-      <c r="BN149">
-        <v>1.85</v>
-      </c>
-      <c r="BO149">
-        <v>2.25</v>
-      </c>
-      <c r="BP149">
-        <v>1.55</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -34046,7 +34046,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7727031</v>
+        <v>7727023</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34061,10 +34061,10 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H160" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -34076,13 +34076,13 @@
         <v>1</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160">
         <v>0</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O160" t="s">
         <v>203</v>
@@ -34091,160 +34091,160 @@
         <v>96</v>
       </c>
       <c r="Q160">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="R160">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S160">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="T160">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U160">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V160">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W160">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X160">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y160">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z160">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AA160">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB160">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC160">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD160">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE160">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF160">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AG160">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AH160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI160">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AJ160">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK160">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AL160">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM160">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="AN160">
-        <v>2.67</v>
+        <v>0.33</v>
       </c>
       <c r="AO160">
-        <v>2.4</v>
+        <v>0.57</v>
       </c>
       <c r="AP160">
-        <v>2.75</v>
+        <v>0.63</v>
       </c>
       <c r="AQ160">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR160">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="AS160">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AT160">
-        <v>2.59</v>
+        <v>2.17</v>
       </c>
       <c r="AU160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW160">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX160">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
         <v>13</v>
       </c>
-      <c r="AZ160">
-        <v>16</v>
-      </c>
       <c r="BA160">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB160">
         <v>4</v>
       </c>
       <c r="BC160">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD160">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="BE160">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF160">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="BG160">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BH160">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="BI160">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BJ160">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="BK160">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BL160">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="BM160">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="BN160">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="BO160">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BP160">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34252,7 +34252,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7727023</v>
+        <v>7727031</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34267,10 +34267,10 @@
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H161" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -34282,13 +34282,13 @@
         <v>1</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M161">
         <v>0</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O161" t="s">
         <v>204</v>
@@ -34297,160 +34297,160 @@
         <v>96</v>
       </c>
       <c r="Q161">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R161">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S161">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T161">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U161">
+        <v>3.25</v>
+      </c>
+      <c r="V161">
+        <v>2.63</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>6.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.11</v>
+      </c>
+      <c r="Z161">
+        <v>1.73</v>
+      </c>
+      <c r="AA161">
+        <v>3.8</v>
+      </c>
+      <c r="AB161">
+        <v>4.6</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>15</v>
+      </c>
+      <c r="AE161">
+        <v>1.22</v>
+      </c>
+      <c r="AF161">
+        <v>4.2</v>
+      </c>
+      <c r="AG161">
+        <v>1.72</v>
+      </c>
+      <c r="AH161">
+        <v>2</v>
+      </c>
+      <c r="AI161">
+        <v>1.75</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+      <c r="AK161">
+        <v>1.22</v>
+      </c>
+      <c r="AL161">
+        <v>1.2</v>
+      </c>
+      <c r="AM161">
+        <v>2.1</v>
+      </c>
+      <c r="AN161">
+        <v>2.67</v>
+      </c>
+      <c r="AO161">
+        <v>2.4</v>
+      </c>
+      <c r="AP161">
         <v>2.75</v>
       </c>
-      <c r="V161">
-        <v>2.75</v>
-      </c>
-      <c r="W161">
-        <v>1.4</v>
-      </c>
-      <c r="X161">
+      <c r="AQ161">
+        <v>2</v>
+      </c>
+      <c r="AR161">
+        <v>1.49</v>
+      </c>
+      <c r="AS161">
+        <v>1.1</v>
+      </c>
+      <c r="AT161">
+        <v>2.59</v>
+      </c>
+      <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
         <v>8</v>
       </c>
-      <c r="Y161">
-        <v>1.08</v>
-      </c>
-      <c r="Z161">
-        <v>2.25</v>
-      </c>
-      <c r="AA161">
-        <v>3.3</v>
-      </c>
-      <c r="AB161">
-        <v>3.2</v>
-      </c>
-      <c r="AC161">
-        <v>1.05</v>
-      </c>
-      <c r="AD161">
-        <v>11</v>
-      </c>
-      <c r="AE161">
-        <v>1.3</v>
-      </c>
-      <c r="AF161">
-        <v>3.5</v>
-      </c>
-      <c r="AG161">
-        <v>1.85</v>
-      </c>
-      <c r="AH161">
-        <v>1.85</v>
-      </c>
-      <c r="AI161">
-        <v>1.7</v>
-      </c>
-      <c r="AJ161">
-        <v>2.05</v>
-      </c>
-      <c r="AK161">
-        <v>1.36</v>
-      </c>
-      <c r="AL161">
-        <v>1.25</v>
-      </c>
-      <c r="AM161">
-        <v>1.66</v>
-      </c>
-      <c r="AN161">
-        <v>0.33</v>
-      </c>
-      <c r="AO161">
-        <v>0.57</v>
-      </c>
-      <c r="AP161">
-        <v>0.63</v>
-      </c>
-      <c r="AQ161">
-        <v>0.5</v>
-      </c>
-      <c r="AR161">
-        <v>1.04</v>
-      </c>
-      <c r="AS161">
-        <v>1.13</v>
-      </c>
-      <c r="AT161">
-        <v>2.17</v>
-      </c>
-      <c r="AU161">
-        <v>6</v>
-      </c>
-      <c r="AV161">
-        <v>3</v>
-      </c>
-      <c r="AW161">
-        <v>4</v>
-      </c>
       <c r="AX161">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY161">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ161">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA161">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB161">
         <v>4</v>
       </c>
       <c r="BC161">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD161">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="BE161">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF161">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="BG161">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="BH161">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="BI161">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="BJ161">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="BK161">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="BL161">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="BM161">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="BN161">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="BO161">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BP161">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -34458,7 +34458,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7727021</v>
+        <v>7727022</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34470,22 +34470,22 @@
         <v>45605.5</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H162" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -34497,166 +34497,166 @@
         <v>2</v>
       </c>
       <c r="O162" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="Q162">
-        <v>1.67</v>
+        <v>3.6</v>
       </c>
       <c r="R162">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S162">
-        <v>9</v>
+        <v>2.88</v>
       </c>
       <c r="T162">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U162">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V162">
+        <v>2.75</v>
+      </c>
+      <c r="W162">
+        <v>1.4</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>3.1</v>
+      </c>
+      <c r="AA162">
+        <v>3.3</v>
+      </c>
+      <c r="AB162">
         <v>2.25</v>
       </c>
-      <c r="W162">
-        <v>1.57</v>
-      </c>
-      <c r="X162">
-        <v>5.5</v>
-      </c>
-      <c r="Y162">
-        <v>1.14</v>
-      </c>
-      <c r="Z162">
-        <v>1.22</v>
-      </c>
-      <c r="AA162">
-        <v>5.5</v>
-      </c>
-      <c r="AB162">
-        <v>12</v>
-      </c>
       <c r="AC162">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD162">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE162">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AF162">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG162">
-        <v>1.54</v>
+        <v>1.9</v>
       </c>
       <c r="AH162">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="AI162">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AJ162">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK162">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="AL162">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AM162">
-        <v>3.95</v>
+        <v>1.38</v>
       </c>
       <c r="AN162">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO162">
-        <v>0.83</v>
+        <v>1.83</v>
       </c>
       <c r="AP162">
-        <v>2.43</v>
+        <v>1.75</v>
       </c>
       <c r="AQ162">
-        <v>0.88</v>
+        <v>1.63</v>
       </c>
       <c r="AR162">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT162">
-        <v>2.69</v>
+        <v>2.2</v>
       </c>
       <c r="AU162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV162">
         <v>4</v>
       </c>
       <c r="AW162">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY162">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AZ162">
+        <v>14</v>
+      </c>
+      <c r="BA162">
         <v>6</v>
       </c>
-      <c r="BA162">
-        <v>10</v>
-      </c>
       <c r="BB162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC162">
         <v>12</v>
       </c>
       <c r="BD162">
-        <v>1.23</v>
+        <v>2.07</v>
       </c>
       <c r="BE162">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF162">
-        <v>4.1</v>
+        <v>1.82</v>
       </c>
       <c r="BG162">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH162">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BI162">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BJ162">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="BK162">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="BL162">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="BM162">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="BN162">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="BO162">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP162">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34909,7 +34909,7 @@
         <v>5</v>
       </c>
       <c r="O164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P164" t="s">
         <v>96</v>
@@ -35115,7 +35115,7 @@
         <v>2</v>
       </c>
       <c r="O165" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P165" t="s">
         <v>295</v>
@@ -35321,7 +35321,7 @@
         <v>7</v>
       </c>
       <c r="O166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P166" t="s">
         <v>197</v>
@@ -35527,7 +35527,7 @@
         <v>3</v>
       </c>
       <c r="O167" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P167" t="s">
         <v>96</v>
@@ -35733,7 +35733,7 @@
         <v>1</v>
       </c>
       <c r="O168" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P168" t="s">
         <v>96</v>
@@ -35900,7 +35900,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7727024</v>
+        <v>7727021</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35912,193 +35912,193 @@
         <v>45605.5</v>
       </c>
       <c r="F169">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H169" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>99</v>
+      </c>
+      <c r="P169" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q169">
+        <v>1.67</v>
+      </c>
+      <c r="R169">
+        <v>2.63</v>
+      </c>
+      <c r="S169">
+        <v>9</v>
+      </c>
+      <c r="T169">
+        <v>1.29</v>
+      </c>
+      <c r="U169">
+        <v>3.5</v>
+      </c>
+      <c r="V169">
+        <v>2.25</v>
+      </c>
+      <c r="W169">
+        <v>1.57</v>
+      </c>
+      <c r="X169">
+        <v>5.5</v>
+      </c>
+      <c r="Y169">
+        <v>1.14</v>
+      </c>
+      <c r="Z169">
+        <v>1.22</v>
+      </c>
+      <c r="AA169">
+        <v>5.5</v>
+      </c>
+      <c r="AB169">
+        <v>12</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>19</v>
+      </c>
+      <c r="AE169">
+        <v>1.18</v>
+      </c>
+      <c r="AF169">
+        <v>4.75</v>
+      </c>
+      <c r="AG169">
+        <v>1.54</v>
+      </c>
+      <c r="AH169">
+        <v>2.32</v>
+      </c>
+      <c r="AI169">
+        <v>2.05</v>
+      </c>
+      <c r="AJ169">
+        <v>1.7</v>
+      </c>
+      <c r="AK169">
+        <v>1.04</v>
+      </c>
+      <c r="AL169">
+        <v>1.12</v>
+      </c>
+      <c r="AM169">
+        <v>3.95</v>
+      </c>
+      <c r="AN169">
+        <v>2.67</v>
+      </c>
+      <c r="AO169">
+        <v>0.83</v>
+      </c>
+      <c r="AP169">
+        <v>2.43</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.64</v>
+      </c>
+      <c r="AS169">
+        <v>1.05</v>
+      </c>
+      <c r="AT169">
+        <v>2.69</v>
+      </c>
+      <c r="AU169">
         <v>4</v>
       </c>
-      <c r="O169" t="s">
-        <v>210</v>
-      </c>
-      <c r="P169" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q169">
-        <v>4.33</v>
-      </c>
-      <c r="R169">
-        <v>2.25</v>
-      </c>
-      <c r="S169">
-        <v>2.5</v>
-      </c>
-      <c r="T169">
-        <v>1.36</v>
-      </c>
-      <c r="U169">
-        <v>3</v>
-      </c>
-      <c r="V169">
-        <v>2.63</v>
-      </c>
-      <c r="W169">
-        <v>1.44</v>
-      </c>
-      <c r="X169">
-        <v>7</v>
-      </c>
-      <c r="Y169">
-        <v>1.1</v>
-      </c>
-      <c r="Z169">
+      <c r="AV169">
         <v>4</v>
       </c>
-      <c r="AA169">
-        <v>3.6</v>
-      </c>
-      <c r="AB169">
-        <v>1.85</v>
-      </c>
-      <c r="AC169">
-        <v>1.03</v>
-      </c>
-      <c r="AD169">
-        <v>13</v>
-      </c>
-      <c r="AE169">
-        <v>1.25</v>
-      </c>
-      <c r="AF169">
-        <v>3.75</v>
-      </c>
-      <c r="AG169">
-        <v>1.76</v>
-      </c>
-      <c r="AH169">
-        <v>1.95</v>
-      </c>
-      <c r="AI169">
-        <v>1.75</v>
-      </c>
-      <c r="AJ169">
-        <v>2</v>
-      </c>
-      <c r="AK169">
-        <v>1.95</v>
-      </c>
-      <c r="AL169">
-        <v>1.22</v>
-      </c>
-      <c r="AM169">
-        <v>1.25</v>
-      </c>
-      <c r="AN169">
-        <v>1</v>
-      </c>
-      <c r="AO169">
-        <v>1.17</v>
-      </c>
-      <c r="AP169">
-        <v>1.22</v>
-      </c>
-      <c r="AQ169">
-        <v>1.14</v>
-      </c>
-      <c r="AR169">
-        <v>1.01</v>
-      </c>
-      <c r="AS169">
-        <v>1.22</v>
-      </c>
-      <c r="AT169">
-        <v>2.23</v>
-      </c>
-      <c r="AU169">
-        <v>3</v>
-      </c>
-      <c r="AV169">
-        <v>7</v>
-      </c>
       <c r="AW169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY169">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AZ169">
+        <v>6</v>
+      </c>
+      <c r="BA169">
+        <v>10</v>
+      </c>
+      <c r="BB169">
+        <v>2</v>
+      </c>
+      <c r="BC169">
         <v>12</v>
       </c>
-      <c r="BA169">
-        <v>1</v>
-      </c>
-      <c r="BB169">
-        <v>8</v>
-      </c>
-      <c r="BC169">
-        <v>9</v>
-      </c>
       <c r="BD169">
-        <v>2.55</v>
+        <v>1.23</v>
       </c>
       <c r="BE169">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF169">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="BG169">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH169">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="BI169">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BJ169">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="BK169">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="BL169">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="BM169">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="BN169">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="BO169">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BP169">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -36106,7 +36106,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7727022</v>
+        <v>7727024</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36121,10 +36121,10 @@
         <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H170" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -36136,73 +36136,73 @@
         <v>1</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O170" t="s">
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="Q170">
+        <v>4.33</v>
+      </c>
+      <c r="R170">
+        <v>2.25</v>
+      </c>
+      <c r="S170">
+        <v>2.5</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.63</v>
+      </c>
+      <c r="W170">
+        <v>1.44</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.1</v>
+      </c>
+      <c r="Z170">
+        <v>4</v>
+      </c>
+      <c r="AA170">
         <v>3.6</v>
       </c>
-      <c r="R170">
-        <v>2.2</v>
-      </c>
-      <c r="S170">
-        <v>2.88</v>
-      </c>
-      <c r="T170">
-        <v>1.4</v>
-      </c>
-      <c r="U170">
-        <v>2.75</v>
-      </c>
-      <c r="V170">
-        <v>2.75</v>
-      </c>
-      <c r="W170">
-        <v>1.4</v>
-      </c>
-      <c r="X170">
-        <v>8</v>
-      </c>
-      <c r="Y170">
-        <v>1.08</v>
-      </c>
-      <c r="Z170">
-        <v>3.1</v>
-      </c>
-      <c r="AA170">
-        <v>3.3</v>
-      </c>
       <c r="AB170">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AC170">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD170">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE170">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF170">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AG170">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="AH170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AI170">
         <v>1.75</v>
@@ -36211,100 +36211,100 @@
         <v>2</v>
       </c>
       <c r="AK170">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AL170">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM170">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AN170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO170">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP170">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="AQ170">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="AR170">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="AS170">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT170">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AU170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV170">
+        <v>7</v>
+      </c>
+      <c r="AW170">
+        <v>0</v>
+      </c>
+      <c r="AX170">
+        <v>2</v>
+      </c>
+      <c r="AY170">
         <v>4</v>
       </c>
-      <c r="AW170">
-        <v>5</v>
-      </c>
-      <c r="AX170">
-        <v>5</v>
-      </c>
-      <c r="AY170">
+      <c r="AZ170">
+        <v>12</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
+        <v>8</v>
+      </c>
+      <c r="BC170">
         <v>9</v>
       </c>
-      <c r="AZ170">
-        <v>14</v>
-      </c>
-      <c r="BA170">
-        <v>6</v>
-      </c>
-      <c r="BB170">
-        <v>6</v>
-      </c>
-      <c r="BC170">
-        <v>12</v>
-      </c>
       <c r="BD170">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="BE170">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF170">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="BG170">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH170">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BI170">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="BJ170">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BK170">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="BL170">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="BM170">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BN170">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="BO170">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BP170">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -36724,7 +36724,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7727035</v>
+        <v>7727041</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36739,70 +36739,70 @@
         <v>16</v>
       </c>
       <c r="G173" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L173">
         <v>1</v>
       </c>
       <c r="M173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O173" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="P173" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="Q173">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>3.5</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
+        <v>2.75</v>
+      </c>
+      <c r="V173">
+        <v>2.75</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>8</v>
+      </c>
+      <c r="Y173">
+        <v>1.08</v>
+      </c>
+      <c r="Z173">
         <v>2.25</v>
       </c>
-      <c r="S173">
-        <v>2.5</v>
-      </c>
-      <c r="T173">
-        <v>1.36</v>
-      </c>
-      <c r="U173">
-        <v>3</v>
-      </c>
-      <c r="V173">
-        <v>2.63</v>
-      </c>
-      <c r="W173">
-        <v>1.44</v>
-      </c>
-      <c r="X173">
-        <v>7</v>
-      </c>
-      <c r="Y173">
-        <v>1.1</v>
-      </c>
-      <c r="Z173">
-        <v>4.38</v>
-      </c>
       <c r="AA173">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="AB173">
-        <v>1.7</v>
+        <v>2.83</v>
       </c>
       <c r="AC173">
         <v>1.05</v>
@@ -36811,118 +36811,118 @@
         <v>9.5</v>
       </c>
       <c r="AE173">
+        <v>1.28</v>
+      </c>
+      <c r="AF173">
+        <v>3.55</v>
+      </c>
+      <c r="AG173">
+        <v>1.8</v>
+      </c>
+      <c r="AH173">
+        <v>1.9</v>
+      </c>
+      <c r="AI173">
+        <v>1.75</v>
+      </c>
+      <c r="AJ173">
+        <v>2</v>
+      </c>
+      <c r="AK173">
+        <v>1.4</v>
+      </c>
+      <c r="AL173">
         <v>1.25</v>
       </c>
-      <c r="AF173">
-        <v>3.8</v>
-      </c>
-      <c r="AG173">
-        <v>1.68</v>
-      </c>
-      <c r="AH173">
-        <v>2.05</v>
-      </c>
-      <c r="AI173">
-        <v>1.67</v>
-      </c>
-      <c r="AJ173">
-        <v>2.1</v>
-      </c>
-      <c r="AK173">
-        <v>1.85</v>
-      </c>
-      <c r="AL173">
-        <v>1.22</v>
-      </c>
       <c r="AM173">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AN173">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AO173">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP173">
-        <v>1.14</v>
+        <v>1.89</v>
       </c>
       <c r="AQ173">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AS173">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT173">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="AU173">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV173">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW173">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>20</v>
+      </c>
+      <c r="AZ173">
         <v>10</v>
       </c>
-      <c r="AY173">
-        <v>12</v>
-      </c>
-      <c r="AZ173">
-        <v>16</v>
-      </c>
       <c r="BA173">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC173">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD173">
-        <v>2.33</v>
+        <v>1.78</v>
       </c>
       <c r="BE173">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF173">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="BG173">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BH173">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="BI173">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="BJ173">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="BK173">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BL173">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="BM173">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="BN173">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="BO173">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BP173">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -36930,7 +36930,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7727033</v>
+        <v>7727035</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36945,49 +36945,49 @@
         <v>16</v>
       </c>
       <c r="G174" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H174" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O174" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="P174" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="Q174">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="R174">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S174">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="T174">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U174">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V174">
         <v>2.63</v>
@@ -36996,31 +36996,31 @@
         <v>1.44</v>
       </c>
       <c r="X174">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y174">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z174">
-        <v>1.59</v>
+        <v>4.38</v>
       </c>
       <c r="AA174">
-        <v>4.07</v>
+        <v>3.65</v>
       </c>
       <c r="AB174">
-        <v>4.65</v>
+        <v>1.7</v>
       </c>
       <c r="AC174">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD174">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE174">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF174">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AG174">
         <v>1.68</v>
@@ -37029,40 +37029,40 @@
         <v>2.05</v>
       </c>
       <c r="AI174">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ174">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK174">
+        <v>1.85</v>
+      </c>
+      <c r="AL174">
+        <v>1.22</v>
+      </c>
+      <c r="AM174">
+        <v>1.25</v>
+      </c>
+      <c r="AN174">
+        <v>1.17</v>
+      </c>
+      <c r="AO174">
+        <v>2.14</v>
+      </c>
+      <c r="AP174">
         <v>1.14</v>
       </c>
-      <c r="AL174">
-        <v>1.18</v>
-      </c>
-      <c r="AM174">
-        <v>2.35</v>
-      </c>
-      <c r="AN174">
-        <v>1.29</v>
-      </c>
-      <c r="AO174">
-        <v>0.86</v>
-      </c>
-      <c r="AP174">
-        <v>1.25</v>
-      </c>
       <c r="AQ174">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="AR174">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="AS174">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT174">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37071,64 +37071,64 @@
         <v>6</v>
       </c>
       <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>10</v>
+      </c>
+      <c r="AY174">
+        <v>12</v>
+      </c>
+      <c r="AZ174">
+        <v>16</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>5</v>
+      </c>
+      <c r="BC174">
         <v>9</v>
       </c>
-      <c r="AX174">
-        <v>4</v>
-      </c>
-      <c r="AY174">
-        <v>18</v>
-      </c>
-      <c r="AZ174">
-        <v>14</v>
-      </c>
-      <c r="BA174">
-        <v>5</v>
-      </c>
-      <c r="BB174">
-        <v>6</v>
-      </c>
-      <c r="BC174">
-        <v>11</v>
-      </c>
       <c r="BD174">
-        <v>1.4</v>
+        <v>2.33</v>
       </c>
       <c r="BE174">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF174">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="BG174">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH174">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="BI174">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="BJ174">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BK174">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BL174">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="BM174">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="BN174">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="BO174">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BP174">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37136,7 +37136,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7727041</v>
+        <v>7727033</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37151,187 +37151,187 @@
         <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H175" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="K175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="P175" t="s">
         <v>96</v>
       </c>
       <c r="Q175">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R175">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S175">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T175">
+        <v>1.33</v>
+      </c>
+      <c r="U175">
+        <v>3.25</v>
+      </c>
+      <c r="V175">
+        <v>2.63</v>
+      </c>
+      <c r="W175">
+        <v>1.44</v>
+      </c>
+      <c r="X175">
+        <v>6.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.11</v>
+      </c>
+      <c r="Z175">
+        <v>1.59</v>
+      </c>
+      <c r="AA175">
+        <v>4.07</v>
+      </c>
+      <c r="AB175">
+        <v>4.65</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>10</v>
+      </c>
+      <c r="AE175">
+        <v>1.22</v>
+      </c>
+      <c r="AF175">
+        <v>4.2</v>
+      </c>
+      <c r="AG175">
+        <v>1.68</v>
+      </c>
+      <c r="AH175">
+        <v>2.05</v>
+      </c>
+      <c r="AI175">
+        <v>1.8</v>
+      </c>
+      <c r="AJ175">
+        <v>1.95</v>
+      </c>
+      <c r="AK175">
+        <v>1.14</v>
+      </c>
+      <c r="AL175">
+        <v>1.18</v>
+      </c>
+      <c r="AM175">
+        <v>2.35</v>
+      </c>
+      <c r="AN175">
+        <v>1.29</v>
+      </c>
+      <c r="AO175">
+        <v>0.86</v>
+      </c>
+      <c r="AP175">
+        <v>1.25</v>
+      </c>
+      <c r="AQ175">
+        <v>0.88</v>
+      </c>
+      <c r="AR175">
+        <v>1.6</v>
+      </c>
+      <c r="AS175">
+        <v>1</v>
+      </c>
+      <c r="AT175">
+        <v>2.6</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>6</v>
+      </c>
+      <c r="AW175">
+        <v>9</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>18</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
+        <v>5</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>11</v>
+      </c>
+      <c r="BD175">
         <v>1.4</v>
       </c>
-      <c r="U175">
-        <v>2.75</v>
-      </c>
-      <c r="V175">
-        <v>2.75</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>8</v>
-      </c>
-      <c r="Y175">
-        <v>1.08</v>
-      </c>
-      <c r="Z175">
-        <v>2.25</v>
-      </c>
-      <c r="AA175">
-        <v>3.42</v>
-      </c>
-      <c r="AB175">
-        <v>2.83</v>
-      </c>
-      <c r="AC175">
-        <v>1.05</v>
-      </c>
-      <c r="AD175">
-        <v>9.5</v>
-      </c>
-      <c r="AE175">
-        <v>1.28</v>
-      </c>
-      <c r="AF175">
-        <v>3.55</v>
-      </c>
-      <c r="AG175">
-        <v>1.8</v>
-      </c>
-      <c r="AH175">
-        <v>1.9</v>
-      </c>
-      <c r="AI175">
-        <v>1.75</v>
-      </c>
-      <c r="AJ175">
-        <v>2</v>
-      </c>
-      <c r="AK175">
-        <v>1.4</v>
-      </c>
-      <c r="AL175">
-        <v>1.25</v>
-      </c>
-      <c r="AM175">
-        <v>1.6</v>
-      </c>
-      <c r="AN175">
-        <v>1.75</v>
-      </c>
-      <c r="AO175">
-        <v>1.29</v>
-      </c>
-      <c r="AP175">
-        <v>1.89</v>
-      </c>
-      <c r="AQ175">
-        <v>1.13</v>
-      </c>
-      <c r="AR175">
-        <v>1.58</v>
-      </c>
-      <c r="AS175">
-        <v>1.07</v>
-      </c>
-      <c r="AT175">
-        <v>2.65</v>
-      </c>
-      <c r="AU175">
-        <v>8</v>
-      </c>
-      <c r="AV175">
-        <v>2</v>
-      </c>
-      <c r="AW175">
-        <v>8</v>
-      </c>
-      <c r="AX175">
-        <v>7</v>
-      </c>
-      <c r="AY175">
-        <v>20</v>
-      </c>
-      <c r="AZ175">
-        <v>10</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>2</v>
-      </c>
-      <c r="BC175">
-        <v>10</v>
-      </c>
-      <c r="BD175">
-        <v>1.78</v>
-      </c>
       <c r="BE175">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF175">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="BG175">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH175">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="BI175">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BJ175">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="BK175">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL175">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BM175">
         <v>2.32</v>
       </c>
       <c r="BN175">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="BO175">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BP175">
         <v>1.33</v>
@@ -37342,7 +37342,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7727053</v>
+        <v>7727046</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37351,136 +37351,136 @@
         <v>69</v>
       </c>
       <c r="E176" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F176">
         <v>17</v>
       </c>
       <c r="G176" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H176" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O176" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="P176" t="s">
         <v>297</v>
       </c>
       <c r="Q176">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="R176">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S176">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="T176">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U176">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V176">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W176">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y176">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z176">
-        <v>7.2</v>
+        <v>3.28</v>
       </c>
       <c r="AA176">
-        <v>4.33</v>
+        <v>3.01</v>
       </c>
       <c r="AB176">
-        <v>1.29</v>
+        <v>1.88</v>
       </c>
       <c r="AC176">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD176">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE176">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF176">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG176">
+        <v>1.9</v>
+      </c>
+      <c r="AH176">
+        <v>1.86</v>
+      </c>
+      <c r="AI176">
         <v>1.75</v>
       </c>
-      <c r="AH176">
-        <v>1.95</v>
-      </c>
-      <c r="AI176">
-        <v>2</v>
-      </c>
       <c r="AJ176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AK176">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AL176">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM176">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AN176">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AO176">
-        <v>2.17</v>
+        <v>1.43</v>
       </c>
       <c r="AP176">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AQ176">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR176">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="AS176">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AT176">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AU176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV176">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW176">
         <v>3</v>
@@ -37489,58 +37489,58 @@
         <v>4</v>
       </c>
       <c r="AY176">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ176">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC176">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD176">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="BE176">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="BF176">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="BG176">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="BH176">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="BI176">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="BJ176">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BK176">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="BL176">
-        <v>2.07</v>
+        <v>1.76</v>
       </c>
       <c r="BM176">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="BN176">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="BO176">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="BP176">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37548,7 +37548,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7727054</v>
+        <v>7727044</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37557,196 +37557,196 @@
         <v>69</v>
       </c>
       <c r="E177" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F177">
         <v>17</v>
       </c>
       <c r="G177" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H177" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177" t="s">
         <v>96</v>
       </c>
       <c r="P177" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="Q177">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>4.33</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>2.02</v>
+      </c>
+      <c r="AA177">
+        <v>3.05</v>
+      </c>
+      <c r="AB177">
+        <v>3.14</v>
+      </c>
+      <c r="AC177">
+        <v>1.04</v>
+      </c>
+      <c r="AD177">
+        <v>12</v>
+      </c>
+      <c r="AE177">
+        <v>1.3</v>
+      </c>
+      <c r="AF177">
+        <v>3.5</v>
+      </c>
+      <c r="AG177">
+        <v>1.9</v>
+      </c>
+      <c r="AH177">
+        <v>1.86</v>
+      </c>
+      <c r="AI177">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177">
         <v>1.95</v>
       </c>
-      <c r="S177">
-        <v>3.75</v>
-      </c>
-      <c r="T177">
-        <v>1.53</v>
-      </c>
-      <c r="U177">
-        <v>2.38</v>
-      </c>
-      <c r="V177">
-        <v>3.75</v>
-      </c>
-      <c r="W177">
+      <c r="AK177">
+        <v>1.3</v>
+      </c>
+      <c r="AL177">
         <v>1.25</v>
       </c>
-      <c r="X177">
-        <v>11</v>
-      </c>
-      <c r="Y177">
-        <v>1.05</v>
-      </c>
-      <c r="Z177">
-        <v>2.28</v>
-      </c>
-      <c r="AA177">
-        <v>2.86</v>
-      </c>
-      <c r="AB177">
-        <v>2.82</v>
-      </c>
-      <c r="AC177">
-        <v>1.09</v>
-      </c>
-      <c r="AD177">
-        <v>7.5</v>
-      </c>
-      <c r="AE177">
-        <v>1.5</v>
-      </c>
-      <c r="AF177">
-        <v>2.4</v>
-      </c>
-      <c r="AG177">
-        <v>2.35</v>
-      </c>
-      <c r="AH177">
-        <v>1.53</v>
-      </c>
-      <c r="AI177">
-        <v>2</v>
-      </c>
-      <c r="AJ177">
-        <v>1.75</v>
-      </c>
-      <c r="AK177">
-        <v>1.42</v>
-      </c>
-      <c r="AL177">
-        <v>1.3</v>
-      </c>
       <c r="AM177">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AN177">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AO177">
         <v>0.86</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR177">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="AS177">
-        <v>0.9399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AT177">
-        <v>2.05</v>
+        <v>2.72</v>
       </c>
       <c r="AU177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV177">
         <v>2</v>
       </c>
       <c r="AW177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY177">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AZ177">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA177">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC177">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD177">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="BE177">
         <v>6.4</v>
       </c>
       <c r="BF177">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="BG177">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BH177">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BI177">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="BJ177">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BK177">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BL177">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="BM177">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BN177">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="BO177">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BP177">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37754,7 +37754,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7727045</v>
+        <v>7727047</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37763,196 +37763,196 @@
         <v>69</v>
       </c>
       <c r="E178" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G178" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H178" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
         <v>1</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O178" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="P178" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q178">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R178">
+        <v>2.2</v>
+      </c>
+      <c r="S178">
+        <v>2.6</v>
+      </c>
+      <c r="T178">
+        <v>1.36</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
+      <c r="V178">
+        <v>2.75</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>3.16</v>
+      </c>
+      <c r="AA178">
+        <v>2.99</v>
+      </c>
+      <c r="AB178">
+        <v>1.93</v>
+      </c>
+      <c r="AC178">
+        <v>1.04</v>
+      </c>
+      <c r="AD178">
+        <v>12</v>
+      </c>
+      <c r="AE178">
+        <v>1.28</v>
+      </c>
+      <c r="AF178">
+        <v>3.6</v>
+      </c>
+      <c r="AG178">
+        <v>1.9</v>
+      </c>
+      <c r="AH178">
+        <v>1.86</v>
+      </c>
+      <c r="AI178">
+        <v>1.75</v>
+      </c>
+      <c r="AJ178">
+        <v>2</v>
+      </c>
+      <c r="AK178">
+        <v>1.87</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.28</v>
+      </c>
+      <c r="AN178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
+        <v>0.75</v>
+      </c>
+      <c r="AP178">
+        <v>1.22</v>
+      </c>
+      <c r="AQ178">
+        <v>0.67</v>
+      </c>
+      <c r="AR178">
+        <v>0.97</v>
+      </c>
+      <c r="AS178">
+        <v>1.29</v>
+      </c>
+      <c r="AT178">
+        <v>2.26</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>4</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>3</v>
+      </c>
+      <c r="BB178">
+        <v>6</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
         <v>2.3</v>
-      </c>
-      <c r="S178">
-        <v>4</v>
-      </c>
-      <c r="T178">
-        <v>1.33</v>
-      </c>
-      <c r="U178">
-        <v>3.25</v>
-      </c>
-      <c r="V178">
-        <v>2.5</v>
-      </c>
-      <c r="W178">
-        <v>1.5</v>
-      </c>
-      <c r="X178">
-        <v>6</v>
-      </c>
-      <c r="Y178">
-        <v>1.13</v>
-      </c>
-      <c r="Z178">
-        <v>1.25</v>
-      </c>
-      <c r="AA178">
-        <v>7.85</v>
-      </c>
-      <c r="AB178">
-        <v>5.44</v>
-      </c>
-      <c r="AC178">
-        <v>1.02</v>
-      </c>
-      <c r="AD178">
-        <v>15</v>
-      </c>
-      <c r="AE178">
-        <v>1.2</v>
-      </c>
-      <c r="AF178">
-        <v>4.33</v>
-      </c>
-      <c r="AG178">
-        <v>1.62</v>
-      </c>
-      <c r="AH178">
-        <v>2.15</v>
-      </c>
-      <c r="AI178">
-        <v>1.57</v>
-      </c>
-      <c r="AJ178">
-        <v>2.25</v>
-      </c>
-      <c r="AK178">
-        <v>1.28</v>
-      </c>
-      <c r="AL178">
-        <v>1.22</v>
-      </c>
-      <c r="AM178">
-        <v>1.9</v>
-      </c>
-      <c r="AN178">
-        <v>1.57</v>
-      </c>
-      <c r="AO178">
-        <v>1</v>
-      </c>
-      <c r="AP178">
-        <v>1.75</v>
-      </c>
-      <c r="AQ178">
-        <v>0.88</v>
-      </c>
-      <c r="AR178">
-        <v>1.67</v>
-      </c>
-      <c r="AS178">
-        <v>1.3</v>
-      </c>
-      <c r="AT178">
-        <v>2.97</v>
-      </c>
-      <c r="AU178">
-        <v>5</v>
-      </c>
-      <c r="AV178">
-        <v>3</v>
-      </c>
-      <c r="AW178">
-        <v>5</v>
-      </c>
-      <c r="AX178">
-        <v>3</v>
-      </c>
-      <c r="AY178">
-        <v>15</v>
-      </c>
-      <c r="AZ178">
-        <v>7</v>
-      </c>
-      <c r="BA178">
-        <v>1</v>
-      </c>
-      <c r="BB178">
-        <v>3</v>
-      </c>
-      <c r="BC178">
-        <v>4</v>
-      </c>
-      <c r="BD178">
-        <v>1.58</v>
       </c>
       <c r="BE178">
         <v>6.75</v>
       </c>
       <c r="BF178">
-        <v>2.43</v>
+        <v>1.66</v>
       </c>
       <c r="BG178">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH178">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BI178">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BJ178">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK178">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="BL178">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="BM178">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BN178">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="BO178">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BP178">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -37960,7 +37960,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7727046</v>
+        <v>7727048</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -37969,61 +37969,61 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F179">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H179" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K179">
         <v>2</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N179">
         <v>3</v>
       </c>
       <c r="O179" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="Q179">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R179">
         <v>2.2</v>
       </c>
       <c r="S179">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="T179">
+        <v>1.4</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>3</v>
+      </c>
+      <c r="W179">
         <v>1.36</v>
-      </c>
-      <c r="U179">
-        <v>3</v>
-      </c>
-      <c r="V179">
-        <v>2.75</v>
-      </c>
-      <c r="W179">
-        <v>1.4</v>
       </c>
       <c r="X179">
         <v>8</v>
@@ -38032,13 +38032,13 @@
         <v>1.08</v>
       </c>
       <c r="Z179">
-        <v>3.28</v>
+        <v>1.69</v>
       </c>
       <c r="AA179">
-        <v>3.01</v>
+        <v>3.29</v>
       </c>
       <c r="AB179">
-        <v>1.88</v>
+        <v>4.06</v>
       </c>
       <c r="AC179">
         <v>1.05</v>
@@ -38047,118 +38047,118 @@
         <v>11</v>
       </c>
       <c r="AE179">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF179">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AG179">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AH179">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="AI179">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ179">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK179">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="AL179">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM179">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="AN179">
-        <v>0.71</v>
+        <v>2.14</v>
       </c>
       <c r="AO179">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP179">
-        <v>0.63</v>
+        <v>2.25</v>
       </c>
       <c r="AQ179">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR179">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="AS179">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AT179">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU179">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV179">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AW179">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY179">
+        <v>15</v>
+      </c>
+      <c r="AZ179">
+        <v>10</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
         <v>7</v>
       </c>
-      <c r="AZ179">
-        <v>16</v>
-      </c>
-      <c r="BA179">
-        <v>2</v>
-      </c>
-      <c r="BB179">
-        <v>4</v>
-      </c>
       <c r="BC179">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD179">
-        <v>2.4</v>
+        <v>1.47</v>
       </c>
       <c r="BE179">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF179">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="BG179">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="BH179">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI179">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="BJ179">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="BK179">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="BL179">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="BM179">
-        <v>2.43</v>
+        <v>2.02</v>
       </c>
       <c r="BN179">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="BO179">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BP179">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38166,7 +38166,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7727050</v>
+        <v>7727045</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38175,166 +38175,166 @@
         <v>69</v>
       </c>
       <c r="E180" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H180" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M180">
         <v>1</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O180" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="Q180">
+        <v>2.5</v>
+      </c>
+      <c r="R180">
         <v>2.3</v>
       </c>
-      <c r="R180">
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.33</v>
+      </c>
+      <c r="U180">
+        <v>3.25</v>
+      </c>
+      <c r="V180">
+        <v>2.5</v>
+      </c>
+      <c r="W180">
+        <v>1.5</v>
+      </c>
+      <c r="X180">
+        <v>6</v>
+      </c>
+      <c r="Y180">
+        <v>1.13</v>
+      </c>
+      <c r="Z180">
+        <v>1.25</v>
+      </c>
+      <c r="AA180">
+        <v>7.85</v>
+      </c>
+      <c r="AB180">
+        <v>5.44</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>15</v>
+      </c>
+      <c r="AE180">
+        <v>1.2</v>
+      </c>
+      <c r="AF180">
+        <v>4.33</v>
+      </c>
+      <c r="AG180">
+        <v>1.62</v>
+      </c>
+      <c r="AH180">
+        <v>2.15</v>
+      </c>
+      <c r="AI180">
+        <v>1.57</v>
+      </c>
+      <c r="AJ180">
         <v>2.25</v>
       </c>
-      <c r="S180">
-        <v>4.75</v>
-      </c>
-      <c r="T180">
-        <v>1.36</v>
-      </c>
-      <c r="U180">
-        <v>3</v>
-      </c>
-      <c r="V180">
-        <v>2.63</v>
-      </c>
-      <c r="W180">
-        <v>1.44</v>
-      </c>
-      <c r="X180">
-        <v>7</v>
-      </c>
-      <c r="Y180">
-        <v>1.1</v>
-      </c>
-      <c r="Z180">
-        <v>1.67</v>
-      </c>
-      <c r="AA180">
-        <v>3.4</v>
-      </c>
-      <c r="AB180">
-        <v>4</v>
-      </c>
-      <c r="AC180">
-        <v>1.03</v>
-      </c>
-      <c r="AD180">
-        <v>13</v>
-      </c>
-      <c r="AE180">
-        <v>1.25</v>
-      </c>
-      <c r="AF180">
-        <v>3.75</v>
-      </c>
-      <c r="AG180">
-        <v>1.8</v>
-      </c>
-      <c r="AH180">
-        <v>2</v>
-      </c>
-      <c r="AI180">
-        <v>1.8</v>
-      </c>
-      <c r="AJ180">
-        <v>1.95</v>
-      </c>
       <c r="AK180">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AL180">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM180">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AN180">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO180">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP180">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
       </c>
       <c r="AR180">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AS180">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AT180">
-        <v>2.35</v>
+        <v>2.97</v>
       </c>
       <c r="AU180">
         <v>5</v>
       </c>
       <c r="AV180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX180">
+        <v>3</v>
+      </c>
+      <c r="AY180">
+        <v>15</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>1</v>
+      </c>
+      <c r="BB180">
+        <v>3</v>
+      </c>
+      <c r="BC180">
         <v>4</v>
       </c>
-      <c r="AY180">
-        <v>20</v>
-      </c>
-      <c r="AZ180">
-        <v>14</v>
-      </c>
-      <c r="BA180">
-        <v>8</v>
-      </c>
-      <c r="BB180">
-        <v>4</v>
-      </c>
-      <c r="BC180">
-        <v>12</v>
-      </c>
       <c r="BD180">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="BE180">
         <v>6.75</v>
       </c>
       <c r="BF180">
-        <v>2.9</v>
+        <v>2.43</v>
       </c>
       <c r="BG180">
         <v>1.21</v>
@@ -38346,22 +38346,22 @@
         <v>1.38</v>
       </c>
       <c r="BJ180">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK180">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="BL180">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="BM180">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN180">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BO180">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="BP180">
         <v>1.46</v>
@@ -38372,7 +38372,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7727048</v>
+        <v>7727053</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38381,196 +38381,196 @@
         <v>69</v>
       </c>
       <c r="E181" s="2">
-        <v>45619.5</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G181" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H181" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181">
         <v>1</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O181" t="s">
         <v>215</v>
       </c>
       <c r="P181" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="Q181">
+        <v>7.5</v>
+      </c>
+      <c r="R181">
         <v>2.4</v>
       </c>
-      <c r="R181">
-        <v>2.2</v>
-      </c>
       <c r="S181">
-        <v>4.75</v>
+        <v>1.91</v>
       </c>
       <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>6.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>7.2</v>
+      </c>
+      <c r="AA181">
+        <v>4.33</v>
+      </c>
+      <c r="AB181">
+        <v>1.29</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>15</v>
+      </c>
+      <c r="AE181">
+        <v>1.22</v>
+      </c>
+      <c r="AF181">
+        <v>4.2</v>
+      </c>
+      <c r="AG181">
+        <v>1.75</v>
+      </c>
+      <c r="AH181">
+        <v>1.95</v>
+      </c>
+      <c r="AI181">
+        <v>2</v>
+      </c>
+      <c r="AJ181">
+        <v>1.75</v>
+      </c>
+      <c r="AK181">
+        <v>3</v>
+      </c>
+      <c r="AL181">
+        <v>1.14</v>
+      </c>
+      <c r="AM181">
+        <v>1.07</v>
+      </c>
+      <c r="AN181">
+        <v>0.57</v>
+      </c>
+      <c r="AO181">
+        <v>2.17</v>
+      </c>
+      <c r="AP181">
+        <v>0.88</v>
+      </c>
+      <c r="AQ181">
+        <v>1.86</v>
+      </c>
+      <c r="AR181">
+        <v>0.99</v>
+      </c>
+      <c r="AS181">
+        <v>1.18</v>
+      </c>
+      <c r="AT181">
+        <v>2.17</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>6</v>
+      </c>
+      <c r="AW181">
+        <v>3</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>13</v>
+      </c>
+      <c r="BA181">
+        <v>1</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>3</v>
+      </c>
+      <c r="BD181">
+        <v>3.4</v>
+      </c>
+      <c r="BE181">
+        <v>7</v>
+      </c>
+      <c r="BF181">
+        <v>1.3</v>
+      </c>
+      <c r="BG181">
+        <v>1.21</v>
+      </c>
+      <c r="BH181">
+        <v>3.8</v>
+      </c>
+      <c r="BI181">
         <v>1.4</v>
       </c>
-      <c r="U181">
-        <v>2.75</v>
-      </c>
-      <c r="V181">
-        <v>3</v>
-      </c>
-      <c r="W181">
-        <v>1.36</v>
-      </c>
-      <c r="X181">
-        <v>8</v>
-      </c>
-      <c r="Y181">
-        <v>1.08</v>
-      </c>
-      <c r="Z181">
-        <v>1.69</v>
-      </c>
-      <c r="AA181">
-        <v>3.29</v>
-      </c>
-      <c r="AB181">
-        <v>4.06</v>
-      </c>
-      <c r="AC181">
-        <v>1.05</v>
-      </c>
-      <c r="AD181">
-        <v>11</v>
-      </c>
-      <c r="AE181">
-        <v>1.33</v>
-      </c>
-      <c r="AF181">
-        <v>3.3</v>
-      </c>
-      <c r="AG181">
-        <v>1.98</v>
-      </c>
-      <c r="AH181">
-        <v>1.78</v>
-      </c>
-      <c r="AI181">
-        <v>1.91</v>
-      </c>
-      <c r="AJ181">
-        <v>1.91</v>
-      </c>
-      <c r="AK181">
-        <v>1.22</v>
-      </c>
-      <c r="AL181">
-        <v>1.22</v>
-      </c>
-      <c r="AM181">
-        <v>2</v>
-      </c>
-      <c r="AN181">
-        <v>2.14</v>
-      </c>
-      <c r="AO181">
-        <v>1</v>
-      </c>
-      <c r="AP181">
-        <v>2.25</v>
-      </c>
-      <c r="AQ181">
-        <v>0.88</v>
-      </c>
-      <c r="AR181">
-        <v>1.41</v>
-      </c>
-      <c r="AS181">
-        <v>1.09</v>
-      </c>
-      <c r="AT181">
-        <v>2.5</v>
-      </c>
-      <c r="AU181">
-        <v>7</v>
-      </c>
-      <c r="AV181">
-        <v>2</v>
-      </c>
-      <c r="AW181">
-        <v>6</v>
-      </c>
-      <c r="AX181">
-        <v>5</v>
-      </c>
-      <c r="AY181">
-        <v>15</v>
-      </c>
-      <c r="AZ181">
-        <v>10</v>
-      </c>
-      <c r="BA181">
-        <v>5</v>
-      </c>
-      <c r="BB181">
-        <v>7</v>
-      </c>
-      <c r="BC181">
-        <v>12</v>
-      </c>
-      <c r="BD181">
-        <v>1.47</v>
-      </c>
-      <c r="BE181">
-        <v>6.75</v>
-      </c>
-      <c r="BF181">
-        <v>2.8</v>
-      </c>
-      <c r="BG181">
-        <v>1.22</v>
-      </c>
-      <c r="BH181">
-        <v>3.65</v>
-      </c>
-      <c r="BI181">
-        <v>1.41</v>
-      </c>
       <c r="BJ181">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BK181">
         <v>1.65</v>
       </c>
       <c r="BL181">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BM181">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="BN181">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="BO181">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BP181">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38578,7 +38578,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7727049</v>
+        <v>7727054</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38587,196 +38587,196 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45619.5</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F182">
         <v>17</v>
       </c>
       <c r="G182" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H182" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
       </c>
       <c r="R182">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T182">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U182">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V182">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W182">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X182">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y182">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z182">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="AA182">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="AB182">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="AC182">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD182">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AE182">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AF182">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AG182">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AH182">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="AI182">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ182">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AK182">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AL182">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM182">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AN182">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AO182">
-        <v>2.13</v>
+        <v>0.86</v>
       </c>
       <c r="AP182">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ182">
-        <v>2.22</v>
+        <v>0.88</v>
       </c>
       <c r="AR182">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="AS182">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT182">
-        <v>2.85</v>
+        <v>2.05</v>
       </c>
       <c r="AU182">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV182">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW182">
         <v>2</v>
       </c>
       <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>5</v>
+      </c>
+      <c r="AZ182">
         <v>4</v>
-      </c>
-      <c r="AY182">
-        <v>15</v>
-      </c>
-      <c r="AZ182">
-        <v>17</v>
       </c>
       <c r="BA182">
         <v>4</v>
       </c>
       <c r="BB182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC182">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD182">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BE182">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF182">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="BG182">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BH182">
+        <v>2.9</v>
+      </c>
+      <c r="BI182">
+        <v>1.58</v>
+      </c>
+      <c r="BJ182">
+        <v>2.2</v>
+      </c>
+      <c r="BK182">
+        <v>1.93</v>
+      </c>
+      <c r="BL182">
+        <v>1.76</v>
+      </c>
+      <c r="BM182">
+        <v>2.48</v>
+      </c>
+      <c r="BN182">
+        <v>1.47</v>
+      </c>
+      <c r="BO182">
         <v>3.2</v>
       </c>
-      <c r="BI182">
-        <v>1.49</v>
-      </c>
-      <c r="BJ182">
-        <v>2.4</v>
-      </c>
-      <c r="BK182">
-        <v>1.81</v>
-      </c>
-      <c r="BL182">
-        <v>1.88</v>
-      </c>
-      <c r="BM182">
-        <v>2.28</v>
-      </c>
-      <c r="BN182">
-        <v>1.55</v>
-      </c>
-      <c r="BO182">
-        <v>2.9</v>
-      </c>
       <c r="BP182">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38784,7 +38784,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7727051</v>
+        <v>7727049</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38799,43 +38799,43 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H183" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O183" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="Q183">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R183">
         <v>2.1</v>
       </c>
       <c r="S183">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T183">
         <v>1.44</v>
@@ -38844,10 +38844,10 @@
         <v>2.63</v>
       </c>
       <c r="V183">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W183">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X183">
         <v>9</v>
@@ -38856,13 +38856,13 @@
         <v>1.07</v>
       </c>
       <c r="Z183">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AA183">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AB183">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="AC183">
         <v>1.06</v>
@@ -38871,7 +38871,7 @@
         <v>10</v>
       </c>
       <c r="AE183">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF183">
         <v>3.2</v>
@@ -38880,7 +38880,7 @@
         <v>1.95</v>
       </c>
       <c r="AH183">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI183">
         <v>1.8</v>
@@ -38889,100 +38889,100 @@
         <v>1.95</v>
       </c>
       <c r="AK183">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AL183">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM183">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AN183">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AO183">
-        <v>0.43</v>
+        <v>2.13</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR183">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AS183">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AT183">
-        <v>2.37</v>
+        <v>2.85</v>
       </c>
       <c r="AU183">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV183">
+        <v>7</v>
+      </c>
+      <c r="AW183">
+        <v>2</v>
+      </c>
+      <c r="AX183">
         <v>4</v>
       </c>
-      <c r="AW183">
-        <v>3</v>
-      </c>
-      <c r="AX183">
-        <v>6</v>
-      </c>
       <c r="AY183">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ183">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA183">
         <v>4</v>
       </c>
       <c r="BB183">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC183">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD183">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="BE183">
         <v>6.25</v>
       </c>
       <c r="BF183">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="BG183">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BH183">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BI183">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="BJ183">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BK183">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="BL183">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="BM183">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="BN183">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="BO183">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BP183">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -38990,7 +38990,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7727052</v>
+        <v>7727051</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39002,193 +39002,193 @@
         <v>45619.5</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G184" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H184" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="Q184">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="R184">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="S184">
         <v>3.75</v>
       </c>
       <c r="T184">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="U184">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="V184">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="W184">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="X184">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y184">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="Z184">
-        <v>1.84</v>
+        <v>2.17</v>
       </c>
       <c r="AA184">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="AB184">
-        <v>3.29</v>
+        <v>2.86</v>
       </c>
       <c r="AC184">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD184">
         <v>10</v>
       </c>
       <c r="AE184">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AF184">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AG184">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="AH184">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="AI184">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AJ184">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="AK184">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AL184">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM184">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AN184">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AO184">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
       </c>
       <c r="AS184">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT184">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU184">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV184">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX184">
+        <v>6</v>
+      </c>
+      <c r="AY184">
+        <v>12</v>
+      </c>
+      <c r="AZ184">
+        <v>12</v>
+      </c>
+      <c r="BA184">
+        <v>4</v>
+      </c>
+      <c r="BB184">
         <v>8</v>
-      </c>
-      <c r="AY184">
-        <v>22</v>
-      </c>
-      <c r="AZ184">
-        <v>18</v>
-      </c>
-      <c r="BA184">
-        <v>10</v>
-      </c>
-      <c r="BB184">
-        <v>2</v>
       </c>
       <c r="BC184">
         <v>12</v>
       </c>
       <c r="BD184">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="BE184">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF184">
+        <v>2.23</v>
+      </c>
+      <c r="BG184">
+        <v>1.41</v>
+      </c>
+      <c r="BH184">
         <v>2.65</v>
       </c>
-      <c r="BG184">
-        <v>1.17</v>
-      </c>
-      <c r="BH184">
-        <v>4.3</v>
-      </c>
       <c r="BI184">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="BJ184">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="BK184">
-        <v>1.52</v>
+        <v>2.12</v>
       </c>
       <c r="BL184">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="BM184">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="BN184">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="BO184">
-        <v>2.23</v>
+        <v>3.65</v>
       </c>
       <c r="BP184">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39196,7 +39196,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7727055</v>
+        <v>7727052</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39208,193 +39208,193 @@
         <v>45619.5</v>
       </c>
       <c r="F185">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H185" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185">
         <v>2</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N185">
         <v>3</v>
       </c>
       <c r="O185" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="P185" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
       </c>
       <c r="R185">
+        <v>2.5</v>
+      </c>
+      <c r="S185">
+        <v>3.75</v>
+      </c>
+      <c r="T185">
+        <v>1.25</v>
+      </c>
+      <c r="U185">
+        <v>3.75</v>
+      </c>
+      <c r="V185">
         <v>2.2</v>
       </c>
-      <c r="S185">
-        <v>4.75</v>
-      </c>
-      <c r="T185">
-        <v>1.4</v>
-      </c>
-      <c r="U185">
-        <v>2.75</v>
-      </c>
-      <c r="V185">
-        <v>3</v>
-      </c>
       <c r="W185">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="X185">
+        <v>5</v>
+      </c>
+      <c r="Y185">
+        <v>1.17</v>
+      </c>
+      <c r="Z185">
+        <v>1.84</v>
+      </c>
+      <c r="AA185">
+        <v>3.4</v>
+      </c>
+      <c r="AB185">
+        <v>3.29</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>10</v>
+      </c>
+      <c r="AE185">
+        <v>1.14</v>
+      </c>
+      <c r="AF185">
+        <v>5.5</v>
+      </c>
+      <c r="AG185">
+        <v>1.45</v>
+      </c>
+      <c r="AH185">
+        <v>2.55</v>
+      </c>
+      <c r="AI185">
+        <v>1.44</v>
+      </c>
+      <c r="AJ185">
+        <v>2.63</v>
+      </c>
+      <c r="AK185">
+        <v>1.3</v>
+      </c>
+      <c r="AL185">
+        <v>1.2</v>
+      </c>
+      <c r="AM185">
+        <v>1.9</v>
+      </c>
+      <c r="AN185">
+        <v>1.75</v>
+      </c>
+      <c r="AO185">
+        <v>0.71</v>
+      </c>
+      <c r="AP185">
+        <v>1.56</v>
+      </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
+      <c r="AR185">
+        <v>1.26</v>
+      </c>
+      <c r="AS185">
+        <v>1.19</v>
+      </c>
+      <c r="AT185">
+        <v>2.45</v>
+      </c>
+      <c r="AU185">
+        <v>7</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
         <v>8</v>
       </c>
-      <c r="Y185">
-        <v>1.08</v>
-      </c>
-      <c r="Z185">
-        <v>1.63</v>
-      </c>
-      <c r="AA185">
-        <v>3.38</v>
-      </c>
-      <c r="AB185">
-        <v>4.26</v>
-      </c>
-      <c r="AC185">
-        <v>1.05</v>
-      </c>
-      <c r="AD185">
-        <v>11</v>
-      </c>
-      <c r="AE185">
-        <v>1.33</v>
-      </c>
-      <c r="AF185">
-        <v>3.3</v>
-      </c>
-      <c r="AG185">
-        <v>1.95</v>
-      </c>
-      <c r="AH185">
-        <v>1.85</v>
-      </c>
-      <c r="AI185">
-        <v>1.91</v>
-      </c>
-      <c r="AJ185">
-        <v>1.91</v>
-      </c>
-      <c r="AK185">
-        <v>1.22</v>
-      </c>
-      <c r="AL185">
-        <v>1.22</v>
-      </c>
-      <c r="AM185">
-        <v>2</v>
-      </c>
-      <c r="AN185">
-        <v>2.71</v>
-      </c>
-      <c r="AO185">
-        <v>1.43</v>
-      </c>
-      <c r="AP185">
-        <v>2.75</v>
-      </c>
-      <c r="AQ185">
-        <v>1.25</v>
-      </c>
-      <c r="AR185">
-        <v>1.44</v>
-      </c>
-      <c r="AS185">
-        <v>0.93</v>
-      </c>
-      <c r="AT185">
-        <v>2.37</v>
-      </c>
-      <c r="AU185">
-        <v>5</v>
-      </c>
-      <c r="AV185">
-        <v>4</v>
-      </c>
-      <c r="AW185">
-        <v>3</v>
-      </c>
-      <c r="AX185">
-        <v>2</v>
-      </c>
       <c r="AY185">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ185">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA185">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB185">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC185">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BD185">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="BE185">
         <v>6.75</v>
       </c>
       <c r="BF185">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BG185">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH185">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BI185">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BJ185">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BK185">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="BL185">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="BM185">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BN185">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="BO185">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="BP185">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39402,7 +39402,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7727047</v>
+        <v>7727055</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39417,55 +39417,55 @@
         <v>17</v>
       </c>
       <c r="G186" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H186" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M186">
         <v>0</v>
       </c>
       <c r="N186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O186" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="P186" t="s">
         <v>96</v>
       </c>
       <c r="Q186">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R186">
         <v>2.2</v>
       </c>
       <c r="S186">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
         <v>1.36</v>
-      </c>
-      <c r="U186">
-        <v>3</v>
-      </c>
-      <c r="V186">
-        <v>2.75</v>
-      </c>
-      <c r="W186">
-        <v>1.4</v>
       </c>
       <c r="X186">
         <v>8</v>
@@ -39474,103 +39474,103 @@
         <v>1.08</v>
       </c>
       <c r="Z186">
-        <v>3.16</v>
+        <v>1.63</v>
       </c>
       <c r="AA186">
-        <v>2.99</v>
+        <v>3.38</v>
       </c>
       <c r="AB186">
-        <v>1.93</v>
+        <v>4.26</v>
       </c>
       <c r="AC186">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE186">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF186">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AG186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AH186">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AI186">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ186">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK186">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="AL186">
+        <v>1.22</v>
+      </c>
+      <c r="AM186">
+        <v>2</v>
+      </c>
+      <c r="AN186">
+        <v>2.71</v>
+      </c>
+      <c r="AO186">
+        <v>1.43</v>
+      </c>
+      <c r="AP186">
+        <v>2.75</v>
+      </c>
+      <c r="AQ186">
         <v>1.25</v>
       </c>
-      <c r="AM186">
-        <v>1.28</v>
-      </c>
-      <c r="AN186">
-        <v>1</v>
-      </c>
-      <c r="AO186">
-        <v>0.75</v>
-      </c>
-      <c r="AP186">
-        <v>1.22</v>
-      </c>
-      <c r="AQ186">
-        <v>0.67</v>
-      </c>
       <c r="AR186">
-        <v>0.97</v>
+        <v>1.44</v>
       </c>
       <c r="AS186">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AT186">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="AU186">
+        <v>5</v>
+      </c>
+      <c r="AV186">
         <v>4</v>
       </c>
-      <c r="AV186">
-        <v>3</v>
-      </c>
       <c r="AW186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY186">
+        <v>14</v>
+      </c>
+      <c r="AZ186">
         <v>11</v>
       </c>
-      <c r="AZ186">
+      <c r="BA186">
         <v>8</v>
       </c>
-      <c r="BA186">
-        <v>3</v>
-      </c>
       <c r="BB186">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC186">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BD186">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="BE186">
         <v>6.75</v>
       </c>
       <c r="BF186">
-        <v>1.66</v>
+        <v>2.55</v>
       </c>
       <c r="BG186">
         <v>1.2</v>
@@ -39582,7 +39582,7 @@
         <v>1.36</v>
       </c>
       <c r="BJ186">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="BK186">
         <v>1.58</v>
@@ -39591,16 +39591,16 @@
         <v>2.18</v>
       </c>
       <c r="BM186">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BN186">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="BO186">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BP186">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39608,7 +39608,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7727044</v>
+        <v>7727050</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39620,22 +39620,22 @@
         <v>45619.5</v>
       </c>
       <c r="F187">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H187" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -39650,61 +39650,61 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="Q187">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R187">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S187">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="T187">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V187">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W187">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y187">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z187">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="AA187">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AB187">
-        <v>3.14</v>
+        <v>4</v>
       </c>
       <c r="AC187">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD187">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE187">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF187">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG187">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH187">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AI187">
         <v>1.8</v>
@@ -39713,34 +39713,34 @@
         <v>1.95</v>
       </c>
       <c r="AK187">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL187">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM187">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AN187">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AO187">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AP187">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR187">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AS187">
         <v>1.08</v>
       </c>
       <c r="AT187">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="AU187">
         <v>5</v>
@@ -39749,64 +39749,64 @@
         <v>2</v>
       </c>
       <c r="AW187">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY187">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ187">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA187">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC187">
         <v>12</v>
       </c>
       <c r="BD187">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="BE187">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF187">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="BG187">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="BH187">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="BI187">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="BJ187">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="BK187">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="BL187">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="BM187">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BN187">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="BO187">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="BP187">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -40385,7 +40385,7 @@
         <v>2.39</v>
       </c>
       <c r="AU190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV190">
         <v>5</v>
@@ -40397,7 +40397,7 @@
         <v>6</v>
       </c>
       <c r="AY190">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ190">
         <v>14</v>
@@ -40606,7 +40606,7 @@
         <v>12</v>
       </c>
       <c r="AZ191">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA191">
         <v>1</v>
@@ -41215,13 +41215,13 @@
         <v>8</v>
       </c>
       <c r="AW194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX194">
         <v>4</v>
       </c>
       <c r="AY194">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ194">
         <v>16</v>
@@ -41418,19 +41418,19 @@
         <v>2</v>
       </c>
       <c r="AV195">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX195">
         <v>8</v>
       </c>
       <c r="AY195">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ195">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA195">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,18 @@
     <t>['26', '35']</t>
   </si>
   <si>
+    <t>['67', '89']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['1', '30', '46', '53']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -977,6 +989,15 @@
   </si>
   <si>
     <t>['52', '57']</t>
+  </si>
+  <si>
+    <t>['41', '90+2']</t>
+  </si>
+  <si>
+    <t>['60', '79']</t>
+  </si>
+  <si>
+    <t>['8', '33']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1618,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1675,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -2009,7 +2030,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2087,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2293,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.44</v>
@@ -2421,7 +2442,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2502,7 +2523,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,7 +2648,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2914,7 +2935,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3245,7 +3266,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3323,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1.3</v>
@@ -3657,7 +3678,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4069,7 +4090,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4356,7 +4377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4893,7 +4914,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4971,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5099,7 +5120,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5180,7 +5201,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5305,7 +5326,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5383,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.89</v>
@@ -5511,7 +5532,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5589,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21">
         <v>1.78</v>
@@ -5717,7 +5738,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5923,7 +5944,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6129,7 +6150,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6207,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6416,7 +6437,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6619,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -6825,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.78</v>
@@ -7031,7 +7052,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28">
         <v>0.89</v>
@@ -7237,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -7571,7 +7592,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7649,7 +7670,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7858,7 +7879,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7983,7 +8004,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8395,7 +8416,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8473,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1.3</v>
@@ -8601,7 +8622,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8679,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ36">
         <v>0.7</v>
@@ -8807,7 +8828,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8888,7 +8909,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -9013,7 +9034,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9300,7 +9321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9506,7 +9527,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
         <v>1.27</v>
@@ -9918,7 +9939,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ42">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR42">
         <v>1.98</v>
@@ -10043,7 +10064,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10124,7 +10145,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>0.79</v>
@@ -10249,7 +10270,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10327,7 +10348,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>1.44</v>
@@ -10455,7 +10476,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10867,7 +10888,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10948,7 +10969,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -11485,7 +11506,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11563,7 +11584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ50">
         <v>0.78</v>
@@ -11772,7 +11793,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12103,7 +12124,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q53">
         <v>3.5</v>
@@ -12387,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>0.44</v>
@@ -12515,7 +12536,7 @@
         <v>96</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12596,7 +12617,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12802,7 +12823,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -12927,7 +12948,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13133,7 +13154,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13214,7 +13235,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.57</v>
@@ -13339,7 +13360,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13626,7 +13647,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ60">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR60">
         <v>1.21</v>
@@ -13957,7 +13978,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14369,7 +14390,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14450,7 +14471,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14859,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14987,7 +15008,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>1.83</v>
@@ -15193,7 +15214,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15271,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ68">
         <v>0.44</v>
@@ -15605,7 +15626,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15811,7 +15832,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15889,7 +15910,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ71">
         <v>1.78</v>
@@ -16017,7 +16038,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16223,7 +16244,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>2.4</v>
@@ -16301,10 +16322,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR73">
         <v>1.92</v>
@@ -16429,7 +16450,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16507,10 +16528,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16635,7 +16656,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16841,7 +16862,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16922,7 +16943,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR76">
         <v>1.79</v>
@@ -17125,7 +17146,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77">
         <v>0.71</v>
@@ -17253,7 +17274,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17459,7 +17480,7 @@
         <v>96</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>2.4</v>
@@ -17746,7 +17767,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
         <v>1.41</v>
@@ -17871,7 +17892,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18158,7 +18179,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ82">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>1.2</v>
@@ -18361,10 +18382,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>0.73</v>
@@ -18695,7 +18716,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18982,7 +19003,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19107,7 +19128,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19185,7 +19206,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>1.3</v>
@@ -19313,7 +19334,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19725,7 +19746,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19931,7 +19952,7 @@
         <v>118</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20009,7 +20030,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ91">
         <v>1.44</v>
@@ -20215,7 +20236,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20424,7 +20445,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.15</v>
@@ -20549,7 +20570,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20755,7 +20776,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20961,7 +20982,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21042,7 +21063,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.27</v>
@@ -21167,7 +21188,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21451,7 +21472,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
         <v>0.67</v>
@@ -21579,7 +21600,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21660,7 +21681,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR99">
         <v>1.12</v>
@@ -21785,7 +21806,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -22072,7 +22093,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR101">
         <v>1.61</v>
@@ -22197,7 +22218,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22275,7 +22296,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ102">
         <v>2.1</v>
@@ -22609,7 +22630,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23021,7 +23042,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -23305,7 +23326,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>1.3</v>
@@ -23511,10 +23532,10 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -23923,7 +23944,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -24051,7 +24072,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24129,7 +24150,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ111">
         <v>0.78</v>
@@ -24257,7 +24278,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24338,7 +24359,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24541,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24750,7 +24771,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24875,7 +24896,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25081,7 +25102,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25287,7 +25308,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25368,7 +25389,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR117">
         <v>0.93</v>
@@ -25493,7 +25514,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25574,7 +25595,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
         <v>0.98</v>
@@ -25777,7 +25798,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26192,7 +26213,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.58</v>
@@ -26398,7 +26419,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -26601,7 +26622,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
         <v>0.71</v>
@@ -26729,7 +26750,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q124">
         <v>4.5</v>
@@ -26807,10 +26828,10 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR124">
         <v>1.41</v>
@@ -26935,7 +26956,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -27141,7 +27162,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27425,7 +27446,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27759,7 +27780,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28043,7 +28064,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.7</v>
@@ -28252,7 +28273,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR131">
         <v>1.15</v>
@@ -28377,7 +28398,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28455,7 +28476,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ132">
         <v>2.1</v>
@@ -28583,7 +28604,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28995,7 +29016,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29201,7 +29222,7 @@
         <v>96</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>2.3</v>
@@ -29407,7 +29428,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29485,7 +29506,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -29694,7 +29715,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ138">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR138">
         <v>1.61</v>
@@ -30025,7 +30046,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30103,10 +30124,10 @@
         <v>1.2</v>
       </c>
       <c r="AP140">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ140">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -30721,10 +30742,10 @@
         <v>2.4</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR143">
         <v>1.27</v>
@@ -31055,7 +31076,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31133,7 +31154,7 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145">
         <v>1.44</v>
@@ -31545,7 +31566,7 @@
         <v>0.5</v>
       </c>
       <c r="AP147">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
         <v>0.75</v>
@@ -31960,7 +31981,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32085,7 +32106,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -32369,10 +32390,10 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ151">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
         <v>1.48</v>
@@ -32497,7 +32518,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32578,7 +32599,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>1.28</v>
@@ -32703,7 +32724,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32987,7 +33008,7 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -33115,7 +33136,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33193,7 +33214,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ155">
         <v>0.7</v>
@@ -33321,7 +33342,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33527,7 +33548,7 @@
         <v>96</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q157">
         <v>2.75</v>
@@ -33605,7 +33626,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>2.1</v>
@@ -33811,7 +33832,7 @@
         <v>0.5</v>
       </c>
       <c r="AP158">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ158">
         <v>0.89</v>
@@ -34017,7 +34038,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34429,10 +34450,10 @@
         <v>0.57</v>
       </c>
       <c r="AP161">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ161">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR161">
         <v>1.04</v>
@@ -34557,7 +34578,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34638,7 +34659,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ162">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR162">
         <v>1.01</v>
@@ -34844,7 +34865,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ163">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR163">
         <v>1.49</v>
@@ -35381,7 +35402,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35665,7 +35686,7 @@
         <v>2</v>
       </c>
       <c r="AP167">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
         <v>1.63</v>
@@ -35793,7 +35814,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35871,7 +35892,7 @@
         <v>2</v>
       </c>
       <c r="AP168">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ168">
         <v>2.1</v>
@@ -35999,7 +36020,7 @@
         <v>211</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>3.6</v>
@@ -36695,7 +36716,7 @@
         <v>2.14</v>
       </c>
       <c r="AP172">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ172">
         <v>1.78</v>
@@ -36901,10 +36922,10 @@
         <v>1.29</v>
       </c>
       <c r="AP173">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
         <v>1.58</v>
@@ -37728,7 +37749,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ177">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR177">
         <v>1.11</v>
@@ -37853,7 +37874,7 @@
         <v>214</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>7.5</v>
@@ -37934,7 +37955,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ178">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR178">
         <v>0.99</v>
@@ -38059,7 +38080,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>3.4</v>
@@ -38137,7 +38158,7 @@
         <v>2.13</v>
       </c>
       <c r="AP179">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ179">
         <v>2.1</v>
@@ -38552,7 +38573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -38677,7 +38698,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38755,7 +38776,7 @@
         <v>0.57</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ182">
         <v>0.78</v>
@@ -39089,7 +39110,7 @@
         <v>146</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>2.4</v>
@@ -39376,7 +39397,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ185">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39501,7 +39522,7 @@
         <v>96</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>4.33</v>
@@ -39579,7 +39600,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ186">
         <v>1.44</v>
@@ -39707,7 +39728,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39785,7 +39806,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -39991,7 +40012,7 @@
         <v>2</v>
       </c>
       <c r="AP188">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ188">
         <v>1.5</v>
@@ -40119,7 +40140,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>2.4</v>
@@ -40197,7 +40218,7 @@
         <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ189">
         <v>1</v>
@@ -40403,7 +40424,7 @@
         <v>1.71</v>
       </c>
       <c r="AP190">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ190">
         <v>1.63</v>
@@ -40737,7 +40758,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40815,7 +40836,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ192">
         <v>0.7</v>
@@ -40943,7 +40964,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>5.5</v>
@@ -41024,7 +41045,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ193">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR193">
         <v>1.36</v>
@@ -41149,7 +41170,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>3.5</v>
@@ -41230,7 +41251,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ194">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR194">
         <v>1.43</v>
@@ -41355,7 +41376,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41433,10 +41454,10 @@
         <v>0.88</v>
       </c>
       <c r="AP195">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ195">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR195">
         <v>1.04</v>
@@ -41561,7 +41582,7 @@
         <v>96</v>
       </c>
       <c r="P196" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -41767,7 +41788,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42591,7 +42612,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42797,7 +42818,7 @@
         <v>138</v>
       </c>
       <c r="P202" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -43827,7 +43848,7 @@
         <v>96</v>
       </c>
       <c r="P207" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44033,7 +44054,7 @@
         <v>118</v>
       </c>
       <c r="P208" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44190,6 +44211,1654 @@
       </c>
       <c r="BP208">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7727077</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F209">
+        <v>19</v>
+      </c>
+      <c r="G209" t="s">
+        <v>72</v>
+      </c>
+      <c r="H209" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>96</v>
+      </c>
+      <c r="P209" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q209">
+        <v>3.1</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>4</v>
+      </c>
+      <c r="T209">
+        <v>1.53</v>
+      </c>
+      <c r="U209">
+        <v>2.38</v>
+      </c>
+      <c r="V209">
+        <v>3.5</v>
+      </c>
+      <c r="W209">
+        <v>1.29</v>
+      </c>
+      <c r="X209">
+        <v>11</v>
+      </c>
+      <c r="Y209">
+        <v>1.05</v>
+      </c>
+      <c r="Z209">
+        <v>2.25</v>
+      </c>
+      <c r="AA209">
+        <v>3.2</v>
+      </c>
+      <c r="AB209">
+        <v>3.3</v>
+      </c>
+      <c r="AC209">
+        <v>1.08</v>
+      </c>
+      <c r="AD209">
+        <v>7.5</v>
+      </c>
+      <c r="AE209">
+        <v>1.45</v>
+      </c>
+      <c r="AF209">
+        <v>2.7</v>
+      </c>
+      <c r="AG209">
+        <v>2.29</v>
+      </c>
+      <c r="AH209">
+        <v>1.55</v>
+      </c>
+      <c r="AI209">
+        <v>2.05</v>
+      </c>
+      <c r="AJ209">
+        <v>1.7</v>
+      </c>
+      <c r="AK209">
+        <v>1.33</v>
+      </c>
+      <c r="AL209">
+        <v>1.28</v>
+      </c>
+      <c r="AM209">
+        <v>1.62</v>
+      </c>
+      <c r="AN209">
+        <v>1.38</v>
+      </c>
+      <c r="AO209">
+        <v>0.88</v>
+      </c>
+      <c r="AP209">
+        <v>1.22</v>
+      </c>
+      <c r="AQ209">
+        <v>1.11</v>
+      </c>
+      <c r="AR209">
+        <v>1.22</v>
+      </c>
+      <c r="AS209">
+        <v>0.9</v>
+      </c>
+      <c r="AT209">
+        <v>2.12</v>
+      </c>
+      <c r="AU209">
+        <v>2</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>3</v>
+      </c>
+      <c r="AX209">
+        <v>1</v>
+      </c>
+      <c r="AY209">
+        <v>7</v>
+      </c>
+      <c r="AZ209">
+        <v>10</v>
+      </c>
+      <c r="BA209">
+        <v>3</v>
+      </c>
+      <c r="BB209">
+        <v>1</v>
+      </c>
+      <c r="BC209">
+        <v>4</v>
+      </c>
+      <c r="BD209">
+        <v>1.74</v>
+      </c>
+      <c r="BE209">
+        <v>6.75</v>
+      </c>
+      <c r="BF209">
+        <v>2.3</v>
+      </c>
+      <c r="BG209">
+        <v>1.35</v>
+      </c>
+      <c r="BH209">
+        <v>2.9</v>
+      </c>
+      <c r="BI209">
+        <v>1.6</v>
+      </c>
+      <c r="BJ209">
+        <v>2.17</v>
+      </c>
+      <c r="BK209">
+        <v>1.98</v>
+      </c>
+      <c r="BL209">
+        <v>1.72</v>
+      </c>
+      <c r="BM209">
+        <v>2.5</v>
+      </c>
+      <c r="BN209">
+        <v>1.46</v>
+      </c>
+      <c r="BO209">
+        <v>3.3</v>
+      </c>
+      <c r="BP209">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7727073</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F210">
+        <v>19</v>
+      </c>
+      <c r="G210" t="s">
+        <v>89</v>
+      </c>
+      <c r="H210" t="s">
+        <v>83</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210" t="s">
+        <v>96</v>
+      </c>
+      <c r="P210" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q210">
+        <v>2.88</v>
+      </c>
+      <c r="R210">
+        <v>2.05</v>
+      </c>
+      <c r="S210">
+        <v>4.33</v>
+      </c>
+      <c r="T210">
+        <v>1.5</v>
+      </c>
+      <c r="U210">
+        <v>2.5</v>
+      </c>
+      <c r="V210">
+        <v>3.4</v>
+      </c>
+      <c r="W210">
+        <v>1.3</v>
+      </c>
+      <c r="X210">
+        <v>10</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.1</v>
+      </c>
+      <c r="AA210">
+        <v>3.3</v>
+      </c>
+      <c r="AB210">
+        <v>3.6</v>
+      </c>
+      <c r="AC210">
+        <v>1.07</v>
+      </c>
+      <c r="AD210">
+        <v>8</v>
+      </c>
+      <c r="AE210">
+        <v>1.4</v>
+      </c>
+      <c r="AF210">
+        <v>2.9</v>
+      </c>
+      <c r="AG210">
+        <v>2.16</v>
+      </c>
+      <c r="AH210">
+        <v>1.62</v>
+      </c>
+      <c r="AI210">
+        <v>1.95</v>
+      </c>
+      <c r="AJ210">
+        <v>1.8</v>
+      </c>
+      <c r="AK210">
+        <v>1.28</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.7</v>
+      </c>
+      <c r="AN210">
+        <v>1.63</v>
+      </c>
+      <c r="AO210">
+        <v>1.11</v>
+      </c>
+      <c r="AP210">
+        <v>1.56</v>
+      </c>
+      <c r="AQ210">
+        <v>1.1</v>
+      </c>
+      <c r="AR210">
+        <v>1.37</v>
+      </c>
+      <c r="AS210">
+        <v>1.27</v>
+      </c>
+      <c r="AT210">
+        <v>2.64</v>
+      </c>
+      <c r="AU210">
+        <v>2</v>
+      </c>
+      <c r="AV210">
+        <v>2</v>
+      </c>
+      <c r="AW210">
+        <v>6</v>
+      </c>
+      <c r="AX210">
+        <v>3</v>
+      </c>
+      <c r="AY210">
+        <v>11</v>
+      </c>
+      <c r="AZ210">
+        <v>8</v>
+      </c>
+      <c r="BA210">
+        <v>7</v>
+      </c>
+      <c r="BB210">
+        <v>4</v>
+      </c>
+      <c r="BC210">
+        <v>11</v>
+      </c>
+      <c r="BD210">
+        <v>1.65</v>
+      </c>
+      <c r="BE210">
+        <v>6.75</v>
+      </c>
+      <c r="BF210">
+        <v>2.48</v>
+      </c>
+      <c r="BG210">
+        <v>1.22</v>
+      </c>
+      <c r="BH210">
+        <v>3.7</v>
+      </c>
+      <c r="BI210">
+        <v>1.38</v>
+      </c>
+      <c r="BJ210">
+        <v>2.7</v>
+      </c>
+      <c r="BK210">
+        <v>1.62</v>
+      </c>
+      <c r="BL210">
+        <v>2.12</v>
+      </c>
+      <c r="BM210">
+        <v>1.98</v>
+      </c>
+      <c r="BN210">
+        <v>1.72</v>
+      </c>
+      <c r="BO210">
+        <v>2.5</v>
+      </c>
+      <c r="BP210">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7727076</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>73</v>
+      </c>
+      <c r="H211" t="s">
+        <v>81</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>229</v>
+      </c>
+      <c r="P211" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q211">
+        <v>2.3</v>
+      </c>
+      <c r="R211">
+        <v>2.2</v>
+      </c>
+      <c r="S211">
+        <v>5.5</v>
+      </c>
+      <c r="T211">
+        <v>1.4</v>
+      </c>
+      <c r="U211">
+        <v>2.75</v>
+      </c>
+      <c r="V211">
+        <v>3</v>
+      </c>
+      <c r="W211">
+        <v>1.36</v>
+      </c>
+      <c r="X211">
+        <v>8</v>
+      </c>
+      <c r="Y211">
+        <v>1.08</v>
+      </c>
+      <c r="Z211">
+        <v>1.62</v>
+      </c>
+      <c r="AA211">
+        <v>3.8</v>
+      </c>
+      <c r="AB211">
+        <v>5.5</v>
+      </c>
+      <c r="AC211">
+        <v>1.05</v>
+      </c>
+      <c r="AD211">
+        <v>11</v>
+      </c>
+      <c r="AE211">
+        <v>1.3</v>
+      </c>
+      <c r="AF211">
+        <v>3.5</v>
+      </c>
+      <c r="AG211">
+        <v>1.9</v>
+      </c>
+      <c r="AH211">
+        <v>1.8</v>
+      </c>
+      <c r="AI211">
+        <v>1.95</v>
+      </c>
+      <c r="AJ211">
+        <v>1.8</v>
+      </c>
+      <c r="AK211">
+        <v>1.15</v>
+      </c>
+      <c r="AL211">
+        <v>1.2</v>
+      </c>
+      <c r="AM211">
+        <v>2.25</v>
+      </c>
+      <c r="AN211">
+        <v>1.89</v>
+      </c>
+      <c r="AO211">
+        <v>1.25</v>
+      </c>
+      <c r="AP211">
+        <v>2</v>
+      </c>
+      <c r="AQ211">
+        <v>1.11</v>
+      </c>
+      <c r="AR211">
+        <v>1.61</v>
+      </c>
+      <c r="AS211">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT211">
+        <v>2.55</v>
+      </c>
+      <c r="AU211">
+        <v>8</v>
+      </c>
+      <c r="AV211">
+        <v>0</v>
+      </c>
+      <c r="AW211">
+        <v>6</v>
+      </c>
+      <c r="AX211">
+        <v>3</v>
+      </c>
+      <c r="AY211">
+        <v>16</v>
+      </c>
+      <c r="AZ211">
+        <v>4</v>
+      </c>
+      <c r="BA211">
+        <v>2</v>
+      </c>
+      <c r="BB211">
+        <v>2</v>
+      </c>
+      <c r="BC211">
+        <v>4</v>
+      </c>
+      <c r="BD211">
+        <v>1.39</v>
+      </c>
+      <c r="BE211">
+        <v>8</v>
+      </c>
+      <c r="BF211">
+        <v>3.5</v>
+      </c>
+      <c r="BG211">
+        <v>1.26</v>
+      </c>
+      <c r="BH211">
+        <v>3.4</v>
+      </c>
+      <c r="BI211">
+        <v>1.28</v>
+      </c>
+      <c r="BJ211">
+        <v>3.3</v>
+      </c>
+      <c r="BK211">
+        <v>1.52</v>
+      </c>
+      <c r="BL211">
+        <v>2.32</v>
+      </c>
+      <c r="BM211">
+        <v>1.92</v>
+      </c>
+      <c r="BN211">
+        <v>1.78</v>
+      </c>
+      <c r="BO211">
+        <v>2.55</v>
+      </c>
+      <c r="BP211">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7727078</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F212">
+        <v>19</v>
+      </c>
+      <c r="G212" t="s">
+        <v>86</v>
+      </c>
+      <c r="H212" t="s">
+        <v>84</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>230</v>
+      </c>
+      <c r="P212" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q212">
+        <v>2.4</v>
+      </c>
+      <c r="R212">
+        <v>2.3</v>
+      </c>
+      <c r="S212">
+        <v>4.33</v>
+      </c>
+      <c r="T212">
+        <v>1.33</v>
+      </c>
+      <c r="U212">
+        <v>3.25</v>
+      </c>
+      <c r="V212">
+        <v>2.63</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>6.5</v>
+      </c>
+      <c r="Y212">
+        <v>1.11</v>
+      </c>
+      <c r="Z212">
+        <v>1.75</v>
+      </c>
+      <c r="AA212">
+        <v>3.8</v>
+      </c>
+      <c r="AB212">
+        <v>4.33</v>
+      </c>
+      <c r="AC212">
+        <v>1.02</v>
+      </c>
+      <c r="AD212">
+        <v>17</v>
+      </c>
+      <c r="AE212">
+        <v>1.17</v>
+      </c>
+      <c r="AF212">
+        <v>4.75</v>
+      </c>
+      <c r="AG212">
+        <v>1.52</v>
+      </c>
+      <c r="AH212">
+        <v>2.36</v>
+      </c>
+      <c r="AI212">
+        <v>1.67</v>
+      </c>
+      <c r="AJ212">
+        <v>2.1</v>
+      </c>
+      <c r="AK212">
+        <v>1.18</v>
+      </c>
+      <c r="AL212">
+        <v>1.18</v>
+      </c>
+      <c r="AM212">
+        <v>2.25</v>
+      </c>
+      <c r="AN212">
+        <v>2.57</v>
+      </c>
+      <c r="AO212">
+        <v>1</v>
+      </c>
+      <c r="AP212">
+        <v>2.38</v>
+      </c>
+      <c r="AQ212">
+        <v>1</v>
+      </c>
+      <c r="AR212">
+        <v>1.39</v>
+      </c>
+      <c r="AS212">
+        <v>1.24</v>
+      </c>
+      <c r="AT212">
+        <v>2.63</v>
+      </c>
+      <c r="AU212">
+        <v>4</v>
+      </c>
+      <c r="AV212">
+        <v>7</v>
+      </c>
+      <c r="AW212">
+        <v>3</v>
+      </c>
+      <c r="AX212">
+        <v>2</v>
+      </c>
+      <c r="AY212">
+        <v>10</v>
+      </c>
+      <c r="AZ212">
+        <v>12</v>
+      </c>
+      <c r="BA212">
+        <v>8</v>
+      </c>
+      <c r="BB212">
+        <v>5</v>
+      </c>
+      <c r="BC212">
+        <v>13</v>
+      </c>
+      <c r="BD212">
+        <v>1.28</v>
+      </c>
+      <c r="BE212">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF212">
+        <v>4.35</v>
+      </c>
+      <c r="BG212">
+        <v>1.24</v>
+      </c>
+      <c r="BH212">
+        <v>3.55</v>
+      </c>
+      <c r="BI212">
+        <v>1.29</v>
+      </c>
+      <c r="BJ212">
+        <v>3.25</v>
+      </c>
+      <c r="BK212">
+        <v>1.52</v>
+      </c>
+      <c r="BL212">
+        <v>2.32</v>
+      </c>
+      <c r="BM212">
+        <v>1.9</v>
+      </c>
+      <c r="BN212">
+        <v>1.78</v>
+      </c>
+      <c r="BO212">
+        <v>2.52</v>
+      </c>
+      <c r="BP212">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7727067</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F213">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s">
+        <v>70</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>99</v>
+      </c>
+      <c r="P213" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q213">
+        <v>4.33</v>
+      </c>
+      <c r="R213">
+        <v>2.25</v>
+      </c>
+      <c r="S213">
+        <v>2.6</v>
+      </c>
+      <c r="T213">
+        <v>1.36</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.63</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>7</v>
+      </c>
+      <c r="Y213">
+        <v>1.1</v>
+      </c>
+      <c r="Z213">
+        <v>4</v>
+      </c>
+      <c r="AA213">
+        <v>3.6</v>
+      </c>
+      <c r="AB213">
+        <v>1.85</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+      <c r="AD213">
+        <v>9.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.25</v>
+      </c>
+      <c r="AF213">
+        <v>3.75</v>
+      </c>
+      <c r="AG213">
+        <v>1.68</v>
+      </c>
+      <c r="AH213">
+        <v>2.06</v>
+      </c>
+      <c r="AI213">
+        <v>1.7</v>
+      </c>
+      <c r="AJ213">
+        <v>2.05</v>
+      </c>
+      <c r="AK213">
+        <v>1.85</v>
+      </c>
+      <c r="AL213">
+        <v>1.22</v>
+      </c>
+      <c r="AM213">
+        <v>1.25</v>
+      </c>
+      <c r="AN213">
+        <v>1.22</v>
+      </c>
+      <c r="AO213">
+        <v>2</v>
+      </c>
+      <c r="AP213">
+        <v>1.1</v>
+      </c>
+      <c r="AQ213">
+        <v>2.11</v>
+      </c>
+      <c r="AR213">
+        <v>1.76</v>
+      </c>
+      <c r="AS213">
+        <v>1.24</v>
+      </c>
+      <c r="AT213">
+        <v>3</v>
+      </c>
+      <c r="AU213">
+        <v>6</v>
+      </c>
+      <c r="AV213">
+        <v>5</v>
+      </c>
+      <c r="AW213">
+        <v>3</v>
+      </c>
+      <c r="AX213">
+        <v>0</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>5</v>
+      </c>
+      <c r="BA213">
+        <v>4</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>6</v>
+      </c>
+      <c r="BD213">
+        <v>2.45</v>
+      </c>
+      <c r="BE213">
+        <v>6.75</v>
+      </c>
+      <c r="BF213">
+        <v>1.66</v>
+      </c>
+      <c r="BG213">
+        <v>1.21</v>
+      </c>
+      <c r="BH213">
+        <v>3.8</v>
+      </c>
+      <c r="BI213">
+        <v>1.38</v>
+      </c>
+      <c r="BJ213">
+        <v>2.75</v>
+      </c>
+      <c r="BK213">
+        <v>1.63</v>
+      </c>
+      <c r="BL213">
+        <v>2.12</v>
+      </c>
+      <c r="BM213">
+        <v>1.98</v>
+      </c>
+      <c r="BN213">
+        <v>1.72</v>
+      </c>
+      <c r="BO213">
+        <v>2.48</v>
+      </c>
+      <c r="BP213">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7727070</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" t="s">
+        <v>71</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>96</v>
+      </c>
+      <c r="P214" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q214">
+        <v>4.33</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>2.6</v>
+      </c>
+      <c r="T214">
+        <v>1.4</v>
+      </c>
+      <c r="U214">
+        <v>2.75</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
+        <v>1.36</v>
+      </c>
+      <c r="X214">
+        <v>8</v>
+      </c>
+      <c r="Y214">
+        <v>1.08</v>
+      </c>
+      <c r="Z214">
+        <v>3.9</v>
+      </c>
+      <c r="AA214">
+        <v>3.4</v>
+      </c>
+      <c r="AB214">
+        <v>1.95</v>
+      </c>
+      <c r="AC214">
+        <v>1.05</v>
+      </c>
+      <c r="AD214">
+        <v>11</v>
+      </c>
+      <c r="AE214">
+        <v>1.3</v>
+      </c>
+      <c r="AF214">
+        <v>3.4</v>
+      </c>
+      <c r="AG214">
+        <v>1.9</v>
+      </c>
+      <c r="AH214">
+        <v>1.8</v>
+      </c>
+      <c r="AI214">
+        <v>1.8</v>
+      </c>
+      <c r="AJ214">
+        <v>1.95</v>
+      </c>
+      <c r="AK214">
+        <v>1.87</v>
+      </c>
+      <c r="AL214">
+        <v>1.25</v>
+      </c>
+      <c r="AM214">
+        <v>1.28</v>
+      </c>
+      <c r="AN214">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO214">
+        <v>1.13</v>
+      </c>
+      <c r="AP214">
+        <v>0.5</v>
+      </c>
+      <c r="AQ214">
+        <v>1.33</v>
+      </c>
+      <c r="AR214">
+        <v>1.02</v>
+      </c>
+      <c r="AS214">
+        <v>1.07</v>
+      </c>
+      <c r="AT214">
+        <v>2.09</v>
+      </c>
+      <c r="AU214">
+        <v>2</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>1</v>
+      </c>
+      <c r="AX214">
+        <v>6</v>
+      </c>
+      <c r="AY214">
+        <v>7</v>
+      </c>
+      <c r="AZ214">
+        <v>17</v>
+      </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
+      <c r="BB214">
+        <v>8</v>
+      </c>
+      <c r="BC214">
+        <v>12</v>
+      </c>
+      <c r="BD214">
+        <v>2.68</v>
+      </c>
+      <c r="BE214">
+        <v>6</v>
+      </c>
+      <c r="BF214">
+        <v>1.7</v>
+      </c>
+      <c r="BG214">
+        <v>1.18</v>
+      </c>
+      <c r="BH214">
+        <v>4.15</v>
+      </c>
+      <c r="BI214">
+        <v>1.4</v>
+      </c>
+      <c r="BJ214">
+        <v>2.7</v>
+      </c>
+      <c r="BK214">
+        <v>1.7</v>
+      </c>
+      <c r="BL214">
+        <v>2</v>
+      </c>
+      <c r="BM214">
+        <v>2.22</v>
+      </c>
+      <c r="BN214">
+        <v>1.58</v>
+      </c>
+      <c r="BO214">
+        <v>2.98</v>
+      </c>
+      <c r="BP214">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7727071</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F215">
+        <v>19</v>
+      </c>
+      <c r="G215" t="s">
+        <v>88</v>
+      </c>
+      <c r="H215" t="s">
+        <v>82</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>4</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>231</v>
+      </c>
+      <c r="P215" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q215">
+        <v>2.88</v>
+      </c>
+      <c r="R215">
+        <v>2.1</v>
+      </c>
+      <c r="S215">
+        <v>4</v>
+      </c>
+      <c r="T215">
+        <v>1.44</v>
+      </c>
+      <c r="U215">
+        <v>2.63</v>
+      </c>
+      <c r="V215">
+        <v>3.25</v>
+      </c>
+      <c r="W215">
+        <v>1.33</v>
+      </c>
+      <c r="X215">
+        <v>9</v>
+      </c>
+      <c r="Y215">
+        <v>1.07</v>
+      </c>
+      <c r="Z215">
+        <v>2.15</v>
+      </c>
+      <c r="AA215">
+        <v>3.3</v>
+      </c>
+      <c r="AB215">
+        <v>3.3</v>
+      </c>
+      <c r="AC215">
+        <v>1.06</v>
+      </c>
+      <c r="AD215">
+        <v>8.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.35</v>
+      </c>
+      <c r="AF215">
+        <v>3.1</v>
+      </c>
+      <c r="AG215">
+        <v>2</v>
+      </c>
+      <c r="AH215">
+        <v>1.72</v>
+      </c>
+      <c r="AI215">
+        <v>1.8</v>
+      </c>
+      <c r="AJ215">
+        <v>1.95</v>
+      </c>
+      <c r="AK215">
+        <v>1.3</v>
+      </c>
+      <c r="AL215">
+        <v>1.25</v>
+      </c>
+      <c r="AM215">
+        <v>1.7</v>
+      </c>
+      <c r="AN215">
+        <v>1.13</v>
+      </c>
+      <c r="AO215">
+        <v>0.5</v>
+      </c>
+      <c r="AP215">
+        <v>1.33</v>
+      </c>
+      <c r="AQ215">
+        <v>0.44</v>
+      </c>
+      <c r="AR215">
+        <v>1.31</v>
+      </c>
+      <c r="AS215">
+        <v>1.12</v>
+      </c>
+      <c r="AT215">
+        <v>2.43</v>
+      </c>
+      <c r="AU215">
+        <v>7</v>
+      </c>
+      <c r="AV215">
+        <v>5</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>5</v>
+      </c>
+      <c r="AY215">
+        <v>12</v>
+      </c>
+      <c r="AZ215">
+        <v>12</v>
+      </c>
+      <c r="BA215">
+        <v>5</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>10</v>
+      </c>
+      <c r="BD215">
+        <v>1.68</v>
+      </c>
+      <c r="BE215">
+        <v>6.75</v>
+      </c>
+      <c r="BF215">
+        <v>2.4</v>
+      </c>
+      <c r="BG215">
+        <v>1.29</v>
+      </c>
+      <c r="BH215">
+        <v>3.15</v>
+      </c>
+      <c r="BI215">
+        <v>1.5</v>
+      </c>
+      <c r="BJ215">
+        <v>2.38</v>
+      </c>
+      <c r="BK215">
+        <v>1.81</v>
+      </c>
+      <c r="BL215">
+        <v>1.88</v>
+      </c>
+      <c r="BM215">
+        <v>2.28</v>
+      </c>
+      <c r="BN215">
+        <v>1.54</v>
+      </c>
+      <c r="BO215">
+        <v>2.9</v>
+      </c>
+      <c r="BP215">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7727074</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>92</v>
+      </c>
+      <c r="H216" t="s">
+        <v>90</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>2</v>
+      </c>
+      <c r="K216">
+        <v>3</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>232</v>
+      </c>
+      <c r="P216" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q216">
+        <v>3.75</v>
+      </c>
+      <c r="R216">
+        <v>2.1</v>
+      </c>
+      <c r="S216">
+        <v>2.88</v>
+      </c>
+      <c r="T216">
+        <v>1.4</v>
+      </c>
+      <c r="U216">
+        <v>2.75</v>
+      </c>
+      <c r="V216">
+        <v>3</v>
+      </c>
+      <c r="W216">
+        <v>1.36</v>
+      </c>
+      <c r="X216">
+        <v>8</v>
+      </c>
+      <c r="Y216">
+        <v>1.08</v>
+      </c>
+      <c r="Z216">
+        <v>3.1</v>
+      </c>
+      <c r="AA216">
+        <v>3.4</v>
+      </c>
+      <c r="AB216">
+        <v>2.2</v>
+      </c>
+      <c r="AC216">
+        <v>1.05</v>
+      </c>
+      <c r="AD216">
+        <v>9.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.3</v>
+      </c>
+      <c r="AF216">
+        <v>3.45</v>
+      </c>
+      <c r="AG216">
+        <v>1.9</v>
+      </c>
+      <c r="AH216">
+        <v>1.8</v>
+      </c>
+      <c r="AI216">
+        <v>1.75</v>
+      </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
+      <c r="AK216">
+        <v>1.65</v>
+      </c>
+      <c r="AL216">
+        <v>1.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.35</v>
+      </c>
+      <c r="AN216">
+        <v>1.5</v>
+      </c>
+      <c r="AO216">
+        <v>1.38</v>
+      </c>
+      <c r="AP216">
+        <v>1.33</v>
+      </c>
+      <c r="AQ216">
+        <v>1.56</v>
+      </c>
+      <c r="AR216">
+        <v>1.37</v>
+      </c>
+      <c r="AS216">
+        <v>1.3</v>
+      </c>
+      <c r="AT216">
+        <v>2.67</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>5</v>
+      </c>
+      <c r="AW216">
+        <v>8</v>
+      </c>
+      <c r="AX216">
+        <v>3</v>
+      </c>
+      <c r="AY216">
+        <v>16</v>
+      </c>
+      <c r="AZ216">
+        <v>15</v>
+      </c>
+      <c r="BA216">
+        <v>6</v>
+      </c>
+      <c r="BB216">
+        <v>7</v>
+      </c>
+      <c r="BC216">
+        <v>13</v>
+      </c>
+      <c r="BD216">
+        <v>2.18</v>
+      </c>
+      <c r="BE216">
+        <v>6.75</v>
+      </c>
+      <c r="BF216">
+        <v>1.79</v>
+      </c>
+      <c r="BG216">
+        <v>1.23</v>
+      </c>
+      <c r="BH216">
+        <v>3.65</v>
+      </c>
+      <c r="BI216">
+        <v>1.41</v>
+      </c>
+      <c r="BJ216">
+        <v>2.65</v>
+      </c>
+      <c r="BK216">
+        <v>1.66</v>
+      </c>
+      <c r="BL216">
+        <v>2.07</v>
+      </c>
+      <c r="BM216">
+        <v>2.04</v>
+      </c>
+      <c r="BN216">
+        <v>1.68</v>
+      </c>
+      <c r="BO216">
+        <v>2.55</v>
+      </c>
+      <c r="BP216">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -45672,7 +45672,7 @@
         <v>45633.5</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G216" t="s">
         <v>92</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['28', '84']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -998,6 +1001,9 @@
   </si>
   <si>
     <t>['8', '33']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1624,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2030,7 +2036,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2442,7 +2448,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2648,7 +2654,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3266,7 +3272,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3678,7 +3684,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4090,7 +4096,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4171,7 +4177,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4914,7 +4920,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5120,7 +5126,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5198,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ19">
         <v>1.11</v>
@@ -5326,7 +5332,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5532,7 +5538,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5738,7 +5744,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5944,7 +5950,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6150,7 +6156,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -7592,7 +7598,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8004,7 +8010,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8085,7 +8091,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -8416,7 +8422,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8622,7 +8628,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8828,7 +8834,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9034,7 +9040,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -10064,7 +10070,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10270,7 +10276,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10476,7 +10482,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10888,7 +10894,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11378,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11506,7 +11512,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -12124,7 +12130,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>3.5</v>
@@ -12202,7 +12208,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ53">
         <v>2.1</v>
@@ -12536,7 +12542,7 @@
         <v>96</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12948,7 +12954,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13154,7 +13160,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13360,7 +13366,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13978,7 +13984,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14390,7 +14396,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15008,7 +15014,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>1.83</v>
@@ -15214,7 +15220,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15626,7 +15632,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15832,7 +15838,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16038,7 +16044,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16244,7 +16250,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>2.4</v>
@@ -16450,7 +16456,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16656,7 +16662,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16862,7 +16868,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17274,7 +17280,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17355,7 +17361,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.23</v>
@@ -17480,7 +17486,7 @@
         <v>96</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>2.4</v>
@@ -17892,7 +17898,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18716,7 +18722,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18794,7 +18800,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -19128,7 +19134,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19334,7 +19340,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19746,7 +19752,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19827,7 +19833,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -19952,7 +19958,7 @@
         <v>118</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20239,7 +20245,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>0.93</v>
@@ -20570,7 +20576,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20776,7 +20782,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20854,7 +20860,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
         <v>1.63</v>
@@ -20982,7 +20988,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21188,7 +21194,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21600,7 +21606,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21806,7 +21812,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -22218,7 +22224,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22630,7 +22636,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23042,7 +23048,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -24072,7 +24078,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24278,7 +24284,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24896,7 +24902,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25102,7 +25108,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25308,7 +25314,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25514,7 +25520,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25801,7 +25807,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -26416,7 +26422,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>1.11</v>
@@ -26750,7 +26756,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>4.5</v>
@@ -26956,7 +26962,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -27162,7 +27168,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27780,7 +27786,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28398,7 +28404,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28604,7 +28610,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -29016,7 +29022,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29222,7 +29228,7 @@
         <v>96</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>2.3</v>
@@ -29428,7 +29434,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -30046,7 +30052,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30951,7 +30957,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR144">
         <v>1.5</v>
@@ -31076,7 +31082,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31360,7 +31366,7 @@
         <v>0.6</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ146">
         <v>0.89</v>
@@ -32106,7 +32112,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -32518,7 +32524,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32724,7 +32730,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -33136,7 +33142,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33342,7 +33348,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33548,7 +33554,7 @@
         <v>96</v>
       </c>
       <c r="P157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>2.75</v>
@@ -34578,7 +34584,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35402,7 +35408,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35814,7 +35820,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -36020,7 +36026,7 @@
         <v>211</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q169">
         <v>3.6</v>
@@ -37874,7 +37880,7 @@
         <v>214</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>7.5</v>
@@ -38080,7 +38086,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>3.4</v>
@@ -38698,7 +38704,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38982,7 +38988,7 @@
         <v>0.43</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
         <v>0.44</v>
@@ -39110,7 +39116,7 @@
         <v>146</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>2.4</v>
@@ -39522,7 +39528,7 @@
         <v>96</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>4.33</v>
@@ -39728,7 +39734,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -40140,7 +40146,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>2.4</v>
@@ -40758,7 +40764,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40964,7 +40970,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q193">
         <v>5.5</v>
@@ -41170,7 +41176,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>3.5</v>
@@ -41376,7 +41382,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41582,7 +41588,7 @@
         <v>96</v>
       </c>
       <c r="P196" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -41788,7 +41794,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42612,7 +42618,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42818,7 +42824,7 @@
         <v>138</v>
       </c>
       <c r="P202" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -43848,7 +43854,7 @@
         <v>96</v>
       </c>
       <c r="P207" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -44054,7 +44060,7 @@
         <v>118</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44260,7 +44266,7 @@
         <v>96</v>
       </c>
       <c r="P209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44771,13 +44777,13 @@
         <v>0</v>
       </c>
       <c r="AW211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX211">
         <v>3</v>
       </c>
       <c r="AY211">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ211">
         <v>4</v>
@@ -45084,7 +45090,7 @@
         <v>99</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q213">
         <v>4.33</v>
@@ -45392,13 +45398,13 @@
         <v>1</v>
       </c>
       <c r="AX214">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY214">
         <v>7</v>
       </c>
       <c r="AZ214">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA214">
         <v>4</v>
@@ -45702,7 +45708,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q216">
         <v>3.75</v>
@@ -45859,6 +45865,212 @@
       </c>
       <c r="BP216">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7727075</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45635.70833333334</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>87</v>
+      </c>
+      <c r="H217" t="s">
+        <v>74</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>233</v>
+      </c>
+      <c r="P217" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q217">
+        <v>3.75</v>
+      </c>
+      <c r="R217">
+        <v>2.4</v>
+      </c>
+      <c r="S217">
+        <v>2.5</v>
+      </c>
+      <c r="T217">
+        <v>1.29</v>
+      </c>
+      <c r="U217">
+        <v>3.5</v>
+      </c>
+      <c r="V217">
+        <v>2.38</v>
+      </c>
+      <c r="W217">
+        <v>1.53</v>
+      </c>
+      <c r="X217">
+        <v>5.5</v>
+      </c>
+      <c r="Y217">
+        <v>1.14</v>
+      </c>
+      <c r="Z217">
+        <v>3.25</v>
+      </c>
+      <c r="AA217">
+        <v>3.6</v>
+      </c>
+      <c r="AB217">
+        <v>2.1</v>
+      </c>
+      <c r="AC217">
+        <v>1.02</v>
+      </c>
+      <c r="AD217">
+        <v>17</v>
+      </c>
+      <c r="AE217">
+        <v>1.18</v>
+      </c>
+      <c r="AF217">
+        <v>4.75</v>
+      </c>
+      <c r="AG217">
+        <v>1.55</v>
+      </c>
+      <c r="AH217">
+        <v>2.33</v>
+      </c>
+      <c r="AI217">
+        <v>1.5</v>
+      </c>
+      <c r="AJ217">
+        <v>2.5</v>
+      </c>
+      <c r="AK217">
+        <v>1.8</v>
+      </c>
+      <c r="AL217">
+        <v>1.22</v>
+      </c>
+      <c r="AM217">
+        <v>1.33</v>
+      </c>
+      <c r="AN217">
+        <v>1.38</v>
+      </c>
+      <c r="AO217">
+        <v>1</v>
+      </c>
+      <c r="AP217">
+        <v>1.56</v>
+      </c>
+      <c r="AQ217">
+        <v>0.88</v>
+      </c>
+      <c r="AR217">
+        <v>1.24</v>
+      </c>
+      <c r="AS217">
+        <v>1.19</v>
+      </c>
+      <c r="AT217">
+        <v>2.43</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>5</v>
+      </c>
+      <c r="AW217">
+        <v>1</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>13</v>
+      </c>
+      <c r="BA217">
+        <v>7</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>11</v>
+      </c>
+      <c r="BD217">
+        <v>2.4</v>
+      </c>
+      <c r="BE217">
+        <v>6.5</v>
+      </c>
+      <c r="BF217">
+        <v>1.7</v>
+      </c>
+      <c r="BG217">
+        <v>1.26</v>
+      </c>
+      <c r="BH217">
+        <v>3.4</v>
+      </c>
+      <c r="BI217">
+        <v>1.46</v>
+      </c>
+      <c r="BJ217">
+        <v>2.5</v>
+      </c>
+      <c r="BK217">
+        <v>1.74</v>
+      </c>
+      <c r="BL217">
+        <v>1.96</v>
+      </c>
+      <c r="BM217">
+        <v>2.15</v>
+      </c>
+      <c r="BN217">
+        <v>1.61</v>
+      </c>
+      <c r="BO217">
+        <v>2.7</v>
+      </c>
+      <c r="BP217">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -45881,7 +45881,7 @@
         <v>69</v>
       </c>
       <c r="E217" s="2">
-        <v>45635.70833333334</v>
+        <v>45634.875</v>
       </c>
       <c r="F217">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -45881,10 +45881,10 @@
         <v>69</v>
       </c>
       <c r="E217" s="2">
-        <v>45634.875</v>
+        <v>45635.70833333334</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G217" t="s">
         <v>87</v>
@@ -46007,22 +46007,22 @@
         <v>2.43</v>
       </c>
       <c r="AU217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV217">
         <v>5</v>
       </c>
       <c r="AW217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX217">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY217">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ217">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA217">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,27 @@
     <t>['28', '84']</t>
   </si>
   <si>
+    <t>['22', '55']</t>
+  </si>
+  <si>
+    <t>['27', '65']</t>
+  </si>
+  <si>
+    <t>['20', '23', '47', '61']</t>
+  </si>
+  <si>
+    <t>['3', '34', '49']</t>
+  </si>
+  <si>
+    <t>['49', '89']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['6', '38']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -1004,6 +1025,27 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['18', '67']</t>
+  </si>
+  <si>
+    <t>['15', '45+2', '69', '74']</t>
+  </si>
+  <si>
+    <t>['24', '37', '72']</t>
+  </si>
+  <si>
+    <t>['20', '89']</t>
+  </si>
+  <si>
+    <t>['38', '53', '55']</t>
+  </si>
+  <si>
+    <t>['15', '25']</t>
+  </si>
+  <si>
+    <t>['49', '58']</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1666,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1705,7 +1747,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1908,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ3">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2036,7 +2078,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2323,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2448,7 +2490,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2526,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6">
         <v>1.56</v>
@@ -2654,7 +2696,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2732,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.63</v>
@@ -2938,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ8">
         <v>0.44</v>
@@ -3147,7 +3189,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3272,7 +3314,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3353,7 +3395,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3559,7 +3601,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3684,7 +3726,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3762,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3968,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -4096,7 +4138,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4174,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -4380,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>1.11</v>
@@ -4586,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4792,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4920,7 +4962,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5126,7 +5168,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5332,7 +5374,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5413,7 +5455,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5538,7 +5580,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5619,7 +5661,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ21">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5744,7 +5786,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5822,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ22">
         <v>0.71</v>
@@ -5950,7 +5992,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6031,7 +6073,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6156,7 +6198,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6237,7 +6279,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6440,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6855,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR27">
         <v>2.06</v>
@@ -7061,7 +7103,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>0.89</v>
@@ -7470,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7598,7 +7640,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7679,7 +7721,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7882,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ32">
         <v>0.44</v>
@@ -8010,7 +8052,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8088,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>0.88</v>
@@ -8294,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ34">
         <v>1.63</v>
@@ -8422,7 +8464,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8503,7 +8545,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR35">
         <v>1.53</v>
@@ -8628,7 +8670,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8709,7 +8751,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ36">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR36">
         <v>1.62</v>
@@ -8834,7 +8876,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8912,7 +8954,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>2.11</v>
@@ -9040,7 +9082,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9121,7 +9163,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -9324,7 +9366,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ39">
         <v>1.56</v>
@@ -9530,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ40">
         <v>1.11</v>
@@ -9736,10 +9778,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ41">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9942,7 +9984,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>1.1</v>
@@ -10070,7 +10112,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10148,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10276,7 +10318,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10357,7 +10399,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
         <v>1.81</v>
@@ -10482,7 +10524,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10563,7 +10605,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10769,7 +10811,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ46">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10894,7 +10936,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10972,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47">
         <v>1.11</v>
@@ -11178,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11387,7 +11429,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11512,7 +11554,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11593,7 +11635,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ50">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11796,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ51">
         <v>0.44</v>
@@ -12002,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12130,7 +12172,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>3.5</v>
@@ -12211,7 +12253,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR53">
         <v>1.36</v>
@@ -12417,7 +12459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.26</v>
@@ -12542,7 +12584,7 @@
         <v>96</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12620,7 +12662,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12954,7 +12996,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13035,7 +13077,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -13160,7 +13202,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13238,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58">
         <v>1.11</v>
@@ -13366,7 +13408,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13444,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>1.85</v>
@@ -13650,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ60">
         <v>1.1</v>
@@ -13856,10 +13898,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ61">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13984,7 +14026,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14062,10 +14104,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ62">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR62">
         <v>0.83</v>
@@ -14271,7 +14313,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR63">
         <v>0.65</v>
@@ -14396,7 +14438,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14474,7 +14516,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14680,7 +14722,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14889,7 +14931,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.83</v>
@@ -15014,7 +15056,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>1.83</v>
@@ -15092,10 +15134,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ67">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR67">
         <v>1.27</v>
@@ -15220,7 +15262,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15301,7 +15343,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ68">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.14</v>
@@ -15504,10 +15546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ69">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15632,7 +15674,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15710,7 +15752,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15838,7 +15880,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15919,7 +15961,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ71">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR71">
         <v>0.86</v>
@@ -16044,7 +16086,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16122,10 +16164,10 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR72">
         <v>1.19</v>
@@ -16250,7 +16292,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>2.4</v>
@@ -16456,7 +16498,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16662,7 +16704,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16740,10 +16782,10 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR75">
         <v>0.98</v>
@@ -16868,7 +16910,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16946,7 +16988,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ76">
         <v>2.11</v>
@@ -17280,7 +17322,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17358,7 +17400,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17486,7 +17528,7 @@
         <v>96</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>2.4</v>
@@ -17564,10 +17606,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR79">
         <v>1.35</v>
@@ -17770,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80">
         <v>1.56</v>
@@ -17898,7 +17940,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18182,7 +18224,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ82">
         <v>1.1</v>
@@ -18594,7 +18636,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -18722,7 +18764,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18803,7 +18845,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR85">
         <v>1.19</v>
@@ -19006,7 +19048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -19134,7 +19176,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19215,7 +19257,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR87">
         <v>1.42</v>
@@ -19340,7 +19382,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19421,7 +19463,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19627,7 +19669,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR89">
         <v>1.55</v>
@@ -19752,7 +19794,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19830,7 +19872,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19958,7 +20000,7 @@
         <v>118</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20039,7 +20081,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR91">
         <v>1.71</v>
@@ -20448,7 +20490,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ93">
         <v>1.33</v>
@@ -20576,7 +20618,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20654,10 +20696,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ94">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR94">
         <v>1.05</v>
@@ -20782,7 +20824,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20988,7 +21030,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21066,7 +21108,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
         <v>1.11</v>
@@ -21194,7 +21236,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21275,7 +21317,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>0.86</v>
@@ -21606,7 +21648,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21812,7 +21854,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -21893,7 +21935,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -22096,7 +22138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ101">
         <v>1.56</v>
@@ -22224,7 +22266,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22305,7 +22347,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ102">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22508,10 +22550,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22636,7 +22678,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22714,7 +22756,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ104">
         <v>0.71</v>
@@ -22920,10 +22962,10 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR105">
         <v>1.27</v>
@@ -23048,7 +23090,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -23126,7 +23168,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23335,7 +23377,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR107">
         <v>1.42</v>
@@ -23744,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23953,7 +23995,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR110">
         <v>1.39</v>
@@ -24078,7 +24120,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24159,7 +24201,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ111">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR111">
         <v>0.92</v>
@@ -24284,7 +24326,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24362,7 +24404,7 @@
         <v>0</v>
       </c>
       <c r="AP112">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ112">
         <v>0.44</v>
@@ -24571,7 +24613,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>1.76</v>
@@ -24774,7 +24816,7 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
         <v>2.11</v>
@@ -24902,7 +24944,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24980,10 +25022,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ115">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25108,7 +25150,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25186,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25314,7 +25356,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25520,7 +25562,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25598,7 +25640,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ118">
         <v>1.11</v>
@@ -26010,10 +26052,10 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ120">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26216,7 +26258,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
         <v>1.33</v>
@@ -26756,7 +26798,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>4.5</v>
@@ -26962,7 +27004,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -27040,10 +27082,10 @@
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR125">
         <v>1.38</v>
@@ -27168,7 +27210,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27246,10 +27288,10 @@
         <v>1.8</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR126">
         <v>1.2</v>
@@ -27455,7 +27497,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27658,10 +27700,10 @@
         <v>0.6</v>
       </c>
       <c r="AP128">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ128">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR128">
         <v>1.5</v>
@@ -27786,7 +27828,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27867,7 +27909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR129">
         <v>1.56</v>
@@ -28073,7 +28115,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -28404,7 +28446,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28485,7 +28527,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ132">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR132">
         <v>1.07</v>
@@ -28610,7 +28652,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28688,7 +28730,7 @@
         <v>0.25</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28894,7 +28936,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ134">
         <v>0.67</v>
@@ -29022,7 +29064,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29100,10 +29142,10 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR135">
         <v>1.19</v>
@@ -29228,7 +29270,7 @@
         <v>96</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>2.3</v>
@@ -29306,10 +29348,10 @@
         <v>0</v>
       </c>
       <c r="AP136">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.1</v>
@@ -29434,7 +29476,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29515,7 +29557,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>0.95</v>
@@ -29718,7 +29760,7 @@
         <v>1.2</v>
       </c>
       <c r="AP138">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ138">
         <v>1.56</v>
@@ -29924,7 +29966,7 @@
         <v>2.25</v>
       </c>
       <c r="AP139">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ139">
         <v>1.63</v>
@@ -30052,7 +30094,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30339,7 +30381,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ141">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR141">
         <v>1.01</v>
@@ -30542,10 +30584,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ142">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30954,7 +30996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP144">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ144">
         <v>0.88</v>
@@ -31082,7 +31124,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31163,7 +31205,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR145">
         <v>1.33</v>
@@ -31369,7 +31411,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ146">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.26</v>
@@ -31575,7 +31617,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR147">
         <v>1.31</v>
@@ -31778,7 +31820,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ148">
         <v>0.71</v>
@@ -31984,7 +32026,7 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ149">
         <v>1.11</v>
@@ -32112,7 +32154,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -32190,10 +32232,10 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ150">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR150">
         <v>1.04</v>
@@ -32524,7 +32566,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32602,7 +32644,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
         <v>1.33</v>
@@ -32730,7 +32772,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32811,7 +32853,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -33142,7 +33184,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33223,7 +33265,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ155">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR155">
         <v>1.34</v>
@@ -33348,7 +33390,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33426,7 +33468,7 @@
         <v>1.8</v>
       </c>
       <c r="AP156">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ156">
         <v>1.63</v>
@@ -33554,7 +33596,7 @@
         <v>96</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>2.75</v>
@@ -33635,7 +33677,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR157">
         <v>1.7</v>
@@ -33841,7 +33883,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ158">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR158">
         <v>1.02</v>
@@ -34250,10 +34292,10 @@
         <v>2.4</v>
       </c>
       <c r="AP160">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR160">
         <v>1.49</v>
@@ -34584,7 +34626,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34868,7 +34910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
         <v>1.1</v>
@@ -35074,10 +35116,10 @@
         <v>1.17</v>
       </c>
       <c r="AP164">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ164">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35280,10 +35322,10 @@
         <v>0.5</v>
       </c>
       <c r="AP165">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ165">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR165">
         <v>1.2</v>
@@ -35408,7 +35450,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35486,7 +35528,7 @@
         <v>0.67</v>
       </c>
       <c r="AP166">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -35820,7 +35862,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35901,7 +35943,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ168">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR168">
         <v>1.09</v>
@@ -36026,7 +36068,7 @@
         <v>211</v>
       </c>
       <c r="P169" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>3.6</v>
@@ -36107,7 +36149,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ169">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR169">
         <v>1.2</v>
@@ -36310,10 +36352,10 @@
         <v>0.83</v>
       </c>
       <c r="AP170">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ170">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR170">
         <v>1.64</v>
@@ -36516,10 +36558,10 @@
         <v>1.71</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ171">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR171">
         <v>1.45</v>
@@ -36725,7 +36767,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ172">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR172">
         <v>1.32</v>
@@ -37137,7 +37179,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ174">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR174">
         <v>1.6</v>
@@ -37343,7 +37385,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ175">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.16</v>
@@ -37546,10 +37588,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ176">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR176">
         <v>1.67</v>
@@ -37752,7 +37794,7 @@
         <v>0.86</v>
       </c>
       <c r="AP177">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ177">
         <v>1.11</v>
@@ -37880,7 +37922,7 @@
         <v>214</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>7.5</v>
@@ -37958,7 +38000,7 @@
         <v>2.17</v>
       </c>
       <c r="AP178">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ178">
         <v>2.11</v>
@@ -38086,7 +38128,7 @@
         <v>215</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>3.4</v>
@@ -38167,7 +38209,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ179">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -38576,7 +38618,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ181">
         <v>1.1</v>
@@ -38704,7 +38746,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38785,7 +38827,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ182">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR182">
         <v>1.27</v>
@@ -38991,7 +39033,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR183">
         <v>1.26</v>
@@ -39116,7 +39158,7 @@
         <v>146</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>2.4</v>
@@ -39194,7 +39236,7 @@
         <v>0.71</v>
       </c>
       <c r="AP184">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ184">
         <v>1</v>
@@ -39400,7 +39442,7 @@
         <v>1.43</v>
       </c>
       <c r="AP185">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ185">
         <v>1.11</v>
@@ -39528,7 +39570,7 @@
         <v>96</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>4.33</v>
@@ -39609,7 +39651,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ186">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR186">
         <v>1.08</v>
@@ -39734,7 +39776,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39815,7 +39857,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40021,7 +40063,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR188">
         <v>1.45</v>
@@ -40146,7 +40188,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>2.4</v>
@@ -40636,10 +40678,10 @@
         <v>1.63</v>
       </c>
       <c r="AP191">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ191">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR191">
         <v>1.4</v>
@@ -40764,7 +40806,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40845,7 +40887,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ192">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR192">
         <v>1.1</v>
@@ -40970,7 +41012,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>5.5</v>
@@ -41048,7 +41090,7 @@
         <v>1.86</v>
       </c>
       <c r="AP193">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
         <v>2.11</v>
@@ -41176,7 +41218,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>3.5</v>
@@ -41254,7 +41296,7 @@
         <v>1.14</v>
       </c>
       <c r="AP194">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ194">
         <v>1.56</v>
@@ -41382,7 +41424,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41588,7 +41630,7 @@
         <v>96</v>
       </c>
       <c r="P196" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -41669,7 +41711,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ196">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR196">
         <v>1.16</v>
@@ -41794,7 +41836,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41872,10 +41914,10 @@
         <v>2.22</v>
       </c>
       <c r="AP197">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ197">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR197">
         <v>1.26</v>
@@ -42078,10 +42120,10 @@
         <v>2</v>
       </c>
       <c r="AP198">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ198">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR198">
         <v>1.39</v>
@@ -42284,10 +42326,10 @@
         <v>0.78</v>
       </c>
       <c r="AP199">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ199">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR199">
         <v>1.07</v>
@@ -42490,10 +42532,10 @@
         <v>0.88</v>
       </c>
       <c r="AP200">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ200">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR200">
         <v>1.4</v>
@@ -42618,7 +42660,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42696,10 +42738,10 @@
         <v>1.71</v>
       </c>
       <c r="AP201">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ201">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR201">
         <v>1.67</v>
@@ -42824,7 +42866,7 @@
         <v>138</v>
       </c>
       <c r="P202" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -42902,10 +42944,10 @@
         <v>0.63</v>
       </c>
       <c r="AP202">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ202">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR202">
         <v>1.37</v>
@@ -43108,10 +43150,10 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ203">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR203">
         <v>1.32</v>
@@ -43314,10 +43356,10 @@
         <v>1.13</v>
       </c>
       <c r="AP204">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR204">
         <v>1.45</v>
@@ -43520,10 +43562,10 @@
         <v>1.44</v>
       </c>
       <c r="AP205">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ205">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR205">
         <v>1.59</v>
@@ -43726,10 +43768,10 @@
         <v>1.63</v>
       </c>
       <c r="AP206">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ206">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR206">
         <v>1.67</v>
@@ -43854,7 +43896,7 @@
         <v>96</v>
       </c>
       <c r="P207" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q207">
         <v>2.05</v>
@@ -43932,10 +43974,10 @@
         <v>0.43</v>
       </c>
       <c r="AP207">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ207">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44060,7 +44102,7 @@
         <v>118</v>
       </c>
       <c r="P208" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44138,10 +44180,10 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ208">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR208">
         <v>0.99</v>
@@ -44266,7 +44308,7 @@
         <v>96</v>
       </c>
       <c r="P209" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -45090,7 +45132,7 @@
         <v>99</v>
       </c>
       <c r="P213" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>4.33</v>
@@ -45708,7 +45750,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q216">
         <v>3.75</v>
@@ -45914,7 +45956,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46071,6 +46113,2478 @@
       </c>
       <c r="BP217">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7727080</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>93</v>
+      </c>
+      <c r="H218" t="s">
+        <v>72</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>96</v>
+      </c>
+      <c r="P218" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q218">
+        <v>2.3</v>
+      </c>
+      <c r="R218">
+        <v>2.2</v>
+      </c>
+      <c r="S218">
+        <v>5</v>
+      </c>
+      <c r="T218">
+        <v>1.4</v>
+      </c>
+      <c r="U218">
+        <v>2.75</v>
+      </c>
+      <c r="V218">
+        <v>3</v>
+      </c>
+      <c r="W218">
+        <v>1.36</v>
+      </c>
+      <c r="X218">
+        <v>8</v>
+      </c>
+      <c r="Y218">
+        <v>1.08</v>
+      </c>
+      <c r="Z218">
+        <v>1.67</v>
+      </c>
+      <c r="AA218">
+        <v>3.75</v>
+      </c>
+      <c r="AB218">
+        <v>4.8</v>
+      </c>
+      <c r="AC218">
+        <v>1.04</v>
+      </c>
+      <c r="AD218">
+        <v>12</v>
+      </c>
+      <c r="AE218">
+        <v>1.3</v>
+      </c>
+      <c r="AF218">
+        <v>3.5</v>
+      </c>
+      <c r="AG218">
+        <v>1.85</v>
+      </c>
+      <c r="AH218">
+        <v>1.93</v>
+      </c>
+      <c r="AI218">
+        <v>1.95</v>
+      </c>
+      <c r="AJ218">
+        <v>1.8</v>
+      </c>
+      <c r="AK218">
+        <v>1.17</v>
+      </c>
+      <c r="AL218">
+        <v>1.2</v>
+      </c>
+      <c r="AM218">
+        <v>2.2</v>
+      </c>
+      <c r="AN218">
+        <v>1.89</v>
+      </c>
+      <c r="AO218">
+        <v>1</v>
+      </c>
+      <c r="AP218">
+        <v>1.7</v>
+      </c>
+      <c r="AQ218">
+        <v>1.2</v>
+      </c>
+      <c r="AR218">
+        <v>1.7</v>
+      </c>
+      <c r="AS218">
+        <v>1.05</v>
+      </c>
+      <c r="AT218">
+        <v>2.75</v>
+      </c>
+      <c r="AU218">
+        <v>4</v>
+      </c>
+      <c r="AV218">
+        <v>8</v>
+      </c>
+      <c r="AW218">
+        <v>4</v>
+      </c>
+      <c r="AX218">
+        <v>2</v>
+      </c>
+      <c r="AY218">
+        <v>9</v>
+      </c>
+      <c r="AZ218">
+        <v>13</v>
+      </c>
+      <c r="BA218">
+        <v>2</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>4</v>
+      </c>
+      <c r="BD218">
+        <v>1.41</v>
+      </c>
+      <c r="BE218">
+        <v>7</v>
+      </c>
+      <c r="BF218">
+        <v>3.15</v>
+      </c>
+      <c r="BG218">
+        <v>1.2</v>
+      </c>
+      <c r="BH218">
+        <v>3.9</v>
+      </c>
+      <c r="BI218">
+        <v>1.37</v>
+      </c>
+      <c r="BJ218">
+        <v>2.8</v>
+      </c>
+      <c r="BK218">
+        <v>1.61</v>
+      </c>
+      <c r="BL218">
+        <v>2.15</v>
+      </c>
+      <c r="BM218">
+        <v>1.97</v>
+      </c>
+      <c r="BN218">
+        <v>1.72</v>
+      </c>
+      <c r="BO218">
+        <v>2.43</v>
+      </c>
+      <c r="BP218">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7727084</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F219">
+        <v>20</v>
+      </c>
+      <c r="G219" t="s">
+        <v>75</v>
+      </c>
+      <c r="H219" t="s">
+        <v>78</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219" t="s">
+        <v>96</v>
+      </c>
+      <c r="P219" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q219">
+        <v>2.2</v>
+      </c>
+      <c r="R219">
+        <v>2.2</v>
+      </c>
+      <c r="S219">
+        <v>6</v>
+      </c>
+      <c r="T219">
+        <v>1.44</v>
+      </c>
+      <c r="U219">
+        <v>2.63</v>
+      </c>
+      <c r="V219">
+        <v>3.25</v>
+      </c>
+      <c r="W219">
+        <v>1.33</v>
+      </c>
+      <c r="X219">
+        <v>9</v>
+      </c>
+      <c r="Y219">
+        <v>1.07</v>
+      </c>
+      <c r="Z219">
+        <v>1.65</v>
+      </c>
+      <c r="AA219">
+        <v>3.6</v>
+      </c>
+      <c r="AB219">
+        <v>5</v>
+      </c>
+      <c r="AC219">
+        <v>1.05</v>
+      </c>
+      <c r="AD219">
+        <v>9</v>
+      </c>
+      <c r="AE219">
+        <v>1.33</v>
+      </c>
+      <c r="AF219">
+        <v>3.25</v>
+      </c>
+      <c r="AG219">
+        <v>2.03</v>
+      </c>
+      <c r="AH219">
+        <v>1.83</v>
+      </c>
+      <c r="AI219">
+        <v>2.05</v>
+      </c>
+      <c r="AJ219">
+        <v>1.7</v>
+      </c>
+      <c r="AK219">
+        <v>1.15</v>
+      </c>
+      <c r="AL219">
+        <v>1.2</v>
+      </c>
+      <c r="AM219">
+        <v>2.2</v>
+      </c>
+      <c r="AN219">
+        <v>1.22</v>
+      </c>
+      <c r="AO219">
+        <v>0.75</v>
+      </c>
+      <c r="AP219">
+        <v>1.2</v>
+      </c>
+      <c r="AQ219">
+        <v>0.78</v>
+      </c>
+      <c r="AR219">
+        <v>1.48</v>
+      </c>
+      <c r="AS219">
+        <v>1.21</v>
+      </c>
+      <c r="AT219">
+        <v>2.69</v>
+      </c>
+      <c r="AU219">
+        <v>4</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>4</v>
+      </c>
+      <c r="AX219">
+        <v>2</v>
+      </c>
+      <c r="AY219">
+        <v>13</v>
+      </c>
+      <c r="AZ219">
+        <v>6</v>
+      </c>
+      <c r="BA219">
+        <v>11</v>
+      </c>
+      <c r="BB219">
+        <v>5</v>
+      </c>
+      <c r="BC219">
+        <v>16</v>
+      </c>
+      <c r="BD219">
+        <v>1.41</v>
+      </c>
+      <c r="BE219">
+        <v>7</v>
+      </c>
+      <c r="BF219">
+        <v>3.3</v>
+      </c>
+      <c r="BG219">
+        <v>1.3</v>
+      </c>
+      <c r="BH219">
+        <v>3.05</v>
+      </c>
+      <c r="BI219">
+        <v>1.53</v>
+      </c>
+      <c r="BJ219">
+        <v>2.32</v>
+      </c>
+      <c r="BK219">
+        <v>1.86</v>
+      </c>
+      <c r="BL219">
+        <v>1.82</v>
+      </c>
+      <c r="BM219">
+        <v>2.33</v>
+      </c>
+      <c r="BN219">
+        <v>1.52</v>
+      </c>
+      <c r="BO219">
+        <v>3</v>
+      </c>
+      <c r="BP219">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7727088</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220" t="s">
+        <v>86</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>2</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>4</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>132</v>
+      </c>
+      <c r="P220" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q220">
+        <v>5</v>
+      </c>
+      <c r="R220">
+        <v>2.25</v>
+      </c>
+      <c r="S220">
+        <v>2.3</v>
+      </c>
+      <c r="T220">
+        <v>1.36</v>
+      </c>
+      <c r="U220">
+        <v>3</v>
+      </c>
+      <c r="V220">
+        <v>2.63</v>
+      </c>
+      <c r="W220">
+        <v>1.44</v>
+      </c>
+      <c r="X220">
+        <v>7</v>
+      </c>
+      <c r="Y220">
+        <v>1.1</v>
+      </c>
+      <c r="Z220">
+        <v>4.6</v>
+      </c>
+      <c r="AA220">
+        <v>3.75</v>
+      </c>
+      <c r="AB220">
+        <v>1.73</v>
+      </c>
+      <c r="AC220">
+        <v>1.05</v>
+      </c>
+      <c r="AD220">
+        <v>9.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.25</v>
+      </c>
+      <c r="AF220">
+        <v>3.75</v>
+      </c>
+      <c r="AG220">
+        <v>1.81</v>
+      </c>
+      <c r="AH220">
+        <v>1.98</v>
+      </c>
+      <c r="AI220">
+        <v>1.75</v>
+      </c>
+      <c r="AJ220">
+        <v>2</v>
+      </c>
+      <c r="AK220">
+        <v>2.1</v>
+      </c>
+      <c r="AL220">
+        <v>1.22</v>
+      </c>
+      <c r="AM220">
+        <v>1.17</v>
+      </c>
+      <c r="AN220">
+        <v>0.78</v>
+      </c>
+      <c r="AO220">
+        <v>2.1</v>
+      </c>
+      <c r="AP220">
+        <v>0.7</v>
+      </c>
+      <c r="AQ220">
+        <v>2.18</v>
+      </c>
+      <c r="AR220">
+        <v>1</v>
+      </c>
+      <c r="AS220">
+        <v>1.49</v>
+      </c>
+      <c r="AT220">
+        <v>2.49</v>
+      </c>
+      <c r="AU220">
+        <v>4</v>
+      </c>
+      <c r="AV220">
+        <v>5</v>
+      </c>
+      <c r="AW220">
+        <v>1</v>
+      </c>
+      <c r="AX220">
+        <v>2</v>
+      </c>
+      <c r="AY220">
+        <v>7</v>
+      </c>
+      <c r="AZ220">
+        <v>8</v>
+      </c>
+      <c r="BA220">
+        <v>4</v>
+      </c>
+      <c r="BB220">
+        <v>3</v>
+      </c>
+      <c r="BC220">
+        <v>7</v>
+      </c>
+      <c r="BD220">
+        <v>2.6</v>
+      </c>
+      <c r="BE220">
+        <v>6.75</v>
+      </c>
+      <c r="BF220">
+        <v>1.58</v>
+      </c>
+      <c r="BG220">
+        <v>1.21</v>
+      </c>
+      <c r="BH220">
+        <v>3.8</v>
+      </c>
+      <c r="BI220">
+        <v>1.37</v>
+      </c>
+      <c r="BJ220">
+        <v>2.8</v>
+      </c>
+      <c r="BK220">
+        <v>1.61</v>
+      </c>
+      <c r="BL220">
+        <v>2.15</v>
+      </c>
+      <c r="BM220">
+        <v>1.96</v>
+      </c>
+      <c r="BN220">
+        <v>1.73</v>
+      </c>
+      <c r="BO220">
+        <v>2.45</v>
+      </c>
+      <c r="BP220">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7727089</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F221">
+        <v>20</v>
+      </c>
+      <c r="G221" t="s">
+        <v>76</v>
+      </c>
+      <c r="H221" t="s">
+        <v>73</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>234</v>
+      </c>
+      <c r="P221" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q221">
+        <v>3.75</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>3.2</v>
+      </c>
+      <c r="T221">
+        <v>1.5</v>
+      </c>
+      <c r="U221">
+        <v>2.5</v>
+      </c>
+      <c r="V221">
+        <v>3.4</v>
+      </c>
+      <c r="W221">
+        <v>1.3</v>
+      </c>
+      <c r="X221">
+        <v>10</v>
+      </c>
+      <c r="Y221">
+        <v>1.06</v>
+      </c>
+      <c r="Z221">
+        <v>3</v>
+      </c>
+      <c r="AA221">
+        <v>3.1</v>
+      </c>
+      <c r="AB221">
+        <v>2.4</v>
+      </c>
+      <c r="AC221">
+        <v>1.07</v>
+      </c>
+      <c r="AD221">
+        <v>8</v>
+      </c>
+      <c r="AE221">
+        <v>1.42</v>
+      </c>
+      <c r="AF221">
+        <v>2.8</v>
+      </c>
+      <c r="AG221">
+        <v>2.2</v>
+      </c>
+      <c r="AH221">
+        <v>1.58</v>
+      </c>
+      <c r="AI221">
+        <v>1.95</v>
+      </c>
+      <c r="AJ221">
+        <v>1.8</v>
+      </c>
+      <c r="AK221">
+        <v>1.57</v>
+      </c>
+      <c r="AL221">
+        <v>1.28</v>
+      </c>
+      <c r="AM221">
+        <v>1.36</v>
+      </c>
+      <c r="AN221">
+        <v>1.7</v>
+      </c>
+      <c r="AO221">
+        <v>1.44</v>
+      </c>
+      <c r="AP221">
+        <v>1.82</v>
+      </c>
+      <c r="AQ221">
+        <v>1.3</v>
+      </c>
+      <c r="AR221">
+        <v>1.15</v>
+      </c>
+      <c r="AS221">
+        <v>1.33</v>
+      </c>
+      <c r="AT221">
+        <v>2.48</v>
+      </c>
+      <c r="AU221">
+        <v>4</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>2</v>
+      </c>
+      <c r="AX221">
+        <v>3</v>
+      </c>
+      <c r="AY221">
+        <v>8</v>
+      </c>
+      <c r="AZ221">
+        <v>10</v>
+      </c>
+      <c r="BA221">
+        <v>4</v>
+      </c>
+      <c r="BB221">
+        <v>3</v>
+      </c>
+      <c r="BC221">
+        <v>7</v>
+      </c>
+      <c r="BD221">
+        <v>1.97</v>
+      </c>
+      <c r="BE221">
+        <v>6.4</v>
+      </c>
+      <c r="BF221">
+        <v>2.02</v>
+      </c>
+      <c r="BG221">
+        <v>1.27</v>
+      </c>
+      <c r="BH221">
+        <v>3.3</v>
+      </c>
+      <c r="BI221">
+        <v>1.47</v>
+      </c>
+      <c r="BJ221">
+        <v>2.48</v>
+      </c>
+      <c r="BK221">
+        <v>1.74</v>
+      </c>
+      <c r="BL221">
+        <v>1.96</v>
+      </c>
+      <c r="BM221">
+        <v>2.15</v>
+      </c>
+      <c r="BN221">
+        <v>1.61</v>
+      </c>
+      <c r="BO221">
+        <v>2.7</v>
+      </c>
+      <c r="BP221">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7727086</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F222">
+        <v>20</v>
+      </c>
+      <c r="G222" t="s">
+        <v>84</v>
+      </c>
+      <c r="H222" t="s">
+        <v>91</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>96</v>
+      </c>
+      <c r="P222" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q222">
+        <v>2.88</v>
+      </c>
+      <c r="R222">
+        <v>2.3</v>
+      </c>
+      <c r="S222">
+        <v>3.4</v>
+      </c>
+      <c r="T222">
+        <v>1.3</v>
+      </c>
+      <c r="U222">
+        <v>3.4</v>
+      </c>
+      <c r="V222">
+        <v>2.5</v>
+      </c>
+      <c r="W222">
+        <v>1.5</v>
+      </c>
+      <c r="X222">
+        <v>6</v>
+      </c>
+      <c r="Y222">
+        <v>1.13</v>
+      </c>
+      <c r="Z222">
+        <v>2.4</v>
+      </c>
+      <c r="AA222">
+        <v>3.5</v>
+      </c>
+      <c r="AB222">
+        <v>2.7</v>
+      </c>
+      <c r="AC222">
+        <v>1.04</v>
+      </c>
+      <c r="AD222">
+        <v>10</v>
+      </c>
+      <c r="AE222">
+        <v>1.2</v>
+      </c>
+      <c r="AF222">
+        <v>4.33</v>
+      </c>
+      <c r="AG222">
+        <v>1.58</v>
+      </c>
+      <c r="AH222">
+        <v>2.2</v>
+      </c>
+      <c r="AI222">
+        <v>1.53</v>
+      </c>
+      <c r="AJ222">
+        <v>2.38</v>
+      </c>
+      <c r="AK222">
+        <v>1.42</v>
+      </c>
+      <c r="AL222">
+        <v>1.25</v>
+      </c>
+      <c r="AM222">
+        <v>1.55</v>
+      </c>
+      <c r="AN222">
+        <v>2.63</v>
+      </c>
+      <c r="AO222">
+        <v>1.3</v>
+      </c>
+      <c r="AP222">
+        <v>2.33</v>
+      </c>
+      <c r="AQ222">
+        <v>1.45</v>
+      </c>
+      <c r="AR222">
+        <v>1.39</v>
+      </c>
+      <c r="AS222">
+        <v>1.26</v>
+      </c>
+      <c r="AT222">
+        <v>2.65</v>
+      </c>
+      <c r="AU222">
+        <v>3</v>
+      </c>
+      <c r="AV222">
+        <v>9</v>
+      </c>
+      <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>2</v>
+      </c>
+      <c r="AY222">
+        <v>11</v>
+      </c>
+      <c r="AZ222">
+        <v>16</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>6</v>
+      </c>
+      <c r="BC222">
+        <v>13</v>
+      </c>
+      <c r="BD222">
+        <v>1.95</v>
+      </c>
+      <c r="BE222">
+        <v>6.75</v>
+      </c>
+      <c r="BF222">
+        <v>2</v>
+      </c>
+      <c r="BG222">
+        <v>1.23</v>
+      </c>
+      <c r="BH222">
+        <v>3.65</v>
+      </c>
+      <c r="BI222">
+        <v>1.41</v>
+      </c>
+      <c r="BJ222">
+        <v>2.65</v>
+      </c>
+      <c r="BK222">
+        <v>1.66</v>
+      </c>
+      <c r="BL222">
+        <v>2.07</v>
+      </c>
+      <c r="BM222">
+        <v>2.02</v>
+      </c>
+      <c r="BN222">
+        <v>1.68</v>
+      </c>
+      <c r="BO222">
+        <v>2.55</v>
+      </c>
+      <c r="BP222">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7727090</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F223">
+        <v>20</v>
+      </c>
+      <c r="G223" t="s">
+        <v>71</v>
+      </c>
+      <c r="H223" t="s">
+        <v>88</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>235</v>
+      </c>
+      <c r="P223" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q223">
+        <v>2.2</v>
+      </c>
+      <c r="R223">
+        <v>2.2</v>
+      </c>
+      <c r="S223">
+        <v>6</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.75</v>
+      </c>
+      <c r="V223">
+        <v>3</v>
+      </c>
+      <c r="W223">
+        <v>1.36</v>
+      </c>
+      <c r="X223">
+        <v>8</v>
+      </c>
+      <c r="Y223">
+        <v>1.08</v>
+      </c>
+      <c r="Z223">
+        <v>1.62</v>
+      </c>
+      <c r="AA223">
+        <v>3.8</v>
+      </c>
+      <c r="AB223">
+        <v>5.5</v>
+      </c>
+      <c r="AC223">
+        <v>1.05</v>
+      </c>
+      <c r="AD223">
+        <v>9.5</v>
+      </c>
+      <c r="AE223">
+        <v>1.28</v>
+      </c>
+      <c r="AF223">
+        <v>3.55</v>
+      </c>
+      <c r="AG223">
+        <v>1.9</v>
+      </c>
+      <c r="AH223">
+        <v>1.88</v>
+      </c>
+      <c r="AI223">
+        <v>2</v>
+      </c>
+      <c r="AJ223">
+        <v>1.75</v>
+      </c>
+      <c r="AK223">
+        <v>1.15</v>
+      </c>
+      <c r="AL223">
+        <v>1.18</v>
+      </c>
+      <c r="AM223">
+        <v>2.25</v>
+      </c>
+      <c r="AN223">
+        <v>2.8</v>
+      </c>
+      <c r="AO223">
+        <v>0.44</v>
+      </c>
+      <c r="AP223">
+        <v>2.64</v>
+      </c>
+      <c r="AQ223">
+        <v>0.5</v>
+      </c>
+      <c r="AR223">
+        <v>1.41</v>
+      </c>
+      <c r="AS223">
+        <v>1.12</v>
+      </c>
+      <c r="AT223">
+        <v>2.53</v>
+      </c>
+      <c r="AU223">
+        <v>5</v>
+      </c>
+      <c r="AV223">
+        <v>7</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>6</v>
+      </c>
+      <c r="AY223">
+        <v>12</v>
+      </c>
+      <c r="AZ223">
+        <v>17</v>
+      </c>
+      <c r="BA223">
+        <v>6</v>
+      </c>
+      <c r="BB223">
+        <v>9</v>
+      </c>
+      <c r="BC223">
+        <v>15</v>
+      </c>
+      <c r="BD223">
+        <v>1.46</v>
+      </c>
+      <c r="BE223">
+        <v>7</v>
+      </c>
+      <c r="BF223">
+        <v>3.05</v>
+      </c>
+      <c r="BG223">
+        <v>1.3</v>
+      </c>
+      <c r="BH223">
+        <v>3.1</v>
+      </c>
+      <c r="BI223">
+        <v>1.52</v>
+      </c>
+      <c r="BJ223">
+        <v>2.33</v>
+      </c>
+      <c r="BK223">
+        <v>1.84</v>
+      </c>
+      <c r="BL223">
+        <v>1.84</v>
+      </c>
+      <c r="BM223">
+        <v>2.32</v>
+      </c>
+      <c r="BN223">
+        <v>1.52</v>
+      </c>
+      <c r="BO223">
+        <v>2.95</v>
+      </c>
+      <c r="BP223">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7727085</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F224">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>74</v>
+      </c>
+      <c r="H224" t="s">
+        <v>77</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>3</v>
+      </c>
+      <c r="N224">
+        <v>7</v>
+      </c>
+      <c r="O224" t="s">
+        <v>236</v>
+      </c>
+      <c r="P224" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q224">
+        <v>2.1</v>
+      </c>
+      <c r="R224">
+        <v>2.5</v>
+      </c>
+      <c r="S224">
+        <v>4.75</v>
+      </c>
+      <c r="T224">
+        <v>1.25</v>
+      </c>
+      <c r="U224">
+        <v>3.75</v>
+      </c>
+      <c r="V224">
+        <v>2.2</v>
+      </c>
+      <c r="W224">
+        <v>1.62</v>
+      </c>
+      <c r="X224">
+        <v>5</v>
+      </c>
+      <c r="Y224">
+        <v>1.17</v>
+      </c>
+      <c r="Z224">
+        <v>1.6</v>
+      </c>
+      <c r="AA224">
+        <v>4.2</v>
+      </c>
+      <c r="AB224">
+        <v>5</v>
+      </c>
+      <c r="AC224">
+        <v>1.01</v>
+      </c>
+      <c r="AD224">
+        <v>13</v>
+      </c>
+      <c r="AE224">
+        <v>1.18</v>
+      </c>
+      <c r="AF224">
+        <v>4.75</v>
+      </c>
+      <c r="AG224">
+        <v>1.48</v>
+      </c>
+      <c r="AH224">
+        <v>2.47</v>
+      </c>
+      <c r="AI224">
+        <v>1.57</v>
+      </c>
+      <c r="AJ224">
+        <v>2.25</v>
+      </c>
+      <c r="AK224">
+        <v>1.14</v>
+      </c>
+      <c r="AL224">
+        <v>1.18</v>
+      </c>
+      <c r="AM224">
+        <v>2.38</v>
+      </c>
+      <c r="AN224">
+        <v>1.4</v>
+      </c>
+      <c r="AO224">
+        <v>0.89</v>
+      </c>
+      <c r="AP224">
+        <v>1.55</v>
+      </c>
+      <c r="AQ224">
+        <v>0.8</v>
+      </c>
+      <c r="AR224">
+        <v>1.25</v>
+      </c>
+      <c r="AS224">
+        <v>1.36</v>
+      </c>
+      <c r="AT224">
+        <v>2.61</v>
+      </c>
+      <c r="AU224">
+        <v>11</v>
+      </c>
+      <c r="AV224">
+        <v>8</v>
+      </c>
+      <c r="AW224">
+        <v>5</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>17</v>
+      </c>
+      <c r="AZ224">
+        <v>16</v>
+      </c>
+      <c r="BA224">
+        <v>6</v>
+      </c>
+      <c r="BB224">
+        <v>7</v>
+      </c>
+      <c r="BC224">
+        <v>13</v>
+      </c>
+      <c r="BD224">
+        <v>1.44</v>
+      </c>
+      <c r="BE224">
+        <v>7.5</v>
+      </c>
+      <c r="BF224">
+        <v>3.05</v>
+      </c>
+      <c r="BG224">
+        <v>1.16</v>
+      </c>
+      <c r="BH224">
+        <v>4.4</v>
+      </c>
+      <c r="BI224">
+        <v>1.29</v>
+      </c>
+      <c r="BJ224">
+        <v>3.2</v>
+      </c>
+      <c r="BK224">
+        <v>1.48</v>
+      </c>
+      <c r="BL224">
+        <v>2.43</v>
+      </c>
+      <c r="BM224">
+        <v>1.76</v>
+      </c>
+      <c r="BN224">
+        <v>1.94</v>
+      </c>
+      <c r="BO224">
+        <v>2.15</v>
+      </c>
+      <c r="BP224">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7727087</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F225">
+        <v>20</v>
+      </c>
+      <c r="G225" t="s">
+        <v>85</v>
+      </c>
+      <c r="H225" t="s">
+        <v>87</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>3</v>
+      </c>
+      <c r="O225" t="s">
+        <v>237</v>
+      </c>
+      <c r="P225" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q225">
+        <v>2.25</v>
+      </c>
+      <c r="R225">
+        <v>2.2</v>
+      </c>
+      <c r="S225">
+        <v>5.5</v>
+      </c>
+      <c r="T225">
+        <v>1.4</v>
+      </c>
+      <c r="U225">
+        <v>2.75</v>
+      </c>
+      <c r="V225">
+        <v>3</v>
+      </c>
+      <c r="W225">
+        <v>1.36</v>
+      </c>
+      <c r="X225">
+        <v>8</v>
+      </c>
+      <c r="Y225">
+        <v>1.08</v>
+      </c>
+      <c r="Z225">
+        <v>1.62</v>
+      </c>
+      <c r="AA225">
+        <v>3.8</v>
+      </c>
+      <c r="AB225">
+        <v>5</v>
+      </c>
+      <c r="AC225">
+        <v>1.05</v>
+      </c>
+      <c r="AD225">
+        <v>9.5</v>
+      </c>
+      <c r="AE225">
+        <v>1.3</v>
+      </c>
+      <c r="AF225">
+        <v>3.45</v>
+      </c>
+      <c r="AG225">
+        <v>1.93</v>
+      </c>
+      <c r="AH225">
+        <v>1.86</v>
+      </c>
+      <c r="AI225">
+        <v>1.95</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.17</v>
+      </c>
+      <c r="AL225">
+        <v>1.18</v>
+      </c>
+      <c r="AM225">
+        <v>2.25</v>
+      </c>
+      <c r="AN225">
+        <v>1.75</v>
+      </c>
+      <c r="AO225">
+        <v>0.7</v>
+      </c>
+      <c r="AP225">
+        <v>1.89</v>
+      </c>
+      <c r="AQ225">
+        <v>0.64</v>
+      </c>
+      <c r="AR225">
+        <v>1.55</v>
+      </c>
+      <c r="AS225">
+        <v>1.01</v>
+      </c>
+      <c r="AT225">
+        <v>2.56</v>
+      </c>
+      <c r="AU225">
+        <v>7</v>
+      </c>
+      <c r="AV225">
+        <v>4</v>
+      </c>
+      <c r="AW225">
+        <v>8</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>17</v>
+      </c>
+      <c r="AZ225">
+        <v>9</v>
+      </c>
+      <c r="BA225">
+        <v>4</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>5</v>
+      </c>
+      <c r="BD225">
+        <v>1.42</v>
+      </c>
+      <c r="BE225">
+        <v>7</v>
+      </c>
+      <c r="BF225">
+        <v>3.15</v>
+      </c>
+      <c r="BG225">
+        <v>1.28</v>
+      </c>
+      <c r="BH225">
+        <v>3.3</v>
+      </c>
+      <c r="BI225">
+        <v>1.48</v>
+      </c>
+      <c r="BJ225">
+        <v>2.45</v>
+      </c>
+      <c r="BK225">
+        <v>1.76</v>
+      </c>
+      <c r="BL225">
+        <v>1.94</v>
+      </c>
+      <c r="BM225">
+        <v>2.18</v>
+      </c>
+      <c r="BN225">
+        <v>1.58</v>
+      </c>
+      <c r="BO225">
+        <v>2.75</v>
+      </c>
+      <c r="BP225">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7727083</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s">
+        <v>90</v>
+      </c>
+      <c r="H226" t="s">
+        <v>89</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>238</v>
+      </c>
+      <c r="P226" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q226">
+        <v>2.5</v>
+      </c>
+      <c r="R226">
+        <v>2.1</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.44</v>
+      </c>
+      <c r="U226">
+        <v>2.63</v>
+      </c>
+      <c r="V226">
+        <v>3.25</v>
+      </c>
+      <c r="W226">
+        <v>1.33</v>
+      </c>
+      <c r="X226">
+        <v>9</v>
+      </c>
+      <c r="Y226">
+        <v>1.07</v>
+      </c>
+      <c r="Z226">
+        <v>1.85</v>
+      </c>
+      <c r="AA226">
+        <v>3.4</v>
+      </c>
+      <c r="AB226">
+        <v>4.2</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>9</v>
+      </c>
+      <c r="AE226">
+        <v>1.33</v>
+      </c>
+      <c r="AF226">
+        <v>3.2</v>
+      </c>
+      <c r="AG226">
+        <v>2.05</v>
+      </c>
+      <c r="AH226">
+        <v>1.8</v>
+      </c>
+      <c r="AI226">
+        <v>1.95</v>
+      </c>
+      <c r="AJ226">
+        <v>1.8</v>
+      </c>
+      <c r="AK226">
+        <v>1.2</v>
+      </c>
+      <c r="AL226">
+        <v>1.22</v>
+      </c>
+      <c r="AM226">
+        <v>1.95</v>
+      </c>
+      <c r="AN226">
+        <v>2.33</v>
+      </c>
+      <c r="AO226">
+        <v>1.3</v>
+      </c>
+      <c r="AP226">
+        <v>2.2</v>
+      </c>
+      <c r="AQ226">
+        <v>1.27</v>
+      </c>
+      <c r="AR226">
+        <v>1.43</v>
+      </c>
+      <c r="AS226">
+        <v>1.1</v>
+      </c>
+      <c r="AT226">
+        <v>2.53</v>
+      </c>
+      <c r="AU226">
+        <v>4</v>
+      </c>
+      <c r="AV226">
+        <v>4</v>
+      </c>
+      <c r="AW226">
+        <v>2</v>
+      </c>
+      <c r="AX226">
+        <v>4</v>
+      </c>
+      <c r="AY226">
+        <v>12</v>
+      </c>
+      <c r="AZ226">
+        <v>10</v>
+      </c>
+      <c r="BA226">
+        <v>6</v>
+      </c>
+      <c r="BB226">
+        <v>7</v>
+      </c>
+      <c r="BC226">
+        <v>13</v>
+      </c>
+      <c r="BD226">
+        <v>1.48</v>
+      </c>
+      <c r="BE226">
+        <v>7</v>
+      </c>
+      <c r="BF226">
+        <v>2.9</v>
+      </c>
+      <c r="BG226">
+        <v>1.19</v>
+      </c>
+      <c r="BH226">
+        <v>4.1</v>
+      </c>
+      <c r="BI226">
+        <v>1.34</v>
+      </c>
+      <c r="BJ226">
+        <v>2.9</v>
+      </c>
+      <c r="BK226">
+        <v>1.56</v>
+      </c>
+      <c r="BL226">
+        <v>2.23</v>
+      </c>
+      <c r="BM226">
+        <v>1.89</v>
+      </c>
+      <c r="BN226">
+        <v>1.8</v>
+      </c>
+      <c r="BO226">
+        <v>2.33</v>
+      </c>
+      <c r="BP226">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7727082</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F227">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>81</v>
+      </c>
+      <c r="H227" t="s">
+        <v>70</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227" t="s">
+        <v>239</v>
+      </c>
+      <c r="P227" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q227">
+        <v>3.75</v>
+      </c>
+      <c r="R227">
+        <v>2.25</v>
+      </c>
+      <c r="S227">
+        <v>2.75</v>
+      </c>
+      <c r="T227">
+        <v>1.36</v>
+      </c>
+      <c r="U227">
+        <v>3</v>
+      </c>
+      <c r="V227">
+        <v>2.63</v>
+      </c>
+      <c r="W227">
+        <v>1.44</v>
+      </c>
+      <c r="X227">
+        <v>7</v>
+      </c>
+      <c r="Y227">
+        <v>1.1</v>
+      </c>
+      <c r="Z227">
+        <v>3.1</v>
+      </c>
+      <c r="AA227">
+        <v>3.4</v>
+      </c>
+      <c r="AB227">
+        <v>2.2</v>
+      </c>
+      <c r="AC227">
+        <v>1.05</v>
+      </c>
+      <c r="AD227">
+        <v>9.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.25</v>
+      </c>
+      <c r="AF227">
+        <v>3.7</v>
+      </c>
+      <c r="AG227">
+        <v>1.9</v>
+      </c>
+      <c r="AH227">
+        <v>1.88</v>
+      </c>
+      <c r="AI227">
+        <v>1.67</v>
+      </c>
+      <c r="AJ227">
+        <v>2.1</v>
+      </c>
+      <c r="AK227">
+        <v>1.65</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.35</v>
+      </c>
+      <c r="AN227">
+        <v>1.56</v>
+      </c>
+      <c r="AO227">
+        <v>1.78</v>
+      </c>
+      <c r="AP227">
+        <v>1.4</v>
+      </c>
+      <c r="AQ227">
+        <v>1.9</v>
+      </c>
+      <c r="AR227">
+        <v>1.22</v>
+      </c>
+      <c r="AS227">
+        <v>1.22</v>
+      </c>
+      <c r="AT227">
+        <v>2.44</v>
+      </c>
+      <c r="AU227">
+        <v>4</v>
+      </c>
+      <c r="AV227">
+        <v>4</v>
+      </c>
+      <c r="AW227">
+        <v>4</v>
+      </c>
+      <c r="AX227">
+        <v>5</v>
+      </c>
+      <c r="AY227">
+        <v>9</v>
+      </c>
+      <c r="AZ227">
+        <v>15</v>
+      </c>
+      <c r="BA227">
+        <v>2</v>
+      </c>
+      <c r="BB227">
+        <v>4</v>
+      </c>
+      <c r="BC227">
+        <v>6</v>
+      </c>
+      <c r="BD227">
+        <v>2</v>
+      </c>
+      <c r="BE227">
+        <v>6.75</v>
+      </c>
+      <c r="BF227">
+        <v>1.94</v>
+      </c>
+      <c r="BG227">
+        <v>1.17</v>
+      </c>
+      <c r="BH227">
+        <v>4.35</v>
+      </c>
+      <c r="BI227">
+        <v>1.3</v>
+      </c>
+      <c r="BJ227">
+        <v>3.15</v>
+      </c>
+      <c r="BK227">
+        <v>1.5</v>
+      </c>
+      <c r="BL227">
+        <v>2.38</v>
+      </c>
+      <c r="BM227">
+        <v>1.79</v>
+      </c>
+      <c r="BN227">
+        <v>1.9</v>
+      </c>
+      <c r="BO227">
+        <v>2.18</v>
+      </c>
+      <c r="BP227">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7727081</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F228">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>83</v>
+      </c>
+      <c r="H228" t="s">
+        <v>92</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228" t="s">
+        <v>96</v>
+      </c>
+      <c r="P228" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q228">
+        <v>2.63</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>4.33</v>
+      </c>
+      <c r="T228">
+        <v>1.4</v>
+      </c>
+      <c r="U228">
+        <v>2.75</v>
+      </c>
+      <c r="V228">
+        <v>3</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>8</v>
+      </c>
+      <c r="Y228">
+        <v>1.08</v>
+      </c>
+      <c r="Z228">
+        <v>2.05</v>
+      </c>
+      <c r="AA228">
+        <v>3.3</v>
+      </c>
+      <c r="AB228">
+        <v>3.6</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9</v>
+      </c>
+      <c r="AE228">
+        <v>1.3</v>
+      </c>
+      <c r="AF228">
+        <v>3.35</v>
+      </c>
+      <c r="AG228">
+        <v>1.97</v>
+      </c>
+      <c r="AH228">
+        <v>1.83</v>
+      </c>
+      <c r="AI228">
+        <v>1.8</v>
+      </c>
+      <c r="AJ228">
+        <v>1.95</v>
+      </c>
+      <c r="AK228">
+        <v>1.28</v>
+      </c>
+      <c r="AL228">
+        <v>1.25</v>
+      </c>
+      <c r="AM228">
+        <v>1.77</v>
+      </c>
+      <c r="AN228">
+        <v>1.5</v>
+      </c>
+      <c r="AO228">
+        <v>1.5</v>
+      </c>
+      <c r="AP228">
+        <v>1.44</v>
+      </c>
+      <c r="AQ228">
+        <v>1.44</v>
+      </c>
+      <c r="AR228">
+        <v>1.36</v>
+      </c>
+      <c r="AS228">
+        <v>1.11</v>
+      </c>
+      <c r="AT228">
+        <v>2.47</v>
+      </c>
+      <c r="AU228">
+        <v>3</v>
+      </c>
+      <c r="AV228">
+        <v>0</v>
+      </c>
+      <c r="AW228">
+        <v>4</v>
+      </c>
+      <c r="AX228">
+        <v>9</v>
+      </c>
+      <c r="AY228">
+        <v>10</v>
+      </c>
+      <c r="AZ228">
+        <v>12</v>
+      </c>
+      <c r="BA228">
+        <v>5</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>10</v>
+      </c>
+      <c r="BD228">
+        <v>1.74</v>
+      </c>
+      <c r="BE228">
+        <v>6.75</v>
+      </c>
+      <c r="BF228">
+        <v>2.32</v>
+      </c>
+      <c r="BG228">
+        <v>1.26</v>
+      </c>
+      <c r="BH228">
+        <v>3.4</v>
+      </c>
+      <c r="BI228">
+        <v>1.47</v>
+      </c>
+      <c r="BJ228">
+        <v>2.48</v>
+      </c>
+      <c r="BK228">
+        <v>1.75</v>
+      </c>
+      <c r="BL228">
+        <v>1.95</v>
+      </c>
+      <c r="BM228">
+        <v>2.18</v>
+      </c>
+      <c r="BN228">
+        <v>1.58</v>
+      </c>
+      <c r="BO228">
+        <v>2.8</v>
+      </c>
+      <c r="BP228">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7727079</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>80</v>
+      </c>
+      <c r="H229" t="s">
+        <v>79</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>240</v>
+      </c>
+      <c r="P229" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q229">
+        <v>1.73</v>
+      </c>
+      <c r="R229">
+        <v>2.6</v>
+      </c>
+      <c r="S229">
+        <v>9</v>
+      </c>
+      <c r="T229">
+        <v>1.3</v>
+      </c>
+      <c r="U229">
+        <v>3.4</v>
+      </c>
+      <c r="V229">
+        <v>2.38</v>
+      </c>
+      <c r="W229">
+        <v>1.53</v>
+      </c>
+      <c r="X229">
+        <v>6</v>
+      </c>
+      <c r="Y229">
+        <v>1.13</v>
+      </c>
+      <c r="Z229">
+        <v>1.25</v>
+      </c>
+      <c r="AA229">
+        <v>5.5</v>
+      </c>
+      <c r="AB229">
+        <v>12</v>
+      </c>
+      <c r="AC229">
+        <v>1.03</v>
+      </c>
+      <c r="AD229">
+        <v>11</v>
+      </c>
+      <c r="AE229">
+        <v>1.2</v>
+      </c>
+      <c r="AF229">
+        <v>4.33</v>
+      </c>
+      <c r="AG229">
+        <v>1.6</v>
+      </c>
+      <c r="AH229">
+        <v>2.2</v>
+      </c>
+      <c r="AI229">
+        <v>2.1</v>
+      </c>
+      <c r="AJ229">
+        <v>1.67</v>
+      </c>
+      <c r="AK229">
+        <v>1.04</v>
+      </c>
+      <c r="AL229">
+        <v>1.12</v>
+      </c>
+      <c r="AM229">
+        <v>3.85</v>
+      </c>
+      <c r="AN229">
+        <v>2.5</v>
+      </c>
+      <c r="AO229">
+        <v>0.78</v>
+      </c>
+      <c r="AP229">
+        <v>2.56</v>
+      </c>
+      <c r="AQ229">
+        <v>0.7</v>
+      </c>
+      <c r="AR229">
+        <v>1.64</v>
+      </c>
+      <c r="AS229">
+        <v>0.99</v>
+      </c>
+      <c r="AT229">
+        <v>2.63</v>
+      </c>
+      <c r="AU229">
+        <v>9</v>
+      </c>
+      <c r="AV229">
+        <v>2</v>
+      </c>
+      <c r="AW229">
+        <v>8</v>
+      </c>
+      <c r="AX229">
+        <v>2</v>
+      </c>
+      <c r="AY229">
+        <v>27</v>
+      </c>
+      <c r="AZ229">
+        <v>4</v>
+      </c>
+      <c r="BA229">
+        <v>8</v>
+      </c>
+      <c r="BB229">
+        <v>0</v>
+      </c>
+      <c r="BC229">
+        <v>8</v>
+      </c>
+      <c r="BD229">
+        <v>1.21</v>
+      </c>
+      <c r="BE229">
+        <v>9</v>
+      </c>
+      <c r="BF229">
+        <v>4.8</v>
+      </c>
+      <c r="BG229">
+        <v>1.23</v>
+      </c>
+      <c r="BH229">
+        <v>3.65</v>
+      </c>
+      <c r="BI229">
+        <v>1.41</v>
+      </c>
+      <c r="BJ229">
+        <v>2.65</v>
+      </c>
+      <c r="BK229">
+        <v>1.65</v>
+      </c>
+      <c r="BL229">
+        <v>2.08</v>
+      </c>
+      <c r="BM229">
+        <v>1.98</v>
+      </c>
+      <c r="BN229">
+        <v>1.72</v>
+      </c>
+      <c r="BO229">
+        <v>2.5</v>
+      </c>
+      <c r="BP229">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -46261,16 +46261,16 @@
         <v>8</v>
       </c>
       <c r="AW218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY218">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ218">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA218">
         <v>2</v>
@@ -46467,13 +46467,13 @@
         <v>3</v>
       </c>
       <c r="AW219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX219">
         <v>2</v>
       </c>
       <c r="AY219">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ219">
         <v>6</v>
@@ -47297,7 +47297,7 @@
         <v>3</v>
       </c>
       <c r="AY223">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ223">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,9 +682,6 @@
     <t>['7', '72']</t>
   </si>
   <si>
-    <t>['2', '22']</t>
-  </si>
-  <si>
     <t>['89', '90+1']</t>
   </si>
   <si>
@@ -692,6 +689,9 @@
   </si>
   <si>
     <t>['75', '80', '85']</t>
+  </si>
+  <si>
+    <t>['2', '22']</t>
   </si>
   <si>
     <t>['49', '60', '63']</t>
@@ -703,22 +703,22 @@
     <t>['26', '35']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['67', '89']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
   <si>
     <t>['1', '30', '46', '53']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['67', '89']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['28', '84']</t>
   </si>
   <si>
-    <t>['20', '23', '47', '61']</t>
+    <t>['3', '34', '49']</t>
   </si>
   <si>
     <t>['22', '55']</t>
@@ -727,16 +727,19 @@
     <t>['27', '65']</t>
   </si>
   <si>
-    <t>['3', '34', '49']</t>
+    <t>['20', '23', '47', '61']</t>
   </si>
   <si>
     <t>['49', '89']</t>
   </si>
   <si>
+    <t>['6', '38']</t>
+  </si>
+  <si>
     <t>['13']</t>
   </si>
   <si>
-    <t>['6', '38']</t>
+    <t>['11', '75']</t>
   </si>
   <si>
     <t>['13', '18']</t>
@@ -1003,13 +1006,13 @@
     <t>['26', '90']</t>
   </si>
   <si>
-    <t>['27', '54']</t>
+    <t>['33', '80']</t>
   </si>
   <si>
     <t>['34']</t>
   </si>
   <si>
-    <t>['33', '80']</t>
+    <t>['27', '54']</t>
   </si>
   <si>
     <t>['52', '57']</t>
@@ -1018,19 +1021,16 @@
     <t>['41', '90+2']</t>
   </si>
   <si>
-    <t>['8', '33']</t>
+    <t>['60', '79']</t>
   </si>
   <si>
-    <t>['60', '79']</t>
+    <t>['8', '33']</t>
   </si>
   <si>
     <t>['39']</t>
   </si>
   <si>
     <t>['18', '67']</t>
-  </si>
-  <si>
-    <t>['38', '53', '55']</t>
   </si>
   <si>
     <t>['24', '37', '72']</t>
@@ -1042,10 +1042,16 @@
     <t>['20', '89']</t>
   </si>
   <si>
+    <t>['38', '53', '55']</t>
+  </si>
+  <si>
     <t>['15', '25']</t>
   </si>
   <si>
     <t>['49', '58']</t>
+  </si>
+  <si>
+    <t>['12', '32', '38', '72']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1672,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2078,7 +2084,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2362,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2490,7 +2496,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2571,7 +2577,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ6">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2696,7 +2702,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2777,7 +2783,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3314,7 +3320,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3726,7 +3732,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4138,7 +4144,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4219,7 +4225,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4962,7 +4968,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5040,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ18">
         <v>2.11</v>
@@ -5168,7 +5174,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5374,7 +5380,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5452,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5580,7 +5586,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5786,7 +5792,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5992,7 +5998,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6198,7 +6204,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6688,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ26">
         <v>0.7</v>
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -7640,7 +7646,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7846,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7924,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
         <v>1.45</v>
@@ -8258,7 +8264,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8339,7 +8345,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR34">
         <v>1.76</v>
@@ -8545,7 +8551,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR35">
         <v>1.31</v>
@@ -8670,7 +8676,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8876,7 +8882,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9082,7 +9088,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9369,7 +9375,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ39">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -10112,7 +10118,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10524,7 +10530,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10936,7 +10942,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11348,7 +11354,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11554,7 +11560,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -12378,7 +12384,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12996,7 +13002,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13202,7 +13208,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13614,7 +13620,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13820,7 +13826,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14232,7 +14238,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14313,7 +14319,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR63">
         <v>1.7</v>
@@ -14438,7 +14444,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -15056,7 +15062,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15262,7 +15268,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15468,7 +15474,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15674,7 +15680,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15880,7 +15886,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15958,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71">
         <v>1.11</v>
@@ -16086,7 +16092,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16498,7 +16504,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16576,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ74">
         <v>0.5</v>
@@ -16704,7 +16710,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16910,7 +16916,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17322,7 +17328,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17528,7 +17534,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17609,7 +17615,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
         <v>1.23</v>
@@ -17815,7 +17821,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR80">
         <v>1.41</v>
@@ -17940,7 +17946,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18021,7 +18027,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR81">
         <v>0.8100000000000001</v>
@@ -18764,7 +18770,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -19176,7 +19182,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19588,7 +19594,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19669,7 +19675,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR89">
         <v>1.7</v>
@@ -19794,7 +19800,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19872,7 +19878,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1.27</v>
@@ -20000,7 +20006,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20206,7 +20212,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20287,7 +20293,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20493,7 +20499,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>0.93</v>
@@ -20824,7 +20830,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21030,7 +21036,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21236,7 +21242,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21520,7 +21526,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>0.67</v>
@@ -21648,7 +21654,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21854,7 +21860,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -22141,7 +22147,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ101">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR101">
         <v>1.61</v>
@@ -22266,7 +22272,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22678,7 +22684,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23296,7 +23302,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23992,7 +23998,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ110">
         <v>1.2</v>
@@ -24120,7 +24126,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24326,7 +24332,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24610,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ113">
         <v>0.8</v>
@@ -24944,7 +24950,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25150,7 +25156,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25356,7 +25362,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25562,7 +25568,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25846,10 +25852,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ119">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -26592,7 +26598,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26798,7 +26804,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -27004,7 +27010,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27288,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>1.2</v>
@@ -27622,7 +27628,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -28034,7 +28040,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28240,7 +28246,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28733,7 +28739,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ133">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR133">
         <v>1.64</v>
@@ -29064,7 +29070,7 @@
         <v>96</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29270,7 +29276,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29554,7 +29560,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ137">
         <v>0.64</v>
@@ -29682,7 +29688,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29969,7 +29975,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ139">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR139">
         <v>1.61</v>
@@ -30094,7 +30100,7 @@
         <v>99</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30918,7 +30924,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31330,7 +31336,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>3.2</v>
@@ -31948,7 +31954,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32232,7 +32238,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ150">
         <v>1.11</v>
@@ -32441,7 +32447,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ151">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR151">
         <v>1.5</v>
@@ -32644,7 +32650,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ152">
         <v>0.78</v>
@@ -32772,7 +32778,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32978,7 +32984,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33262,7 +33268,7 @@
         <v>0.8</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ155">
         <v>1</v>
@@ -33390,7 +33396,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33471,7 +33477,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ156">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR156">
         <v>1.12</v>
@@ -33802,7 +33808,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33880,7 +33886,7 @@
         <v>1.83</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ158">
         <v>2.18</v>
@@ -35038,7 +35044,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>4.33</v>
@@ -35119,7 +35125,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR164">
         <v>1.01</v>
@@ -35244,7 +35250,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35862,7 +35868,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36068,7 +36074,7 @@
         <v>96</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36352,10 +36358,10 @@
         <v>2</v>
       </c>
       <c r="AP170">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ170">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR170">
         <v>1.5</v>
@@ -36764,7 +36770,7 @@
         <v>2.14</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ172">
         <v>1.9</v>
@@ -37382,7 +37388,7 @@
         <v>1.29</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ175">
         <v>1.33</v>
@@ -37716,7 +37722,7 @@
         <v>214</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>7.5</v>
@@ -38128,7 +38134,7 @@
         <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38746,7 +38752,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38952,7 +38958,7 @@
         <v>96</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39364,7 +39370,7 @@
         <v>143</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39776,7 +39782,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39982,7 +39988,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40472,10 +40478,10 @@
         <v>1.71</v>
       </c>
       <c r="AP190">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ190">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40600,7 +40606,7 @@
         <v>96</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -40884,7 +40890,7 @@
         <v>2</v>
       </c>
       <c r="AP192">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ192">
         <v>1.44</v>
@@ -41012,7 +41018,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>2.4</v>
@@ -41218,7 +41224,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41424,7 +41430,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41630,7 +41636,7 @@
         <v>96</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -41711,7 +41717,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ196">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR196">
         <v>1.43</v>
@@ -41794,7 +41800,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7727059</v>
+        <v>7727058</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41809,49 +41815,49 @@
         <v>18</v>
       </c>
       <c r="G197" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H197" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <v>1</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M197">
         <v>2</v>
       </c>
       <c r="N197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O197" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q197">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="R197">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S197">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="T197">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U197">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V197">
         <v>2.75</v>
@@ -41860,139 +41866,139 @@
         <v>1.4</v>
       </c>
       <c r="X197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y197">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z197">
-        <v>3.17</v>
+        <v>1.73</v>
       </c>
       <c r="AA197">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB197">
-        <v>2.22</v>
+        <v>4.82</v>
       </c>
       <c r="AC197">
         <v>1.05</v>
       </c>
       <c r="AD197">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE197">
         <v>1.28</v>
       </c>
       <c r="AF197">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AG197">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH197">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AI197">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ197">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK197">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="AL197">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM197">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="AN197">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AO197">
-        <v>2.22</v>
+        <v>0.63</v>
       </c>
       <c r="AP197">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>2.18</v>
+        <v>0.8</v>
       </c>
       <c r="AR197">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AS197">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AT197">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV197">
         <v>7</v>
       </c>
       <c r="AW197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY197">
+        <v>12</v>
+      </c>
+      <c r="AZ197">
         <v>8</v>
       </c>
-      <c r="AZ197">
-        <v>12</v>
-      </c>
       <c r="BA197">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC197">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD197">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="BE197">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF197">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="BG197">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BH197">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="BI197">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="BJ197">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BK197">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BL197">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BM197">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="BN197">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="BO197">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="BP197">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -42245,7 +42251,7 @@
         <v>2</v>
       </c>
       <c r="O199" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P199" t="s">
         <v>96</v>
@@ -42451,7 +42457,7 @@
         <v>3</v>
       </c>
       <c r="O200" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P200" t="s">
         <v>96</v>
@@ -42657,10 +42663,10 @@
         <v>4</v>
       </c>
       <c r="O201" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42824,7 +42830,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7727058</v>
+        <v>7727059</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42839,49 +42845,49 @@
         <v>18</v>
       </c>
       <c r="G202" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H202" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202">
         <v>1</v>
       </c>
       <c r="K202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202">
         <v>2</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O202" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="R202">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S202">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U202">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V202">
         <v>2.75</v>
@@ -42890,139 +42896,139 @@
         <v>1.4</v>
       </c>
       <c r="X202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y202">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z202">
-        <v>1.73</v>
+        <v>3.17</v>
       </c>
       <c r="AA202">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB202">
-        <v>4.82</v>
+        <v>2.22</v>
       </c>
       <c r="AC202">
         <v>1.05</v>
       </c>
       <c r="AD202">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE202">
         <v>1.28</v>
       </c>
       <c r="AF202">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AG202">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AH202">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AI202">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ202">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK202">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="AL202">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM202">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="AN202">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AO202">
-        <v>0.63</v>
+        <v>2.22</v>
       </c>
       <c r="AP202">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>0.8</v>
+        <v>2.18</v>
       </c>
       <c r="AR202">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AS202">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AT202">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV202">
         <v>7</v>
       </c>
       <c r="AW202">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY202">
+        <v>8</v>
+      </c>
+      <c r="AZ202">
         <v>12</v>
       </c>
-      <c r="AZ202">
-        <v>8</v>
-      </c>
       <c r="BA202">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD202">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="BE202">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF202">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="BG202">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BH202">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="BI202">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="BJ202">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BK202">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BL202">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BM202">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="BN202">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="BO202">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="BP202">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -43690,7 +43696,7 @@
         <v>96</v>
       </c>
       <c r="P206" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44102,7 +44108,7 @@
         <v>119</v>
       </c>
       <c r="P208" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44308,7 +44314,7 @@
         <v>96</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44678,7 +44684,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>7727074</v>
+        <v>7727076</v>
       </c>
       <c r="C211" t="s">
         <v>68</v>
@@ -44690,46 +44696,46 @@
         <v>45633.5</v>
       </c>
       <c r="F211">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H211" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O211" t="s">
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>334</v>
+        <v>96</v>
       </c>
       <c r="Q211">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="R211">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S211">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="T211">
         <v>1.4</v>
@@ -44750,25 +44756,25 @@
         <v>1.08</v>
       </c>
       <c r="Z211">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="AA211">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB211">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="AC211">
         <v>1.05</v>
       </c>
       <c r="AD211">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE211">
         <v>1.3</v>
       </c>
       <c r="AF211">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AG211">
         <v>1.9</v>
@@ -44777,106 +44783,106 @@
         <v>1.8</v>
       </c>
       <c r="AI211">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ211">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK211">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AL211">
+        <v>1.2</v>
+      </c>
+      <c r="AM211">
+        <v>2.25</v>
+      </c>
+      <c r="AN211">
+        <v>1.89</v>
+      </c>
+      <c r="AO211">
         <v>1.25</v>
       </c>
-      <c r="AM211">
-        <v>1.35</v>
-      </c>
-      <c r="AN211">
-        <v>1.5</v>
-      </c>
-      <c r="AO211">
-        <v>1.38</v>
-      </c>
       <c r="AP211">
-        <v>1.33</v>
+        <v>2.09</v>
       </c>
       <c r="AQ211">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AR211">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="AS211">
-        <v>1.3</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT211">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="AU211">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV211">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW211">
+        <v>7</v>
+      </c>
+      <c r="AX211">
+        <v>3</v>
+      </c>
+      <c r="AY211">
+        <v>17</v>
+      </c>
+      <c r="AZ211">
+        <v>4</v>
+      </c>
+      <c r="BA211">
+        <v>2</v>
+      </c>
+      <c r="BB211">
+        <v>2</v>
+      </c>
+      <c r="BC211">
+        <v>4</v>
+      </c>
+      <c r="BD211">
+        <v>1.39</v>
+      </c>
+      <c r="BE211">
         <v>8</v>
       </c>
-      <c r="AX211">
-        <v>3</v>
-      </c>
-      <c r="AY211">
-        <v>16</v>
-      </c>
-      <c r="AZ211">
-        <v>15</v>
-      </c>
-      <c r="BA211">
-        <v>6</v>
-      </c>
-      <c r="BB211">
-        <v>7</v>
-      </c>
-      <c r="BC211">
-        <v>13</v>
-      </c>
-      <c r="BD211">
-        <v>2.18</v>
-      </c>
-      <c r="BE211">
-        <v>6.75</v>
-      </c>
       <c r="BF211">
-        <v>1.79</v>
+        <v>3.5</v>
       </c>
       <c r="BG211">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BH211">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="BI211">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BJ211">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="BK211">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="BL211">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="BM211">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="BN211">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="BO211">
         <v>2.55</v>
       </c>
       <c r="BP211">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -44884,7 +44890,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7727071</v>
+        <v>7727078</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44899,190 +44905,190 @@
         <v>19</v>
       </c>
       <c r="G212" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H212" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212">
         <v>2</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M212">
         <v>1</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O212" t="s">
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q212">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R212">
+        <v>2.3</v>
+      </c>
+      <c r="S212">
+        <v>4.33</v>
+      </c>
+      <c r="T212">
+        <v>1.33</v>
+      </c>
+      <c r="U212">
+        <v>3.25</v>
+      </c>
+      <c r="V212">
+        <v>2.63</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>6.5</v>
+      </c>
+      <c r="Y212">
+        <v>1.11</v>
+      </c>
+      <c r="Z212">
+        <v>1.75</v>
+      </c>
+      <c r="AA212">
+        <v>3.8</v>
+      </c>
+      <c r="AB212">
+        <v>4.33</v>
+      </c>
+      <c r="AC212">
+        <v>1.02</v>
+      </c>
+      <c r="AD212">
+        <v>17</v>
+      </c>
+      <c r="AE212">
+        <v>1.17</v>
+      </c>
+      <c r="AF212">
+        <v>4.75</v>
+      </c>
+      <c r="AG212">
+        <v>1.52</v>
+      </c>
+      <c r="AH212">
+        <v>2.36</v>
+      </c>
+      <c r="AI212">
+        <v>1.67</v>
+      </c>
+      <c r="AJ212">
         <v>2.1</v>
       </c>
-      <c r="S212">
+      <c r="AK212">
+        <v>1.18</v>
+      </c>
+      <c r="AL212">
+        <v>1.18</v>
+      </c>
+      <c r="AM212">
+        <v>2.25</v>
+      </c>
+      <c r="AN212">
+        <v>2.57</v>
+      </c>
+      <c r="AO212">
+        <v>1</v>
+      </c>
+      <c r="AP212">
+        <v>2.22</v>
+      </c>
+      <c r="AQ212">
+        <v>1</v>
+      </c>
+      <c r="AR212">
+        <v>1.39</v>
+      </c>
+      <c r="AS212">
+        <v>1.24</v>
+      </c>
+      <c r="AT212">
+        <v>2.63</v>
+      </c>
+      <c r="AU212">
         <v>4</v>
       </c>
-      <c r="T212">
-        <v>1.44</v>
-      </c>
-      <c r="U212">
-        <v>2.63</v>
-      </c>
-      <c r="V212">
-        <v>3.25</v>
-      </c>
-      <c r="W212">
-        <v>1.33</v>
-      </c>
-      <c r="X212">
-        <v>9</v>
-      </c>
-      <c r="Y212">
-        <v>1.07</v>
-      </c>
-      <c r="Z212">
-        <v>2.15</v>
-      </c>
-      <c r="AA212">
-        <v>3.3</v>
-      </c>
-      <c r="AB212">
-        <v>3.3</v>
-      </c>
-      <c r="AC212">
-        <v>1.06</v>
-      </c>
-      <c r="AD212">
-        <v>8.5</v>
-      </c>
-      <c r="AE212">
-        <v>1.35</v>
-      </c>
-      <c r="AF212">
-        <v>3.1</v>
-      </c>
-      <c r="AG212">
-        <v>2</v>
-      </c>
-      <c r="AH212">
-        <v>1.72</v>
-      </c>
-      <c r="AI212">
-        <v>1.8</v>
-      </c>
-      <c r="AJ212">
-        <v>1.95</v>
-      </c>
-      <c r="AK212">
-        <v>1.3</v>
-      </c>
-      <c r="AL212">
-        <v>1.25</v>
-      </c>
-      <c r="AM212">
-        <v>1.7</v>
-      </c>
-      <c r="AN212">
-        <v>1.13</v>
-      </c>
-      <c r="AO212">
-        <v>0.5</v>
-      </c>
-      <c r="AP212">
-        <v>1.33</v>
-      </c>
-      <c r="AQ212">
-        <v>0.44</v>
-      </c>
-      <c r="AR212">
-        <v>1.31</v>
-      </c>
-      <c r="AS212">
-        <v>1.12</v>
-      </c>
-      <c r="AT212">
-        <v>2.43</v>
-      </c>
-      <c r="AU212">
+      <c r="AV212">
         <v>7</v>
       </c>
-      <c r="AV212">
-        <v>5</v>
-      </c>
       <c r="AW212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY212">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ212">
         <v>12</v>
       </c>
       <c r="BA212">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB212">
         <v>5</v>
       </c>
       <c r="BC212">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD212">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="BE212">
-        <v>6.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF212">
-        <v>2.4</v>
+        <v>4.35</v>
       </c>
       <c r="BG212">
+        <v>1.24</v>
+      </c>
+      <c r="BH212">
+        <v>3.55</v>
+      </c>
+      <c r="BI212">
         <v>1.29</v>
       </c>
-      <c r="BH212">
-        <v>3.15</v>
-      </c>
-      <c r="BI212">
-        <v>1.5</v>
-      </c>
       <c r="BJ212">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="BK212">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="BL212">
-        <v>1.88</v>
+        <v>2.32</v>
       </c>
       <c r="BM212">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="BN212">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="BO212">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="BP212">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -45090,7 +45096,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7727070</v>
+        <v>7727067</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -45102,13 +45108,13 @@
         <v>45633.5</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G213" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H213" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -45120,175 +45126,175 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O213" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P213" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="Q213">
         <v>4.33</v>
       </c>
       <c r="R213">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S213">
         <v>2.6</v>
       </c>
       <c r="T213">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U213">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V213">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W213">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X213">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y213">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z213">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AA213">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB213">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AC213">
         <v>1.05</v>
       </c>
       <c r="AD213">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE213">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF213">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AG213">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AH213">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AI213">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK213">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AL213">
+        <v>1.22</v>
+      </c>
+      <c r="AM213">
         <v>1.25</v>
       </c>
-      <c r="AM213">
-        <v>1.28</v>
-      </c>
       <c r="AN213">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AO213">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AP213">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>2.11</v>
       </c>
       <c r="AR213">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="AS213">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AT213">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="AU213">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV213">
         <v>5</v>
       </c>
       <c r="AW213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX213">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AY213">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ213">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BA213">
         <v>4</v>
       </c>
       <c r="BB213">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC213">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD213">
-        <v>2.68</v>
+        <v>2.45</v>
       </c>
       <c r="BE213">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="BF213">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="BG213">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH213">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="BI213">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BJ213">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK213">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BL213">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BM213">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="BN213">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BO213">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="BP213">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45296,7 +45302,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7727067</v>
+        <v>7727070</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45308,13 +45314,13 @@
         <v>45633.5</v>
       </c>
       <c r="F214">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H214" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -45326,175 +45332,175 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O214" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P214" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="Q214">
         <v>4.33</v>
       </c>
       <c r="R214">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S214">
         <v>2.6</v>
       </c>
       <c r="T214">
+        <v>1.4</v>
+      </c>
+      <c r="U214">
+        <v>2.75</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
         <v>1.36</v>
       </c>
-      <c r="U214">
-        <v>3</v>
-      </c>
-      <c r="V214">
-        <v>2.63</v>
-      </c>
-      <c r="W214">
-        <v>1.44</v>
-      </c>
       <c r="X214">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y214">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z214">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AA214">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB214">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AC214">
         <v>1.05</v>
       </c>
       <c r="AD214">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE214">
+        <v>1.3</v>
+      </c>
+      <c r="AF214">
+        <v>3.4</v>
+      </c>
+      <c r="AG214">
+        <v>1.9</v>
+      </c>
+      <c r="AH214">
+        <v>1.8</v>
+      </c>
+      <c r="AI214">
+        <v>1.8</v>
+      </c>
+      <c r="AJ214">
+        <v>1.95</v>
+      </c>
+      <c r="AK214">
+        <v>1.87</v>
+      </c>
+      <c r="AL214">
         <v>1.25</v>
       </c>
-      <c r="AF214">
-        <v>3.75</v>
-      </c>
-      <c r="AG214">
-        <v>1.68</v>
-      </c>
-      <c r="AH214">
-        <v>2.06</v>
-      </c>
-      <c r="AI214">
-        <v>1.7</v>
-      </c>
-      <c r="AJ214">
-        <v>2.05</v>
-      </c>
-      <c r="AK214">
-        <v>1.85</v>
-      </c>
-      <c r="AL214">
-        <v>1.22</v>
-      </c>
       <c r="AM214">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AN214">
-        <v>1.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO214">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AP214">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ214">
-        <v>2.11</v>
+        <v>1.33</v>
       </c>
       <c r="AR214">
-        <v>1.76</v>
+        <v>1.02</v>
       </c>
       <c r="AS214">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AT214">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="AU214">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV214">
         <v>5</v>
       </c>
       <c r="AW214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX214">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY214">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ214">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BA214">
         <v>4</v>
       </c>
       <c r="BB214">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC214">
+        <v>12</v>
+      </c>
+      <c r="BD214">
+        <v>2.68</v>
+      </c>
+      <c r="BE214">
         <v>6</v>
       </c>
-      <c r="BD214">
-        <v>2.45</v>
-      </c>
-      <c r="BE214">
-        <v>6.75</v>
-      </c>
       <c r="BF214">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="BG214">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH214">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="BI214">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BJ214">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BK214">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="BL214">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="BM214">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="BN214">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="BO214">
-        <v>2.48</v>
+        <v>2.98</v>
       </c>
       <c r="BP214">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -45502,7 +45508,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7727078</v>
+        <v>7727071</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45517,190 +45523,190 @@
         <v>19</v>
       </c>
       <c r="G215" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H215" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215">
         <v>2</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M215">
         <v>1</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O215" t="s">
         <v>231</v>
       </c>
       <c r="P215" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q215">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R215">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S215">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T215">
+        <v>1.44</v>
+      </c>
+      <c r="U215">
+        <v>2.63</v>
+      </c>
+      <c r="V215">
+        <v>3.25</v>
+      </c>
+      <c r="W215">
         <v>1.33</v>
       </c>
-      <c r="U215">
-        <v>3.25</v>
-      </c>
-      <c r="V215">
-        <v>2.63</v>
-      </c>
-      <c r="W215">
-        <v>1.44</v>
-      </c>
       <c r="X215">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y215">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z215">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AA215">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB215">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AC215">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD215">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AE215">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AF215">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="AG215">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="AH215">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="AI215">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ215">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK215">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL215">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM215">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AN215">
-        <v>2.57</v>
+        <v>1.13</v>
       </c>
       <c r="AO215">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP215">
-        <v>2.38</v>
+        <v>1.2</v>
       </c>
       <c r="AQ215">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AR215">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS215">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AT215">
-        <v>2.63</v>
+        <v>2.43</v>
       </c>
       <c r="AU215">
+        <v>7</v>
+      </c>
+      <c r="AV215">
+        <v>5</v>
+      </c>
+      <c r="AW215">
         <v>4</v>
       </c>
-      <c r="AV215">
-        <v>7</v>
-      </c>
-      <c r="AW215">
-        <v>3</v>
-      </c>
       <c r="AX215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY215">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ215">
         <v>12</v>
       </c>
       <c r="BA215">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB215">
         <v>5</v>
       </c>
       <c r="BC215">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD215">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="BE215">
-        <v>8.800000000000001</v>
+        <v>6.75</v>
       </c>
       <c r="BF215">
-        <v>4.35</v>
+        <v>2.4</v>
       </c>
       <c r="BG215">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BH215">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BI215">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="BJ215">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="BK215">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="BL215">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="BM215">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="BN215">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="BO215">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="BP215">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="216" spans="1:68">
@@ -45708,7 +45714,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7727076</v>
+        <v>7727074</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45720,46 +45726,46 @@
         <v>45633.5</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G216" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H216" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O216" t="s">
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="Q216">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="R216">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S216">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="T216">
         <v>1.4</v>
@@ -45780,25 +45786,25 @@
         <v>1.08</v>
       </c>
       <c r="Z216">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="AA216">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AB216">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="AC216">
         <v>1.05</v>
       </c>
       <c r="AD216">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE216">
         <v>1.3</v>
       </c>
       <c r="AF216">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AG216">
         <v>1.9</v>
@@ -45807,106 +45813,106 @@
         <v>1.8</v>
       </c>
       <c r="AI216">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ216">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK216">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AL216">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM216">
-        <v>2.25</v>
+        <v>1.35</v>
       </c>
       <c r="AN216">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AO216">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP216">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ216">
-        <v>1.11</v>
+        <v>1.7</v>
       </c>
       <c r="AR216">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="AS216">
-        <v>0.9399999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="AT216">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>5</v>
+      </c>
+      <c r="AW216">
         <v>8</v>
       </c>
-      <c r="AV216">
-        <v>0</v>
-      </c>
-      <c r="AW216">
+      <c r="AX216">
+        <v>3</v>
+      </c>
+      <c r="AY216">
+        <v>16</v>
+      </c>
+      <c r="AZ216">
+        <v>15</v>
+      </c>
+      <c r="BA216">
+        <v>6</v>
+      </c>
+      <c r="BB216">
         <v>7</v>
       </c>
-      <c r="AX216">
-        <v>3</v>
-      </c>
-      <c r="AY216">
-        <v>17</v>
-      </c>
-      <c r="AZ216">
-        <v>4</v>
-      </c>
-      <c r="BA216">
-        <v>2</v>
-      </c>
-      <c r="BB216">
-        <v>2</v>
-      </c>
       <c r="BC216">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD216">
-        <v>1.39</v>
+        <v>2.18</v>
       </c>
       <c r="BE216">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF216">
-        <v>3.5</v>
+        <v>1.79</v>
       </c>
       <c r="BG216">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BH216">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BI216">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BJ216">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BK216">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="BL216">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="BM216">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="BN216">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="BO216">
         <v>2.55</v>
       </c>
       <c r="BP216">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="217" spans="1:68">
@@ -45956,7 +45962,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46037,7 +46043,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ217">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR217">
         <v>1.24</v>
@@ -46162,7 +46168,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>2.3</v>
@@ -46532,7 +46538,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7727085</v>
+        <v>7727086</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46547,139 +46553,139 @@
         <v>20</v>
       </c>
       <c r="G220" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H220" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>3</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>96</v>
+      </c>
+      <c r="P220" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q220">
+        <v>2.88</v>
+      </c>
+      <c r="R220">
+        <v>2.3</v>
+      </c>
+      <c r="S220">
+        <v>3.4</v>
+      </c>
+      <c r="T220">
+        <v>1.3</v>
+      </c>
+      <c r="U220">
+        <v>3.4</v>
+      </c>
+      <c r="V220">
+        <v>2.5</v>
+      </c>
+      <c r="W220">
+        <v>1.5</v>
+      </c>
+      <c r="X220">
+        <v>6</v>
+      </c>
+      <c r="Y220">
+        <v>1.13</v>
+      </c>
+      <c r="Z220">
+        <v>2.4</v>
+      </c>
+      <c r="AA220">
+        <v>3.5</v>
+      </c>
+      <c r="AB220">
+        <v>2.7</v>
+      </c>
+      <c r="AC220">
+        <v>1.04</v>
+      </c>
+      <c r="AD220">
+        <v>10</v>
+      </c>
+      <c r="AE220">
+        <v>1.2</v>
+      </c>
+      <c r="AF220">
+        <v>4.33</v>
+      </c>
+      <c r="AG220">
+        <v>1.58</v>
+      </c>
+      <c r="AH220">
+        <v>2.2</v>
+      </c>
+      <c r="AI220">
+        <v>1.53</v>
+      </c>
+      <c r="AJ220">
+        <v>2.38</v>
+      </c>
+      <c r="AK220">
+        <v>1.42</v>
+      </c>
+      <c r="AL220">
+        <v>1.25</v>
+      </c>
+      <c r="AM220">
+        <v>1.55</v>
+      </c>
+      <c r="AN220">
+        <v>2.63</v>
+      </c>
+      <c r="AO220">
+        <v>1.3</v>
+      </c>
+      <c r="AP220">
+        <v>2.33</v>
+      </c>
+      <c r="AQ220">
+        <v>1.45</v>
+      </c>
+      <c r="AR220">
+        <v>1.39</v>
+      </c>
+      <c r="AS220">
+        <v>1.26</v>
+      </c>
+      <c r="AT220">
+        <v>2.65</v>
+      </c>
+      <c r="AU220">
+        <v>3</v>
+      </c>
+      <c r="AV220">
+        <v>9</v>
+      </c>
+      <c r="AW220">
         <v>4</v>
       </c>
-      <c r="M220">
-        <v>3</v>
-      </c>
-      <c r="N220">
-        <v>7</v>
-      </c>
-      <c r="O220" t="s">
-        <v>234</v>
-      </c>
-      <c r="P220" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q220">
-        <v>2.1</v>
-      </c>
-      <c r="R220">
-        <v>2.5</v>
-      </c>
-      <c r="S220">
-        <v>4.75</v>
-      </c>
-      <c r="T220">
-        <v>1.25</v>
-      </c>
-      <c r="U220">
-        <v>3.75</v>
-      </c>
-      <c r="V220">
-        <v>2.2</v>
-      </c>
-      <c r="W220">
-        <v>1.62</v>
-      </c>
-      <c r="X220">
-        <v>5</v>
-      </c>
-      <c r="Y220">
-        <v>1.17</v>
-      </c>
-      <c r="Z220">
-        <v>1.6</v>
-      </c>
-      <c r="AA220">
-        <v>4.2</v>
-      </c>
-      <c r="AB220">
-        <v>5</v>
-      </c>
-      <c r="AC220">
-        <v>1.01</v>
-      </c>
-      <c r="AD220">
-        <v>13</v>
-      </c>
-      <c r="AE220">
-        <v>1.18</v>
-      </c>
-      <c r="AF220">
-        <v>4.75</v>
-      </c>
-      <c r="AG220">
-        <v>1.48</v>
-      </c>
-      <c r="AH220">
-        <v>2.47</v>
-      </c>
-      <c r="AI220">
-        <v>1.57</v>
-      </c>
-      <c r="AJ220">
-        <v>2.25</v>
-      </c>
-      <c r="AK220">
-        <v>1.14</v>
-      </c>
-      <c r="AL220">
-        <v>1.18</v>
-      </c>
-      <c r="AM220">
-        <v>2.38</v>
-      </c>
-      <c r="AN220">
-        <v>1.4</v>
-      </c>
-      <c r="AO220">
-        <v>0.89</v>
-      </c>
-      <c r="AP220">
-        <v>1.55</v>
-      </c>
-      <c r="AQ220">
-        <v>0.8</v>
-      </c>
-      <c r="AR220">
-        <v>1.25</v>
-      </c>
-      <c r="AS220">
-        <v>1.36</v>
-      </c>
-      <c r="AT220">
-        <v>2.61</v>
-      </c>
-      <c r="AU220">
+      <c r="AX220">
+        <v>2</v>
+      </c>
+      <c r="AY220">
         <v>11</v>
-      </c>
-      <c r="AV220">
-        <v>8</v>
-      </c>
-      <c r="AW220">
-        <v>5</v>
-      </c>
-      <c r="AX220">
-        <v>2</v>
-      </c>
-      <c r="AY220">
-        <v>17</v>
       </c>
       <c r="AZ220">
         <v>16</v>
@@ -46688,49 +46694,49 @@
         <v>7</v>
       </c>
       <c r="BB220">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC220">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD220">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="BE220">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF220">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="BG220">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="BH220">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="BI220">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BJ220">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BK220">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="BL220">
-        <v>2.43</v>
+        <v>2.07</v>
       </c>
       <c r="BM220">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="BN220">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="BO220">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="BP220">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -46738,7 +46744,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7727086</v>
+        <v>7727087</v>
       </c>
       <c r="C221" t="s">
         <v>68</v>
@@ -46753,190 +46759,190 @@
         <v>20</v>
       </c>
       <c r="G221" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H221" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <v>2</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N221">
         <v>3</v>
       </c>
       <c r="O221" t="s">
+        <v>234</v>
+      </c>
+      <c r="P221" t="s">
         <v>96</v>
       </c>
-      <c r="P221" t="s">
-        <v>339</v>
-      </c>
       <c r="Q221">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="R221">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S221">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T221">
+        <v>1.4</v>
+      </c>
+      <c r="U221">
+        <v>2.75</v>
+      </c>
+      <c r="V221">
+        <v>3</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>8</v>
+      </c>
+      <c r="Y221">
+        <v>1.08</v>
+      </c>
+      <c r="Z221">
+        <v>1.62</v>
+      </c>
+      <c r="AA221">
+        <v>3.8</v>
+      </c>
+      <c r="AB221">
+        <v>5</v>
+      </c>
+      <c r="AC221">
+        <v>1.05</v>
+      </c>
+      <c r="AD221">
+        <v>9.5</v>
+      </c>
+      <c r="AE221">
         <v>1.3</v>
       </c>
-      <c r="U221">
-        <v>3.4</v>
-      </c>
-      <c r="V221">
-        <v>2.5</v>
-      </c>
-      <c r="W221">
-        <v>1.5</v>
-      </c>
-      <c r="X221">
-        <v>6</v>
-      </c>
-      <c r="Y221">
-        <v>1.13</v>
-      </c>
-      <c r="Z221">
-        <v>2.4</v>
-      </c>
-      <c r="AA221">
-        <v>3.5</v>
-      </c>
-      <c r="AB221">
-        <v>2.7</v>
-      </c>
-      <c r="AC221">
-        <v>1.04</v>
-      </c>
-      <c r="AD221">
-        <v>10</v>
-      </c>
-      <c r="AE221">
-        <v>1.2</v>
-      </c>
       <c r="AF221">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="AG221">
+        <v>1.93</v>
+      </c>
+      <c r="AH221">
+        <v>1.86</v>
+      </c>
+      <c r="AI221">
+        <v>1.95</v>
+      </c>
+      <c r="AJ221">
+        <v>1.8</v>
+      </c>
+      <c r="AK221">
+        <v>1.17</v>
+      </c>
+      <c r="AL221">
+        <v>1.18</v>
+      </c>
+      <c r="AM221">
+        <v>2.25</v>
+      </c>
+      <c r="AN221">
+        <v>1.75</v>
+      </c>
+      <c r="AO221">
+        <v>0.7</v>
+      </c>
+      <c r="AP221">
+        <v>1.89</v>
+      </c>
+      <c r="AQ221">
+        <v>0.64</v>
+      </c>
+      <c r="AR221">
+        <v>1.55</v>
+      </c>
+      <c r="AS221">
+        <v>1.01</v>
+      </c>
+      <c r="AT221">
+        <v>2.56</v>
+      </c>
+      <c r="AU221">
+        <v>7</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>8</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>17</v>
+      </c>
+      <c r="AZ221">
+        <v>9</v>
+      </c>
+      <c r="BA221">
+        <v>4</v>
+      </c>
+      <c r="BB221">
+        <v>1</v>
+      </c>
+      <c r="BC221">
+        <v>5</v>
+      </c>
+      <c r="BD221">
+        <v>1.42</v>
+      </c>
+      <c r="BE221">
+        <v>7</v>
+      </c>
+      <c r="BF221">
+        <v>3.15</v>
+      </c>
+      <c r="BG221">
+        <v>1.28</v>
+      </c>
+      <c r="BH221">
+        <v>3.3</v>
+      </c>
+      <c r="BI221">
+        <v>1.48</v>
+      </c>
+      <c r="BJ221">
+        <v>2.45</v>
+      </c>
+      <c r="BK221">
+        <v>1.76</v>
+      </c>
+      <c r="BL221">
+        <v>1.94</v>
+      </c>
+      <c r="BM221">
+        <v>2.18</v>
+      </c>
+      <c r="BN221">
         <v>1.58</v>
       </c>
-      <c r="AH221">
-        <v>2.2</v>
-      </c>
-      <c r="AI221">
-        <v>1.53</v>
-      </c>
-      <c r="AJ221">
-        <v>2.38</v>
-      </c>
-      <c r="AK221">
-        <v>1.42</v>
-      </c>
-      <c r="AL221">
-        <v>1.25</v>
-      </c>
-      <c r="AM221">
-        <v>1.55</v>
-      </c>
-      <c r="AN221">
-        <v>2.63</v>
-      </c>
-      <c r="AO221">
-        <v>1.3</v>
-      </c>
-      <c r="AP221">
-        <v>2.33</v>
-      </c>
-      <c r="AQ221">
-        <v>1.45</v>
-      </c>
-      <c r="AR221">
-        <v>1.39</v>
-      </c>
-      <c r="AS221">
-        <v>1.26</v>
-      </c>
-      <c r="AT221">
-        <v>2.65</v>
-      </c>
-      <c r="AU221">
-        <v>3</v>
-      </c>
-      <c r="AV221">
-        <v>9</v>
-      </c>
-      <c r="AW221">
-        <v>4</v>
-      </c>
-      <c r="AX221">
-        <v>2</v>
-      </c>
-      <c r="AY221">
-        <v>11</v>
-      </c>
-      <c r="AZ221">
-        <v>16</v>
-      </c>
-      <c r="BA221">
-        <v>7</v>
-      </c>
-      <c r="BB221">
-        <v>6</v>
-      </c>
-      <c r="BC221">
-        <v>13</v>
-      </c>
-      <c r="BD221">
-        <v>1.95</v>
-      </c>
-      <c r="BE221">
-        <v>6.75</v>
-      </c>
-      <c r="BF221">
-        <v>2</v>
-      </c>
-      <c r="BG221">
-        <v>1.23</v>
-      </c>
-      <c r="BH221">
-        <v>3.65</v>
-      </c>
-      <c r="BI221">
-        <v>1.41</v>
-      </c>
-      <c r="BJ221">
-        <v>2.65</v>
-      </c>
-      <c r="BK221">
-        <v>1.66</v>
-      </c>
-      <c r="BL221">
-        <v>2.07</v>
-      </c>
-      <c r="BM221">
-        <v>2.02</v>
-      </c>
-      <c r="BN221">
-        <v>1.68</v>
-      </c>
       <c r="BO221">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BP221">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="222" spans="1:68">
@@ -47192,7 +47198,7 @@
         <v>235</v>
       </c>
       <c r="P223" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47562,7 +47568,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>7727087</v>
+        <v>7727085</v>
       </c>
       <c r="C225" t="s">
         <v>68</v>
@@ -47577,190 +47583,190 @@
         <v>20</v>
       </c>
       <c r="G225" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H225" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O225" t="s">
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
       <c r="Q225">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R225">
+        <v>2.5</v>
+      </c>
+      <c r="S225">
+        <v>4.75</v>
+      </c>
+      <c r="T225">
+        <v>1.25</v>
+      </c>
+      <c r="U225">
+        <v>3.75</v>
+      </c>
+      <c r="V225">
         <v>2.2</v>
       </c>
-      <c r="S225">
-        <v>5.5</v>
-      </c>
-      <c r="T225">
-        <v>1.4</v>
-      </c>
-      <c r="U225">
-        <v>2.75</v>
-      </c>
-      <c r="V225">
-        <v>3</v>
-      </c>
       <c r="W225">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="X225">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y225">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="Z225">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA225">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AB225">
         <v>5</v>
       </c>
       <c r="AC225">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD225">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AE225">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AF225">
-        <v>3.45</v>
+        <v>4.75</v>
       </c>
       <c r="AG225">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="AH225">
-        <v>1.86</v>
+        <v>2.47</v>
       </c>
       <c r="AI225">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AJ225">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AK225">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AL225">
         <v>1.18</v>
       </c>
       <c r="AM225">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AN225">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AO225">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AP225">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="AQ225">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR225">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AS225">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="AT225">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="AU225">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV225">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW225">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY225">
         <v>17</v>
       </c>
       <c r="AZ225">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB225">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC225">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD225">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BE225">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF225">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BG225">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="BH225">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI225">
+        <v>1.29</v>
+      </c>
+      <c r="BJ225">
+        <v>3.2</v>
+      </c>
+      <c r="BK225">
         <v>1.48</v>
       </c>
-      <c r="BJ225">
-        <v>2.45</v>
-      </c>
-      <c r="BK225">
+      <c r="BL225">
+        <v>2.43</v>
+      </c>
+      <c r="BM225">
         <v>1.76</v>
       </c>
-      <c r="BL225">
+      <c r="BN225">
         <v>1.94</v>
       </c>
-      <c r="BM225">
-        <v>2.18</v>
-      </c>
-      <c r="BN225">
-        <v>1.58</v>
-      </c>
       <c r="BO225">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="BP225">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="226" spans="1:68">
@@ -47810,7 +47816,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -47974,7 +47980,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7727082</v>
+        <v>7727081</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47989,190 +47995,190 @@
         <v>20</v>
       </c>
       <c r="G227" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H227" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
       <c r="K227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O227" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="Q227">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="R227">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S227">
+        <v>4.33</v>
+      </c>
+      <c r="T227">
+        <v>1.4</v>
+      </c>
+      <c r="U227">
         <v>2.75</v>
       </c>
-      <c r="T227">
+      <c r="V227">
+        <v>3</v>
+      </c>
+      <c r="W227">
         <v>1.36</v>
       </c>
-      <c r="U227">
-        <v>3</v>
-      </c>
-      <c r="V227">
-        <v>2.63</v>
-      </c>
-      <c r="W227">
-        <v>1.44</v>
-      </c>
       <c r="X227">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y227">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z227">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA227">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB227">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="AC227">
         <v>1.05</v>
       </c>
       <c r="AD227">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE227">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF227">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="AG227">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="AH227">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AI227">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ227">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK227">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AL227">
         <v>1.25</v>
       </c>
       <c r="AM227">
-        <v>1.35</v>
+        <v>1.77</v>
       </c>
       <c r="AN227">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO227">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP227">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ227">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AR227">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AS227">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AT227">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW227">
         <v>4</v>
       </c>
       <c r="AX227">
+        <v>9</v>
+      </c>
+      <c r="AY227">
+        <v>10</v>
+      </c>
+      <c r="AZ227">
+        <v>12</v>
+      </c>
+      <c r="BA227">
         <v>5</v>
       </c>
-      <c r="AY227">
-        <v>9</v>
-      </c>
-      <c r="AZ227">
-        <v>15</v>
-      </c>
-      <c r="BA227">
-        <v>2</v>
-      </c>
       <c r="BB227">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC227">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD227">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="BE227">
         <v>6.75</v>
       </c>
       <c r="BF227">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="BG227">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="BH227">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="BI227">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="BJ227">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="BK227">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="BL227">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="BM227">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="BN227">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BO227">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="BP227">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="228" spans="1:68">
@@ -48180,7 +48186,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7727081</v>
+        <v>7727079</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48195,190 +48201,190 @@
         <v>20</v>
       </c>
       <c r="G228" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H228" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M228">
         <v>0</v>
       </c>
       <c r="N228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O228" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="P228" t="s">
         <v>96</v>
       </c>
       <c r="Q228">
+        <v>1.73</v>
+      </c>
+      <c r="R228">
+        <v>2.6</v>
+      </c>
+      <c r="S228">
+        <v>9</v>
+      </c>
+      <c r="T228">
+        <v>1.3</v>
+      </c>
+      <c r="U228">
+        <v>3.4</v>
+      </c>
+      <c r="V228">
+        <v>2.38</v>
+      </c>
+      <c r="W228">
+        <v>1.53</v>
+      </c>
+      <c r="X228">
+        <v>6</v>
+      </c>
+      <c r="Y228">
+        <v>1.13</v>
+      </c>
+      <c r="Z228">
+        <v>1.25</v>
+      </c>
+      <c r="AA228">
+        <v>5.5</v>
+      </c>
+      <c r="AB228">
+        <v>12</v>
+      </c>
+      <c r="AC228">
+        <v>1.03</v>
+      </c>
+      <c r="AD228">
+        <v>11</v>
+      </c>
+      <c r="AE228">
+        <v>1.2</v>
+      </c>
+      <c r="AF228">
+        <v>4.33</v>
+      </c>
+      <c r="AG228">
+        <v>1.6</v>
+      </c>
+      <c r="AH228">
+        <v>2.2</v>
+      </c>
+      <c r="AI228">
+        <v>2.1</v>
+      </c>
+      <c r="AJ228">
+        <v>1.67</v>
+      </c>
+      <c r="AK228">
+        <v>1.04</v>
+      </c>
+      <c r="AL228">
+        <v>1.12</v>
+      </c>
+      <c r="AM228">
+        <v>3.85</v>
+      </c>
+      <c r="AN228">
+        <v>2.5</v>
+      </c>
+      <c r="AO228">
+        <v>0.78</v>
+      </c>
+      <c r="AP228">
+        <v>2.56</v>
+      </c>
+      <c r="AQ228">
+        <v>0.7</v>
+      </c>
+      <c r="AR228">
+        <v>1.64</v>
+      </c>
+      <c r="AS228">
+        <v>0.99</v>
+      </c>
+      <c r="AT228">
         <v>2.63</v>
       </c>
-      <c r="R228">
-        <v>2.1</v>
-      </c>
-      <c r="S228">
-        <v>4.33</v>
-      </c>
-      <c r="T228">
-        <v>1.4</v>
-      </c>
-      <c r="U228">
-        <v>2.75</v>
-      </c>
-      <c r="V228">
-        <v>3</v>
-      </c>
-      <c r="W228">
-        <v>1.36</v>
-      </c>
-      <c r="X228">
+      <c r="AU228">
+        <v>9</v>
+      </c>
+      <c r="AV228">
+        <v>2</v>
+      </c>
+      <c r="AW228">
         <v>8</v>
       </c>
-      <c r="Y228">
-        <v>1.08</v>
-      </c>
-      <c r="Z228">
-        <v>2.05</v>
-      </c>
-      <c r="AA228">
-        <v>3.3</v>
-      </c>
-      <c r="AB228">
-        <v>3.6</v>
-      </c>
-      <c r="AC228">
-        <v>1.05</v>
-      </c>
-      <c r="AD228">
+      <c r="AX228">
+        <v>2</v>
+      </c>
+      <c r="AY228">
+        <v>27</v>
+      </c>
+      <c r="AZ228">
+        <v>4</v>
+      </c>
+      <c r="BA228">
+        <v>8</v>
+      </c>
+      <c r="BB228">
+        <v>0</v>
+      </c>
+      <c r="BC228">
+        <v>8</v>
+      </c>
+      <c r="BD228">
+        <v>1.21</v>
+      </c>
+      <c r="BE228">
         <v>9</v>
       </c>
-      <c r="AE228">
-        <v>1.3</v>
-      </c>
-      <c r="AF228">
-        <v>3.35</v>
-      </c>
-      <c r="AG228">
-        <v>1.97</v>
-      </c>
-      <c r="AH228">
-        <v>1.83</v>
-      </c>
-      <c r="AI228">
-        <v>1.8</v>
-      </c>
-      <c r="AJ228">
-        <v>1.95</v>
-      </c>
-      <c r="AK228">
-        <v>1.28</v>
-      </c>
-      <c r="AL228">
-        <v>1.25</v>
-      </c>
-      <c r="AM228">
-        <v>1.77</v>
-      </c>
-      <c r="AN228">
-        <v>1.5</v>
-      </c>
-      <c r="AO228">
-        <v>1.5</v>
-      </c>
-      <c r="AP228">
-        <v>1.44</v>
-      </c>
-      <c r="AQ228">
-        <v>1.44</v>
-      </c>
-      <c r="AR228">
-        <v>1.36</v>
-      </c>
-      <c r="AS228">
-        <v>1.11</v>
-      </c>
-      <c r="AT228">
-        <v>2.47</v>
-      </c>
-      <c r="AU228">
-        <v>3</v>
-      </c>
-      <c r="AV228">
-        <v>0</v>
-      </c>
-      <c r="AW228">
-        <v>4</v>
-      </c>
-      <c r="AX228">
-        <v>9</v>
-      </c>
-      <c r="AY228">
-        <v>10</v>
-      </c>
-      <c r="AZ228">
-        <v>12</v>
-      </c>
-      <c r="BA228">
-        <v>5</v>
-      </c>
-      <c r="BB228">
-        <v>5</v>
-      </c>
-      <c r="BC228">
-        <v>10</v>
-      </c>
-      <c r="BD228">
-        <v>1.74</v>
-      </c>
-      <c r="BE228">
-        <v>6.75</v>
-      </c>
       <c r="BF228">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="BG228">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BH228">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BI228">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="BJ228">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="BK228">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="BL228">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="BM228">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BN228">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BO228">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="BP228">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -48386,7 +48392,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7727079</v>
+        <v>7727082</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48401,190 +48407,808 @@
         <v>20</v>
       </c>
       <c r="G229" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H229" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
       <c r="K229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O229" t="s">
         <v>240</v>
       </c>
       <c r="P229" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q229">
+        <v>3.75</v>
+      </c>
+      <c r="R229">
+        <v>2.25</v>
+      </c>
+      <c r="S229">
+        <v>2.75</v>
+      </c>
+      <c r="T229">
+        <v>1.36</v>
+      </c>
+      <c r="U229">
+        <v>3</v>
+      </c>
+      <c r="V229">
+        <v>2.63</v>
+      </c>
+      <c r="W229">
+        <v>1.44</v>
+      </c>
+      <c r="X229">
+        <v>7</v>
+      </c>
+      <c r="Y229">
+        <v>1.1</v>
+      </c>
+      <c r="Z229">
+        <v>3.1</v>
+      </c>
+      <c r="AA229">
+        <v>3.4</v>
+      </c>
+      <c r="AB229">
+        <v>2.2</v>
+      </c>
+      <c r="AC229">
+        <v>1.05</v>
+      </c>
+      <c r="AD229">
+        <v>9.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.25</v>
+      </c>
+      <c r="AF229">
+        <v>3.7</v>
+      </c>
+      <c r="AG229">
+        <v>1.9</v>
+      </c>
+      <c r="AH229">
+        <v>1.88</v>
+      </c>
+      <c r="AI229">
+        <v>1.67</v>
+      </c>
+      <c r="AJ229">
+        <v>2.1</v>
+      </c>
+      <c r="AK229">
+        <v>1.65</v>
+      </c>
+      <c r="AL229">
+        <v>1.25</v>
+      </c>
+      <c r="AM229">
+        <v>1.35</v>
+      </c>
+      <c r="AN229">
+        <v>1.56</v>
+      </c>
+      <c r="AO229">
+        <v>1.78</v>
+      </c>
+      <c r="AP229">
+        <v>1.4</v>
+      </c>
+      <c r="AQ229">
+        <v>1.9</v>
+      </c>
+      <c r="AR229">
+        <v>1.22</v>
+      </c>
+      <c r="AS229">
+        <v>1.22</v>
+      </c>
+      <c r="AT229">
+        <v>2.44</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>4</v>
+      </c>
+      <c r="AW229">
+        <v>4</v>
+      </c>
+      <c r="AX229">
+        <v>5</v>
+      </c>
+      <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
+        <v>15</v>
+      </c>
+      <c r="BA229">
+        <v>2</v>
+      </c>
+      <c r="BB229">
+        <v>4</v>
+      </c>
+      <c r="BC229">
+        <v>6</v>
+      </c>
+      <c r="BD229">
+        <v>2</v>
+      </c>
+      <c r="BE229">
+        <v>6.75</v>
+      </c>
+      <c r="BF229">
+        <v>1.94</v>
+      </c>
+      <c r="BG229">
+        <v>1.17</v>
+      </c>
+      <c r="BH229">
+        <v>4.35</v>
+      </c>
+      <c r="BI229">
+        <v>1.3</v>
+      </c>
+      <c r="BJ229">
+        <v>3.15</v>
+      </c>
+      <c r="BK229">
+        <v>1.5</v>
+      </c>
+      <c r="BL229">
+        <v>2.38</v>
+      </c>
+      <c r="BM229">
+        <v>1.79</v>
+      </c>
+      <c r="BN229">
+        <v>1.9</v>
+      </c>
+      <c r="BO229">
+        <v>2.18</v>
+      </c>
+      <c r="BP229">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7727102</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45646.69791666666</v>
+      </c>
+      <c r="F230">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>86</v>
+      </c>
+      <c r="H230" t="s">
+        <v>93</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230" t="s">
         <v>96</v>
       </c>
-      <c r="Q229">
-        <v>1.73</v>
-      </c>
-      <c r="R229">
+      <c r="P230" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q230">
+        <v>2.75</v>
+      </c>
+      <c r="R230">
+        <v>2.25</v>
+      </c>
+      <c r="S230">
+        <v>3.75</v>
+      </c>
+      <c r="T230">
+        <v>1.36</v>
+      </c>
+      <c r="U230">
+        <v>3</v>
+      </c>
+      <c r="V230">
+        <v>2.63</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>7</v>
+      </c>
+      <c r="Y230">
+        <v>1.1</v>
+      </c>
+      <c r="Z230">
+        <v>2.1</v>
+      </c>
+      <c r="AA230">
+        <v>3.6</v>
+      </c>
+      <c r="AB230">
+        <v>3.25</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>9.5</v>
+      </c>
+      <c r="AE230">
+        <v>1.25</v>
+      </c>
+      <c r="AF230">
+        <v>3.8</v>
+      </c>
+      <c r="AG230">
+        <v>1.75</v>
+      </c>
+      <c r="AH230">
+        <v>2</v>
+      </c>
+      <c r="AI230">
+        <v>1.62</v>
+      </c>
+      <c r="AJ230">
+        <v>2.2</v>
+      </c>
+      <c r="AK230">
+        <v>1.33</v>
+      </c>
+      <c r="AL230">
+        <v>1.25</v>
+      </c>
+      <c r="AM230">
+        <v>1.67</v>
+      </c>
+      <c r="AN230">
+        <v>2.38</v>
+      </c>
+      <c r="AO230">
+        <v>1.63</v>
+      </c>
+      <c r="AP230">
+        <v>2.22</v>
+      </c>
+      <c r="AQ230">
+        <v>1.56</v>
+      </c>
+      <c r="AR230">
+        <v>1.34</v>
+      </c>
+      <c r="AS230">
+        <v>1.12</v>
+      </c>
+      <c r="AT230">
+        <v>2.46</v>
+      </c>
+      <c r="AU230">
+        <v>6</v>
+      </c>
+      <c r="AV230">
+        <v>4</v>
+      </c>
+      <c r="AW230">
+        <v>3</v>
+      </c>
+      <c r="AX230">
+        <v>2</v>
+      </c>
+      <c r="AY230">
+        <v>12</v>
+      </c>
+      <c r="AZ230">
+        <v>8</v>
+      </c>
+      <c r="BA230">
+        <v>7</v>
+      </c>
+      <c r="BB230">
+        <v>3</v>
+      </c>
+      <c r="BC230">
+        <v>10</v>
+      </c>
+      <c r="BD230">
+        <v>1.98</v>
+      </c>
+      <c r="BE230">
+        <v>6.75</v>
+      </c>
+      <c r="BF230">
+        <v>1.98</v>
+      </c>
+      <c r="BG230">
+        <v>1.23</v>
+      </c>
+      <c r="BH230">
+        <v>3.65</v>
+      </c>
+      <c r="BI230">
+        <v>1.4</v>
+      </c>
+      <c r="BJ230">
+        <v>2.65</v>
+      </c>
+      <c r="BK230">
+        <v>1.65</v>
+      </c>
+      <c r="BL230">
+        <v>2.08</v>
+      </c>
+      <c r="BM230">
+        <v>2.02</v>
+      </c>
+      <c r="BN230">
+        <v>1.7</v>
+      </c>
+      <c r="BO230">
+        <v>2.55</v>
+      </c>
+      <c r="BP230">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7727100</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45646.69791666666</v>
+      </c>
+      <c r="F231">
+        <v>21</v>
+      </c>
+      <c r="G231" t="s">
+        <v>73</v>
+      </c>
+      <c r="H231" t="s">
+        <v>74</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>241</v>
+      </c>
+      <c r="P231" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q231">
+        <v>2.38</v>
+      </c>
+      <c r="R231">
+        <v>2.4</v>
+      </c>
+      <c r="S231">
+        <v>4.33</v>
+      </c>
+      <c r="T231">
+        <v>1.3</v>
+      </c>
+      <c r="U231">
+        <v>3.4</v>
+      </c>
+      <c r="V231">
+        <v>2.38</v>
+      </c>
+      <c r="W231">
+        <v>1.53</v>
+      </c>
+      <c r="X231">
+        <v>6</v>
+      </c>
+      <c r="Y231">
+        <v>1.13</v>
+      </c>
+      <c r="Z231">
+        <v>1.8</v>
+      </c>
+      <c r="AA231">
+        <v>3.9</v>
+      </c>
+      <c r="AB231">
+        <v>4</v>
+      </c>
+      <c r="AC231">
+        <v>1.04</v>
+      </c>
+      <c r="AD231">
+        <v>10</v>
+      </c>
+      <c r="AE231">
+        <v>1.2</v>
+      </c>
+      <c r="AF231">
+        <v>4.33</v>
+      </c>
+      <c r="AG231">
+        <v>1.61</v>
+      </c>
+      <c r="AH231">
+        <v>2.2</v>
+      </c>
+      <c r="AI231">
+        <v>1.57</v>
+      </c>
+      <c r="AJ231">
+        <v>2.25</v>
+      </c>
+      <c r="AK231">
+        <v>1.22</v>
+      </c>
+      <c r="AL231">
+        <v>1.22</v>
+      </c>
+      <c r="AM231">
+        <v>1.95</v>
+      </c>
+      <c r="AN231">
+        <v>2</v>
+      </c>
+      <c r="AO231">
+        <v>0.88</v>
+      </c>
+      <c r="AP231">
+        <v>2.09</v>
+      </c>
+      <c r="AQ231">
+        <v>0.78</v>
+      </c>
+      <c r="AR231">
+        <v>1.64</v>
+      </c>
+      <c r="AS231">
+        <v>1.23</v>
+      </c>
+      <c r="AT231">
+        <v>2.87</v>
+      </c>
+      <c r="AU231">
+        <v>4</v>
+      </c>
+      <c r="AV231">
+        <v>2</v>
+      </c>
+      <c r="AW231">
+        <v>7</v>
+      </c>
+      <c r="AX231">
+        <v>1</v>
+      </c>
+      <c r="AY231">
+        <v>14</v>
+      </c>
+      <c r="AZ231">
+        <v>6</v>
+      </c>
+      <c r="BA231">
+        <v>2</v>
+      </c>
+      <c r="BB231">
+        <v>1</v>
+      </c>
+      <c r="BC231">
+        <v>3</v>
+      </c>
+      <c r="BD231">
+        <v>1.68</v>
+      </c>
+      <c r="BE231">
+        <v>6.75</v>
+      </c>
+      <c r="BF231">
+        <v>2.4</v>
+      </c>
+      <c r="BG231">
+        <v>1.27</v>
+      </c>
+      <c r="BH231">
+        <v>3.3</v>
+      </c>
+      <c r="BI231">
+        <v>1.47</v>
+      </c>
+      <c r="BJ231">
+        <v>2.43</v>
+      </c>
+      <c r="BK231">
+        <v>1.77</v>
+      </c>
+      <c r="BL231">
+        <v>1.92</v>
+      </c>
+      <c r="BM231">
+        <v>2.18</v>
+      </c>
+      <c r="BN231">
+        <v>1.58</v>
+      </c>
+      <c r="BO231">
+        <v>2.8</v>
+      </c>
+      <c r="BP231">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7727095</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45646.69791666666</v>
+      </c>
+      <c r="F232">
+        <v>21</v>
+      </c>
+      <c r="G232" t="s">
+        <v>88</v>
+      </c>
+      <c r="H232" t="s">
+        <v>90</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>3</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>4</v>
+      </c>
+      <c r="N232">
+        <v>4</v>
+      </c>
+      <c r="O232" t="s">
+        <v>96</v>
+      </c>
+      <c r="P232" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q232">
+        <v>4.5</v>
+      </c>
+      <c r="R232">
+        <v>2.2</v>
+      </c>
+      <c r="S232">
         <v>2.6</v>
       </c>
-      <c r="S229">
+      <c r="T232">
+        <v>1.4</v>
+      </c>
+      <c r="U232">
+        <v>2.75</v>
+      </c>
+      <c r="V232">
+        <v>3</v>
+      </c>
+      <c r="W232">
+        <v>1.36</v>
+      </c>
+      <c r="X232">
+        <v>8</v>
+      </c>
+      <c r="Y232">
+        <v>1.08</v>
+      </c>
+      <c r="Z232">
+        <v>4</v>
+      </c>
+      <c r="AA232">
+        <v>3.6</v>
+      </c>
+      <c r="AB232">
+        <v>1.91</v>
+      </c>
+      <c r="AC232">
+        <v>1.05</v>
+      </c>
+      <c r="AD232">
         <v>9</v>
       </c>
-      <c r="T229">
+      <c r="AE232">
         <v>1.3</v>
       </c>
-      <c r="U229">
+      <c r="AF232">
         <v>3.4</v>
       </c>
-      <c r="V229">
-        <v>2.38</v>
-      </c>
-      <c r="W229">
-        <v>1.53</v>
-      </c>
-      <c r="X229">
-        <v>6</v>
-      </c>
-      <c r="Y229">
-        <v>1.13</v>
-      </c>
-      <c r="Z229">
+      <c r="AG232">
+        <v>1.91</v>
+      </c>
+      <c r="AH232">
+        <v>1.8</v>
+      </c>
+      <c r="AI232">
+        <v>1.8</v>
+      </c>
+      <c r="AJ232">
+        <v>1.95</v>
+      </c>
+      <c r="AK232">
+        <v>1.85</v>
+      </c>
+      <c r="AL232">
         <v>1.25</v>
       </c>
-      <c r="AA229">
-        <v>5.5</v>
-      </c>
-      <c r="AB229">
+      <c r="AM232">
+        <v>1.22</v>
+      </c>
+      <c r="AN232">
+        <v>1.33</v>
+      </c>
+      <c r="AO232">
+        <v>1.56</v>
+      </c>
+      <c r="AP232">
+        <v>1.2</v>
+      </c>
+      <c r="AQ232">
+        <v>1.7</v>
+      </c>
+      <c r="AR232">
+        <v>1.32</v>
+      </c>
+      <c r="AS232">
+        <v>1.28</v>
+      </c>
+      <c r="AT232">
+        <v>2.6</v>
+      </c>
+      <c r="AU232">
+        <v>4</v>
+      </c>
+      <c r="AV232">
         <v>12</v>
       </c>
-      <c r="AC229">
-        <v>1.03</v>
-      </c>
-      <c r="AD229">
-        <v>11</v>
-      </c>
-      <c r="AE229">
-        <v>1.2</v>
-      </c>
-      <c r="AF229">
-        <v>4.33</v>
-      </c>
-      <c r="AG229">
-        <v>1.6</v>
-      </c>
-      <c r="AH229">
-        <v>2.2</v>
-      </c>
-      <c r="AI229">
+      <c r="AW232">
+        <v>4</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
+        <v>14</v>
+      </c>
+      <c r="AZ232">
+        <v>19</v>
+      </c>
+      <c r="BA232">
+        <v>3</v>
+      </c>
+      <c r="BB232">
+        <v>4</v>
+      </c>
+      <c r="BC232">
+        <v>7</v>
+      </c>
+      <c r="BD232">
+        <v>2.55</v>
+      </c>
+      <c r="BE232">
+        <v>7</v>
+      </c>
+      <c r="BF232">
+        <v>1.58</v>
+      </c>
+      <c r="BG232">
+        <v>1.25</v>
+      </c>
+      <c r="BH232">
+        <v>3.45</v>
+      </c>
+      <c r="BI232">
+        <v>1.44</v>
+      </c>
+      <c r="BJ232">
+        <v>2.55</v>
+      </c>
+      <c r="BK232">
+        <v>1.72</v>
+      </c>
+      <c r="BL232">
+        <v>1.98</v>
+      </c>
+      <c r="BM232">
         <v>2.1</v>
       </c>
-      <c r="AJ229">
-        <v>1.67</v>
-      </c>
-      <c r="AK229">
-        <v>1.04</v>
-      </c>
-      <c r="AL229">
-        <v>1.12</v>
-      </c>
-      <c r="AM229">
-        <v>3.85</v>
-      </c>
-      <c r="AN229">
-        <v>2.5</v>
-      </c>
-      <c r="AO229">
-        <v>0.78</v>
-      </c>
-      <c r="AP229">
-        <v>2.56</v>
-      </c>
-      <c r="AQ229">
-        <v>0.7</v>
-      </c>
-      <c r="AR229">
+      <c r="BN232">
         <v>1.64</v>
       </c>
-      <c r="AS229">
-        <v>0.99</v>
-      </c>
-      <c r="AT229">
-        <v>2.63</v>
-      </c>
-      <c r="AU229">
-        <v>9</v>
-      </c>
-      <c r="AV229">
-        <v>2</v>
-      </c>
-      <c r="AW229">
-        <v>8</v>
-      </c>
-      <c r="AX229">
-        <v>2</v>
-      </c>
-      <c r="AY229">
-        <v>27</v>
-      </c>
-      <c r="AZ229">
-        <v>4</v>
-      </c>
-      <c r="BA229">
-        <v>8</v>
-      </c>
-      <c r="BB229">
-        <v>0</v>
-      </c>
-      <c r="BC229">
-        <v>8</v>
-      </c>
-      <c r="BD229">
-        <v>1.21</v>
-      </c>
-      <c r="BE229">
-        <v>9</v>
-      </c>
-      <c r="BF229">
-        <v>4.8</v>
-      </c>
-      <c r="BG229">
-        <v>1.23</v>
-      </c>
-      <c r="BH229">
-        <v>3.65</v>
-      </c>
-      <c r="BI229">
+      <c r="BO232">
+        <v>2.65</v>
+      </c>
+      <c r="BP232">
         <v>1.41</v>
-      </c>
-      <c r="BJ229">
-        <v>2.65</v>
-      </c>
-      <c r="BK229">
-        <v>1.65</v>
-      </c>
-      <c r="BL229">
-        <v>2.08</v>
-      </c>
-      <c r="BM229">
-        <v>1.98</v>
-      </c>
-      <c r="BN229">
-        <v>1.72</v>
-      </c>
-      <c r="BO229">
-        <v>2.5</v>
-      </c>
-      <c r="BP229">
-        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,21 @@
     <t>['11', '75']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['8', '72']</t>
+  </si>
+  <si>
+    <t>['9', '53']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -764,12 +779,6 @@
   </si>
   <si>
     <t>['31', '68', '82']</t>
-  </si>
-  <si>
-    <t>['8']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['13', '47']</t>
@@ -824,9 +833,6 @@
   </si>
   <si>
     <t>['20', '40', '50', '71']</t>
-  </si>
-  <si>
-    <t>['27']</t>
   </si>
   <si>
     <t>['44', '59', '68', '81']</t>
@@ -1052,6 +1058,18 @@
   </si>
   <si>
     <t>['12', '32', '38', '72']</t>
+  </si>
+  <si>
+    <t>['67', '87']</t>
+  </si>
+  <si>
+    <t>['9', '12', '36', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+2', '71']</t>
+  </si>
+  <si>
+    <t>['6', '28', '51', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP232"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1690,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1750,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.44</v>
@@ -2084,7 +2102,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2162,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2496,7 +2514,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2702,7 +2720,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2989,7 +3007,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ8">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3320,7 +3338,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3398,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3604,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.64</v>
@@ -3732,7 +3750,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3813,7 +3831,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4019,7 +4037,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4144,7 +4162,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4431,7 +4449,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4968,7 +4986,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5174,7 +5192,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5252,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5380,7 +5398,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5586,7 +5604,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5664,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
         <v>1.9</v>
@@ -5792,7 +5810,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5873,7 +5891,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ22">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5998,7 +6016,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6076,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>1.3</v>
@@ -6204,7 +6222,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6282,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.78</v>
@@ -6491,7 +6509,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6900,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.26</v>
@@ -7109,7 +7127,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
         <v>0.87</v>
@@ -7315,7 +7333,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR29">
         <v>1.43</v>
@@ -7518,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
         <v>0.8</v>
@@ -7646,7 +7664,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7724,7 +7742,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
         <v>1.44</v>
@@ -7852,7 +7870,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8139,7 +8157,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.14</v>
@@ -8264,7 +8282,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8676,7 +8694,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8754,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0.64</v>
@@ -8882,7 +8900,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9088,7 +9106,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9166,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ38">
         <v>2.18</v>
@@ -9787,7 +9805,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ41">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -9993,7 +10011,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>1.98</v>
@@ -10118,7 +10136,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10199,7 +10217,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR43">
         <v>0.79</v>
@@ -10402,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>0.78</v>
@@ -10530,7 +10548,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10814,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10942,7 +10960,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11023,7 +11041,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ47">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -11354,7 +11372,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11432,7 +11450,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.3</v>
@@ -11560,7 +11578,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11638,7 +11656,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.7</v>
@@ -11847,7 +11865,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ51">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12053,7 +12071,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -12256,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12384,7 +12402,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12462,7 +12480,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>2.18</v>
@@ -12877,7 +12895,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ56">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -13002,7 +13020,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13208,7 +13226,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13620,7 +13638,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13698,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.2</v>
@@ -13826,7 +13844,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13907,7 +13925,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR61">
         <v>1.57</v>
@@ -14110,10 +14128,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -14238,7 +14256,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14444,7 +14462,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14525,7 +14543,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14728,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ65">
         <v>1.2</v>
@@ -14937,7 +14955,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -15062,7 +15080,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15140,10 +15158,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15268,7 +15286,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15474,7 +15492,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15680,7 +15698,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15758,7 +15776,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ70">
         <v>1.9</v>
@@ -15886,7 +15904,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15967,7 +15985,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ71">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR71">
         <v>1.92</v>
@@ -16092,7 +16110,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16504,7 +16522,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16710,7 +16728,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16791,7 +16809,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR75">
         <v>1.34</v>
@@ -16916,7 +16934,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17200,10 +17218,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>0.73</v>
@@ -17328,7 +17346,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17534,7 +17552,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17946,7 +17964,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18233,7 +18251,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR82">
         <v>1.22</v>
@@ -18439,7 +18457,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ83">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR83">
         <v>1.2</v>
@@ -18642,10 +18660,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18770,7 +18788,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18848,7 +18866,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85">
         <v>1.44</v>
@@ -19057,7 +19075,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19182,7 +19200,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19260,7 +19278,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>2.18</v>
@@ -19466,7 +19484,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19594,7 +19612,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19800,7 +19818,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20006,7 +20024,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20084,7 +20102,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.3</v>
@@ -20212,7 +20230,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20290,7 +20308,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92">
         <v>1.56</v>
@@ -20496,7 +20514,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93">
         <v>0.78</v>
@@ -20705,7 +20723,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR94">
         <v>1.15</v>
@@ -20830,7 +20848,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21036,7 +21054,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21117,7 +21135,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR96">
         <v>1.27</v>
@@ -21242,7 +21260,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21529,7 +21547,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR98">
         <v>1.36</v>
@@ -21654,7 +21672,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21732,10 +21750,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR99">
         <v>1.12</v>
@@ -21860,7 +21878,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -21938,7 +21956,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100">
         <v>1.27</v>
@@ -22272,7 +22290,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22350,7 +22368,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>2.18</v>
@@ -22684,7 +22702,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22765,7 +22783,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>1.16</v>
@@ -23174,7 +23192,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>1.45</v>
@@ -23302,7 +23320,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23383,7 +23401,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23586,10 +23604,10 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -24126,7 +24144,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24204,7 +24222,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ111">
         <v>0.7</v>
@@ -24332,7 +24350,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24413,7 +24431,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ112">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24950,7 +24968,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25156,7 +25174,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25237,7 +25255,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.13</v>
@@ -25362,7 +25380,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25443,7 +25461,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ117">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>0.93</v>
@@ -25568,7 +25586,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25649,7 +25667,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ118">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR118">
         <v>0.98</v>
@@ -26264,10 +26282,10 @@
         <v>1.2</v>
       </c>
       <c r="AP121">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26470,10 +26488,10 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26598,7 +26616,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26676,7 +26694,7 @@
         <v>2.25</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ123">
         <v>2.11</v>
@@ -26804,7 +26822,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -27010,7 +27028,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27628,7 +27646,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27706,7 +27724,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>1.9</v>
@@ -27915,7 +27933,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR129">
         <v>1.58</v>
@@ -28040,7 +28058,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28246,7 +28264,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28324,7 +28342,7 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ131">
         <v>2.18</v>
@@ -28530,10 +28548,10 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR132">
         <v>1.15</v>
@@ -28945,7 +28963,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -29070,7 +29088,7 @@
         <v>96</v>
       </c>
       <c r="P135" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29276,7 +29294,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29354,10 +29372,10 @@
         <v>1.2</v>
       </c>
       <c r="AP136">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR136">
         <v>1.54</v>
@@ -29688,7 +29706,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29766,7 +29784,7 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ138">
         <v>1.44</v>
@@ -30100,7 +30118,7 @@
         <v>99</v>
       </c>
       <c r="P140" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30181,7 +30199,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR140">
         <v>1.36</v>
@@ -30590,7 +30608,7 @@
         <v>2.4</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
         <v>2.11</v>
@@ -30924,7 +30942,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31005,7 +31023,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR144">
         <v>1.28</v>
@@ -31211,7 +31229,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ145">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR145">
         <v>1.46</v>
@@ -31336,7 +31354,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>3.2</v>
@@ -31414,7 +31432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ146">
         <v>1.3</v>
@@ -31620,7 +31638,7 @@
         <v>0.6</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ147">
         <v>0.8</v>
@@ -31829,7 +31847,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR148">
         <v>1.62</v>
@@ -31954,7 +31972,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32241,7 +32259,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ150">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32778,7 +32796,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32856,7 +32874,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ153">
         <v>1.2</v>
@@ -32984,7 +33002,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33062,7 +33080,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ154">
         <v>0.64</v>
@@ -33271,7 +33289,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33396,7 +33414,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33680,7 +33698,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ157">
         <v>0.8</v>
@@ -33808,7 +33826,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34092,10 +34110,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34504,10 +34522,10 @@
         <v>0.57</v>
       </c>
       <c r="AP161">
+        <v>0.45</v>
+      </c>
+      <c r="AQ161">
         <v>0.5</v>
-      </c>
-      <c r="AQ161">
-        <v>0.44</v>
       </c>
       <c r="AR161">
         <v>1.04</v>
@@ -34919,7 +34937,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ163">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR163">
         <v>1.49</v>
@@ -35044,7 +35062,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q164">
         <v>4.33</v>
@@ -35250,7 +35268,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35328,7 +35346,7 @@
         <v>1.83</v>
       </c>
       <c r="AP165">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
         <v>1.27</v>
@@ -35868,7 +35886,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35949,7 +35967,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR168">
         <v>1.16</v>
@@ -36074,7 +36092,7 @@
         <v>96</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36152,7 +36170,7 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169">
         <v>2.18</v>
@@ -36976,7 +36994,7 @@
         <v>0.57</v>
       </c>
       <c r="AP173">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>0.8</v>
@@ -37182,7 +37200,7 @@
         <v>0.86</v>
       </c>
       <c r="AP174">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ174">
         <v>0.64</v>
@@ -37391,7 +37409,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37722,7 +37740,7 @@
         <v>214</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>7.5</v>
@@ -38009,7 +38027,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ178">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38134,7 +38152,7 @@
         <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38212,7 +38230,7 @@
         <v>1.43</v>
       </c>
       <c r="AP179">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ179">
         <v>1.3</v>
@@ -38421,7 +38439,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ180">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR180">
         <v>0.97</v>
@@ -38627,7 +38645,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ181">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -38752,7 +38770,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38830,7 +38848,7 @@
         <v>2.13</v>
       </c>
       <c r="AP182">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ182">
         <v>2.18</v>
@@ -38958,7 +38976,7 @@
         <v>96</v>
       </c>
       <c r="P183" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39036,7 +39054,7 @@
         <v>0.57</v>
       </c>
       <c r="AP183">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183">
         <v>0.7</v>
@@ -39242,7 +39260,7 @@
         <v>0.43</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ184">
         <v>0.5</v>
@@ -39370,7 +39388,7 @@
         <v>143</v>
       </c>
       <c r="P185" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39451,7 +39469,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR185">
         <v>1.26</v>
@@ -39657,7 +39675,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ186">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -39782,7 +39800,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39860,7 +39878,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
         <v>1.2</v>
@@ -39988,7 +40006,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40066,7 +40084,7 @@
         <v>0.88</v>
       </c>
       <c r="AP188">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ188">
         <v>0.64</v>
@@ -40606,7 +40624,7 @@
         <v>96</v>
       </c>
       <c r="P191" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41018,7 +41036,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>2.4</v>
@@ -41096,10 +41114,10 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR193">
         <v>1.71</v>
@@ -41224,7 +41242,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41302,7 +41320,7 @@
         <v>0.88</v>
       </c>
       <c r="AP194">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194">
         <v>1.45</v>
@@ -41430,7 +41448,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41508,10 +41526,10 @@
         <v>0.88</v>
       </c>
       <c r="AP195">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ195">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR195">
         <v>1.04</v>
@@ -41636,7 +41654,7 @@
         <v>96</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -41842,7 +41860,7 @@
         <v>137</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q197">
         <v>2.25</v>
@@ -42666,7 +42684,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42872,7 +42890,7 @@
         <v>225</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43696,7 +43714,7 @@
         <v>96</v>
       </c>
       <c r="P206" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44108,7 +44126,7 @@
         <v>119</v>
       </c>
       <c r="P208" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44314,7 +44332,7 @@
         <v>96</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44392,10 +44410,10 @@
         <v>0.88</v>
       </c>
       <c r="AP209">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR209">
         <v>1.22</v>
@@ -44598,10 +44616,10 @@
         <v>1.11</v>
       </c>
       <c r="AP210">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ210">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR210">
         <v>1.37</v>
@@ -44807,7 +44825,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ211">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR211">
         <v>1.61</v>
@@ -45013,7 +45031,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR212">
         <v>1.39</v>
@@ -45138,7 +45156,7 @@
         <v>99</v>
       </c>
       <c r="P213" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q213">
         <v>4.33</v>
@@ -45216,7 +45234,7 @@
         <v>2</v>
       </c>
       <c r="AP213">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ213">
         <v>2.11</v>
@@ -45422,10 +45440,10 @@
         <v>1.13</v>
       </c>
       <c r="AP214">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ214">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR214">
         <v>1.02</v>
@@ -45631,7 +45649,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ215">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR215">
         <v>1.31</v>
@@ -45756,7 +45774,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q216">
         <v>3.75</v>
@@ -45834,7 +45852,7 @@
         <v>1.38</v>
       </c>
       <c r="AP216">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216">
         <v>1.7</v>
@@ -45962,7 +45980,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46040,7 +46058,7 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ217">
         <v>0.78</v>
@@ -46168,7 +46186,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q218">
         <v>2.3</v>
@@ -46580,7 +46598,7 @@
         <v>96</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46992,7 +47010,7 @@
         <v>132</v>
       </c>
       <c r="P222" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47198,7 +47216,7 @@
         <v>235</v>
       </c>
       <c r="P223" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47404,7 +47422,7 @@
         <v>236</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47610,7 +47628,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q225">
         <v>2.1</v>
@@ -47816,7 +47834,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -48434,7 +48452,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q229">
         <v>3.75</v>
@@ -48846,7 +48864,7 @@
         <v>241</v>
       </c>
       <c r="P231" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>2.38</v>
@@ -49052,7 +49070,7 @@
         <v>96</v>
       </c>
       <c r="P232" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49209,6 +49227,1654 @@
       </c>
       <c r="BP232">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7727093</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F233">
+        <v>21</v>
+      </c>
+      <c r="G233" t="s">
+        <v>79</v>
+      </c>
+      <c r="H233" t="s">
+        <v>71</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>242</v>
+      </c>
+      <c r="P233" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q233">
+        <v>4.33</v>
+      </c>
+      <c r="R233">
+        <v>2.1</v>
+      </c>
+      <c r="S233">
+        <v>2.63</v>
+      </c>
+      <c r="T233">
+        <v>1.4</v>
+      </c>
+      <c r="U233">
+        <v>2.75</v>
+      </c>
+      <c r="V233">
+        <v>3</v>
+      </c>
+      <c r="W233">
+        <v>1.36</v>
+      </c>
+      <c r="X233">
+        <v>8</v>
+      </c>
+      <c r="Y233">
+        <v>1.08</v>
+      </c>
+      <c r="Z233">
+        <v>4.45</v>
+      </c>
+      <c r="AA233">
+        <v>3.7</v>
+      </c>
+      <c r="AB233">
+        <v>1.79</v>
+      </c>
+      <c r="AC233">
+        <v>1.06</v>
+      </c>
+      <c r="AD233">
+        <v>8.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.33</v>
+      </c>
+      <c r="AF233">
+        <v>3.3</v>
+      </c>
+      <c r="AG233">
+        <v>1.97</v>
+      </c>
+      <c r="AH233">
+        <v>1.83</v>
+      </c>
+      <c r="AI233">
+        <v>1.8</v>
+      </c>
+      <c r="AJ233">
+        <v>1.95</v>
+      </c>
+      <c r="AK233">
+        <v>1.77</v>
+      </c>
+      <c r="AL233">
+        <v>1.25</v>
+      </c>
+      <c r="AM233">
+        <v>1.28</v>
+      </c>
+      <c r="AN233">
+        <v>1.56</v>
+      </c>
+      <c r="AO233">
+        <v>1.33</v>
+      </c>
+      <c r="AP233">
+        <v>1.5</v>
+      </c>
+      <c r="AQ233">
+        <v>1.3</v>
+      </c>
+      <c r="AR233">
+        <v>1.1</v>
+      </c>
+      <c r="AS233">
+        <v>1.12</v>
+      </c>
+      <c r="AT233">
+        <v>2.22</v>
+      </c>
+      <c r="AU233">
+        <v>2</v>
+      </c>
+      <c r="AV233">
+        <v>3</v>
+      </c>
+      <c r="AW233">
+        <v>1</v>
+      </c>
+      <c r="AX233">
+        <v>9</v>
+      </c>
+      <c r="AY233">
+        <v>5</v>
+      </c>
+      <c r="AZ233">
+        <v>14</v>
+      </c>
+      <c r="BA233">
+        <v>3</v>
+      </c>
+      <c r="BB233">
+        <v>7</v>
+      </c>
+      <c r="BC233">
+        <v>10</v>
+      </c>
+      <c r="BD233">
+        <v>2.48</v>
+      </c>
+      <c r="BE233">
+        <v>6.75</v>
+      </c>
+      <c r="BF233">
+        <v>1.66</v>
+      </c>
+      <c r="BG233">
+        <v>1.27</v>
+      </c>
+      <c r="BH233">
+        <v>3.3</v>
+      </c>
+      <c r="BI233">
+        <v>1.48</v>
+      </c>
+      <c r="BJ233">
+        <v>2.43</v>
+      </c>
+      <c r="BK233">
+        <v>1.77</v>
+      </c>
+      <c r="BL233">
+        <v>1.92</v>
+      </c>
+      <c r="BM233">
+        <v>2.18</v>
+      </c>
+      <c r="BN233">
+        <v>1.58</v>
+      </c>
+      <c r="BO233">
+        <v>2.8</v>
+      </c>
+      <c r="BP233">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7727097</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45647.39583333334</v>
+      </c>
+      <c r="F234">
+        <v>21</v>
+      </c>
+      <c r="G234" t="s">
+        <v>89</v>
+      </c>
+      <c r="H234" t="s">
+        <v>84</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>243</v>
+      </c>
+      <c r="P234" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q234">
+        <v>2.5</v>
+      </c>
+      <c r="R234">
+        <v>2.2</v>
+      </c>
+      <c r="S234">
+        <v>4.5</v>
+      </c>
+      <c r="T234">
+        <v>1.36</v>
+      </c>
+      <c r="U234">
+        <v>3</v>
+      </c>
+      <c r="V234">
+        <v>2.75</v>
+      </c>
+      <c r="W234">
+        <v>1.4</v>
+      </c>
+      <c r="X234">
+        <v>8</v>
+      </c>
+      <c r="Y234">
+        <v>1.08</v>
+      </c>
+      <c r="Z234">
+        <v>1.77</v>
+      </c>
+      <c r="AA234">
+        <v>3.6</v>
+      </c>
+      <c r="AB234">
+        <v>4.7</v>
+      </c>
+      <c r="AC234">
+        <v>1.05</v>
+      </c>
+      <c r="AD234">
+        <v>9.5</v>
+      </c>
+      <c r="AE234">
+        <v>1.25</v>
+      </c>
+      <c r="AF234">
+        <v>3.7</v>
+      </c>
+      <c r="AG234">
+        <v>1.84</v>
+      </c>
+      <c r="AH234">
+        <v>1.96</v>
+      </c>
+      <c r="AI234">
+        <v>1.75</v>
+      </c>
+      <c r="AJ234">
+        <v>2</v>
+      </c>
+      <c r="AK234">
+        <v>1.22</v>
+      </c>
+      <c r="AL234">
+        <v>1.22</v>
+      </c>
+      <c r="AM234">
+        <v>1.91</v>
+      </c>
+      <c r="AN234">
+        <v>1.56</v>
+      </c>
+      <c r="AO234">
+        <v>1</v>
+      </c>
+      <c r="AP234">
+        <v>1.7</v>
+      </c>
+      <c r="AQ234">
+        <v>0.91</v>
+      </c>
+      <c r="AR234">
+        <v>1.33</v>
+      </c>
+      <c r="AS234">
+        <v>1.24</v>
+      </c>
+      <c r="AT234">
+        <v>2.57</v>
+      </c>
+      <c r="AU234">
+        <v>8</v>
+      </c>
+      <c r="AV234">
+        <v>2</v>
+      </c>
+      <c r="AW234">
+        <v>4</v>
+      </c>
+      <c r="AX234">
+        <v>2</v>
+      </c>
+      <c r="AY234">
+        <v>16</v>
+      </c>
+      <c r="AZ234">
+        <v>5</v>
+      </c>
+      <c r="BA234">
+        <v>9</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>9</v>
+      </c>
+      <c r="BD234">
+        <v>1.53</v>
+      </c>
+      <c r="BE234">
+        <v>6.75</v>
+      </c>
+      <c r="BF234">
+        <v>2.7</v>
+      </c>
+      <c r="BG234">
+        <v>1.23</v>
+      </c>
+      <c r="BH234">
+        <v>3.65</v>
+      </c>
+      <c r="BI234">
+        <v>1.4</v>
+      </c>
+      <c r="BJ234">
+        <v>2.7</v>
+      </c>
+      <c r="BK234">
+        <v>1.65</v>
+      </c>
+      <c r="BL234">
+        <v>2.08</v>
+      </c>
+      <c r="BM234">
+        <v>2</v>
+      </c>
+      <c r="BN234">
+        <v>1.71</v>
+      </c>
+      <c r="BO234">
+        <v>2.5</v>
+      </c>
+      <c r="BP234">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7727101</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F235">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>72</v>
+      </c>
+      <c r="H235" t="s">
+        <v>82</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>244</v>
+      </c>
+      <c r="P235" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q235">
+        <v>2.38</v>
+      </c>
+      <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>5.5</v>
+      </c>
+      <c r="T235">
+        <v>1.44</v>
+      </c>
+      <c r="U235">
+        <v>2.63</v>
+      </c>
+      <c r="V235">
+        <v>3.25</v>
+      </c>
+      <c r="W235">
+        <v>1.33</v>
+      </c>
+      <c r="X235">
+        <v>10</v>
+      </c>
+      <c r="Y235">
+        <v>1.06</v>
+      </c>
+      <c r="Z235">
+        <v>1.7</v>
+      </c>
+      <c r="AA235">
+        <v>3.4</v>
+      </c>
+      <c r="AB235">
+        <v>4.75</v>
+      </c>
+      <c r="AC235">
+        <v>1.06</v>
+      </c>
+      <c r="AD235">
+        <v>8.5</v>
+      </c>
+      <c r="AE235">
+        <v>1.35</v>
+      </c>
+      <c r="AF235">
+        <v>3.1</v>
+      </c>
+      <c r="AG235">
+        <v>2.1</v>
+      </c>
+      <c r="AH235">
+        <v>1.67</v>
+      </c>
+      <c r="AI235">
+        <v>2.05</v>
+      </c>
+      <c r="AJ235">
+        <v>1.7</v>
+      </c>
+      <c r="AK235">
+        <v>1.18</v>
+      </c>
+      <c r="AL235">
+        <v>1.22</v>
+      </c>
+      <c r="AM235">
+        <v>2.05</v>
+      </c>
+      <c r="AN235">
+        <v>1.22</v>
+      </c>
+      <c r="AO235">
+        <v>0.44</v>
+      </c>
+      <c r="AP235">
+        <v>1.2</v>
+      </c>
+      <c r="AQ235">
+        <v>0.5</v>
+      </c>
+      <c r="AR235">
+        <v>1.17</v>
+      </c>
+      <c r="AS235">
+        <v>1.14</v>
+      </c>
+      <c r="AT235">
+        <v>2.31</v>
+      </c>
+      <c r="AU235">
+        <v>4</v>
+      </c>
+      <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>5</v>
+      </c>
+      <c r="AX235">
+        <v>1</v>
+      </c>
+      <c r="AY235">
+        <v>11</v>
+      </c>
+      <c r="AZ235">
+        <v>9</v>
+      </c>
+      <c r="BA235">
+        <v>4</v>
+      </c>
+      <c r="BB235">
+        <v>3</v>
+      </c>
+      <c r="BC235">
+        <v>7</v>
+      </c>
+      <c r="BD235">
+        <v>1.47</v>
+      </c>
+      <c r="BE235">
+        <v>7</v>
+      </c>
+      <c r="BF235">
+        <v>2.95</v>
+      </c>
+      <c r="BG235">
+        <v>1.27</v>
+      </c>
+      <c r="BH235">
+        <v>3.3</v>
+      </c>
+      <c r="BI235">
+        <v>1.46</v>
+      </c>
+      <c r="BJ235">
+        <v>2.48</v>
+      </c>
+      <c r="BK235">
+        <v>1.74</v>
+      </c>
+      <c r="BL235">
+        <v>1.95</v>
+      </c>
+      <c r="BM235">
+        <v>2.18</v>
+      </c>
+      <c r="BN235">
+        <v>1.58</v>
+      </c>
+      <c r="BO235">
+        <v>2.7</v>
+      </c>
+      <c r="BP235">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7727099</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F236">
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>87</v>
+      </c>
+      <c r="H236" t="s">
+        <v>83</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>3</v>
+      </c>
+      <c r="K236">
+        <v>3</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+      <c r="N236">
+        <v>5</v>
+      </c>
+      <c r="O236" t="s">
+        <v>96</v>
+      </c>
+      <c r="P236" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q236">
+        <v>4</v>
+      </c>
+      <c r="R236">
+        <v>2.1</v>
+      </c>
+      <c r="S236">
+        <v>2.88</v>
+      </c>
+      <c r="T236">
+        <v>1.44</v>
+      </c>
+      <c r="U236">
+        <v>2.63</v>
+      </c>
+      <c r="V236">
+        <v>3.25</v>
+      </c>
+      <c r="W236">
+        <v>1.33</v>
+      </c>
+      <c r="X236">
+        <v>9</v>
+      </c>
+      <c r="Y236">
+        <v>1.07</v>
+      </c>
+      <c r="Z236">
+        <v>3.5</v>
+      </c>
+      <c r="AA236">
+        <v>3.4</v>
+      </c>
+      <c r="AB236">
+        <v>1.95</v>
+      </c>
+      <c r="AC236">
+        <v>1.06</v>
+      </c>
+      <c r="AD236">
+        <v>8.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.36</v>
+      </c>
+      <c r="AF236">
+        <v>3.1</v>
+      </c>
+      <c r="AG236">
+        <v>1.95</v>
+      </c>
+      <c r="AH236">
+        <v>1.75</v>
+      </c>
+      <c r="AI236">
+        <v>1.8</v>
+      </c>
+      <c r="AJ236">
+        <v>1.95</v>
+      </c>
+      <c r="AK236">
+        <v>1.67</v>
+      </c>
+      <c r="AL236">
+        <v>1.28</v>
+      </c>
+      <c r="AM236">
+        <v>1.3</v>
+      </c>
+      <c r="AN236">
+        <v>1.56</v>
+      </c>
+      <c r="AO236">
+        <v>1.1</v>
+      </c>
+      <c r="AP236">
+        <v>1.4</v>
+      </c>
+      <c r="AQ236">
+        <v>1.27</v>
+      </c>
+      <c r="AR236">
+        <v>1.24</v>
+      </c>
+      <c r="AS236">
+        <v>1.23</v>
+      </c>
+      <c r="AT236">
+        <v>2.47</v>
+      </c>
+      <c r="AU236">
+        <v>2</v>
+      </c>
+      <c r="AV236">
+        <v>8</v>
+      </c>
+      <c r="AW236">
+        <v>3</v>
+      </c>
+      <c r="AX236">
+        <v>4</v>
+      </c>
+      <c r="AY236">
+        <v>6</v>
+      </c>
+      <c r="AZ236">
+        <v>16</v>
+      </c>
+      <c r="BA236">
+        <v>2</v>
+      </c>
+      <c r="BB236">
+        <v>4</v>
+      </c>
+      <c r="BC236">
+        <v>6</v>
+      </c>
+      <c r="BD236">
+        <v>2.18</v>
+      </c>
+      <c r="BE236">
+        <v>6.75</v>
+      </c>
+      <c r="BF236">
+        <v>1.81</v>
+      </c>
+      <c r="BG236">
+        <v>1.23</v>
+      </c>
+      <c r="BH236">
+        <v>3.65</v>
+      </c>
+      <c r="BI236">
+        <v>1.41</v>
+      </c>
+      <c r="BJ236">
+        <v>2.65</v>
+      </c>
+      <c r="BK236">
+        <v>1.67</v>
+      </c>
+      <c r="BL236">
+        <v>2.05</v>
+      </c>
+      <c r="BM236">
+        <v>2.04</v>
+      </c>
+      <c r="BN236">
+        <v>1.68</v>
+      </c>
+      <c r="BO236">
+        <v>2.55</v>
+      </c>
+      <c r="BP236">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7727094</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>78</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>245</v>
+      </c>
+      <c r="P237" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q237">
+        <v>3.5</v>
+      </c>
+      <c r="R237">
+        <v>2.1</v>
+      </c>
+      <c r="S237">
+        <v>3.1</v>
+      </c>
+      <c r="T237">
+        <v>1.4</v>
+      </c>
+      <c r="U237">
+        <v>2.75</v>
+      </c>
+      <c r="V237">
+        <v>3</v>
+      </c>
+      <c r="W237">
+        <v>1.36</v>
+      </c>
+      <c r="X237">
+        <v>9</v>
+      </c>
+      <c r="Y237">
+        <v>1.07</v>
+      </c>
+      <c r="Z237">
+        <v>2.88</v>
+      </c>
+      <c r="AA237">
+        <v>3.25</v>
+      </c>
+      <c r="AB237">
+        <v>2.3</v>
+      </c>
+      <c r="AC237">
+        <v>1.06</v>
+      </c>
+      <c r="AD237">
+        <v>8.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.33</v>
+      </c>
+      <c r="AF237">
+        <v>3.3</v>
+      </c>
+      <c r="AG237">
+        <v>1.91</v>
+      </c>
+      <c r="AH237">
+        <v>1.8</v>
+      </c>
+      <c r="AI237">
+        <v>1.8</v>
+      </c>
+      <c r="AJ237">
+        <v>1.95</v>
+      </c>
+      <c r="AK237">
+        <v>1.53</v>
+      </c>
+      <c r="AL237">
+        <v>1.25</v>
+      </c>
+      <c r="AM237">
+        <v>1.42</v>
+      </c>
+      <c r="AN237">
+        <v>0.5</v>
+      </c>
+      <c r="AO237">
+        <v>1.11</v>
+      </c>
+      <c r="AP237">
+        <v>0.45</v>
+      </c>
+      <c r="AQ237">
+        <v>1.3</v>
+      </c>
+      <c r="AR237">
+        <v>0.97</v>
+      </c>
+      <c r="AS237">
+        <v>0.88</v>
+      </c>
+      <c r="AT237">
+        <v>1.85</v>
+      </c>
+      <c r="AU237">
+        <v>4</v>
+      </c>
+      <c r="AV237">
+        <v>4</v>
+      </c>
+      <c r="AW237">
+        <v>6</v>
+      </c>
+      <c r="AX237">
+        <v>6</v>
+      </c>
+      <c r="AY237">
+        <v>11</v>
+      </c>
+      <c r="AZ237">
+        <v>15</v>
+      </c>
+      <c r="BA237">
+        <v>4</v>
+      </c>
+      <c r="BB237">
+        <v>0</v>
+      </c>
+      <c r="BC237">
+        <v>4</v>
+      </c>
+      <c r="BD237">
+        <v>2.12</v>
+      </c>
+      <c r="BE237">
+        <v>6.75</v>
+      </c>
+      <c r="BF237">
+        <v>1.84</v>
+      </c>
+      <c r="BG237">
+        <v>1.23</v>
+      </c>
+      <c r="BH237">
+        <v>3.65</v>
+      </c>
+      <c r="BI237">
+        <v>1.41</v>
+      </c>
+      <c r="BJ237">
+        <v>2.65</v>
+      </c>
+      <c r="BK237">
+        <v>1.65</v>
+      </c>
+      <c r="BL237">
+        <v>2.08</v>
+      </c>
+      <c r="BM237">
+        <v>2.04</v>
+      </c>
+      <c r="BN237">
+        <v>1.68</v>
+      </c>
+      <c r="BO237">
+        <v>2.55</v>
+      </c>
+      <c r="BP237">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7727098</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>92</v>
+      </c>
+      <c r="H238" t="s">
+        <v>85</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>246</v>
+      </c>
+      <c r="P238" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q238">
+        <v>2.88</v>
+      </c>
+      <c r="R238">
+        <v>2.2</v>
+      </c>
+      <c r="S238">
+        <v>3.75</v>
+      </c>
+      <c r="T238">
+        <v>1.4</v>
+      </c>
+      <c r="U238">
+        <v>2.75</v>
+      </c>
+      <c r="V238">
+        <v>2.75</v>
+      </c>
+      <c r="W238">
+        <v>1.4</v>
+      </c>
+      <c r="X238">
+        <v>8</v>
+      </c>
+      <c r="Y238">
+        <v>1.08</v>
+      </c>
+      <c r="Z238">
+        <v>2.2</v>
+      </c>
+      <c r="AA238">
+        <v>3.3</v>
+      </c>
+      <c r="AB238">
+        <v>3</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>9.5</v>
+      </c>
+      <c r="AE238">
+        <v>1.3</v>
+      </c>
+      <c r="AF238">
+        <v>3.45</v>
+      </c>
+      <c r="AG238">
+        <v>1.91</v>
+      </c>
+      <c r="AH238">
+        <v>1.8</v>
+      </c>
+      <c r="AI238">
+        <v>1.75</v>
+      </c>
+      <c r="AJ238">
+        <v>2</v>
+      </c>
+      <c r="AK238">
+        <v>1.35</v>
+      </c>
+      <c r="AL238">
+        <v>1.25</v>
+      </c>
+      <c r="AM238">
+        <v>1.65</v>
+      </c>
+      <c r="AN238">
+        <v>1.33</v>
+      </c>
+      <c r="AO238">
+        <v>0.67</v>
+      </c>
+      <c r="AP238">
+        <v>1.5</v>
+      </c>
+      <c r="AQ238">
+        <v>0.6</v>
+      </c>
+      <c r="AR238">
+        <v>1.39</v>
+      </c>
+      <c r="AS238">
+        <v>1.29</v>
+      </c>
+      <c r="AT238">
+        <v>2.68</v>
+      </c>
+      <c r="AU238">
+        <v>4</v>
+      </c>
+      <c r="AV238">
+        <v>2</v>
+      </c>
+      <c r="AW238">
+        <v>1</v>
+      </c>
+      <c r="AX238">
+        <v>5</v>
+      </c>
+      <c r="AY238">
+        <v>7</v>
+      </c>
+      <c r="AZ238">
+        <v>8</v>
+      </c>
+      <c r="BA238">
+        <v>4</v>
+      </c>
+      <c r="BB238">
+        <v>8</v>
+      </c>
+      <c r="BC238">
+        <v>12</v>
+      </c>
+      <c r="BD238">
+        <v>1.72</v>
+      </c>
+      <c r="BE238">
+        <v>6.75</v>
+      </c>
+      <c r="BF238">
+        <v>2.33</v>
+      </c>
+      <c r="BG238">
+        <v>1.28</v>
+      </c>
+      <c r="BH238">
+        <v>3.25</v>
+      </c>
+      <c r="BI238">
+        <v>1.49</v>
+      </c>
+      <c r="BJ238">
+        <v>2.4</v>
+      </c>
+      <c r="BK238">
+        <v>1.8</v>
+      </c>
+      <c r="BL238">
+        <v>1.88</v>
+      </c>
+      <c r="BM238">
+        <v>2.23</v>
+      </c>
+      <c r="BN238">
+        <v>1.56</v>
+      </c>
+      <c r="BO238">
+        <v>2.9</v>
+      </c>
+      <c r="BP238">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7727091</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F239">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>70</v>
+      </c>
+      <c r="H239" t="s">
+        <v>75</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>4</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239" t="s">
+        <v>96</v>
+      </c>
+      <c r="P239" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q239">
+        <v>2.6</v>
+      </c>
+      <c r="R239">
+        <v>2.2</v>
+      </c>
+      <c r="S239">
+        <v>4.33</v>
+      </c>
+      <c r="T239">
+        <v>1.4</v>
+      </c>
+      <c r="U239">
+        <v>2.75</v>
+      </c>
+      <c r="V239">
+        <v>2.75</v>
+      </c>
+      <c r="W239">
+        <v>1.4</v>
+      </c>
+      <c r="X239">
+        <v>8</v>
+      </c>
+      <c r="Y239">
+        <v>1.08</v>
+      </c>
+      <c r="Z239">
+        <v>2.05</v>
+      </c>
+      <c r="AA239">
+        <v>3.3</v>
+      </c>
+      <c r="AB239">
+        <v>3.3</v>
+      </c>
+      <c r="AC239">
+        <v>1.05</v>
+      </c>
+      <c r="AD239">
+        <v>9</v>
+      </c>
+      <c r="AE239">
+        <v>1.3</v>
+      </c>
+      <c r="AF239">
+        <v>3.4</v>
+      </c>
+      <c r="AG239">
+        <v>1.91</v>
+      </c>
+      <c r="AH239">
+        <v>1.8</v>
+      </c>
+      <c r="AI239">
+        <v>1.75</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>1.25</v>
+      </c>
+      <c r="AL239">
+        <v>1.25</v>
+      </c>
+      <c r="AM239">
+        <v>1.83</v>
+      </c>
+      <c r="AN239">
+        <v>1.1</v>
+      </c>
+      <c r="AO239">
+        <v>1.11</v>
+      </c>
+      <c r="AP239">
+        <v>1</v>
+      </c>
+      <c r="AQ239">
+        <v>1.3</v>
+      </c>
+      <c r="AR239">
+        <v>1.71</v>
+      </c>
+      <c r="AS239">
+        <v>0.91</v>
+      </c>
+      <c r="AT239">
+        <v>2.62</v>
+      </c>
+      <c r="AU239">
+        <v>2</v>
+      </c>
+      <c r="AV239">
+        <v>8</v>
+      </c>
+      <c r="AW239">
+        <v>6</v>
+      </c>
+      <c r="AX239">
+        <v>2</v>
+      </c>
+      <c r="AY239">
+        <v>11</v>
+      </c>
+      <c r="AZ239">
+        <v>11</v>
+      </c>
+      <c r="BA239">
+        <v>5</v>
+      </c>
+      <c r="BB239">
+        <v>8</v>
+      </c>
+      <c r="BC239">
+        <v>13</v>
+      </c>
+      <c r="BD239">
+        <v>1.68</v>
+      </c>
+      <c r="BE239">
+        <v>6.75</v>
+      </c>
+      <c r="BF239">
+        <v>2.4</v>
+      </c>
+      <c r="BG239">
+        <v>1.25</v>
+      </c>
+      <c r="BH239">
+        <v>3.45</v>
+      </c>
+      <c r="BI239">
+        <v>1.44</v>
+      </c>
+      <c r="BJ239">
+        <v>2.55</v>
+      </c>
+      <c r="BK239">
+        <v>1.72</v>
+      </c>
+      <c r="BL239">
+        <v>1.98</v>
+      </c>
+      <c r="BM239">
+        <v>2.08</v>
+      </c>
+      <c r="BN239">
+        <v>1.65</v>
+      </c>
+      <c r="BO239">
+        <v>2.65</v>
+      </c>
+      <c r="BP239">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7727092</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F240">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>91</v>
+      </c>
+      <c r="H240" t="s">
+        <v>76</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240" t="s">
+        <v>96</v>
+      </c>
+      <c r="P240" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q240">
+        <v>2.88</v>
+      </c>
+      <c r="R240">
+        <v>2.1</v>
+      </c>
+      <c r="S240">
+        <v>4</v>
+      </c>
+      <c r="T240">
+        <v>1.44</v>
+      </c>
+      <c r="U240">
+        <v>2.63</v>
+      </c>
+      <c r="V240">
+        <v>3.25</v>
+      </c>
+      <c r="W240">
+        <v>1.33</v>
+      </c>
+      <c r="X240">
+        <v>9</v>
+      </c>
+      <c r="Y240">
+        <v>1.07</v>
+      </c>
+      <c r="Z240">
+        <v>2.1</v>
+      </c>
+      <c r="AA240">
+        <v>3.2</v>
+      </c>
+      <c r="AB240">
+        <v>3.3</v>
+      </c>
+      <c r="AC240">
+        <v>1.06</v>
+      </c>
+      <c r="AD240">
+        <v>8.5</v>
+      </c>
+      <c r="AE240">
+        <v>1.35</v>
+      </c>
+      <c r="AF240">
+        <v>3.1</v>
+      </c>
+      <c r="AG240">
+        <v>2.2</v>
+      </c>
+      <c r="AH240">
+        <v>1.62</v>
+      </c>
+      <c r="AI240">
+        <v>1.91</v>
+      </c>
+      <c r="AJ240">
+        <v>1.91</v>
+      </c>
+      <c r="AK240">
+        <v>1.3</v>
+      </c>
+      <c r="AL240">
+        <v>1.28</v>
+      </c>
+      <c r="AM240">
+        <v>1.67</v>
+      </c>
+      <c r="AN240">
+        <v>1.25</v>
+      </c>
+      <c r="AO240">
+        <v>0.71</v>
+      </c>
+      <c r="AP240">
+        <v>1.22</v>
+      </c>
+      <c r="AQ240">
+        <v>0.75</v>
+      </c>
+      <c r="AR240">
+        <v>1.6</v>
+      </c>
+      <c r="AS240">
+        <v>1.05</v>
+      </c>
+      <c r="AT240">
+        <v>2.65</v>
+      </c>
+      <c r="AU240">
+        <v>3</v>
+      </c>
+      <c r="AV240">
+        <v>4</v>
+      </c>
+      <c r="AW240">
+        <v>5</v>
+      </c>
+      <c r="AX240">
+        <v>4</v>
+      </c>
+      <c r="AY240">
+        <v>14</v>
+      </c>
+      <c r="AZ240">
+        <v>16</v>
+      </c>
+      <c r="BA240">
+        <v>6</v>
+      </c>
+      <c r="BB240">
+        <v>8</v>
+      </c>
+      <c r="BC240">
+        <v>14</v>
+      </c>
+      <c r="BD240">
+        <v>1.74</v>
+      </c>
+      <c r="BE240">
+        <v>6.75</v>
+      </c>
+      <c r="BF240">
+        <v>2.3</v>
+      </c>
+      <c r="BG240">
+        <v>1.28</v>
+      </c>
+      <c r="BH240">
+        <v>3.3</v>
+      </c>
+      <c r="BI240">
+        <v>1.48</v>
+      </c>
+      <c r="BJ240">
+        <v>2.43</v>
+      </c>
+      <c r="BK240">
+        <v>1.77</v>
+      </c>
+      <c r="BL240">
+        <v>1.91</v>
+      </c>
+      <c r="BM240">
+        <v>2.18</v>
+      </c>
+      <c r="BN240">
+        <v>1.58</v>
+      </c>
+      <c r="BO240">
+        <v>2.8</v>
+      </c>
+      <c r="BP240">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -742,10 +742,10 @@
     <t>['11', '75']</t>
   </si>
   <si>
-    <t>['86']</t>
+    <t>['8', '72']</t>
   </si>
   <si>
-    <t>['8', '72']</t>
+    <t>['86']</t>
   </si>
   <si>
     <t>['9', '53']</t>
@@ -5398,7 +5398,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -48963,13 +48963,13 @@
         <v>2</v>
       </c>
       <c r="AW231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX231">
         <v>1</v>
       </c>
       <c r="AY231">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ231">
         <v>6</v>
@@ -49234,7 +49234,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7727093</v>
+        <v>7727097</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49243,31 +49243,31 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45646.875</v>
+        <v>45647.39583333334</v>
       </c>
       <c r="F233">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H233" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233">
         <v>1</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233">
         <v>2</v>
@@ -49276,28 +49276,28 @@
         <v>242</v>
       </c>
       <c r="P233" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="Q233">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="R233">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S233">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="T233">
+        <v>1.36</v>
+      </c>
+      <c r="U233">
+        <v>3</v>
+      </c>
+      <c r="V233">
+        <v>2.75</v>
+      </c>
+      <c r="W233">
         <v>1.4</v>
-      </c>
-      <c r="U233">
-        <v>2.75</v>
-      </c>
-      <c r="V233">
-        <v>3</v>
-      </c>
-      <c r="W233">
-        <v>1.36</v>
       </c>
       <c r="X233">
         <v>8</v>
@@ -49306,133 +49306,133 @@
         <v>1.08</v>
       </c>
       <c r="Z233">
-        <v>4.45</v>
+        <v>1.77</v>
       </c>
       <c r="AA233">
+        <v>3.6</v>
+      </c>
+      <c r="AB233">
+        <v>4.7</v>
+      </c>
+      <c r="AC233">
+        <v>1.05</v>
+      </c>
+      <c r="AD233">
+        <v>9.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.25</v>
+      </c>
+      <c r="AF233">
         <v>3.7</v>
       </c>
-      <c r="AB233">
-        <v>1.79</v>
-      </c>
-      <c r="AC233">
-        <v>1.06</v>
-      </c>
-      <c r="AD233">
-        <v>8.5</v>
-      </c>
-      <c r="AE233">
-        <v>1.33</v>
-      </c>
-      <c r="AF233">
-        <v>3.3</v>
-      </c>
       <c r="AG233">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="AH233">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="AI233">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ233">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK233">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="AL233">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM233">
-        <v>1.28</v>
+        <v>1.91</v>
       </c>
       <c r="AN233">
         <v>1.56</v>
       </c>
       <c r="AO233">
+        <v>1</v>
+      </c>
+      <c r="AP233">
+        <v>1.7</v>
+      </c>
+      <c r="AQ233">
+        <v>0.91</v>
+      </c>
+      <c r="AR233">
         <v>1.33</v>
       </c>
-      <c r="AP233">
-        <v>1.5</v>
-      </c>
-      <c r="AQ233">
-        <v>1.3</v>
-      </c>
-      <c r="AR233">
-        <v>1.1</v>
-      </c>
       <c r="AS233">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AT233">
-        <v>2.22</v>
+        <v>2.57</v>
       </c>
       <c r="AU233">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX233">
+        <v>2</v>
+      </c>
+      <c r="AY233">
+        <v>16</v>
+      </c>
+      <c r="AZ233">
+        <v>5</v>
+      </c>
+      <c r="BA233">
         <v>9</v>
       </c>
-      <c r="AY233">
-        <v>5</v>
-      </c>
-      <c r="AZ233">
-        <v>14</v>
-      </c>
-      <c r="BA233">
-        <v>3</v>
-      </c>
       <c r="BB233">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC233">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD233">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="BE233">
         <v>6.75</v>
       </c>
       <c r="BF233">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="BG233">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH233">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BI233">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BJ233">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BK233">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="BL233">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="BM233">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="BN233">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="BO233">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="BP233">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="234" spans="1:68">
@@ -49440,7 +49440,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7727097</v>
+        <v>7727093</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49455,25 +49455,25 @@
         <v>21</v>
       </c>
       <c r="G234" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H234" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <v>1</v>
       </c>
       <c r="L234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N234">
         <v>2</v>
@@ -49482,28 +49482,28 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="Q234">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R234">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S234">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="T234">
+        <v>1.4</v>
+      </c>
+      <c r="U234">
+        <v>2.75</v>
+      </c>
+      <c r="V234">
+        <v>3</v>
+      </c>
+      <c r="W234">
         <v>1.36</v>
-      </c>
-      <c r="U234">
-        <v>3</v>
-      </c>
-      <c r="V234">
-        <v>2.75</v>
-      </c>
-      <c r="W234">
-        <v>1.4</v>
       </c>
       <c r="X234">
         <v>8</v>
@@ -49512,133 +49512,133 @@
         <v>1.08</v>
       </c>
       <c r="Z234">
+        <v>4.45</v>
+      </c>
+      <c r="AA234">
+        <v>3.7</v>
+      </c>
+      <c r="AB234">
+        <v>1.79</v>
+      </c>
+      <c r="AC234">
+        <v>1.06</v>
+      </c>
+      <c r="AD234">
+        <v>8.5</v>
+      </c>
+      <c r="AE234">
+        <v>1.33</v>
+      </c>
+      <c r="AF234">
+        <v>3.3</v>
+      </c>
+      <c r="AG234">
+        <v>1.97</v>
+      </c>
+      <c r="AH234">
+        <v>1.83</v>
+      </c>
+      <c r="AI234">
+        <v>1.8</v>
+      </c>
+      <c r="AJ234">
+        <v>1.95</v>
+      </c>
+      <c r="AK234">
         <v>1.77</v>
       </c>
-      <c r="AA234">
-        <v>3.6</v>
-      </c>
-      <c r="AB234">
-        <v>4.7</v>
-      </c>
-      <c r="AC234">
-        <v>1.05</v>
-      </c>
-      <c r="AD234">
-        <v>9.5</v>
-      </c>
-      <c r="AE234">
+      <c r="AL234">
         <v>1.25</v>
       </c>
-      <c r="AF234">
-        <v>3.7</v>
-      </c>
-      <c r="AG234">
-        <v>1.84</v>
-      </c>
-      <c r="AH234">
-        <v>1.96</v>
-      </c>
-      <c r="AI234">
-        <v>1.75</v>
-      </c>
-      <c r="AJ234">
-        <v>2</v>
-      </c>
-      <c r="AK234">
-        <v>1.22</v>
-      </c>
-      <c r="AL234">
-        <v>1.22</v>
-      </c>
       <c r="AM234">
-        <v>1.91</v>
+        <v>1.28</v>
       </c>
       <c r="AN234">
         <v>1.56</v>
       </c>
       <c r="AO234">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP234">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ234">
-        <v>0.91</v>
+        <v>1.3</v>
       </c>
       <c r="AR234">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AS234">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AT234">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="AU234">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX234">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY234">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AZ234">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA234">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB234">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC234">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD234">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="BE234">
         <v>6.75</v>
       </c>
       <c r="BF234">
-        <v>2.7</v>
+        <v>1.66</v>
       </c>
       <c r="BG234">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="BH234">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BI234">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BJ234">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BK234">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="BL234">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="BM234">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="BN234">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="BO234">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="BP234">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -50070,7 +50070,7 @@
         <v>45647.5</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G237" t="s">
         <v>78</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -50196,7 +50196,7 @@
         <v>2.68</v>
       </c>
       <c r="AU237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV237">
         <v>2</v>
@@ -50208,7 +50208,7 @@
         <v>5</v>
       </c>
       <c r="AY237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ237">
         <v>8</v>
@@ -50894,7 +50894,7 @@
         <v>69</v>
       </c>
       <c r="E241" s="2">
-        <v>45648.875</v>
+        <v>45649.71875</v>
       </c>
       <c r="F241">
         <v>21</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,30 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['33', '50', '55']</t>
+  </si>
+  <si>
+    <t>['5', '28', '75', '87']</t>
+  </si>
+  <si>
+    <t>['24', '88']</t>
+  </si>
+  <si>
+    <t>['26', '56']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['1', '20']</t>
+  </si>
+  <si>
+    <t>['72', '78', '90+6']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -913,9 +937,6 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['52', '59', '90+3']</t>
   </si>
   <si>
@@ -956,9 +977,6 @@
   </si>
   <si>
     <t>['16', '72']</t>
-  </si>
-  <si>
-    <t>['9']</t>
   </si>
   <si>
     <t>['45+2', '47']</t>
@@ -1073,6 +1091,24 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['8', '43', '66']</t>
+  </si>
+  <si>
+    <t>['80', '89']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['6', '9', '31']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1729,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1774,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1977,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ3">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2105,7 +2141,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2392,7 +2428,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2517,7 +2553,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2595,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ6">
         <v>1.7</v>
@@ -2723,7 +2759,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2801,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7">
         <v>1.56</v>
@@ -3007,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3216,7 +3252,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ9">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3341,7 +3377,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3422,7 +3458,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3628,7 +3664,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3753,7 +3789,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3831,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ12">
         <v>0.91</v>
@@ -4037,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ13">
         <v>0.6</v>
@@ -4165,7 +4201,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4243,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4449,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
         <v>1.3</v>
@@ -4655,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4861,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ17">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4989,7 +5025,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5482,7 +5518,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5607,7 +5643,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5688,7 +5724,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5813,7 +5849,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5891,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -6019,7 +6055,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6100,7 +6136,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ23">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6225,7 +6261,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6306,7 +6342,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6509,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ25">
         <v>1.3</v>
@@ -6718,7 +6754,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ26">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -7333,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ29">
         <v>0.91</v>
@@ -7542,7 +7578,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
         <v>0.89</v>
@@ -7667,7 +7703,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7748,7 +7784,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7873,7 +7909,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7954,7 +7990,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -8157,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8285,7 +8321,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8363,7 +8399,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ34">
         <v>0.78</v>
@@ -8569,7 +8605,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>1.56</v>
@@ -8697,7 +8733,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8778,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR36">
         <v>1.62</v>
@@ -8903,7 +8939,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8981,7 +9017,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37">
         <v>2.2</v>
@@ -9109,7 +9145,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9190,7 +9226,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ38">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -9393,7 +9429,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ39">
         <v>1.7</v>
@@ -9599,10 +9635,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.58</v>
@@ -9805,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ41">
         <v>1.3</v>
@@ -10011,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -10139,7 +10175,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10217,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ43">
         <v>1.3</v>
@@ -10426,7 +10462,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR44">
         <v>1.4</v>
@@ -10551,7 +10587,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10632,7 +10668,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10838,7 +10874,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10963,7 +10999,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11041,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47">
         <v>1.3</v>
@@ -11247,10 +11283,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11375,7 +11411,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11456,7 +11492,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
         <v>1.81</v>
@@ -11581,7 +11617,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11662,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11865,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -12071,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -12280,7 +12316,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR53">
         <v>1.26</v>
@@ -12405,7 +12441,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12486,7 +12522,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -12689,10 +12725,10 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12895,7 +12931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ56">
         <v>1.27</v>
@@ -13023,7 +13059,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13101,10 +13137,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ57">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR57">
         <v>1.85</v>
@@ -13229,7 +13265,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13307,10 +13343,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>0.83</v>
@@ -13516,7 +13552,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ59">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>0.65</v>
@@ -13641,7 +13677,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13722,7 +13758,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.3</v>
@@ -13925,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ61">
         <v>1.3</v>
@@ -14259,7 +14295,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14337,7 +14373,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ63">
         <v>1.7</v>
@@ -14465,7 +14501,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14543,7 +14579,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ64">
         <v>1.3</v>
@@ -14752,7 +14788,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR65">
         <v>1.83</v>
@@ -14955,7 +14991,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -15083,7 +15119,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15289,7 +15325,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15367,10 +15403,10 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ68">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15495,7 +15531,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15573,10 +15609,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15701,7 +15737,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15782,7 +15818,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>0.86</v>
@@ -15907,7 +15943,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16113,7 +16149,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16191,10 +16227,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ72">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR72">
         <v>0.98</v>
@@ -16397,10 +16433,10 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16525,7 +16561,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16606,7 +16642,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16731,7 +16767,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16809,7 +16845,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
         <v>0.91</v>
@@ -16937,7 +16973,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17015,7 +17051,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ76">
         <v>2.2</v>
@@ -17349,7 +17385,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17427,10 +17463,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ78">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.35</v>
@@ -17555,7 +17591,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17633,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79">
         <v>0.78</v>
@@ -17839,7 +17875,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ80">
         <v>1.7</v>
@@ -17967,7 +18003,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18251,7 +18287,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ82">
         <v>0.6</v>
@@ -18457,7 +18493,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>1.27</v>
@@ -18791,7 +18827,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18872,7 +18908,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR85">
         <v>1.19</v>
@@ -19075,7 +19111,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86">
         <v>1.3</v>
@@ -19203,7 +19239,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19284,7 +19320,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19490,7 +19526,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19615,7 +19651,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19693,7 +19729,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19821,7 +19857,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19902,7 +19938,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -20027,7 +20063,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20108,7 +20144,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR91">
         <v>1.71</v>
@@ -20233,7 +20269,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20723,7 +20759,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>1.3</v>
@@ -20851,7 +20887,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20929,10 +20965,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ95">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR95">
         <v>1.05</v>
@@ -21057,7 +21093,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21135,7 +21171,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96">
         <v>1.3</v>
@@ -21263,7 +21299,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21344,7 +21380,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR97">
         <v>0.86</v>
@@ -21675,7 +21711,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21881,7 +21917,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -21962,7 +21998,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -22165,7 +22201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ101">
         <v>1.7</v>
@@ -22293,7 +22329,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22374,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22577,10 +22613,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22705,7 +22741,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22783,7 +22819,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -22989,10 +23025,10 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.27</v>
@@ -23198,7 +23234,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.42</v>
@@ -23323,7 +23359,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23401,7 +23437,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ107">
         <v>0.91</v>
@@ -23813,10 +23849,10 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -24022,7 +24058,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24147,7 +24183,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24228,7 +24264,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ111">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR111">
         <v>0.92</v>
@@ -24353,7 +24389,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24431,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="AP112">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ112">
         <v>0.5</v>
@@ -24640,7 +24676,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ113">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24843,7 +24879,7 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
         <v>2.2</v>
@@ -25049,10 +25085,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ115">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25177,7 +25213,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25255,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
         <v>0.6</v>
@@ -25383,7 +25419,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25589,7 +25625,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25667,7 +25703,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ118">
         <v>1.3</v>
@@ -26079,10 +26115,10 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ120">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26619,7 +26655,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26825,7 +26861,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -26903,10 +26939,10 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ124">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -27031,7 +27067,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27109,10 +27145,10 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR125">
         <v>1.2</v>
@@ -27318,7 +27354,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ126">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27521,10 +27557,10 @@
         <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ127">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR127">
         <v>1.5</v>
@@ -27649,7 +27685,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27730,7 +27766,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.56</v>
@@ -27933,7 +27969,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ129">
         <v>1.3</v>
@@ -28139,10 +28175,10 @@
         <v>1.4</v>
       </c>
       <c r="AP130">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR130">
         <v>1.19</v>
@@ -28267,7 +28303,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28348,7 +28384,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ131">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR131">
         <v>1.07</v>
@@ -28757,7 +28793,7 @@
         <v>2.25</v>
       </c>
       <c r="AP133">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ133">
         <v>1.56</v>
@@ -28963,7 +28999,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134">
         <v>0.6</v>
@@ -29091,7 +29127,7 @@
         <v>96</v>
       </c>
       <c r="P135" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29169,10 +29205,10 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR135">
         <v>1.1</v>
@@ -29297,7 +29333,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29584,7 +29620,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ137">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -29709,7 +29745,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29790,7 +29826,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ138">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR138">
         <v>0.95</v>
@@ -29993,7 +30029,7 @@
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ139">
         <v>1.7</v>
@@ -30121,7 +30157,7 @@
         <v>99</v>
       </c>
       <c r="P140" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30199,7 +30235,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
         <v>0.91</v>
@@ -30408,7 +30444,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR141">
         <v>1.01</v>
@@ -30817,10 +30853,10 @@
         <v>0.67</v>
       </c>
       <c r="AP143">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ143">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR143">
         <v>1.29</v>
@@ -30945,7 +30981,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31023,7 +31059,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ144">
         <v>1.3</v>
@@ -31229,7 +31265,7 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ145">
         <v>1.3</v>
@@ -31357,7 +31393,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>3.2</v>
@@ -31438,7 +31474,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ146">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31644,7 +31680,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31847,7 +31883,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ148">
         <v>0.75</v>
@@ -31975,7 +32011,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32053,10 +32089,10 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.04</v>
@@ -32465,7 +32501,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ151">
         <v>0.78</v>
@@ -32674,7 +32710,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ152">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR152">
         <v>1.31</v>
@@ -32799,7 +32835,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32880,7 +32916,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ153">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -33005,7 +33041,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33086,7 +33122,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ154">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR154">
         <v>1.34</v>
@@ -33417,7 +33453,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33495,7 +33531,7 @@
         <v>1.8</v>
       </c>
       <c r="AP156">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ156">
         <v>1.56</v>
@@ -33704,7 +33740,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ157">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR157">
         <v>1.02</v>
@@ -33829,7 +33865,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33910,7 +33946,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ158">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR158">
         <v>1.7</v>
@@ -34525,10 +34561,10 @@
         <v>2.4</v>
       </c>
       <c r="AP161">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ161">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR161">
         <v>1.49</v>
@@ -34731,7 +34767,7 @@
         <v>1.17</v>
       </c>
       <c r="AP162">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ162">
         <v>1.27</v>
@@ -34859,7 +34895,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35065,7 +35101,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>3.6</v>
@@ -35146,7 +35182,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35349,10 +35385,10 @@
         <v>0.83</v>
       </c>
       <c r="AP165">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ165">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35555,10 +35591,10 @@
         <v>1.17</v>
       </c>
       <c r="AP166">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ166">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35761,10 +35797,10 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR167">
         <v>1.2</v>
@@ -35889,7 +35925,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35970,7 +36006,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ168">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR168">
         <v>1.09</v>
@@ -36301,7 +36337,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36379,7 +36415,7 @@
         <v>0.67</v>
       </c>
       <c r="AP170">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
         <v>0.91</v>
@@ -36585,10 +36621,10 @@
         <v>1.71</v>
       </c>
       <c r="AP171">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ171">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR171">
         <v>1.45</v>
@@ -36794,7 +36830,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR172">
         <v>1.32</v>
@@ -37000,7 +37036,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ173">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR173">
         <v>1.6</v>
@@ -37206,7 +37242,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR174">
         <v>1.16</v>
@@ -37537,7 +37573,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q176">
         <v>7.5</v>
@@ -37615,7 +37651,7 @@
         <v>2.17</v>
       </c>
       <c r="AP176">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ176">
         <v>2.2</v>
@@ -37821,10 +37857,10 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ177">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR177">
         <v>1.67</v>
@@ -38027,7 +38063,7 @@
         <v>0.86</v>
       </c>
       <c r="AP178">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ178">
         <v>1.3</v>
@@ -38155,7 +38191,7 @@
         <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38236,7 +38272,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ179">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR179">
         <v>1.08</v>
@@ -38645,7 +38681,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ181">
         <v>1.27</v>
@@ -38773,7 +38809,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38854,7 +38890,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ182">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -38979,7 +39015,7 @@
         <v>96</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39060,7 +39096,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR183">
         <v>1.27</v>
@@ -39266,7 +39302,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ184">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39391,7 +39427,7 @@
         <v>143</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39469,7 +39505,7 @@
         <v>0.71</v>
       </c>
       <c r="AP185">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ185">
         <v>0.91</v>
@@ -39675,7 +39711,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ186">
         <v>1.3</v>
@@ -39803,7 +39839,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39884,7 +39920,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40009,7 +40045,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40090,7 +40126,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ188">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR188">
         <v>1.1</v>
@@ -40293,10 +40329,10 @@
         <v>1.63</v>
       </c>
       <c r="AP189">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ189">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR189">
         <v>1.4</v>
@@ -40421,7 +40457,7 @@
         <v>219</v>
       </c>
       <c r="P190" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40627,7 +40663,7 @@
         <v>96</v>
       </c>
       <c r="P191" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40705,7 +40741,7 @@
         <v>1.14</v>
       </c>
       <c r="AP191">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ191">
         <v>1.7</v>
@@ -40833,7 +40869,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41245,7 +41281,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41323,7 +41359,7 @@
         <v>1.86</v>
       </c>
       <c r="AP194">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ194">
         <v>2.2</v>
@@ -41451,7 +41487,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41532,7 +41568,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ195">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR195">
         <v>1.16</v>
@@ -41738,7 +41774,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ196">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR196">
         <v>1.45</v>
@@ -41863,7 +41899,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41941,10 +41977,10 @@
         <v>2.22</v>
       </c>
       <c r="AP197">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ197">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR197">
         <v>1.26</v>
@@ -42147,10 +42183,10 @@
         <v>0.88</v>
       </c>
       <c r="AP198">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ198">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR198">
         <v>1.4</v>
@@ -42353,10 +42389,10 @@
         <v>0.78</v>
       </c>
       <c r="AP199">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ199">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR199">
         <v>1.07</v>
@@ -42559,10 +42595,10 @@
         <v>2</v>
       </c>
       <c r="AP200">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -42687,7 +42723,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42765,10 +42801,10 @@
         <v>1.71</v>
       </c>
       <c r="AP201">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ201">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR201">
         <v>1.67</v>
@@ -42893,7 +42929,7 @@
         <v>137</v>
       </c>
       <c r="P202" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -42971,10 +43007,10 @@
         <v>0.63</v>
       </c>
       <c r="AP202">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ202">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR202">
         <v>1.37</v>
@@ -43177,10 +43213,10 @@
         <v>1.13</v>
       </c>
       <c r="AP203">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ203">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR203">
         <v>1.45</v>
@@ -43383,10 +43419,10 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ204">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR204">
         <v>1.32</v>
@@ -43589,10 +43625,10 @@
         <v>1.44</v>
       </c>
       <c r="AP205">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ205">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR205">
         <v>1.59</v>
@@ -43717,7 +43753,7 @@
         <v>96</v>
       </c>
       <c r="P206" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -43795,10 +43831,10 @@
         <v>0.43</v>
       </c>
       <c r="AP206">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ206">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR206">
         <v>1.3</v>
@@ -44001,10 +44037,10 @@
         <v>1.63</v>
       </c>
       <c r="AP207">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ207">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR207">
         <v>1.67</v>
@@ -44129,7 +44165,7 @@
         <v>119</v>
       </c>
       <c r="P208" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44207,10 +44243,10 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ208">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR208">
         <v>0.99</v>
@@ -44541,7 +44577,7 @@
         <v>96</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44747,7 +44783,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -45365,7 +45401,7 @@
         <v>99</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q214">
         <v>4.33</v>
@@ -45983,7 +46019,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46189,7 +46225,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q218">
         <v>2.3</v>
@@ -46267,10 +46303,10 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ218">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR218">
         <v>1.7</v>
@@ -46473,10 +46509,10 @@
         <v>0.75</v>
       </c>
       <c r="AP219">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ219">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46601,7 +46637,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46679,10 +46715,10 @@
         <v>1.3</v>
       </c>
       <c r="AP220">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ220">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR220">
         <v>1.43</v>
@@ -46807,7 +46843,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q221">
         <v>2.88</v>
@@ -46885,10 +46921,10 @@
         <v>1.3</v>
       </c>
       <c r="AP221">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ221">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR221">
         <v>1.39</v>
@@ -47091,10 +47127,10 @@
         <v>0.7</v>
       </c>
       <c r="AP222">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ222">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47219,7 +47255,7 @@
         <v>132</v>
       </c>
       <c r="P223" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -47297,10 +47333,10 @@
         <v>2.1</v>
       </c>
       <c r="AP223">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ223">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AR223">
         <v>1</v>
@@ -47425,7 +47461,7 @@
         <v>236</v>
       </c>
       <c r="P224" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="Q224">
         <v>3.75</v>
@@ -47503,10 +47539,10 @@
         <v>1.44</v>
       </c>
       <c r="AP224">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ224">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR224">
         <v>1.15</v>
@@ -47631,7 +47667,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47709,10 +47745,10 @@
         <v>0.44</v>
       </c>
       <c r="AP225">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ225">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -47837,7 +47873,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q226">
         <v>3.75</v>
@@ -47915,10 +47951,10 @@
         <v>1.78</v>
       </c>
       <c r="AP226">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR226">
         <v>1.22</v>
@@ -48043,7 +48079,7 @@
         <v>239</v>
       </c>
       <c r="P227" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48121,10 +48157,10 @@
         <v>0.89</v>
       </c>
       <c r="AP227">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ227">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR227">
         <v>1.25</v>
@@ -48327,10 +48363,10 @@
         <v>0.78</v>
       </c>
       <c r="AP228">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ228">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR228">
         <v>1.64</v>
@@ -48533,10 +48569,10 @@
         <v>1.5</v>
       </c>
       <c r="AP229">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ229">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR229">
         <v>1.36</v>
@@ -48661,7 +48697,7 @@
         <v>241</v>
       </c>
       <c r="P230" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q230">
         <v>2.38</v>
@@ -49073,7 +49109,7 @@
         <v>96</v>
       </c>
       <c r="P232" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49691,7 +49727,7 @@
         <v>244</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q235">
         <v>2.38</v>
@@ -49897,7 +49933,7 @@
         <v>96</v>
       </c>
       <c r="P236" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50309,7 +50345,7 @@
         <v>96</v>
       </c>
       <c r="P238" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50721,7 +50757,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q240">
         <v>3.5</v>
@@ -50927,7 +50963,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51084,6 +51120,2478 @@
       </c>
       <c r="BP241">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7727108</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45652.41666666666</v>
+      </c>
+      <c r="F242">
+        <v>22</v>
+      </c>
+      <c r="G242" t="s">
+        <v>75</v>
+      </c>
+      <c r="H242" t="s">
+        <v>77</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>3</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>247</v>
+      </c>
+      <c r="P242" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q242">
+        <v>2.25</v>
+      </c>
+      <c r="R242">
+        <v>2.2</v>
+      </c>
+      <c r="S242">
+        <v>6</v>
+      </c>
+      <c r="T242">
+        <v>1.4</v>
+      </c>
+      <c r="U242">
+        <v>2.75</v>
+      </c>
+      <c r="V242">
+        <v>3</v>
+      </c>
+      <c r="W242">
+        <v>1.36</v>
+      </c>
+      <c r="X242">
+        <v>9</v>
+      </c>
+      <c r="Y242">
+        <v>1.07</v>
+      </c>
+      <c r="Z242">
+        <v>1.52</v>
+      </c>
+      <c r="AA242">
+        <v>4.2</v>
+      </c>
+      <c r="AB242">
+        <v>6</v>
+      </c>
+      <c r="AC242">
+        <v>1.05</v>
+      </c>
+      <c r="AD242">
+        <v>9</v>
+      </c>
+      <c r="AE242">
+        <v>1.33</v>
+      </c>
+      <c r="AF242">
+        <v>3.3</v>
+      </c>
+      <c r="AG242">
+        <v>1.9</v>
+      </c>
+      <c r="AH242">
+        <v>1.87</v>
+      </c>
+      <c r="AI242">
+        <v>2</v>
+      </c>
+      <c r="AJ242">
+        <v>1.75</v>
+      </c>
+      <c r="AK242">
+        <v>1.15</v>
+      </c>
+      <c r="AL242">
+        <v>1.2</v>
+      </c>
+      <c r="AM242">
+        <v>2.2</v>
+      </c>
+      <c r="AN242">
+        <v>1.2</v>
+      </c>
+      <c r="AO242">
+        <v>0.8</v>
+      </c>
+      <c r="AP242">
+        <v>1.36</v>
+      </c>
+      <c r="AQ242">
+        <v>0.73</v>
+      </c>
+      <c r="AR242">
+        <v>1.45</v>
+      </c>
+      <c r="AS242">
+        <v>1.39</v>
+      </c>
+      <c r="AT242">
+        <v>2.84</v>
+      </c>
+      <c r="AU242">
+        <v>9</v>
+      </c>
+      <c r="AV242">
+        <v>3</v>
+      </c>
+      <c r="AW242">
+        <v>8</v>
+      </c>
+      <c r="AX242">
+        <v>1</v>
+      </c>
+      <c r="AY242">
+        <v>23</v>
+      </c>
+      <c r="AZ242">
+        <v>5</v>
+      </c>
+      <c r="BA242">
+        <v>3</v>
+      </c>
+      <c r="BB242">
+        <v>3</v>
+      </c>
+      <c r="BC242">
+        <v>6</v>
+      </c>
+      <c r="BD242">
+        <v>1.46</v>
+      </c>
+      <c r="BE242">
+        <v>7</v>
+      </c>
+      <c r="BF242">
+        <v>3.05</v>
+      </c>
+      <c r="BG242">
+        <v>1.25</v>
+      </c>
+      <c r="BH242">
+        <v>3.4</v>
+      </c>
+      <c r="BI242">
+        <v>1.44</v>
+      </c>
+      <c r="BJ242">
+        <v>2.55</v>
+      </c>
+      <c r="BK242">
+        <v>1.72</v>
+      </c>
+      <c r="BL242">
+        <v>1.97</v>
+      </c>
+      <c r="BM242">
+        <v>2.15</v>
+      </c>
+      <c r="BN242">
+        <v>1.61</v>
+      </c>
+      <c r="BO242">
+        <v>2.7</v>
+      </c>
+      <c r="BP242">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7727110</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F243">
+        <v>22</v>
+      </c>
+      <c r="G243" t="s">
+        <v>84</v>
+      </c>
+      <c r="H243" t="s">
+        <v>87</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>5</v>
+      </c>
+      <c r="O243" t="s">
+        <v>248</v>
+      </c>
+      <c r="P243" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q243">
+        <v>2.2</v>
+      </c>
+      <c r="R243">
+        <v>2.3</v>
+      </c>
+      <c r="S243">
+        <v>5</v>
+      </c>
+      <c r="T243">
+        <v>1.33</v>
+      </c>
+      <c r="U243">
+        <v>3.25</v>
+      </c>
+      <c r="V243">
+        <v>2.63</v>
+      </c>
+      <c r="W243">
+        <v>1.44</v>
+      </c>
+      <c r="X243">
+        <v>6.5</v>
+      </c>
+      <c r="Y243">
+        <v>1.11</v>
+      </c>
+      <c r="Z243">
+        <v>1.62</v>
+      </c>
+      <c r="AA243">
+        <v>3.65</v>
+      </c>
+      <c r="AB243">
+        <v>4.33</v>
+      </c>
+      <c r="AC243">
+        <v>1.04</v>
+      </c>
+      <c r="AD243">
+        <v>10</v>
+      </c>
+      <c r="AE243">
+        <v>1.22</v>
+      </c>
+      <c r="AF243">
+        <v>4</v>
+      </c>
+      <c r="AG243">
+        <v>1.7</v>
+      </c>
+      <c r="AH243">
+        <v>2</v>
+      </c>
+      <c r="AI243">
+        <v>1.75</v>
+      </c>
+      <c r="AJ243">
+        <v>2</v>
+      </c>
+      <c r="AK243">
+        <v>1.17</v>
+      </c>
+      <c r="AL243">
+        <v>1.2</v>
+      </c>
+      <c r="AM243">
+        <v>2.2</v>
+      </c>
+      <c r="AN243">
+        <v>2.33</v>
+      </c>
+      <c r="AO243">
+        <v>0.64</v>
+      </c>
+      <c r="AP243">
+        <v>2.4</v>
+      </c>
+      <c r="AQ243">
+        <v>0.58</v>
+      </c>
+      <c r="AR243">
+        <v>1.35</v>
+      </c>
+      <c r="AS243">
+        <v>1.01</v>
+      </c>
+      <c r="AT243">
+        <v>2.36</v>
+      </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
+      <c r="AV243">
+        <v>2</v>
+      </c>
+      <c r="AW243">
+        <v>3</v>
+      </c>
+      <c r="AX243">
+        <v>4</v>
+      </c>
+      <c r="AY243">
+        <v>9</v>
+      </c>
+      <c r="AZ243">
+        <v>8</v>
+      </c>
+      <c r="BA243">
+        <v>4</v>
+      </c>
+      <c r="BB243">
+        <v>5</v>
+      </c>
+      <c r="BC243">
+        <v>9</v>
+      </c>
+      <c r="BD243">
+        <v>1.52</v>
+      </c>
+      <c r="BE243">
+        <v>6.75</v>
+      </c>
+      <c r="BF243">
+        <v>2.8</v>
+      </c>
+      <c r="BG243">
+        <v>1.28</v>
+      </c>
+      <c r="BH243">
+        <v>3.3</v>
+      </c>
+      <c r="BI243">
+        <v>1.49</v>
+      </c>
+      <c r="BJ243">
+        <v>2.4</v>
+      </c>
+      <c r="BK243">
+        <v>1.78</v>
+      </c>
+      <c r="BL243">
+        <v>1.91</v>
+      </c>
+      <c r="BM243">
+        <v>2.23</v>
+      </c>
+      <c r="BN243">
+        <v>1.56</v>
+      </c>
+      <c r="BO243">
+        <v>2.85</v>
+      </c>
+      <c r="BP243">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7727113</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F244">
+        <v>22</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>86</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>2</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>3</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>96</v>
+      </c>
+      <c r="P244" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q244">
+        <v>3.75</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>3.2</v>
+      </c>
+      <c r="T244">
+        <v>1.5</v>
+      </c>
+      <c r="U244">
+        <v>2.5</v>
+      </c>
+      <c r="V244">
+        <v>3.4</v>
+      </c>
+      <c r="W244">
+        <v>1.3</v>
+      </c>
+      <c r="X244">
+        <v>10</v>
+      </c>
+      <c r="Y244">
+        <v>1.06</v>
+      </c>
+      <c r="Z244">
+        <v>2.95</v>
+      </c>
+      <c r="AA244">
+        <v>2.95</v>
+      </c>
+      <c r="AB244">
+        <v>2.25</v>
+      </c>
+      <c r="AC244">
+        <v>1.07</v>
+      </c>
+      <c r="AD244">
+        <v>9</v>
+      </c>
+      <c r="AE244">
+        <v>1.42</v>
+      </c>
+      <c r="AF244">
+        <v>2.85</v>
+      </c>
+      <c r="AG244">
+        <v>2.2</v>
+      </c>
+      <c r="AH244">
+        <v>1.6</v>
+      </c>
+      <c r="AI244">
+        <v>1.95</v>
+      </c>
+      <c r="AJ244">
+        <v>1.8</v>
+      </c>
+      <c r="AK244">
+        <v>1.57</v>
+      </c>
+      <c r="AL244">
+        <v>1.28</v>
+      </c>
+      <c r="AM244">
+        <v>1.42</v>
+      </c>
+      <c r="AN244">
+        <v>1.82</v>
+      </c>
+      <c r="AO244">
+        <v>2.18</v>
+      </c>
+      <c r="AP244">
+        <v>1.67</v>
+      </c>
+      <c r="AQ244">
+        <v>2.25</v>
+      </c>
+      <c r="AR244">
+        <v>1.13</v>
+      </c>
+      <c r="AS244">
+        <v>1.45</v>
+      </c>
+      <c r="AT244">
+        <v>2.58</v>
+      </c>
+      <c r="AU244">
+        <v>2</v>
+      </c>
+      <c r="AV244">
+        <v>7</v>
+      </c>
+      <c r="AW244">
+        <v>7</v>
+      </c>
+      <c r="AX244">
+        <v>3</v>
+      </c>
+      <c r="AY244">
+        <v>9</v>
+      </c>
+      <c r="AZ244">
+        <v>12</v>
+      </c>
+      <c r="BA244">
+        <v>3</v>
+      </c>
+      <c r="BB244">
+        <v>6</v>
+      </c>
+      <c r="BC244">
+        <v>9</v>
+      </c>
+      <c r="BD244">
+        <v>1.75</v>
+      </c>
+      <c r="BE244">
+        <v>6.75</v>
+      </c>
+      <c r="BF244">
+        <v>2.28</v>
+      </c>
+      <c r="BG244">
+        <v>1.29</v>
+      </c>
+      <c r="BH244">
+        <v>3.15</v>
+      </c>
+      <c r="BI244">
+        <v>1.5</v>
+      </c>
+      <c r="BJ244">
+        <v>2.38</v>
+      </c>
+      <c r="BK244">
+        <v>1.81</v>
+      </c>
+      <c r="BL244">
+        <v>1.88</v>
+      </c>
+      <c r="BM244">
+        <v>2.23</v>
+      </c>
+      <c r="BN244">
+        <v>1.56</v>
+      </c>
+      <c r="BO244">
+        <v>2.9</v>
+      </c>
+      <c r="BP244">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7727114</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F245">
+        <v>22</v>
+      </c>
+      <c r="G245" t="s">
+        <v>71</v>
+      </c>
+      <c r="H245" t="s">
+        <v>91</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>3</v>
+      </c>
+      <c r="O245" t="s">
+        <v>249</v>
+      </c>
+      <c r="P245" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q245">
+        <v>2.5</v>
+      </c>
+      <c r="R245">
+        <v>2.2</v>
+      </c>
+      <c r="S245">
+        <v>4.33</v>
+      </c>
+      <c r="T245">
+        <v>1.36</v>
+      </c>
+      <c r="U245">
+        <v>3</v>
+      </c>
+      <c r="V245">
+        <v>2.75</v>
+      </c>
+      <c r="W245">
+        <v>1.4</v>
+      </c>
+      <c r="X245">
+        <v>8</v>
+      </c>
+      <c r="Y245">
+        <v>1.08</v>
+      </c>
+      <c r="Z245">
+        <v>1.85</v>
+      </c>
+      <c r="AA245">
+        <v>3.4</v>
+      </c>
+      <c r="AB245">
+        <v>3.4</v>
+      </c>
+      <c r="AC245">
+        <v>1.04</v>
+      </c>
+      <c r="AD245">
+        <v>12</v>
+      </c>
+      <c r="AE245">
+        <v>1.28</v>
+      </c>
+      <c r="AF245">
+        <v>3.6</v>
+      </c>
+      <c r="AG245">
+        <v>1.85</v>
+      </c>
+      <c r="AH245">
+        <v>1.85</v>
+      </c>
+      <c r="AI245">
+        <v>1.75</v>
+      </c>
+      <c r="AJ245">
+        <v>2</v>
+      </c>
+      <c r="AK245">
+        <v>1.28</v>
+      </c>
+      <c r="AL245">
+        <v>1.25</v>
+      </c>
+      <c r="AM245">
+        <v>1.87</v>
+      </c>
+      <c r="AN245">
+        <v>2.64</v>
+      </c>
+      <c r="AO245">
+        <v>1.45</v>
+      </c>
+      <c r="AP245">
+        <v>2.67</v>
+      </c>
+      <c r="AQ245">
+        <v>1.33</v>
+      </c>
+      <c r="AR245">
+        <v>1.4</v>
+      </c>
+      <c r="AS245">
+        <v>1.3</v>
+      </c>
+      <c r="AT245">
+        <v>2.7</v>
+      </c>
+      <c r="AU245">
+        <v>5</v>
+      </c>
+      <c r="AV245">
+        <v>4</v>
+      </c>
+      <c r="AW245">
+        <v>6</v>
+      </c>
+      <c r="AX245">
+        <v>3</v>
+      </c>
+      <c r="AY245">
+        <v>20</v>
+      </c>
+      <c r="AZ245">
+        <v>9</v>
+      </c>
+      <c r="BA245">
+        <v>5</v>
+      </c>
+      <c r="BB245">
+        <v>1</v>
+      </c>
+      <c r="BC245">
+        <v>6</v>
+      </c>
+      <c r="BD245">
+        <v>1.65</v>
+      </c>
+      <c r="BE245">
+        <v>6.75</v>
+      </c>
+      <c r="BF245">
+        <v>2.48</v>
+      </c>
+      <c r="BG245">
+        <v>1.3</v>
+      </c>
+      <c r="BH245">
+        <v>3.05</v>
+      </c>
+      <c r="BI245">
+        <v>1.53</v>
+      </c>
+      <c r="BJ245">
+        <v>2.3</v>
+      </c>
+      <c r="BK245">
+        <v>1.87</v>
+      </c>
+      <c r="BL245">
+        <v>1.82</v>
+      </c>
+      <c r="BM245">
+        <v>2.33</v>
+      </c>
+      <c r="BN245">
+        <v>1.5</v>
+      </c>
+      <c r="BO245">
+        <v>3</v>
+      </c>
+      <c r="BP245">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7727103</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F246">
+        <v>22</v>
+      </c>
+      <c r="G246" t="s">
+        <v>80</v>
+      </c>
+      <c r="H246" t="s">
+        <v>78</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>250</v>
+      </c>
+      <c r="P246" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q246">
+        <v>1.62</v>
+      </c>
+      <c r="R246">
+        <v>2.63</v>
+      </c>
+      <c r="S246">
+        <v>12</v>
+      </c>
+      <c r="T246">
+        <v>1.3</v>
+      </c>
+      <c r="U246">
+        <v>3.4</v>
+      </c>
+      <c r="V246">
+        <v>2.5</v>
+      </c>
+      <c r="W246">
+        <v>1.5</v>
+      </c>
+      <c r="X246">
+        <v>6</v>
+      </c>
+      <c r="Y246">
+        <v>1.13</v>
+      </c>
+      <c r="Z246">
+        <v>1.16</v>
+      </c>
+      <c r="AA246">
+        <v>5.75</v>
+      </c>
+      <c r="AB246">
+        <v>11</v>
+      </c>
+      <c r="AC246">
+        <v>1.03</v>
+      </c>
+      <c r="AD246">
+        <v>11</v>
+      </c>
+      <c r="AE246">
+        <v>1.2</v>
+      </c>
+      <c r="AF246">
+        <v>4.33</v>
+      </c>
+      <c r="AG246">
+        <v>1.62</v>
+      </c>
+      <c r="AH246">
+        <v>2.15</v>
+      </c>
+      <c r="AI246">
+        <v>2.5</v>
+      </c>
+      <c r="AJ246">
+        <v>1.5</v>
+      </c>
+      <c r="AK246">
+        <v>1.04</v>
+      </c>
+      <c r="AL246">
+        <v>1.11</v>
+      </c>
+      <c r="AM246">
+        <v>4.2</v>
+      </c>
+      <c r="AN246">
+        <v>2.56</v>
+      </c>
+      <c r="AO246">
+        <v>0.78</v>
+      </c>
+      <c r="AP246">
+        <v>2.6</v>
+      </c>
+      <c r="AQ246">
+        <v>0.7</v>
+      </c>
+      <c r="AR246">
+        <v>1.71</v>
+      </c>
+      <c r="AS246">
+        <v>1.17</v>
+      </c>
+      <c r="AT246">
+        <v>2.88</v>
+      </c>
+      <c r="AU246">
+        <v>3</v>
+      </c>
+      <c r="AV246">
+        <v>0</v>
+      </c>
+      <c r="AW246">
+        <v>5</v>
+      </c>
+      <c r="AX246">
+        <v>3</v>
+      </c>
+      <c r="AY246">
+        <v>13</v>
+      </c>
+      <c r="AZ246">
+        <v>4</v>
+      </c>
+      <c r="BA246">
+        <v>8</v>
+      </c>
+      <c r="BB246">
+        <v>0</v>
+      </c>
+      <c r="BC246">
+        <v>8</v>
+      </c>
+      <c r="BD246">
+        <v>1.23</v>
+      </c>
+      <c r="BE246">
+        <v>8.5</v>
+      </c>
+      <c r="BF246">
+        <v>4.6</v>
+      </c>
+      <c r="BG246">
+        <v>1.27</v>
+      </c>
+      <c r="BH246">
+        <v>3.3</v>
+      </c>
+      <c r="BI246">
+        <v>1.48</v>
+      </c>
+      <c r="BJ246">
+        <v>2.45</v>
+      </c>
+      <c r="BK246">
+        <v>1.78</v>
+      </c>
+      <c r="BL246">
+        <v>1.91</v>
+      </c>
+      <c r="BM246">
+        <v>2.23</v>
+      </c>
+      <c r="BN246">
+        <v>1.57</v>
+      </c>
+      <c r="BO246">
+        <v>2.8</v>
+      </c>
+      <c r="BP246">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7727104</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F247">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>93</v>
+      </c>
+      <c r="H247" t="s">
+        <v>70</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>3</v>
+      </c>
+      <c r="O247" t="s">
+        <v>251</v>
+      </c>
+      <c r="P247" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q247">
+        <v>2.6</v>
+      </c>
+      <c r="R247">
+        <v>2.3</v>
+      </c>
+      <c r="S247">
+        <v>4</v>
+      </c>
+      <c r="T247">
+        <v>1.33</v>
+      </c>
+      <c r="U247">
+        <v>3.25</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>6.5</v>
+      </c>
+      <c r="Y247">
+        <v>1.11</v>
+      </c>
+      <c r="Z247">
+        <v>1.9</v>
+      </c>
+      <c r="AA247">
+        <v>3.5</v>
+      </c>
+      <c r="AB247">
+        <v>3.3</v>
+      </c>
+      <c r="AC247">
+        <v>1.04</v>
+      </c>
+      <c r="AD247">
+        <v>10</v>
+      </c>
+      <c r="AE247">
+        <v>1.22</v>
+      </c>
+      <c r="AF247">
+        <v>4.2</v>
+      </c>
+      <c r="AG247">
+        <v>1.65</v>
+      </c>
+      <c r="AH247">
+        <v>2.1</v>
+      </c>
+      <c r="AI247">
+        <v>1.62</v>
+      </c>
+      <c r="AJ247">
+        <v>2.2</v>
+      </c>
+      <c r="AK247">
+        <v>1.28</v>
+      </c>
+      <c r="AL247">
+        <v>1.22</v>
+      </c>
+      <c r="AM247">
+        <v>1.8</v>
+      </c>
+      <c r="AN247">
+        <v>1.7</v>
+      </c>
+      <c r="AO247">
+        <v>1.9</v>
+      </c>
+      <c r="AP247">
+        <v>1.55</v>
+      </c>
+      <c r="AQ247">
+        <v>2</v>
+      </c>
+      <c r="AR247">
+        <v>1.65</v>
+      </c>
+      <c r="AS247">
+        <v>1.22</v>
+      </c>
+      <c r="AT247">
+        <v>2.87</v>
+      </c>
+      <c r="AU247">
+        <v>5</v>
+      </c>
+      <c r="AV247">
+        <v>8</v>
+      </c>
+      <c r="AW247">
+        <v>5</v>
+      </c>
+      <c r="AX247">
+        <v>5</v>
+      </c>
+      <c r="AY247">
+        <v>12</v>
+      </c>
+      <c r="AZ247">
+        <v>13</v>
+      </c>
+      <c r="BA247">
+        <v>7</v>
+      </c>
+      <c r="BB247">
+        <v>8</v>
+      </c>
+      <c r="BC247">
+        <v>15</v>
+      </c>
+      <c r="BD247">
+        <v>1.64</v>
+      </c>
+      <c r="BE247">
+        <v>7</v>
+      </c>
+      <c r="BF247">
+        <v>2.48</v>
+      </c>
+      <c r="BG247">
+        <v>1.2</v>
+      </c>
+      <c r="BH247">
+        <v>3.95</v>
+      </c>
+      <c r="BI247">
+        <v>1.35</v>
+      </c>
+      <c r="BJ247">
+        <v>2.9</v>
+      </c>
+      <c r="BK247">
+        <v>1.58</v>
+      </c>
+      <c r="BL247">
+        <v>2.2</v>
+      </c>
+      <c r="BM247">
+        <v>1.91</v>
+      </c>
+      <c r="BN247">
+        <v>1.77</v>
+      </c>
+      <c r="BO247">
+        <v>2.38</v>
+      </c>
+      <c r="BP247">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7727105</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F248">
+        <v>22</v>
+      </c>
+      <c r="G248" t="s">
+        <v>83</v>
+      </c>
+      <c r="H248" t="s">
+        <v>88</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>252</v>
+      </c>
+      <c r="P248" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q248">
+        <v>2.4</v>
+      </c>
+      <c r="R248">
+        <v>2.1</v>
+      </c>
+      <c r="S248">
+        <v>5</v>
+      </c>
+      <c r="T248">
+        <v>1.44</v>
+      </c>
+      <c r="U248">
+        <v>2.63</v>
+      </c>
+      <c r="V248">
+        <v>3.25</v>
+      </c>
+      <c r="W248">
+        <v>1.33</v>
+      </c>
+      <c r="X248">
+        <v>9</v>
+      </c>
+      <c r="Y248">
+        <v>1.07</v>
+      </c>
+      <c r="Z248">
+        <v>1.7</v>
+      </c>
+      <c r="AA248">
+        <v>3.35</v>
+      </c>
+      <c r="AB248">
+        <v>4.33</v>
+      </c>
+      <c r="AC248">
+        <v>1.06</v>
+      </c>
+      <c r="AD248">
+        <v>8.5</v>
+      </c>
+      <c r="AE248">
+        <v>1.35</v>
+      </c>
+      <c r="AF248">
+        <v>3.1</v>
+      </c>
+      <c r="AG248">
+        <v>1.95</v>
+      </c>
+      <c r="AH248">
+        <v>1.75</v>
+      </c>
+      <c r="AI248">
+        <v>1.95</v>
+      </c>
+      <c r="AJ248">
+        <v>1.8</v>
+      </c>
+      <c r="AK248">
+        <v>1.18</v>
+      </c>
+      <c r="AL248">
+        <v>1.22</v>
+      </c>
+      <c r="AM248">
+        <v>2</v>
+      </c>
+      <c r="AN248">
+        <v>1.44</v>
+      </c>
+      <c r="AO248">
+        <v>0.5</v>
+      </c>
+      <c r="AP248">
+        <v>1.6</v>
+      </c>
+      <c r="AQ248">
+        <v>0.45</v>
+      </c>
+      <c r="AR248">
+        <v>1.31</v>
+      </c>
+      <c r="AS248">
+        <v>1.18</v>
+      </c>
+      <c r="AT248">
+        <v>2.49</v>
+      </c>
+      <c r="AU248">
+        <v>7</v>
+      </c>
+      <c r="AV248">
+        <v>2</v>
+      </c>
+      <c r="AW248">
+        <v>2</v>
+      </c>
+      <c r="AX248">
+        <v>7</v>
+      </c>
+      <c r="AY248">
+        <v>14</v>
+      </c>
+      <c r="AZ248">
+        <v>13</v>
+      </c>
+      <c r="BA248">
+        <v>4</v>
+      </c>
+      <c r="BB248">
+        <v>2</v>
+      </c>
+      <c r="BC248">
+        <v>6</v>
+      </c>
+      <c r="BD248">
+        <v>1.54</v>
+      </c>
+      <c r="BE248">
+        <v>7</v>
+      </c>
+      <c r="BF248">
+        <v>2.7</v>
+      </c>
+      <c r="BG248">
+        <v>1.3</v>
+      </c>
+      <c r="BH248">
+        <v>3.15</v>
+      </c>
+      <c r="BI248">
+        <v>1.52</v>
+      </c>
+      <c r="BJ248">
+        <v>2.33</v>
+      </c>
+      <c r="BK248">
+        <v>1.84</v>
+      </c>
+      <c r="BL248">
+        <v>1.84</v>
+      </c>
+      <c r="BM248">
+        <v>2.3</v>
+      </c>
+      <c r="BN248">
+        <v>1.53</v>
+      </c>
+      <c r="BO248">
+        <v>2.9</v>
+      </c>
+      <c r="BP248">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7727106</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F249">
+        <v>22</v>
+      </c>
+      <c r="G249" t="s">
+        <v>81</v>
+      </c>
+      <c r="H249" t="s">
+        <v>79</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249" t="s">
+        <v>253</v>
+      </c>
+      <c r="P249" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q249">
+        <v>2.6</v>
+      </c>
+      <c r="R249">
+        <v>2.1</v>
+      </c>
+      <c r="S249">
+        <v>4.5</v>
+      </c>
+      <c r="T249">
+        <v>1.44</v>
+      </c>
+      <c r="U249">
+        <v>2.63</v>
+      </c>
+      <c r="V249">
+        <v>3.25</v>
+      </c>
+      <c r="W249">
+        <v>1.33</v>
+      </c>
+      <c r="X249">
+        <v>9</v>
+      </c>
+      <c r="Y249">
+        <v>1.07</v>
+      </c>
+      <c r="Z249">
+        <v>1.83</v>
+      </c>
+      <c r="AA249">
+        <v>3.25</v>
+      </c>
+      <c r="AB249">
+        <v>3.85</v>
+      </c>
+      <c r="AC249">
+        <v>1.05</v>
+      </c>
+      <c r="AD249">
+        <v>9</v>
+      </c>
+      <c r="AE249">
+        <v>1.35</v>
+      </c>
+      <c r="AF249">
+        <v>3.1</v>
+      </c>
+      <c r="AG249">
+        <v>1.95</v>
+      </c>
+      <c r="AH249">
+        <v>1.75</v>
+      </c>
+      <c r="AI249">
+        <v>1.95</v>
+      </c>
+      <c r="AJ249">
+        <v>1.8</v>
+      </c>
+      <c r="AK249">
+        <v>1.25</v>
+      </c>
+      <c r="AL249">
+        <v>1.22</v>
+      </c>
+      <c r="AM249">
+        <v>1.85</v>
+      </c>
+      <c r="AN249">
+        <v>1.4</v>
+      </c>
+      <c r="AO249">
+        <v>0.7</v>
+      </c>
+      <c r="AP249">
+        <v>1.55</v>
+      </c>
+      <c r="AQ249">
+        <v>0.64</v>
+      </c>
+      <c r="AR249">
+        <v>1.22</v>
+      </c>
+      <c r="AS249">
+        <v>0.95</v>
+      </c>
+      <c r="AT249">
+        <v>2.17</v>
+      </c>
+      <c r="AU249">
+        <v>7</v>
+      </c>
+      <c r="AV249">
+        <v>7</v>
+      </c>
+      <c r="AW249">
+        <v>5</v>
+      </c>
+      <c r="AX249">
+        <v>6</v>
+      </c>
+      <c r="AY249">
+        <v>16</v>
+      </c>
+      <c r="AZ249">
+        <v>16</v>
+      </c>
+      <c r="BA249">
+        <v>4</v>
+      </c>
+      <c r="BB249">
+        <v>5</v>
+      </c>
+      <c r="BC249">
+        <v>9</v>
+      </c>
+      <c r="BD249">
+        <v>1.44</v>
+      </c>
+      <c r="BE249">
+        <v>7.5</v>
+      </c>
+      <c r="BF249">
+        <v>3.05</v>
+      </c>
+      <c r="BG249">
+        <v>1.21</v>
+      </c>
+      <c r="BH249">
+        <v>3.8</v>
+      </c>
+      <c r="BI249">
+        <v>1.38</v>
+      </c>
+      <c r="BJ249">
+        <v>2.75</v>
+      </c>
+      <c r="BK249">
+        <v>1.62</v>
+      </c>
+      <c r="BL249">
+        <v>2.14</v>
+      </c>
+      <c r="BM249">
+        <v>1.96</v>
+      </c>
+      <c r="BN249">
+        <v>1.74</v>
+      </c>
+      <c r="BO249">
+        <v>2.43</v>
+      </c>
+      <c r="BP249">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7727107</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F250">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>90</v>
+      </c>
+      <c r="H250" t="s">
+        <v>73</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>179</v>
+      </c>
+      <c r="P250" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q250">
+        <v>2.88</v>
+      </c>
+      <c r="R250">
+        <v>2.1</v>
+      </c>
+      <c r="S250">
+        <v>4</v>
+      </c>
+      <c r="T250">
+        <v>1.4</v>
+      </c>
+      <c r="U250">
+        <v>2.75</v>
+      </c>
+      <c r="V250">
+        <v>3</v>
+      </c>
+      <c r="W250">
+        <v>1.36</v>
+      </c>
+      <c r="X250">
+        <v>9</v>
+      </c>
+      <c r="Y250">
+        <v>1.07</v>
+      </c>
+      <c r="Z250">
+        <v>2.05</v>
+      </c>
+      <c r="AA250">
+        <v>3.15</v>
+      </c>
+      <c r="AB250">
+        <v>3.15</v>
+      </c>
+      <c r="AC250">
+        <v>1.06</v>
+      </c>
+      <c r="AD250">
+        <v>8.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.33</v>
+      </c>
+      <c r="AF250">
+        <v>3.25</v>
+      </c>
+      <c r="AG250">
+        <v>1.95</v>
+      </c>
+      <c r="AH250">
+        <v>1.75</v>
+      </c>
+      <c r="AI250">
+        <v>1.8</v>
+      </c>
+      <c r="AJ250">
+        <v>1.95</v>
+      </c>
+      <c r="AK250">
+        <v>1.3</v>
+      </c>
+      <c r="AL250">
+        <v>1.28</v>
+      </c>
+      <c r="AM250">
+        <v>1.67</v>
+      </c>
+      <c r="AN250">
+        <v>2.2</v>
+      </c>
+      <c r="AO250">
+        <v>1.3</v>
+      </c>
+      <c r="AP250">
+        <v>2.27</v>
+      </c>
+      <c r="AQ250">
+        <v>1.18</v>
+      </c>
+      <c r="AR250">
+        <v>1.39</v>
+      </c>
+      <c r="AS250">
+        <v>1.31</v>
+      </c>
+      <c r="AT250">
+        <v>2.7</v>
+      </c>
+      <c r="AU250">
+        <v>2</v>
+      </c>
+      <c r="AV250">
+        <v>4</v>
+      </c>
+      <c r="AW250">
+        <v>2</v>
+      </c>
+      <c r="AX250">
+        <v>2</v>
+      </c>
+      <c r="AY250">
+        <v>7</v>
+      </c>
+      <c r="AZ250">
+        <v>8</v>
+      </c>
+      <c r="BA250">
+        <v>2</v>
+      </c>
+      <c r="BB250">
+        <v>5</v>
+      </c>
+      <c r="BC250">
+        <v>7</v>
+      </c>
+      <c r="BD250">
+        <v>1.68</v>
+      </c>
+      <c r="BE250">
+        <v>6.75</v>
+      </c>
+      <c r="BF250">
+        <v>2.4</v>
+      </c>
+      <c r="BG250">
+        <v>1.26</v>
+      </c>
+      <c r="BH250">
+        <v>3.4</v>
+      </c>
+      <c r="BI250">
+        <v>1.47</v>
+      </c>
+      <c r="BJ250">
+        <v>2.48</v>
+      </c>
+      <c r="BK250">
+        <v>1.75</v>
+      </c>
+      <c r="BL250">
+        <v>1.95</v>
+      </c>
+      <c r="BM250">
+        <v>2.17</v>
+      </c>
+      <c r="BN250">
+        <v>1.6</v>
+      </c>
+      <c r="BO250">
+        <v>2.7</v>
+      </c>
+      <c r="BP250">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7727109</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F251">
+        <v>22</v>
+      </c>
+      <c r="G251" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" t="s">
+        <v>92</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>3</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>96</v>
+      </c>
+      <c r="P251" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q251">
+        <v>2.75</v>
+      </c>
+      <c r="R251">
+        <v>2.38</v>
+      </c>
+      <c r="S251">
+        <v>3.4</v>
+      </c>
+      <c r="T251">
+        <v>1.3</v>
+      </c>
+      <c r="U251">
+        <v>3.4</v>
+      </c>
+      <c r="V251">
+        <v>2.38</v>
+      </c>
+      <c r="W251">
+        <v>1.53</v>
+      </c>
+      <c r="X251">
+        <v>6</v>
+      </c>
+      <c r="Y251">
+        <v>1.13</v>
+      </c>
+      <c r="Z251">
+        <v>2.15</v>
+      </c>
+      <c r="AA251">
+        <v>3.6</v>
+      </c>
+      <c r="AB251">
+        <v>2.7</v>
+      </c>
+      <c r="AC251">
+        <v>1.04</v>
+      </c>
+      <c r="AD251">
+        <v>10</v>
+      </c>
+      <c r="AE251">
+        <v>1.2</v>
+      </c>
+      <c r="AF251">
+        <v>4.33</v>
+      </c>
+      <c r="AG251">
+        <v>1.55</v>
+      </c>
+      <c r="AH251">
+        <v>2.3</v>
+      </c>
+      <c r="AI251">
+        <v>1.5</v>
+      </c>
+      <c r="AJ251">
+        <v>2.5</v>
+      </c>
+      <c r="AK251">
+        <v>1.35</v>
+      </c>
+      <c r="AL251">
+        <v>1.25</v>
+      </c>
+      <c r="AM251">
+        <v>1.65</v>
+      </c>
+      <c r="AN251">
+        <v>1.55</v>
+      </c>
+      <c r="AO251">
+        <v>1.44</v>
+      </c>
+      <c r="AP251">
+        <v>1.42</v>
+      </c>
+      <c r="AQ251">
+        <v>1.6</v>
+      </c>
+      <c r="AR251">
+        <v>1.32</v>
+      </c>
+      <c r="AS251">
+        <v>1.09</v>
+      </c>
+      <c r="AT251">
+        <v>2.41</v>
+      </c>
+      <c r="AU251">
+        <v>3</v>
+      </c>
+      <c r="AV251">
+        <v>12</v>
+      </c>
+      <c r="AW251">
+        <v>1</v>
+      </c>
+      <c r="AX251">
+        <v>5</v>
+      </c>
+      <c r="AY251">
+        <v>7</v>
+      </c>
+      <c r="AZ251">
+        <v>24</v>
+      </c>
+      <c r="BA251">
+        <v>1</v>
+      </c>
+      <c r="BB251">
+        <v>14</v>
+      </c>
+      <c r="BC251">
+        <v>15</v>
+      </c>
+      <c r="BD251">
+        <v>1.72</v>
+      </c>
+      <c r="BE251">
+        <v>6.75</v>
+      </c>
+      <c r="BF251">
+        <v>2.33</v>
+      </c>
+      <c r="BG251">
+        <v>1.24</v>
+      </c>
+      <c r="BH251">
+        <v>3.55</v>
+      </c>
+      <c r="BI251">
+        <v>1.43</v>
+      </c>
+      <c r="BJ251">
+        <v>2.55</v>
+      </c>
+      <c r="BK251">
+        <v>1.7</v>
+      </c>
+      <c r="BL251">
+        <v>2</v>
+      </c>
+      <c r="BM251">
+        <v>2.08</v>
+      </c>
+      <c r="BN251">
+        <v>1.65</v>
+      </c>
+      <c r="BO251">
+        <v>2.65</v>
+      </c>
+      <c r="BP251">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7727112</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F252">
+        <v>22</v>
+      </c>
+      <c r="G252" t="s">
+        <v>82</v>
+      </c>
+      <c r="H252" t="s">
+        <v>89</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>254</v>
+      </c>
+      <c r="P252" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q252">
+        <v>4.75</v>
+      </c>
+      <c r="R252">
+        <v>2.2</v>
+      </c>
+      <c r="S252">
+        <v>2.4</v>
+      </c>
+      <c r="T252">
+        <v>1.4</v>
+      </c>
+      <c r="U252">
+        <v>2.75</v>
+      </c>
+      <c r="V252">
+        <v>2.75</v>
+      </c>
+      <c r="W252">
+        <v>1.4</v>
+      </c>
+      <c r="X252">
+        <v>8</v>
+      </c>
+      <c r="Y252">
+        <v>1.08</v>
+      </c>
+      <c r="Z252">
+        <v>3.9</v>
+      </c>
+      <c r="AA252">
+        <v>3.5</v>
+      </c>
+      <c r="AB252">
+        <v>1.73</v>
+      </c>
+      <c r="AC252">
+        <v>1.04</v>
+      </c>
+      <c r="AD252">
+        <v>11</v>
+      </c>
+      <c r="AE252">
+        <v>1.3</v>
+      </c>
+      <c r="AF252">
+        <v>3.4</v>
+      </c>
+      <c r="AG252">
+        <v>1.9</v>
+      </c>
+      <c r="AH252">
+        <v>1.8</v>
+      </c>
+      <c r="AI252">
+        <v>1.8</v>
+      </c>
+      <c r="AJ252">
+        <v>1.95</v>
+      </c>
+      <c r="AK252">
+        <v>2</v>
+      </c>
+      <c r="AL252">
+        <v>1.22</v>
+      </c>
+      <c r="AM252">
+        <v>1.22</v>
+      </c>
+      <c r="AN252">
+        <v>0.7</v>
+      </c>
+      <c r="AO252">
+        <v>1.27</v>
+      </c>
+      <c r="AP252">
+        <v>0.91</v>
+      </c>
+      <c r="AQ252">
+        <v>1.17</v>
+      </c>
+      <c r="AR252">
+        <v>0.99</v>
+      </c>
+      <c r="AS252">
+        <v>1.1</v>
+      </c>
+      <c r="AT252">
+        <v>2.09</v>
+      </c>
+      <c r="AU252">
+        <v>6</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>0</v>
+      </c>
+      <c r="AX252">
+        <v>4</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>10</v>
+      </c>
+      <c r="BA252">
+        <v>6</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>8</v>
+      </c>
+      <c r="BD252">
+        <v>2.55</v>
+      </c>
+      <c r="BE252">
+        <v>6.75</v>
+      </c>
+      <c r="BF252">
+        <v>1.58</v>
+      </c>
+      <c r="BG252">
+        <v>1.24</v>
+      </c>
+      <c r="BH252">
+        <v>3.55</v>
+      </c>
+      <c r="BI252">
+        <v>1.41</v>
+      </c>
+      <c r="BJ252">
+        <v>2.65</v>
+      </c>
+      <c r="BK252">
+        <v>1.68</v>
+      </c>
+      <c r="BL252">
+        <v>2.02</v>
+      </c>
+      <c r="BM252">
+        <v>2.07</v>
+      </c>
+      <c r="BN252">
+        <v>1.66</v>
+      </c>
+      <c r="BO252">
+        <v>2.65</v>
+      </c>
+      <c r="BP252">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7727111</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F253">
+        <v>22</v>
+      </c>
+      <c r="G253" t="s">
+        <v>85</v>
+      </c>
+      <c r="H253" t="s">
+        <v>72</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>96</v>
+      </c>
+      <c r="P253" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q253">
+        <v>2.75</v>
+      </c>
+      <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
+        <v>4.5</v>
+      </c>
+      <c r="T253">
+        <v>1.5</v>
+      </c>
+      <c r="U253">
+        <v>2.5</v>
+      </c>
+      <c r="V253">
+        <v>3.4</v>
+      </c>
+      <c r="W253">
+        <v>1.3</v>
+      </c>
+      <c r="X253">
+        <v>10</v>
+      </c>
+      <c r="Y253">
+        <v>1.06</v>
+      </c>
+      <c r="Z253">
+        <v>2.1</v>
+      </c>
+      <c r="AA253">
+        <v>3</v>
+      </c>
+      <c r="AB253">
+        <v>3.3</v>
+      </c>
+      <c r="AC253">
+        <v>1.06</v>
+      </c>
+      <c r="AD253">
+        <v>9.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.4</v>
+      </c>
+      <c r="AF253">
+        <v>2.95</v>
+      </c>
+      <c r="AG253">
+        <v>2.2</v>
+      </c>
+      <c r="AH253">
+        <v>1.6</v>
+      </c>
+      <c r="AI253">
+        <v>2</v>
+      </c>
+      <c r="AJ253">
+        <v>1.75</v>
+      </c>
+      <c r="AK253">
+        <v>1.28</v>
+      </c>
+      <c r="AL253">
+        <v>1.25</v>
+      </c>
+      <c r="AM253">
+        <v>1.83</v>
+      </c>
+      <c r="AN253">
+        <v>1.89</v>
+      </c>
+      <c r="AO253">
+        <v>1.2</v>
+      </c>
+      <c r="AP253">
+        <v>1.7</v>
+      </c>
+      <c r="AQ253">
+        <v>1.36</v>
+      </c>
+      <c r="AR253">
+        <v>1.57</v>
+      </c>
+      <c r="AS253">
+        <v>1.11</v>
+      </c>
+      <c r="AT253">
+        <v>2.68</v>
+      </c>
+      <c r="AU253">
+        <v>4</v>
+      </c>
+      <c r="AV253">
+        <v>6</v>
+      </c>
+      <c r="AW253">
+        <v>3</v>
+      </c>
+      <c r="AX253">
+        <v>3</v>
+      </c>
+      <c r="AY253">
+        <v>10</v>
+      </c>
+      <c r="AZ253">
+        <v>16</v>
+      </c>
+      <c r="BA253">
+        <v>4</v>
+      </c>
+      <c r="BB253">
+        <v>5</v>
+      </c>
+      <c r="BC253">
+        <v>9</v>
+      </c>
+      <c r="BD253">
+        <v>1.63</v>
+      </c>
+      <c r="BE253">
+        <v>6.75</v>
+      </c>
+      <c r="BF253">
+        <v>2.48</v>
+      </c>
+      <c r="BG253">
+        <v>1.25</v>
+      </c>
+      <c r="BH253">
+        <v>3.4</v>
+      </c>
+      <c r="BI253">
+        <v>1.44</v>
+      </c>
+      <c r="BJ253">
+        <v>2.55</v>
+      </c>
+      <c r="BK253">
+        <v>1.72</v>
+      </c>
+      <c r="BL253">
+        <v>1.98</v>
+      </c>
+      <c r="BM253">
+        <v>2.12</v>
+      </c>
+      <c r="BN253">
+        <v>1.63</v>
+      </c>
+      <c r="BO253">
+        <v>2.65</v>
+      </c>
+      <c r="BP253">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -52098,7 +52098,7 @@
         <v>3</v>
       </c>
       <c r="AY246">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ246">
         <v>4</v>
@@ -53116,7 +53116,7 @@
         <v>2.41</v>
       </c>
       <c r="AU251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV251">
         <v>12</v>
@@ -53125,13 +53125,13 @@
         <v>1</v>
       </c>
       <c r="AX251">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY251">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ251">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA251">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,33 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['46', '52']</t>
+  </si>
+  <si>
+    <t>['36', '50', '66']</t>
+  </si>
+  <si>
+    <t>['35', '60', '82', '90+3']</t>
+  </si>
+  <si>
+    <t>['34', '54', '88']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['17', '55']</t>
+  </si>
+  <si>
+    <t>['32', '70']</t>
+  </si>
+  <si>
+    <t>['60', '90+1']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -881,9 +908,6 @@
   </si>
   <si>
     <t>['74', '76']</t>
-  </si>
-  <si>
-    <t>['19']</t>
   </si>
   <si>
     <t>['41', '57']</t>
@@ -1109,6 +1133,15 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['15', '37', '42', '45+1']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['47', '55', '86']</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1729,7 +1762,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1810,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2013,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ3">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2141,7 +2174,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2428,7 +2461,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ5">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2553,7 +2586,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2631,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6">
         <v>1.7</v>
@@ -2759,7 +2792,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2837,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.56</v>
@@ -3043,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3252,7 +3285,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3377,7 +3410,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3458,7 +3491,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3664,7 +3697,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3789,7 +3822,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3867,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ12">
         <v>0.91</v>
@@ -4073,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.6</v>
@@ -4201,7 +4234,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4279,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4485,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ15">
         <v>1.3</v>
@@ -4691,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4897,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5025,7 +5058,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5518,7 +5551,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5643,7 +5676,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5724,7 +5757,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5849,7 +5882,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5927,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -6055,7 +6088,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6136,7 +6169,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ23">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6261,7 +6294,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6342,7 +6375,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6545,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>1.3</v>
@@ -6754,7 +6787,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ26">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -7369,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ29">
         <v>0.91</v>
@@ -7578,7 +7611,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>0.89</v>
@@ -7703,7 +7736,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7784,7 +7817,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7909,7 +7942,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7990,7 +8023,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -8193,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8321,7 +8354,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8399,7 +8432,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>0.78</v>
@@ -8605,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ35">
         <v>1.56</v>
@@ -8733,7 +8766,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8814,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR36">
         <v>1.62</v>
@@ -8939,7 +8972,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9017,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>2.2</v>
@@ -9145,7 +9178,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9226,7 +9259,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -9429,7 +9462,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ39">
         <v>1.7</v>
@@ -9635,10 +9668,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
         <v>1.58</v>
@@ -9841,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41">
         <v>1.3</v>
@@ -10047,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -10175,7 +10208,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10253,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ43">
         <v>1.3</v>
@@ -10462,7 +10495,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
         <v>1.4</v>
@@ -10587,7 +10620,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10668,7 +10701,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10874,7 +10907,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10999,7 +11032,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11077,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>1.3</v>
@@ -11283,10 +11316,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ48">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11411,7 +11444,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11492,7 +11525,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.81</v>
@@ -11617,7 +11650,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11698,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11901,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -12107,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -12316,7 +12349,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR53">
         <v>1.26</v>
@@ -12441,7 +12474,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12522,7 +12555,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -12725,10 +12758,10 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12931,7 +12964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ56">
         <v>1.27</v>
@@ -13059,7 +13092,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13137,10 +13170,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ57">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR57">
         <v>1.85</v>
@@ -13265,7 +13298,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13343,10 +13376,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR58">
         <v>0.83</v>
@@ -13552,7 +13585,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>0.65</v>
@@ -13677,7 +13710,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13758,7 +13791,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.3</v>
@@ -13961,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ61">
         <v>1.3</v>
@@ -14295,7 +14328,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14373,7 +14406,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
         <v>1.7</v>
@@ -14501,7 +14534,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14579,7 +14612,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ64">
         <v>1.3</v>
@@ -14788,7 +14821,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ65">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.83</v>
@@ -14991,7 +15024,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -15119,7 +15152,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15325,7 +15358,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15403,10 +15436,10 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15531,7 +15564,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15609,10 +15642,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15737,7 +15770,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15818,7 +15851,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR70">
         <v>0.86</v>
@@ -15943,7 +15976,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16149,7 +16182,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16227,10 +16260,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ72">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR72">
         <v>0.98</v>
@@ -16433,10 +16466,10 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ73">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16561,7 +16594,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16642,7 +16675,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ74">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16767,7 +16800,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16845,7 +16878,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>0.91</v>
@@ -16973,7 +17006,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17051,7 +17084,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ76">
         <v>2.2</v>
@@ -17385,7 +17418,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17463,10 +17496,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR78">
         <v>1.35</v>
@@ -17591,7 +17624,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17669,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>0.78</v>
@@ -17875,7 +17908,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ80">
         <v>1.7</v>
@@ -18003,7 +18036,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18287,7 +18320,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ82">
         <v>0.6</v>
@@ -18493,7 +18526,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ83">
         <v>1.27</v>
@@ -18827,7 +18860,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18908,7 +18941,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR85">
         <v>1.19</v>
@@ -19111,7 +19144,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1.3</v>
@@ -19239,7 +19272,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19320,7 +19353,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19526,7 +19559,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19651,7 +19684,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19729,7 +19762,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19857,7 +19890,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19938,7 +19971,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -20063,7 +20096,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20144,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>1.71</v>
@@ -20269,7 +20302,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20759,7 +20792,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ94">
         <v>1.3</v>
@@ -20887,7 +20920,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20965,10 +20998,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ95">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
         <v>1.05</v>
@@ -21093,7 +21126,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21171,7 +21204,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>1.3</v>
@@ -21299,7 +21332,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21380,7 +21413,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ97">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR97">
         <v>0.86</v>
@@ -21711,7 +21744,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21917,7 +21950,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -21998,7 +22031,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -22201,7 +22234,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ101">
         <v>1.7</v>
@@ -22329,7 +22362,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22410,7 +22443,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22613,10 +22646,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ103">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22741,7 +22774,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22819,7 +22852,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -23025,10 +23058,10 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR105">
         <v>1.27</v>
@@ -23234,7 +23267,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR106">
         <v>1.42</v>
@@ -23437,7 +23470,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ107">
         <v>0.91</v>
@@ -23849,10 +23882,10 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -24058,7 +24091,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ110">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24183,7 +24216,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24264,7 +24297,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ111">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR111">
         <v>0.92</v>
@@ -24389,7 +24422,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24467,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="AP112">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112">
         <v>0.5</v>
@@ -24676,7 +24709,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ113">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24879,7 +24912,7 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
         <v>2.2</v>
@@ -25085,10 +25118,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ115">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25213,7 +25246,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25291,7 +25324,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ116">
         <v>0.6</v>
@@ -25419,7 +25452,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25625,7 +25658,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25703,7 +25736,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ118">
         <v>1.3</v>
@@ -26115,10 +26148,10 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ120">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26655,7 +26688,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26861,7 +26894,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -26939,10 +26972,10 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ124">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -27067,7 +27100,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27145,10 +27178,10 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ125">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.2</v>
@@ -27354,7 +27387,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ126">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27557,10 +27590,10 @@
         <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR127">
         <v>1.5</v>
@@ -27685,7 +27718,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27766,7 +27799,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR128">
         <v>1.56</v>
@@ -27969,7 +28002,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
         <v>1.3</v>
@@ -28175,10 +28208,10 @@
         <v>1.4</v>
       </c>
       <c r="AP130">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR130">
         <v>1.19</v>
@@ -28303,7 +28336,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28384,7 +28417,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ131">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR131">
         <v>1.07</v>
@@ -28793,7 +28826,7 @@
         <v>2.25</v>
       </c>
       <c r="AP133">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ133">
         <v>1.56</v>
@@ -28999,7 +29032,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>0.6</v>
@@ -29127,7 +29160,7 @@
         <v>96</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29205,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ135">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR135">
         <v>1.1</v>
@@ -29333,7 +29366,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29620,7 +29653,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ137">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -29745,7 +29778,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29826,7 +29859,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ138">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR138">
         <v>0.95</v>
@@ -30029,7 +30062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ139">
         <v>1.7</v>
@@ -30157,7 +30190,7 @@
         <v>99</v>
       </c>
       <c r="P140" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30235,7 +30268,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>0.91</v>
@@ -30444,7 +30477,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR141">
         <v>1.01</v>
@@ -30853,10 +30886,10 @@
         <v>0.67</v>
       </c>
       <c r="AP143">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ143">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR143">
         <v>1.29</v>
@@ -30981,7 +31014,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31059,7 +31092,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ144">
         <v>1.3</v>
@@ -31265,7 +31298,7 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ145">
         <v>1.3</v>
@@ -31474,7 +31507,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ146">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31680,7 +31713,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ147">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31883,7 +31916,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148">
         <v>0.75</v>
@@ -32011,7 +32044,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32089,10 +32122,10 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR149">
         <v>1.04</v>
@@ -32501,7 +32534,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151">
         <v>0.78</v>
@@ -32710,7 +32743,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ152">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR152">
         <v>1.31</v>
@@ -32835,7 +32868,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32916,7 +32949,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ153">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -33041,7 +33074,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33122,7 +33155,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ154">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR154">
         <v>1.34</v>
@@ -33453,7 +33486,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33531,7 +33564,7 @@
         <v>1.8</v>
       </c>
       <c r="AP156">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ156">
         <v>1.56</v>
@@ -33740,7 +33773,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ157">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR157">
         <v>1.02</v>
@@ -33865,7 +33898,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33946,7 +33979,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ158">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR158">
         <v>1.7</v>
@@ -34561,10 +34594,10 @@
         <v>2.4</v>
       </c>
       <c r="AP161">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ161">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR161">
         <v>1.49</v>
@@ -34767,7 +34800,7 @@
         <v>1.17</v>
       </c>
       <c r="AP162">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>1.27</v>
@@ -34895,7 +34928,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35101,7 +35134,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q164">
         <v>3.6</v>
@@ -35182,7 +35215,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35385,10 +35418,10 @@
         <v>0.83</v>
       </c>
       <c r="AP165">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ165">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35591,10 +35624,10 @@
         <v>1.17</v>
       </c>
       <c r="AP166">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35797,10 +35830,10 @@
         <v>0.5</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ167">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR167">
         <v>1.2</v>
@@ -35925,7 +35958,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -36006,7 +36039,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ168">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR168">
         <v>1.09</v>
@@ -36337,7 +36370,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36415,7 +36448,7 @@
         <v>0.67</v>
       </c>
       <c r="AP170">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ170">
         <v>0.91</v>
@@ -36621,10 +36654,10 @@
         <v>1.71</v>
       </c>
       <c r="AP171">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR171">
         <v>1.45</v>
@@ -36830,7 +36863,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR172">
         <v>1.32</v>
@@ -37036,7 +37069,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ173">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR173">
         <v>1.6</v>
@@ -37242,7 +37275,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR174">
         <v>1.16</v>
@@ -37573,7 +37606,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q176">
         <v>7.5</v>
@@ -37651,7 +37684,7 @@
         <v>2.17</v>
       </c>
       <c r="AP176">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ176">
         <v>2.2</v>
@@ -37857,10 +37890,10 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR177">
         <v>1.67</v>
@@ -38063,7 +38096,7 @@
         <v>0.86</v>
       </c>
       <c r="AP178">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ178">
         <v>1.3</v>
@@ -38191,7 +38224,7 @@
         <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38272,7 +38305,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ179">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR179">
         <v>1.08</v>
@@ -38681,7 +38714,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ181">
         <v>1.27</v>
@@ -38809,7 +38842,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38890,7 +38923,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ182">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -39015,7 +39048,7 @@
         <v>96</v>
       </c>
       <c r="P183" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39096,7 +39129,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR183">
         <v>1.27</v>
@@ -39302,7 +39335,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ184">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39427,7 +39460,7 @@
         <v>143</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39505,7 +39538,7 @@
         <v>0.71</v>
       </c>
       <c r="AP185">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185">
         <v>0.91</v>
@@ -39711,7 +39744,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ186">
         <v>1.3</v>
@@ -39839,7 +39872,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39920,7 +39953,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40045,7 +40078,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40126,7 +40159,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ188">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR188">
         <v>1.1</v>
@@ -40329,10 +40362,10 @@
         <v>1.63</v>
       </c>
       <c r="AP189">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR189">
         <v>1.4</v>
@@ -40457,7 +40490,7 @@
         <v>219</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40663,7 +40696,7 @@
         <v>96</v>
       </c>
       <c r="P191" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40741,7 +40774,7 @@
         <v>1.14</v>
       </c>
       <c r="AP191">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ191">
         <v>1.7</v>
@@ -40869,7 +40902,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41281,7 +41314,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41359,7 +41392,7 @@
         <v>1.86</v>
       </c>
       <c r="AP194">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194">
         <v>2.2</v>
@@ -41487,7 +41520,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41568,7 +41601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ195">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR195">
         <v>1.16</v>
@@ -41774,7 +41807,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ196">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR196">
         <v>1.45</v>
@@ -41899,7 +41932,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41977,10 +42010,10 @@
         <v>2.22</v>
       </c>
       <c r="AP197">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR197">
         <v>1.26</v>
@@ -42183,10 +42216,10 @@
         <v>0.88</v>
       </c>
       <c r="AP198">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR198">
         <v>1.4</v>
@@ -42389,10 +42422,10 @@
         <v>0.78</v>
       </c>
       <c r="AP199">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ199">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR199">
         <v>1.07</v>
@@ -42595,10 +42628,10 @@
         <v>2</v>
       </c>
       <c r="AP200">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ200">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -42723,7 +42756,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42801,10 +42834,10 @@
         <v>1.71</v>
       </c>
       <c r="AP201">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ201">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR201">
         <v>1.67</v>
@@ -42929,7 +42962,7 @@
         <v>137</v>
       </c>
       <c r="P202" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -43007,10 +43040,10 @@
         <v>0.63</v>
       </c>
       <c r="AP202">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ202">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR202">
         <v>1.37</v>
@@ -43213,10 +43246,10 @@
         <v>1.13</v>
       </c>
       <c r="AP203">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ203">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR203">
         <v>1.45</v>
@@ -43419,10 +43452,10 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ204">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR204">
         <v>1.32</v>
@@ -43625,10 +43658,10 @@
         <v>1.44</v>
       </c>
       <c r="AP205">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ205">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR205">
         <v>1.59</v>
@@ -43753,7 +43786,7 @@
         <v>96</v>
       </c>
       <c r="P206" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -43831,10 +43864,10 @@
         <v>0.43</v>
       </c>
       <c r="AP206">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ206">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR206">
         <v>1.3</v>
@@ -44037,10 +44070,10 @@
         <v>1.63</v>
       </c>
       <c r="AP207">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ207">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR207">
         <v>1.67</v>
@@ -44165,7 +44198,7 @@
         <v>119</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44243,10 +44276,10 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ208">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR208">
         <v>0.99</v>
@@ -44577,7 +44610,7 @@
         <v>96</v>
       </c>
       <c r="P210" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44783,7 +44816,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -45401,7 +45434,7 @@
         <v>99</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q214">
         <v>4.33</v>
@@ -46019,7 +46052,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46225,7 +46258,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q218">
         <v>2.3</v>
@@ -46303,10 +46336,10 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ218">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR218">
         <v>1.7</v>
@@ -46509,10 +46542,10 @@
         <v>0.75</v>
       </c>
       <c r="AP219">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ219">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46637,7 +46670,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46715,10 +46748,10 @@
         <v>1.3</v>
       </c>
       <c r="AP220">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ220">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR220">
         <v>1.43</v>
@@ -46843,7 +46876,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q221">
         <v>2.88</v>
@@ -46921,10 +46954,10 @@
         <v>1.3</v>
       </c>
       <c r="AP221">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ221">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR221">
         <v>1.39</v>
@@ -47127,10 +47160,10 @@
         <v>0.7</v>
       </c>
       <c r="AP222">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ222">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47255,7 +47288,7 @@
         <v>132</v>
       </c>
       <c r="P223" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -47333,10 +47366,10 @@
         <v>2.1</v>
       </c>
       <c r="AP223">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ223">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR223">
         <v>1</v>
@@ -47539,10 +47572,10 @@
         <v>1.44</v>
       </c>
       <c r="AP224">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ224">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR224">
         <v>1.15</v>
@@ -47667,7 +47700,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47745,10 +47778,10 @@
         <v>0.44</v>
       </c>
       <c r="AP225">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ225">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -47873,7 +47906,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q226">
         <v>3.75</v>
@@ -47951,10 +47984,10 @@
         <v>1.78</v>
       </c>
       <c r="AP226">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ226">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR226">
         <v>1.22</v>
@@ -48079,7 +48112,7 @@
         <v>239</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48157,10 +48190,10 @@
         <v>0.89</v>
       </c>
       <c r="AP227">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ227">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR227">
         <v>1.25</v>
@@ -48363,10 +48396,10 @@
         <v>0.78</v>
       </c>
       <c r="AP228">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ228">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR228">
         <v>1.64</v>
@@ -48569,10 +48602,10 @@
         <v>1.5</v>
       </c>
       <c r="AP229">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ229">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR229">
         <v>1.36</v>
@@ -48697,7 +48730,7 @@
         <v>241</v>
       </c>
       <c r="P230" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q230">
         <v>2.38</v>
@@ -49109,7 +49142,7 @@
         <v>96</v>
       </c>
       <c r="P232" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49727,7 +49760,7 @@
         <v>244</v>
       </c>
       <c r="P235" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q235">
         <v>2.38</v>
@@ -49933,7 +49966,7 @@
         <v>96</v>
       </c>
       <c r="P236" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50345,7 +50378,7 @@
         <v>96</v>
       </c>
       <c r="P238" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50757,7 +50790,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q240">
         <v>3.5</v>
@@ -50963,7 +50996,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51247,10 +51280,10 @@
         <v>0.8</v>
       </c>
       <c r="AP242">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ242">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR242">
         <v>1.45</v>
@@ -51375,7 +51408,7 @@
         <v>248</v>
       </c>
       <c r="P243" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q243">
         <v>2.2</v>
@@ -51453,10 +51486,10 @@
         <v>0.64</v>
       </c>
       <c r="AP243">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ243">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AR243">
         <v>1.35</v>
@@ -51581,7 +51614,7 @@
         <v>96</v>
       </c>
       <c r="P244" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q244">
         <v>3.75</v>
@@ -51659,10 +51692,10 @@
         <v>2.18</v>
       </c>
       <c r="AP244">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ244">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AR244">
         <v>1.13</v>
@@ -51787,7 +51820,7 @@
         <v>249</v>
       </c>
       <c r="P245" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51865,10 +51898,10 @@
         <v>1.45</v>
       </c>
       <c r="AP245">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ245">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR245">
         <v>1.4</v>
@@ -52071,10 +52104,10 @@
         <v>0.78</v>
       </c>
       <c r="AP246">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ246">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR246">
         <v>1.71</v>
@@ -52199,7 +52232,7 @@
         <v>251</v>
       </c>
       <c r="P247" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -52277,10 +52310,10 @@
         <v>1.9</v>
       </c>
       <c r="AP247">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ247">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR247">
         <v>1.65</v>
@@ -52405,7 +52438,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q248">
         <v>2.4</v>
@@ -52483,10 +52516,10 @@
         <v>0.5</v>
       </c>
       <c r="AP248">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ248">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR248">
         <v>1.31</v>
@@ -52611,7 +52644,7 @@
         <v>253</v>
       </c>
       <c r="P249" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q249">
         <v>2.6</v>
@@ -52689,10 +52722,10 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ249">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR249">
         <v>1.22</v>
@@ -52895,10 +52928,10 @@
         <v>1.3</v>
       </c>
       <c r="AP250">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ250">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
         <v>1.39</v>
@@ -53023,7 +53056,7 @@
         <v>96</v>
       </c>
       <c r="P251" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53101,10 +53134,10 @@
         <v>1.44</v>
       </c>
       <c r="AP251">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ251">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR251">
         <v>1.32</v>
@@ -53307,10 +53340,10 @@
         <v>1.27</v>
       </c>
       <c r="AP252">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ252">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR252">
         <v>0.99</v>
@@ -53435,7 +53468,7 @@
         <v>96</v>
       </c>
       <c r="P253" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53513,10 +53546,10 @@
         <v>1.2</v>
       </c>
       <c r="AP253">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ253">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR253">
         <v>1.57</v>
@@ -53592,6 +53625,2478 @@
       </c>
       <c r="BP253">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7727123</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F254">
+        <v>23</v>
+      </c>
+      <c r="G254" t="s">
+        <v>85</v>
+      </c>
+      <c r="H254" t="s">
+        <v>73</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" t="s">
+        <v>255</v>
+      </c>
+      <c r="P254" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q254">
+        <v>3.6</v>
+      </c>
+      <c r="R254">
+        <v>2.1</v>
+      </c>
+      <c r="S254">
+        <v>3.1</v>
+      </c>
+      <c r="T254">
+        <v>1.44</v>
+      </c>
+      <c r="U254">
+        <v>2.63</v>
+      </c>
+      <c r="V254">
+        <v>3.25</v>
+      </c>
+      <c r="W254">
+        <v>1.33</v>
+      </c>
+      <c r="X254">
+        <v>9</v>
+      </c>
+      <c r="Y254">
+        <v>1.07</v>
+      </c>
+      <c r="Z254">
+        <v>2.63</v>
+      </c>
+      <c r="AA254">
+        <v>3.27</v>
+      </c>
+      <c r="AB254">
+        <v>2.25</v>
+      </c>
+      <c r="AC254">
+        <v>1.05</v>
+      </c>
+      <c r="AD254">
+        <v>11</v>
+      </c>
+      <c r="AE254">
+        <v>1.33</v>
+      </c>
+      <c r="AF254">
+        <v>3.2</v>
+      </c>
+      <c r="AG254">
+        <v>2</v>
+      </c>
+      <c r="AH254">
+        <v>1.73</v>
+      </c>
+      <c r="AI254">
+        <v>1.91</v>
+      </c>
+      <c r="AJ254">
+        <v>1.91</v>
+      </c>
+      <c r="AK254">
+        <v>1.57</v>
+      </c>
+      <c r="AL254">
+        <v>1.25</v>
+      </c>
+      <c r="AM254">
+        <v>1.44</v>
+      </c>
+      <c r="AN254">
+        <v>1.7</v>
+      </c>
+      <c r="AO254">
+        <v>1.18</v>
+      </c>
+      <c r="AP254">
+        <v>1.64</v>
+      </c>
+      <c r="AQ254">
+        <v>1.17</v>
+      </c>
+      <c r="AR254">
+        <v>1.52</v>
+      </c>
+      <c r="AS254">
+        <v>1.27</v>
+      </c>
+      <c r="AT254">
+        <v>2.79</v>
+      </c>
+      <c r="AU254">
+        <v>3</v>
+      </c>
+      <c r="AV254">
+        <v>5</v>
+      </c>
+      <c r="AW254">
+        <v>3</v>
+      </c>
+      <c r="AX254">
+        <v>3</v>
+      </c>
+      <c r="AY254">
+        <v>9</v>
+      </c>
+      <c r="AZ254">
+        <v>16</v>
+      </c>
+      <c r="BA254">
+        <v>3</v>
+      </c>
+      <c r="BB254">
+        <v>5</v>
+      </c>
+      <c r="BC254">
+        <v>8</v>
+      </c>
+      <c r="BD254">
+        <v>1.98</v>
+      </c>
+      <c r="BE254">
+        <v>6.75</v>
+      </c>
+      <c r="BF254">
+        <v>1.98</v>
+      </c>
+      <c r="BG254">
+        <v>1.28</v>
+      </c>
+      <c r="BH254">
+        <v>3.3</v>
+      </c>
+      <c r="BI254">
+        <v>1.49</v>
+      </c>
+      <c r="BJ254">
+        <v>2.4</v>
+      </c>
+      <c r="BK254">
+        <v>1.79</v>
+      </c>
+      <c r="BL254">
+        <v>1.9</v>
+      </c>
+      <c r="BM254">
+        <v>2.23</v>
+      </c>
+      <c r="BN254">
+        <v>1.57</v>
+      </c>
+      <c r="BO254">
+        <v>2.8</v>
+      </c>
+      <c r="BP254">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7727117</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F255">
+        <v>23</v>
+      </c>
+      <c r="G255" t="s">
+        <v>83</v>
+      </c>
+      <c r="H255" t="s">
+        <v>86</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>256</v>
+      </c>
+      <c r="P255" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q255">
+        <v>3.4</v>
+      </c>
+      <c r="R255">
+        <v>2.1</v>
+      </c>
+      <c r="S255">
+        <v>3.2</v>
+      </c>
+      <c r="T255">
+        <v>1.4</v>
+      </c>
+      <c r="U255">
+        <v>2.75</v>
+      </c>
+      <c r="V255">
+        <v>3</v>
+      </c>
+      <c r="W255">
+        <v>1.36</v>
+      </c>
+      <c r="X255">
+        <v>8</v>
+      </c>
+      <c r="Y255">
+        <v>1.08</v>
+      </c>
+      <c r="Z255">
+        <v>2.55</v>
+      </c>
+      <c r="AA255">
+        <v>3.18</v>
+      </c>
+      <c r="AB255">
+        <v>2.36</v>
+      </c>
+      <c r="AC255">
+        <v>1.05</v>
+      </c>
+      <c r="AD255">
+        <v>11</v>
+      </c>
+      <c r="AE255">
+        <v>1.3</v>
+      </c>
+      <c r="AF255">
+        <v>3.4</v>
+      </c>
+      <c r="AG255">
+        <v>1.85</v>
+      </c>
+      <c r="AH255">
+        <v>1.76</v>
+      </c>
+      <c r="AI255">
+        <v>1.75</v>
+      </c>
+      <c r="AJ255">
+        <v>2</v>
+      </c>
+      <c r="AK255">
+        <v>1.53</v>
+      </c>
+      <c r="AL255">
+        <v>1.25</v>
+      </c>
+      <c r="AM255">
+        <v>1.47</v>
+      </c>
+      <c r="AN255">
+        <v>1.6</v>
+      </c>
+      <c r="AO255">
+        <v>2.25</v>
+      </c>
+      <c r="AP255">
+        <v>1.73</v>
+      </c>
+      <c r="AQ255">
+        <v>2.08</v>
+      </c>
+      <c r="AR255">
+        <v>1.31</v>
+      </c>
+      <c r="AS255">
+        <v>1.46</v>
+      </c>
+      <c r="AT255">
+        <v>2.77</v>
+      </c>
+      <c r="AU255">
+        <v>4</v>
+      </c>
+      <c r="AV255">
+        <v>3</v>
+      </c>
+      <c r="AW255">
+        <v>5</v>
+      </c>
+      <c r="AX255">
+        <v>4</v>
+      </c>
+      <c r="AY255">
+        <v>12</v>
+      </c>
+      <c r="AZ255">
+        <v>8</v>
+      </c>
+      <c r="BA255">
+        <v>2</v>
+      </c>
+      <c r="BB255">
+        <v>3</v>
+      </c>
+      <c r="BC255">
+        <v>5</v>
+      </c>
+      <c r="BD255">
+        <v>1.94</v>
+      </c>
+      <c r="BE255">
+        <v>6.5</v>
+      </c>
+      <c r="BF255">
+        <v>2.05</v>
+      </c>
+      <c r="BG255">
+        <v>1.21</v>
+      </c>
+      <c r="BH255">
+        <v>3.8</v>
+      </c>
+      <c r="BI255">
+        <v>1.38</v>
+      </c>
+      <c r="BJ255">
+        <v>2.75</v>
+      </c>
+      <c r="BK255">
+        <v>1.62</v>
+      </c>
+      <c r="BL255">
+        <v>2.14</v>
+      </c>
+      <c r="BM255">
+        <v>1.97</v>
+      </c>
+      <c r="BN255">
+        <v>1.72</v>
+      </c>
+      <c r="BO255">
+        <v>2.48</v>
+      </c>
+      <c r="BP255">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7727115</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F256">
+        <v>23</v>
+      </c>
+      <c r="G256" t="s">
+        <v>80</v>
+      </c>
+      <c r="H256" t="s">
+        <v>91</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256" t="s">
+        <v>96</v>
+      </c>
+      <c r="P256" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q256">
+        <v>1.95</v>
+      </c>
+      <c r="R256">
+        <v>2.4</v>
+      </c>
+      <c r="S256">
+        <v>6.5</v>
+      </c>
+      <c r="T256">
+        <v>1.33</v>
+      </c>
+      <c r="U256">
+        <v>3.25</v>
+      </c>
+      <c r="V256">
+        <v>2.5</v>
+      </c>
+      <c r="W256">
+        <v>1.5</v>
+      </c>
+      <c r="X256">
+        <v>6.5</v>
+      </c>
+      <c r="Y256">
+        <v>1.11</v>
+      </c>
+      <c r="Z256">
+        <v>1.47</v>
+      </c>
+      <c r="AA256">
+        <v>4.5</v>
+      </c>
+      <c r="AB256">
+        <v>6.5</v>
+      </c>
+      <c r="AC256">
+        <v>1.02</v>
+      </c>
+      <c r="AD256">
+        <v>15</v>
+      </c>
+      <c r="AE256">
+        <v>1.2</v>
+      </c>
+      <c r="AF256">
+        <v>4.33</v>
+      </c>
+      <c r="AG256">
+        <v>1.68</v>
+      </c>
+      <c r="AH256">
+        <v>2.15</v>
+      </c>
+      <c r="AI256">
+        <v>1.91</v>
+      </c>
+      <c r="AJ256">
+        <v>1.91</v>
+      </c>
+      <c r="AK256">
+        <v>1.09</v>
+      </c>
+      <c r="AL256">
+        <v>1.16</v>
+      </c>
+      <c r="AM256">
+        <v>2.8</v>
+      </c>
+      <c r="AN256">
+        <v>2.6</v>
+      </c>
+      <c r="AO256">
+        <v>1.33</v>
+      </c>
+      <c r="AP256">
+        <v>2.45</v>
+      </c>
+      <c r="AQ256">
+        <v>1.31</v>
+      </c>
+      <c r="AR256">
+        <v>1.67</v>
+      </c>
+      <c r="AS256">
+        <v>1.26</v>
+      </c>
+      <c r="AT256">
+        <v>2.93</v>
+      </c>
+      <c r="AU256">
+        <v>5</v>
+      </c>
+      <c r="AV256">
+        <v>3</v>
+      </c>
+      <c r="AW256">
+        <v>1</v>
+      </c>
+      <c r="AX256">
+        <v>7</v>
+      </c>
+      <c r="AY256">
+        <v>8</v>
+      </c>
+      <c r="AZ256">
+        <v>11</v>
+      </c>
+      <c r="BA256">
+        <v>4</v>
+      </c>
+      <c r="BB256">
+        <v>5</v>
+      </c>
+      <c r="BC256">
+        <v>9</v>
+      </c>
+      <c r="BD256">
+        <v>1.4</v>
+      </c>
+      <c r="BE256">
+        <v>7</v>
+      </c>
+      <c r="BF256">
+        <v>3.3</v>
+      </c>
+      <c r="BG256">
+        <v>1.28</v>
+      </c>
+      <c r="BH256">
+        <v>3.2</v>
+      </c>
+      <c r="BI256">
+        <v>1.48</v>
+      </c>
+      <c r="BJ256">
+        <v>2.43</v>
+      </c>
+      <c r="BK256">
+        <v>1.78</v>
+      </c>
+      <c r="BL256">
+        <v>1.9</v>
+      </c>
+      <c r="BM256">
+        <v>2.23</v>
+      </c>
+      <c r="BN256">
+        <v>1.57</v>
+      </c>
+      <c r="BO256">
+        <v>2.8</v>
+      </c>
+      <c r="BP256">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7727116</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F257">
+        <v>23</v>
+      </c>
+      <c r="G257" t="s">
+        <v>93</v>
+      </c>
+      <c r="H257" t="s">
+        <v>89</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>3</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>3</v>
+      </c>
+      <c r="O257" t="s">
+        <v>257</v>
+      </c>
+      <c r="P257" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q257">
+        <v>2.63</v>
+      </c>
+      <c r="R257">
+        <v>2.2</v>
+      </c>
+      <c r="S257">
+        <v>4</v>
+      </c>
+      <c r="T257">
+        <v>1.4</v>
+      </c>
+      <c r="U257">
+        <v>2.75</v>
+      </c>
+      <c r="V257">
+        <v>3</v>
+      </c>
+      <c r="W257">
+        <v>1.36</v>
+      </c>
+      <c r="X257">
+        <v>8</v>
+      </c>
+      <c r="Y257">
+        <v>1.08</v>
+      </c>
+      <c r="Z257">
+        <v>2.1</v>
+      </c>
+      <c r="AA257">
+        <v>3.5</v>
+      </c>
+      <c r="AB257">
+        <v>3.4</v>
+      </c>
+      <c r="AC257">
+        <v>1.05</v>
+      </c>
+      <c r="AD257">
+        <v>11</v>
+      </c>
+      <c r="AE257">
+        <v>1.3</v>
+      </c>
+      <c r="AF257">
+        <v>3.4</v>
+      </c>
+      <c r="AG257">
+        <v>2</v>
+      </c>
+      <c r="AH257">
+        <v>1.78</v>
+      </c>
+      <c r="AI257">
+        <v>1.8</v>
+      </c>
+      <c r="AJ257">
+        <v>1.95</v>
+      </c>
+      <c r="AK257">
+        <v>1.28</v>
+      </c>
+      <c r="AL257">
+        <v>1.25</v>
+      </c>
+      <c r="AM257">
+        <v>1.83</v>
+      </c>
+      <c r="AN257">
+        <v>1.55</v>
+      </c>
+      <c r="AO257">
+        <v>1.17</v>
+      </c>
+      <c r="AP257">
+        <v>1.67</v>
+      </c>
+      <c r="AQ257">
+        <v>1.08</v>
+      </c>
+      <c r="AR257">
+        <v>1.61</v>
+      </c>
+      <c r="AS257">
+        <v>1.12</v>
+      </c>
+      <c r="AT257">
+        <v>2.73</v>
+      </c>
+      <c r="AU257">
+        <v>6</v>
+      </c>
+      <c r="AV257">
+        <v>3</v>
+      </c>
+      <c r="AW257">
+        <v>7</v>
+      </c>
+      <c r="AX257">
+        <v>4</v>
+      </c>
+      <c r="AY257">
+        <v>18</v>
+      </c>
+      <c r="AZ257">
+        <v>8</v>
+      </c>
+      <c r="BA257">
+        <v>7</v>
+      </c>
+      <c r="BB257">
+        <v>2</v>
+      </c>
+      <c r="BC257">
+        <v>9</v>
+      </c>
+      <c r="BD257">
+        <v>1.57</v>
+      </c>
+      <c r="BE257">
+        <v>6.75</v>
+      </c>
+      <c r="BF257">
+        <v>2.65</v>
+      </c>
+      <c r="BG257">
+        <v>1.22</v>
+      </c>
+      <c r="BH257">
+        <v>3.65</v>
+      </c>
+      <c r="BI257">
+        <v>1.41</v>
+      </c>
+      <c r="BJ257">
+        <v>2.65</v>
+      </c>
+      <c r="BK257">
+        <v>1.66</v>
+      </c>
+      <c r="BL257">
+        <v>2.06</v>
+      </c>
+      <c r="BM257">
+        <v>2.04</v>
+      </c>
+      <c r="BN257">
+        <v>1.68</v>
+      </c>
+      <c r="BO257">
+        <v>2.55</v>
+      </c>
+      <c r="BP257">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7727118</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F258">
+        <v>23</v>
+      </c>
+      <c r="G258" t="s">
+        <v>81</v>
+      </c>
+      <c r="H258" t="s">
+        <v>77</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>4</v>
+      </c>
+      <c r="K258">
+        <v>5</v>
+      </c>
+      <c r="L258">
+        <v>4</v>
+      </c>
+      <c r="M258">
+        <v>4</v>
+      </c>
+      <c r="N258">
+        <v>8</v>
+      </c>
+      <c r="O258" t="s">
+        <v>258</v>
+      </c>
+      <c r="P258" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q258">
+        <v>2.5</v>
+      </c>
+      <c r="R258">
+        <v>2.1</v>
+      </c>
+      <c r="S258">
+        <v>4.75</v>
+      </c>
+      <c r="T258">
+        <v>1.44</v>
+      </c>
+      <c r="U258">
+        <v>2.63</v>
+      </c>
+      <c r="V258">
+        <v>3.25</v>
+      </c>
+      <c r="W258">
+        <v>1.33</v>
+      </c>
+      <c r="X258">
+        <v>9</v>
+      </c>
+      <c r="Y258">
+        <v>1.07</v>
+      </c>
+      <c r="Z258">
+        <v>1.72</v>
+      </c>
+      <c r="AA258">
+        <v>3.75</v>
+      </c>
+      <c r="AB258">
+        <v>4.75</v>
+      </c>
+      <c r="AC258">
+        <v>1.05</v>
+      </c>
+      <c r="AD258">
+        <v>10</v>
+      </c>
+      <c r="AE258">
+        <v>1.36</v>
+      </c>
+      <c r="AF258">
+        <v>3.2</v>
+      </c>
+      <c r="AG258">
+        <v>1.83</v>
+      </c>
+      <c r="AH258">
+        <v>1.95</v>
+      </c>
+      <c r="AI258">
+        <v>1.95</v>
+      </c>
+      <c r="AJ258">
+        <v>1.8</v>
+      </c>
+      <c r="AK258">
+        <v>1.22</v>
+      </c>
+      <c r="AL258">
+        <v>1.22</v>
+      </c>
+      <c r="AM258">
+        <v>2</v>
+      </c>
+      <c r="AN258">
+        <v>1.55</v>
+      </c>
+      <c r="AO258">
+        <v>0.73</v>
+      </c>
+      <c r="AP258">
+        <v>1.5</v>
+      </c>
+      <c r="AQ258">
+        <v>0.75</v>
+      </c>
+      <c r="AR258">
+        <v>1.25</v>
+      </c>
+      <c r="AS258">
+        <v>1.32</v>
+      </c>
+      <c r="AT258">
+        <v>2.57</v>
+      </c>
+      <c r="AU258">
+        <v>8</v>
+      </c>
+      <c r="AV258">
+        <v>6</v>
+      </c>
+      <c r="AW258">
+        <v>6</v>
+      </c>
+      <c r="AX258">
+        <v>5</v>
+      </c>
+      <c r="AY258">
+        <v>19</v>
+      </c>
+      <c r="AZ258">
+        <v>12</v>
+      </c>
+      <c r="BA258">
+        <v>6</v>
+      </c>
+      <c r="BB258">
+        <v>3</v>
+      </c>
+      <c r="BC258">
+        <v>9</v>
+      </c>
+      <c r="BD258">
+        <v>1.45</v>
+      </c>
+      <c r="BE258">
+        <v>7</v>
+      </c>
+      <c r="BF258">
+        <v>3.05</v>
+      </c>
+      <c r="BG258">
+        <v>1.11</v>
+      </c>
+      <c r="BH258">
+        <v>5.1</v>
+      </c>
+      <c r="BI258">
+        <v>1.23</v>
+      </c>
+      <c r="BJ258">
+        <v>3.65</v>
+      </c>
+      <c r="BK258">
+        <v>1.4</v>
+      </c>
+      <c r="BL258">
+        <v>2.7</v>
+      </c>
+      <c r="BM258">
+        <v>1.61</v>
+      </c>
+      <c r="BN258">
+        <v>2.15</v>
+      </c>
+      <c r="BO258">
+        <v>1.94</v>
+      </c>
+      <c r="BP258">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7727125</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F259">
+        <v>23</v>
+      </c>
+      <c r="G259" t="s">
+        <v>76</v>
+      </c>
+      <c r="H259" t="s">
+        <v>79</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>259</v>
+      </c>
+      <c r="P259" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q259">
+        <v>2.38</v>
+      </c>
+      <c r="R259">
+        <v>2.05</v>
+      </c>
+      <c r="S259">
+        <v>6</v>
+      </c>
+      <c r="T259">
+        <v>1.5</v>
+      </c>
+      <c r="U259">
+        <v>2.5</v>
+      </c>
+      <c r="V259">
+        <v>3.5</v>
+      </c>
+      <c r="W259">
+        <v>1.29</v>
+      </c>
+      <c r="X259">
+        <v>11</v>
+      </c>
+      <c r="Y259">
+        <v>1.05</v>
+      </c>
+      <c r="Z259">
+        <v>1.75</v>
+      </c>
+      <c r="AA259">
+        <v>3.6</v>
+      </c>
+      <c r="AB259">
+        <v>4.75</v>
+      </c>
+      <c r="AC259">
+        <v>1.07</v>
+      </c>
+      <c r="AD259">
+        <v>9</v>
+      </c>
+      <c r="AE259">
+        <v>1.42</v>
+      </c>
+      <c r="AF259">
+        <v>2.85</v>
+      </c>
+      <c r="AG259">
+        <v>2.25</v>
+      </c>
+      <c r="AH259">
+        <v>1.62</v>
+      </c>
+      <c r="AI259">
+        <v>2.2</v>
+      </c>
+      <c r="AJ259">
+        <v>1.62</v>
+      </c>
+      <c r="AK259">
+        <v>1.18</v>
+      </c>
+      <c r="AL259">
+        <v>1.25</v>
+      </c>
+      <c r="AM259">
+        <v>2.1</v>
+      </c>
+      <c r="AN259">
+        <v>1.67</v>
+      </c>
+      <c r="AO259">
+        <v>0.64</v>
+      </c>
+      <c r="AP259">
+        <v>1.77</v>
+      </c>
+      <c r="AQ259">
+        <v>0.58</v>
+      </c>
+      <c r="AR259">
+        <v>1.11</v>
+      </c>
+      <c r="AS259">
+        <v>1.01</v>
+      </c>
+      <c r="AT259">
+        <v>2.12</v>
+      </c>
+      <c r="AU259">
+        <v>6</v>
+      </c>
+      <c r="AV259">
+        <v>3</v>
+      </c>
+      <c r="AW259">
+        <v>3</v>
+      </c>
+      <c r="AX259">
+        <v>2</v>
+      </c>
+      <c r="AY259">
+        <v>12</v>
+      </c>
+      <c r="AZ259">
+        <v>6</v>
+      </c>
+      <c r="BA259">
+        <v>3</v>
+      </c>
+      <c r="BB259">
+        <v>7</v>
+      </c>
+      <c r="BC259">
+        <v>10</v>
+      </c>
+      <c r="BD259">
+        <v>1.4</v>
+      </c>
+      <c r="BE259">
+        <v>9.9</v>
+      </c>
+      <c r="BF259">
+        <v>3.6</v>
+      </c>
+      <c r="BG259">
+        <v>1.2</v>
+      </c>
+      <c r="BH259">
+        <v>3.9</v>
+      </c>
+      <c r="BI259">
+        <v>1.31</v>
+      </c>
+      <c r="BJ259">
+        <v>2.92</v>
+      </c>
+      <c r="BK259">
+        <v>1.58</v>
+      </c>
+      <c r="BL259">
+        <v>2.17</v>
+      </c>
+      <c r="BM259">
+        <v>1.95</v>
+      </c>
+      <c r="BN259">
+        <v>1.77</v>
+      </c>
+      <c r="BO259">
+        <v>2.54</v>
+      </c>
+      <c r="BP259">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7727124</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F260">
+        <v>23</v>
+      </c>
+      <c r="G260" t="s">
+        <v>82</v>
+      </c>
+      <c r="H260" t="s">
+        <v>87</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" t="s">
+        <v>260</v>
+      </c>
+      <c r="P260" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q260">
+        <v>2.75</v>
+      </c>
+      <c r="R260">
+        <v>2.2</v>
+      </c>
+      <c r="S260">
+        <v>4</v>
+      </c>
+      <c r="T260">
+        <v>1.4</v>
+      </c>
+      <c r="U260">
+        <v>2.75</v>
+      </c>
+      <c r="V260">
+        <v>2.75</v>
+      </c>
+      <c r="W260">
+        <v>1.4</v>
+      </c>
+      <c r="X260">
+        <v>8</v>
+      </c>
+      <c r="Y260">
+        <v>1.08</v>
+      </c>
+      <c r="Z260">
+        <v>2.1</v>
+      </c>
+      <c r="AA260">
+        <v>3.4</v>
+      </c>
+      <c r="AB260">
+        <v>3.5</v>
+      </c>
+      <c r="AC260">
+        <v>1.05</v>
+      </c>
+      <c r="AD260">
+        <v>10</v>
+      </c>
+      <c r="AE260">
+        <v>1.33</v>
+      </c>
+      <c r="AF260">
+        <v>3.3</v>
+      </c>
+      <c r="AG260">
+        <v>2</v>
+      </c>
+      <c r="AH260">
+        <v>1.8</v>
+      </c>
+      <c r="AI260">
+        <v>1.7</v>
+      </c>
+      <c r="AJ260">
+        <v>2.05</v>
+      </c>
+      <c r="AK260">
+        <v>1.33</v>
+      </c>
+      <c r="AL260">
+        <v>1.29</v>
+      </c>
+      <c r="AM260">
+        <v>1.68</v>
+      </c>
+      <c r="AN260">
+        <v>0.91</v>
+      </c>
+      <c r="AO260">
+        <v>0.58</v>
+      </c>
+      <c r="AP260">
+        <v>0.92</v>
+      </c>
+      <c r="AQ260">
+        <v>0.62</v>
+      </c>
+      <c r="AR260">
+        <v>1</v>
+      </c>
+      <c r="AS260">
+        <v>0.99</v>
+      </c>
+      <c r="AT260">
+        <v>1.99</v>
+      </c>
+      <c r="AU260">
+        <v>4</v>
+      </c>
+      <c r="AV260">
+        <v>3</v>
+      </c>
+      <c r="AW260">
+        <v>5</v>
+      </c>
+      <c r="AX260">
+        <v>5</v>
+      </c>
+      <c r="AY260">
+        <v>14</v>
+      </c>
+      <c r="AZ260">
+        <v>10</v>
+      </c>
+      <c r="BA260">
+        <v>7</v>
+      </c>
+      <c r="BB260">
+        <v>5</v>
+      </c>
+      <c r="BC260">
+        <v>12</v>
+      </c>
+      <c r="BD260">
+        <v>1.5</v>
+      </c>
+      <c r="BE260">
+        <v>7.1</v>
+      </c>
+      <c r="BF260">
+        <v>3.5</v>
+      </c>
+      <c r="BG260">
+        <v>1.24</v>
+      </c>
+      <c r="BH260">
+        <v>3.34</v>
+      </c>
+      <c r="BI260">
+        <v>1.7</v>
+      </c>
+      <c r="BJ260">
+        <v>2.05</v>
+      </c>
+      <c r="BK260">
+        <v>1.85</v>
+      </c>
+      <c r="BL260">
+        <v>1.85</v>
+      </c>
+      <c r="BM260">
+        <v>2.34</v>
+      </c>
+      <c r="BN260">
+        <v>1.5</v>
+      </c>
+      <c r="BO260">
+        <v>3.14</v>
+      </c>
+      <c r="BP260">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7727122</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F261">
+        <v>23</v>
+      </c>
+      <c r="G261" t="s">
+        <v>84</v>
+      </c>
+      <c r="H261" t="s">
+        <v>92</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>261</v>
+      </c>
+      <c r="P261" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q261">
+        <v>2.75</v>
+      </c>
+      <c r="R261">
+        <v>2.2</v>
+      </c>
+      <c r="S261">
+        <v>3.75</v>
+      </c>
+      <c r="T261">
+        <v>1.36</v>
+      </c>
+      <c r="U261">
+        <v>3</v>
+      </c>
+      <c r="V261">
+        <v>2.75</v>
+      </c>
+      <c r="W261">
+        <v>1.4</v>
+      </c>
+      <c r="X261">
+        <v>7</v>
+      </c>
+      <c r="Y261">
+        <v>1.1</v>
+      </c>
+      <c r="Z261">
+        <v>2.5</v>
+      </c>
+      <c r="AA261">
+        <v>3.6</v>
+      </c>
+      <c r="AB261">
+        <v>2.6</v>
+      </c>
+      <c r="AC261">
+        <v>1.03</v>
+      </c>
+      <c r="AD261">
+        <v>15</v>
+      </c>
+      <c r="AE261">
+        <v>1.22</v>
+      </c>
+      <c r="AF261">
+        <v>4.2</v>
+      </c>
+      <c r="AG261">
+        <v>1.7</v>
+      </c>
+      <c r="AH261">
+        <v>2.15</v>
+      </c>
+      <c r="AI261">
+        <v>1.67</v>
+      </c>
+      <c r="AJ261">
+        <v>2.1</v>
+      </c>
+      <c r="AK261">
+        <v>1.46</v>
+      </c>
+      <c r="AL261">
+        <v>1.27</v>
+      </c>
+      <c r="AM261">
+        <v>1.53</v>
+      </c>
+      <c r="AN261">
+        <v>2.4</v>
+      </c>
+      <c r="AO261">
+        <v>1.6</v>
+      </c>
+      <c r="AP261">
+        <v>2.45</v>
+      </c>
+      <c r="AQ261">
+        <v>1.45</v>
+      </c>
+      <c r="AR261">
+        <v>1.34</v>
+      </c>
+      <c r="AS261">
+        <v>1.24</v>
+      </c>
+      <c r="AT261">
+        <v>2.58</v>
+      </c>
+      <c r="AU261">
+        <v>6</v>
+      </c>
+      <c r="AV261">
+        <v>3</v>
+      </c>
+      <c r="AW261">
+        <v>3</v>
+      </c>
+      <c r="AX261">
+        <v>6</v>
+      </c>
+      <c r="AY261">
+        <v>10</v>
+      </c>
+      <c r="AZ261">
+        <v>16</v>
+      </c>
+      <c r="BA261">
+        <v>0</v>
+      </c>
+      <c r="BB261">
+        <v>7</v>
+      </c>
+      <c r="BC261">
+        <v>7</v>
+      </c>
+      <c r="BD261">
+        <v>2.14</v>
+      </c>
+      <c r="BE261">
+        <v>6.65</v>
+      </c>
+      <c r="BF261">
+        <v>2.1</v>
+      </c>
+      <c r="BG261">
+        <v>1.26</v>
+      </c>
+      <c r="BH261">
+        <v>3.4</v>
+      </c>
+      <c r="BI261">
+        <v>1.29</v>
+      </c>
+      <c r="BJ261">
+        <v>3.04</v>
+      </c>
+      <c r="BK261">
+        <v>1.55</v>
+      </c>
+      <c r="BL261">
+        <v>2.23</v>
+      </c>
+      <c r="BM261">
+        <v>1.95</v>
+      </c>
+      <c r="BN261">
+        <v>1.77</v>
+      </c>
+      <c r="BO261">
+        <v>2.48</v>
+      </c>
+      <c r="BP261">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7727120</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F262">
+        <v>23</v>
+      </c>
+      <c r="G262" t="s">
+        <v>75</v>
+      </c>
+      <c r="H262" t="s">
+        <v>88</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="O262" t="s">
+        <v>262</v>
+      </c>
+      <c r="P262" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q262">
+        <v>2.2</v>
+      </c>
+      <c r="R262">
+        <v>2.2</v>
+      </c>
+      <c r="S262">
+        <v>6</v>
+      </c>
+      <c r="T262">
+        <v>1.44</v>
+      </c>
+      <c r="U262">
+        <v>2.63</v>
+      </c>
+      <c r="V262">
+        <v>3.25</v>
+      </c>
+      <c r="W262">
+        <v>1.33</v>
+      </c>
+      <c r="X262">
+        <v>9</v>
+      </c>
+      <c r="Y262">
+        <v>1.07</v>
+      </c>
+      <c r="Z262">
+        <v>1.63</v>
+      </c>
+      <c r="AA262">
+        <v>3.75</v>
+      </c>
+      <c r="AB262">
+        <v>5.5</v>
+      </c>
+      <c r="AC262">
+        <v>1.05</v>
+      </c>
+      <c r="AD262">
+        <v>11</v>
+      </c>
+      <c r="AE262">
+        <v>1.33</v>
+      </c>
+      <c r="AF262">
+        <v>3.25</v>
+      </c>
+      <c r="AG262">
+        <v>2.1</v>
+      </c>
+      <c r="AH262">
+        <v>1.75</v>
+      </c>
+      <c r="AI262">
+        <v>2.1</v>
+      </c>
+      <c r="AJ262">
+        <v>1.67</v>
+      </c>
+      <c r="AK262">
+        <v>1.12</v>
+      </c>
+      <c r="AL262">
+        <v>1.2</v>
+      </c>
+      <c r="AM262">
+        <v>2.4</v>
+      </c>
+      <c r="AN262">
+        <v>1.36</v>
+      </c>
+      <c r="AO262">
+        <v>0.45</v>
+      </c>
+      <c r="AP262">
+        <v>1.5</v>
+      </c>
+      <c r="AQ262">
+        <v>0.42</v>
+      </c>
+      <c r="AR262">
+        <v>1.51</v>
+      </c>
+      <c r="AS262">
+        <v>1.17</v>
+      </c>
+      <c r="AT262">
+        <v>2.68</v>
+      </c>
+      <c r="AU262">
+        <v>5</v>
+      </c>
+      <c r="AV262">
+        <v>3</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>2</v>
+      </c>
+      <c r="AY262">
+        <v>15</v>
+      </c>
+      <c r="AZ262">
+        <v>7</v>
+      </c>
+      <c r="BA262">
+        <v>6</v>
+      </c>
+      <c r="BB262">
+        <v>7</v>
+      </c>
+      <c r="BC262">
+        <v>13</v>
+      </c>
+      <c r="BD262">
+        <v>1.34</v>
+      </c>
+      <c r="BE262">
+        <v>7</v>
+      </c>
+      <c r="BF262">
+        <v>3.55</v>
+      </c>
+      <c r="BG262">
+        <v>1.27</v>
+      </c>
+      <c r="BH262">
+        <v>3.3</v>
+      </c>
+      <c r="BI262">
+        <v>1.48</v>
+      </c>
+      <c r="BJ262">
+        <v>2.43</v>
+      </c>
+      <c r="BK262">
+        <v>1.76</v>
+      </c>
+      <c r="BL262">
+        <v>1.93</v>
+      </c>
+      <c r="BM262">
+        <v>2.17</v>
+      </c>
+      <c r="BN262">
+        <v>1.58</v>
+      </c>
+      <c r="BO262">
+        <v>2.7</v>
+      </c>
+      <c r="BP262">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7727121</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F263">
+        <v>23</v>
+      </c>
+      <c r="G263" t="s">
+        <v>74</v>
+      </c>
+      <c r="H263" t="s">
+        <v>70</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>3</v>
+      </c>
+      <c r="N263">
+        <v>4</v>
+      </c>
+      <c r="O263" t="s">
+        <v>160</v>
+      </c>
+      <c r="P263" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q263">
+        <v>3.1</v>
+      </c>
+      <c r="R263">
+        <v>2.38</v>
+      </c>
+      <c r="S263">
+        <v>3.1</v>
+      </c>
+      <c r="T263">
+        <v>1.3</v>
+      </c>
+      <c r="U263">
+        <v>3.4</v>
+      </c>
+      <c r="V263">
+        <v>2.38</v>
+      </c>
+      <c r="W263">
+        <v>1.53</v>
+      </c>
+      <c r="X263">
+        <v>6</v>
+      </c>
+      <c r="Y263">
+        <v>1.13</v>
+      </c>
+      <c r="Z263">
+        <v>2.85</v>
+      </c>
+      <c r="AA263">
+        <v>3.75</v>
+      </c>
+      <c r="AB263">
+        <v>2.25</v>
+      </c>
+      <c r="AC263">
+        <v>1.02</v>
+      </c>
+      <c r="AD263">
+        <v>15</v>
+      </c>
+      <c r="AE263">
+        <v>1.18</v>
+      </c>
+      <c r="AF263">
+        <v>4.75</v>
+      </c>
+      <c r="AG263">
+        <v>1.6</v>
+      </c>
+      <c r="AH263">
+        <v>2.25</v>
+      </c>
+      <c r="AI263">
+        <v>1.5</v>
+      </c>
+      <c r="AJ263">
+        <v>2.5</v>
+      </c>
+      <c r="AK263">
+        <v>1.52</v>
+      </c>
+      <c r="AL263">
+        <v>1.25</v>
+      </c>
+      <c r="AM263">
+        <v>1.52</v>
+      </c>
+      <c r="AN263">
+        <v>1.42</v>
+      </c>
+      <c r="AO263">
+        <v>2</v>
+      </c>
+      <c r="AP263">
+        <v>1.31</v>
+      </c>
+      <c r="AQ263">
+        <v>2.08</v>
+      </c>
+      <c r="AR263">
+        <v>1.28</v>
+      </c>
+      <c r="AS263">
+        <v>1.27</v>
+      </c>
+      <c r="AT263">
+        <v>2.55</v>
+      </c>
+      <c r="AU263">
+        <v>3</v>
+      </c>
+      <c r="AV263">
+        <v>7</v>
+      </c>
+      <c r="AW263">
+        <v>1</v>
+      </c>
+      <c r="AX263">
+        <v>7</v>
+      </c>
+      <c r="AY263">
+        <v>4</v>
+      </c>
+      <c r="AZ263">
+        <v>17</v>
+      </c>
+      <c r="BA263">
+        <v>1</v>
+      </c>
+      <c r="BB263">
+        <v>7</v>
+      </c>
+      <c r="BC263">
+        <v>8</v>
+      </c>
+      <c r="BD263">
+        <v>1.77</v>
+      </c>
+      <c r="BE263">
+        <v>7</v>
+      </c>
+      <c r="BF263">
+        <v>2.23</v>
+      </c>
+      <c r="BG263">
+        <v>1.11</v>
+      </c>
+      <c r="BH263">
+        <v>5.1</v>
+      </c>
+      <c r="BI263">
+        <v>1.23</v>
+      </c>
+      <c r="BJ263">
+        <v>3.65</v>
+      </c>
+      <c r="BK263">
+        <v>1.4</v>
+      </c>
+      <c r="BL263">
+        <v>2.7</v>
+      </c>
+      <c r="BM263">
+        <v>1.63</v>
+      </c>
+      <c r="BN263">
+        <v>2.12</v>
+      </c>
+      <c r="BO263">
+        <v>1.95</v>
+      </c>
+      <c r="BP263">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7727126</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F264">
+        <v>23</v>
+      </c>
+      <c r="G264" t="s">
+        <v>71</v>
+      </c>
+      <c r="H264" t="s">
+        <v>72</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>263</v>
+      </c>
+      <c r="P264" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q264">
+        <v>2.38</v>
+      </c>
+      <c r="R264">
+        <v>2.2</v>
+      </c>
+      <c r="S264">
+        <v>5</v>
+      </c>
+      <c r="T264">
+        <v>1.4</v>
+      </c>
+      <c r="U264">
+        <v>2.75</v>
+      </c>
+      <c r="V264">
+        <v>3</v>
+      </c>
+      <c r="W264">
+        <v>1.36</v>
+      </c>
+      <c r="X264">
+        <v>8</v>
+      </c>
+      <c r="Y264">
+        <v>1.08</v>
+      </c>
+      <c r="Z264">
+        <v>1.8</v>
+      </c>
+      <c r="AA264">
+        <v>3.6</v>
+      </c>
+      <c r="AB264">
+        <v>4.33</v>
+      </c>
+      <c r="AC264">
+        <v>1.05</v>
+      </c>
+      <c r="AD264">
+        <v>10</v>
+      </c>
+      <c r="AE264">
+        <v>1.36</v>
+      </c>
+      <c r="AF264">
+        <v>3.2</v>
+      </c>
+      <c r="AG264">
+        <v>2.1</v>
+      </c>
+      <c r="AH264">
+        <v>1.72</v>
+      </c>
+      <c r="AI264">
+        <v>1.95</v>
+      </c>
+      <c r="AJ264">
+        <v>1.8</v>
+      </c>
+      <c r="AK264">
+        <v>1.22</v>
+      </c>
+      <c r="AL264">
+        <v>1.22</v>
+      </c>
+      <c r="AM264">
+        <v>2</v>
+      </c>
+      <c r="AN264">
+        <v>2.67</v>
+      </c>
+      <c r="AO264">
+        <v>1.36</v>
+      </c>
+      <c r="AP264">
+        <v>2.69</v>
+      </c>
+      <c r="AQ264">
+        <v>1.25</v>
+      </c>
+      <c r="AR264">
+        <v>1.41</v>
+      </c>
+      <c r="AS264">
+        <v>1.12</v>
+      </c>
+      <c r="AT264">
+        <v>2.53</v>
+      </c>
+      <c r="AU264">
+        <v>4</v>
+      </c>
+      <c r="AV264">
+        <v>2</v>
+      </c>
+      <c r="AW264">
+        <v>4</v>
+      </c>
+      <c r="AX264">
+        <v>4</v>
+      </c>
+      <c r="AY264">
+        <v>11</v>
+      </c>
+      <c r="AZ264">
+        <v>11</v>
+      </c>
+      <c r="BA264">
+        <v>2</v>
+      </c>
+      <c r="BB264">
+        <v>8</v>
+      </c>
+      <c r="BC264">
+        <v>10</v>
+      </c>
+      <c r="BD264">
+        <v>1.47</v>
+      </c>
+      <c r="BE264">
+        <v>7.2</v>
+      </c>
+      <c r="BF264">
+        <v>3.64</v>
+      </c>
+      <c r="BG264">
+        <v>1.26</v>
+      </c>
+      <c r="BH264">
+        <v>3.22</v>
+      </c>
+      <c r="BI264">
+        <v>1.77</v>
+      </c>
+      <c r="BJ264">
+        <v>1.95</v>
+      </c>
+      <c r="BK264">
+        <v>1.91</v>
+      </c>
+      <c r="BL264">
+        <v>1.8</v>
+      </c>
+      <c r="BM264">
+        <v>2.42</v>
+      </c>
+      <c r="BN264">
+        <v>1.47</v>
+      </c>
+      <c r="BO264">
+        <v>3.28</v>
+      </c>
+      <c r="BP264">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7727119</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F265">
+        <v>23</v>
+      </c>
+      <c r="G265" t="s">
+        <v>90</v>
+      </c>
+      <c r="H265" t="s">
+        <v>78</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>144</v>
+      </c>
+      <c r="P265" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q265">
+        <v>1.91</v>
+      </c>
+      <c r="R265">
+        <v>2.4</v>
+      </c>
+      <c r="S265">
+        <v>7</v>
+      </c>
+      <c r="T265">
+        <v>1.33</v>
+      </c>
+      <c r="U265">
+        <v>3.25</v>
+      </c>
+      <c r="V265">
+        <v>2.63</v>
+      </c>
+      <c r="W265">
+        <v>1.44</v>
+      </c>
+      <c r="X265">
+        <v>6.5</v>
+      </c>
+      <c r="Y265">
+        <v>1.11</v>
+      </c>
+      <c r="Z265">
+        <v>1.4</v>
+      </c>
+      <c r="AA265">
+        <v>4.75</v>
+      </c>
+      <c r="AB265">
+        <v>7.5</v>
+      </c>
+      <c r="AC265">
+        <v>1.03</v>
+      </c>
+      <c r="AD265">
+        <v>13</v>
+      </c>
+      <c r="AE265">
+        <v>1.22</v>
+      </c>
+      <c r="AF265">
+        <v>4.2</v>
+      </c>
+      <c r="AG265">
+        <v>1.75</v>
+      </c>
+      <c r="AH265">
+        <v>2.05</v>
+      </c>
+      <c r="AI265">
+        <v>1.95</v>
+      </c>
+      <c r="AJ265">
+        <v>1.8</v>
+      </c>
+      <c r="AK265">
+        <v>1.07</v>
+      </c>
+      <c r="AL265">
+        <v>1.16</v>
+      </c>
+      <c r="AM265">
+        <v>2.95</v>
+      </c>
+      <c r="AN265">
+        <v>2.27</v>
+      </c>
+      <c r="AO265">
+        <v>0.7</v>
+      </c>
+      <c r="AP265">
+        <v>2.17</v>
+      </c>
+      <c r="AQ265">
+        <v>0.73</v>
+      </c>
+      <c r="AR265">
+        <v>1.32</v>
+      </c>
+      <c r="AS265">
+        <v>1.09</v>
+      </c>
+      <c r="AT265">
+        <v>2.41</v>
+      </c>
+      <c r="AU265">
+        <v>9</v>
+      </c>
+      <c r="AV265">
+        <v>4</v>
+      </c>
+      <c r="AW265">
+        <v>11</v>
+      </c>
+      <c r="AX265">
+        <v>1</v>
+      </c>
+      <c r="AY265">
+        <v>31</v>
+      </c>
+      <c r="AZ265">
+        <v>7</v>
+      </c>
+      <c r="BA265">
+        <v>17</v>
+      </c>
+      <c r="BB265">
+        <v>4</v>
+      </c>
+      <c r="BC265">
+        <v>21</v>
+      </c>
+      <c r="BD265">
+        <v>1.27</v>
+      </c>
+      <c r="BE265">
+        <v>8</v>
+      </c>
+      <c r="BF265">
+        <v>4.1</v>
+      </c>
+      <c r="BG265">
+        <v>1.23</v>
+      </c>
+      <c r="BH265">
+        <v>3.65</v>
+      </c>
+      <c r="BI265">
+        <v>1.4</v>
+      </c>
+      <c r="BJ265">
+        <v>2.65</v>
+      </c>
+      <c r="BK265">
+        <v>1.65</v>
+      </c>
+      <c r="BL265">
+        <v>2.08</v>
+      </c>
+      <c r="BM265">
+        <v>2</v>
+      </c>
+      <c r="BN265">
+        <v>1.71</v>
+      </c>
+      <c r="BO265">
+        <v>2.5</v>
+      </c>
+      <c r="BP265">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -53773,13 +53773,13 @@
         <v>5</v>
       </c>
       <c r="AW254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX254">
         <v>3</v>
       </c>
       <c r="AY254">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ254">
         <v>16</v>
@@ -53988,7 +53988,7 @@
         <v>12</v>
       </c>
       <c r="AZ255">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA255">
         <v>2</v>
@@ -54182,19 +54182,19 @@
         <v>5</v>
       </c>
       <c r="AV256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX256">
         <v>7</v>
       </c>
       <c r="AY256">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA256">
         <v>4</v>
@@ -54391,13 +54391,13 @@
         <v>3</v>
       </c>
       <c r="AW257">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX257">
         <v>4</v>
       </c>
       <c r="AY257">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ257">
         <v>8</v>
@@ -54597,13 +54597,13 @@
         <v>6</v>
       </c>
       <c r="AW258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX258">
         <v>5</v>
       </c>
       <c r="AY258">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ258">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,27 @@
     <t>['60', '90+1']</t>
   </si>
   <si>
+    <t>['66', '90+4']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['20', '36']</t>
+  </si>
+  <si>
+    <t>['6', '26']</t>
+  </si>
+  <si>
+    <t>['11', '24']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['32', '74']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -1126,9 +1147,6 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['6', '9', '31']</t>
   </si>
   <si>
@@ -1142,6 +1160,21 @@
   </si>
   <si>
     <t>['47', '55', '86']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['40', '53', '83']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['42', '77']</t>
+  </si>
+  <si>
+    <t>['9', '39', '53']</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1795,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1840,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
         <v>1.45</v>
@@ -2174,7 +2207,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2458,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.42</v>
@@ -2586,7 +2619,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2792,7 +2825,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2873,7 +2906,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3079,7 +3112,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3410,7 +3443,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3488,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1.08</v>
@@ -3694,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
         <v>0.62</v>
@@ -3822,7 +3855,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3903,7 +3936,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ12">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4109,7 +4142,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4234,7 +4267,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4315,7 +4348,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ14">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4521,7 +4554,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5058,7 +5091,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5136,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ18">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5342,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ19">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5548,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5676,7 +5709,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5754,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ21">
         <v>2.08</v>
@@ -5882,7 +5915,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5963,7 +5996,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6088,7 +6121,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6166,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -6294,7 +6327,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6372,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
         <v>0.73</v>
@@ -6581,7 +6614,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6784,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.58</v>
@@ -6990,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.26</v>
@@ -7196,10 +7229,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR28">
         <v>0.87</v>
@@ -7405,7 +7438,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ29">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR29">
         <v>1.43</v>
@@ -7736,7 +7769,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7814,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ31">
         <v>1.45</v>
@@ -7942,7 +7975,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8020,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ32">
         <v>1.31</v>
@@ -8229,7 +8262,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR33">
         <v>1.14</v>
@@ -8354,7 +8387,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8435,7 +8468,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.76</v>
@@ -8641,7 +8674,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ35">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.31</v>
@@ -8766,7 +8799,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8844,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
         <v>0.62</v>
@@ -8972,7 +9005,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9053,7 +9086,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -9178,7 +9211,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9256,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>2.08</v>
@@ -9877,7 +9910,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ41">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -10208,7 +10241,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10289,7 +10322,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ43">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR43">
         <v>0.79</v>
@@ -10492,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
         <v>0.73</v>
@@ -10620,7 +10653,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10904,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
         <v>0.42</v>
@@ -11032,7 +11065,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11113,7 +11146,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -11444,7 +11477,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11522,7 +11555,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11650,7 +11683,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11728,7 +11761,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
         <v>0.58</v>
@@ -11937,7 +11970,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12143,7 +12176,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -12346,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
         <v>0.42</v>
@@ -12474,7 +12507,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12552,7 +12585,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ54">
         <v>2.08</v>
@@ -13092,7 +13125,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13298,7 +13331,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13710,7 +13743,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13788,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13997,7 +14030,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ61">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR61">
         <v>1.57</v>
@@ -14200,10 +14233,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -14328,7 +14361,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14534,7 +14567,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14615,7 +14648,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ64">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14818,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -15027,7 +15060,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -15152,7 +15185,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15230,10 +15263,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15358,7 +15391,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15564,7 +15597,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15770,7 +15803,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15848,7 +15881,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ70">
         <v>2.08</v>
@@ -15976,7 +16009,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16054,10 +16087,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR71">
         <v>1.92</v>
@@ -16182,7 +16215,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16672,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ74">
         <v>0.42</v>
@@ -16800,7 +16833,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16881,7 +16914,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR75">
         <v>1.34</v>
@@ -17006,7 +17039,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17087,7 +17120,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ76">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR76">
         <v>1.79</v>
@@ -17293,7 +17326,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>0.73</v>
@@ -17418,7 +17451,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17624,7 +17657,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17705,7 +17738,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.23</v>
@@ -18036,7 +18069,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18117,7 +18150,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ81">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR81">
         <v>0.8100000000000001</v>
@@ -18323,7 +18356,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ82">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR82">
         <v>1.22</v>
@@ -18735,7 +18768,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18860,7 +18893,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18938,7 +18971,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ85">
         <v>1.45</v>
@@ -19147,7 +19180,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19272,7 +19305,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19350,7 +19383,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ87">
         <v>2.08</v>
@@ -19556,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ88">
         <v>0.73</v>
@@ -19684,7 +19717,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19765,7 +19798,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ89">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.7</v>
@@ -19890,7 +19923,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19968,7 +20001,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ90">
         <v>1.08</v>
@@ -20096,7 +20129,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20174,7 +20207,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ91">
         <v>1.17</v>
@@ -20302,7 +20335,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20380,10 +20413,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
+        <v>1.36</v>
+      </c>
+      <c r="AQ92">
         <v>1.4</v>
-      </c>
-      <c r="AQ92">
-        <v>1.56</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20589,7 +20622,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
         <v>0.93</v>
@@ -20795,7 +20828,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ94">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR94">
         <v>1.15</v>
@@ -20920,7 +20953,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21126,7 +21159,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21207,7 +21240,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR96">
         <v>1.27</v>
@@ -21332,7 +21365,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21616,10 +21649,10 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR98">
         <v>1.36</v>
@@ -21744,7 +21777,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21822,7 +21855,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
         <v>1.27</v>
@@ -21950,7 +21983,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -22028,7 +22061,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ100">
         <v>1.08</v>
@@ -22362,7 +22395,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22440,7 +22473,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ102">
         <v>2.08</v>
@@ -22774,7 +22807,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22855,7 +22888,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR104">
         <v>1.16</v>
@@ -23264,7 +23297,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ106">
         <v>1.31</v>
@@ -23473,7 +23506,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ107">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23676,10 +23709,10 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -24088,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -24216,7 +24249,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24294,7 +24327,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ111">
         <v>0.58</v>
@@ -24422,7 +24455,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24503,7 +24536,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24706,7 +24739,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ113">
         <v>0.75</v>
@@ -24915,7 +24948,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ114">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -25246,7 +25279,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25327,7 +25360,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR116">
         <v>1.13</v>
@@ -25452,7 +25485,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25533,7 +25566,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR117">
         <v>0.93</v>
@@ -25658,7 +25691,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25739,7 +25772,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ118">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR118">
         <v>0.98</v>
@@ -25942,10 +25975,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ119">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -26354,10 +26387,10 @@
         <v>1.2</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26560,10 +26593,10 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26688,7 +26721,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26766,10 +26799,10 @@
         <v>2.25</v>
       </c>
       <c r="AP123">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ123">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR123">
         <v>1.41</v>
@@ -26894,7 +26927,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -27100,7 +27133,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27384,7 +27417,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ126">
         <v>1.25</v>
@@ -27718,7 +27751,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27796,7 +27829,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ128">
         <v>2.08</v>
@@ -28005,7 +28038,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.58</v>
@@ -28336,7 +28369,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28414,7 +28447,7 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ131">
         <v>2.08</v>
@@ -28620,10 +28653,10 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ132">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR132">
         <v>1.15</v>
@@ -28829,7 +28862,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ133">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR133">
         <v>1.64</v>
@@ -29035,7 +29068,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -29160,7 +29193,7 @@
         <v>96</v>
       </c>
       <c r="P135" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29366,7 +29399,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29444,7 +29477,7 @@
         <v>1.2</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ136">
         <v>1.27</v>
@@ -29650,7 +29683,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>0.62</v>
@@ -29778,7 +29811,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30190,7 +30223,7 @@
         <v>99</v>
       </c>
       <c r="P140" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30271,7 +30304,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR140">
         <v>1.36</v>
@@ -30680,10 +30713,10 @@
         <v>2.4</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ142">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -31014,7 +31047,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31095,7 +31128,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ144">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR144">
         <v>1.28</v>
@@ -31301,7 +31334,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ145">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR145">
         <v>1.46</v>
@@ -31504,7 +31537,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
         <v>1.17</v>
@@ -31710,7 +31743,7 @@
         <v>0.6</v>
       </c>
       <c r="AP147">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
         <v>0.75</v>
@@ -31919,7 +31952,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ148">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR148">
         <v>1.62</v>
@@ -32044,7 +32077,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32328,10 +32361,10 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ150">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32537,7 +32570,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ151">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
         <v>1.5</v>
@@ -32740,7 +32773,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ152">
         <v>0.73</v>
@@ -32868,7 +32901,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32946,7 +32979,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ153">
         <v>1.25</v>
@@ -33074,7 +33107,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33152,7 +33185,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ154">
         <v>0.62</v>
@@ -33358,10 +33391,10 @@
         <v>0.8</v>
       </c>
       <c r="AP155">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33486,7 +33519,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33567,7 +33600,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ156">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR156">
         <v>1.12</v>
@@ -33770,7 +33803,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ157">
         <v>0.75</v>
@@ -33898,7 +33931,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33976,7 +34009,7 @@
         <v>1.83</v>
       </c>
       <c r="AP158">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>2.08</v>
@@ -34182,10 +34215,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ159">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34388,10 +34421,10 @@
         <v>0.57</v>
       </c>
       <c r="AP160">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ160">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR160">
         <v>1.04</v>
@@ -34928,7 +34961,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35134,7 +35167,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q164">
         <v>3.6</v>
@@ -35212,7 +35245,7 @@
         <v>1.83</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ164">
         <v>1.08</v>
@@ -35958,7 +35991,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -36242,10 +36275,10 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR169">
         <v>1.5</v>
@@ -36370,7 +36403,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36451,7 +36484,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ170">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR170">
         <v>1.16</v>
@@ -36860,7 +36893,7 @@
         <v>2.14</v>
       </c>
       <c r="AP172">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ172">
         <v>2.08</v>
@@ -37066,7 +37099,7 @@
         <v>0.86</v>
       </c>
       <c r="AP173">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ173">
         <v>0.62</v>
@@ -37272,7 +37305,7 @@
         <v>0.57</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ174">
         <v>0.75</v>
@@ -37478,10 +37511,10 @@
         <v>1.29</v>
       </c>
       <c r="AP175">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37606,7 +37639,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q176">
         <v>7.5</v>
@@ -37687,7 +37720,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ176">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR176">
         <v>0.99</v>
@@ -38099,7 +38132,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ178">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38224,7 +38257,7 @@
         <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38302,7 +38335,7 @@
         <v>1.43</v>
       </c>
       <c r="AP179">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ179">
         <v>1.17</v>
@@ -38511,7 +38544,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ180">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR180">
         <v>0.97</v>
@@ -38842,7 +38875,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38920,7 +38953,7 @@
         <v>2.13</v>
       </c>
       <c r="AP182">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ182">
         <v>2.08</v>
@@ -39048,7 +39081,7 @@
         <v>96</v>
       </c>
       <c r="P183" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39126,7 +39159,7 @@
         <v>0.57</v>
       </c>
       <c r="AP183">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ183">
         <v>0.58</v>
@@ -39332,7 +39365,7 @@
         <v>0.43</v>
       </c>
       <c r="AP184">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ184">
         <v>0.42</v>
@@ -39460,7 +39493,7 @@
         <v>143</v>
       </c>
       <c r="P185" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39541,7 +39574,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR185">
         <v>1.26</v>
@@ -39747,7 +39780,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ186">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -39872,7 +39905,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39950,7 +39983,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ187">
         <v>1.25</v>
@@ -40078,7 +40111,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40490,7 +40523,7 @@
         <v>219</v>
       </c>
       <c r="P190" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40568,10 +40601,10 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ190">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR190">
         <v>1.71</v>
@@ -40696,7 +40729,7 @@
         <v>96</v>
       </c>
       <c r="P191" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40902,7 +40935,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40980,7 +41013,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ192">
         <v>1.27</v>
@@ -41186,10 +41219,10 @@
         <v>1.71</v>
       </c>
       <c r="AP193">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ193">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -41314,7 +41347,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41395,7 +41428,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ194">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR194">
         <v>1.36</v>
@@ -41520,7 +41553,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41598,7 +41631,7 @@
         <v>0.88</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ195">
         <v>1.31</v>
@@ -41804,7 +41837,7 @@
         <v>2</v>
       </c>
       <c r="AP196">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ196">
         <v>1.45</v>
@@ -41932,7 +41965,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42756,7 +42789,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42962,7 +42995,7 @@
         <v>137</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -43786,7 +43819,7 @@
         <v>96</v>
       </c>
       <c r="P206" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44198,7 +44231,7 @@
         <v>119</v>
       </c>
       <c r="P208" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44482,7 +44515,7 @@
         <v>1.11</v>
       </c>
       <c r="AP209">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ209">
         <v>1.27</v>
@@ -44610,7 +44643,7 @@
         <v>96</v>
       </c>
       <c r="P210" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44691,7 +44724,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ210">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR210">
         <v>1.22</v>
@@ -44816,7 +44849,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44894,7 +44927,7 @@
         <v>1.38</v>
       </c>
       <c r="AP211">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ211">
         <v>1.7</v>
@@ -45100,10 +45133,10 @@
         <v>1.25</v>
       </c>
       <c r="AP212">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR212">
         <v>1.61</v>
@@ -45306,10 +45339,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ213">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR213">
         <v>1.39</v>
@@ -45434,7 +45467,7 @@
         <v>99</v>
       </c>
       <c r="P214" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q214">
         <v>4.33</v>
@@ -45512,10 +45545,10 @@
         <v>2</v>
       </c>
       <c r="AP214">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ214">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR214">
         <v>1.76</v>
@@ -45718,10 +45751,10 @@
         <v>1.13</v>
       </c>
       <c r="AP215">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ215">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR215">
         <v>1.02</v>
@@ -45924,10 +45957,10 @@
         <v>0.5</v>
       </c>
       <c r="AP216">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ216">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR216">
         <v>1.31</v>
@@ -46052,7 +46085,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46130,10 +46163,10 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ217">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR217">
         <v>1.24</v>
@@ -46258,7 +46291,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q218">
         <v>2.3</v>
@@ -46670,7 +46703,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46876,7 +46909,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q221">
         <v>2.88</v>
@@ -47288,7 +47321,7 @@
         <v>132</v>
       </c>
       <c r="P223" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -47700,7 +47733,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47906,7 +47939,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q226">
         <v>3.75</v>
@@ -48112,7 +48145,7 @@
         <v>239</v>
       </c>
       <c r="P227" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48730,7 +48763,7 @@
         <v>241</v>
       </c>
       <c r="P230" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q230">
         <v>2.38</v>
@@ -48808,10 +48841,10 @@
         <v>0.88</v>
       </c>
       <c r="AP230">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR230">
         <v>1.64</v>
@@ -49014,10 +49047,10 @@
         <v>1.63</v>
       </c>
       <c r="AP231">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ231">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR231">
         <v>1.34</v>
@@ -49142,7 +49175,7 @@
         <v>96</v>
       </c>
       <c r="P232" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49220,7 +49253,7 @@
         <v>1.56</v>
       </c>
       <c r="AP232">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ232">
         <v>1.7</v>
@@ -49426,10 +49459,10 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ233">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR233">
         <v>1.33</v>
@@ -49632,10 +49665,10 @@
         <v>1.33</v>
       </c>
       <c r="AP234">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ234">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR234">
         <v>1.1</v>
@@ -49760,7 +49793,7 @@
         <v>244</v>
       </c>
       <c r="P235" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q235">
         <v>2.38</v>
@@ -49841,7 +49874,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ235">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR235">
         <v>1.17</v>
@@ -49966,7 +49999,7 @@
         <v>96</v>
       </c>
       <c r="P236" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50044,7 +50077,7 @@
         <v>1.1</v>
       </c>
       <c r="AP236">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ236">
         <v>1.27</v>
@@ -50250,10 +50283,10 @@
         <v>0.67</v>
       </c>
       <c r="AP237">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ237">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR237">
         <v>1.39</v>
@@ -50378,7 +50411,7 @@
         <v>96</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50456,10 +50489,10 @@
         <v>1.11</v>
       </c>
       <c r="AP238">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ238">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR238">
         <v>1.71</v>
@@ -50662,10 +50695,10 @@
         <v>0.71</v>
       </c>
       <c r="AP239">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ239">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR239">
         <v>1.6</v>
@@ -50790,7 +50823,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>3.5</v>
@@ -50868,10 +50901,10 @@
         <v>1.11</v>
       </c>
       <c r="AP240">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AQ240">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR240">
         <v>0.97</v>
@@ -50996,7 +51029,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51077,7 +51110,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ241">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR241">
         <v>0.97</v>
@@ -51408,7 +51441,7 @@
         <v>248</v>
       </c>
       <c r="P243" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q243">
         <v>2.2</v>
@@ -51614,7 +51647,7 @@
         <v>96</v>
       </c>
       <c r="P244" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>3.75</v>
@@ -51820,7 +51853,7 @@
         <v>249</v>
       </c>
       <c r="P245" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52232,7 +52265,7 @@
         <v>251</v>
       </c>
       <c r="P247" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -52438,7 +52471,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q248">
         <v>2.4</v>
@@ -52644,7 +52677,7 @@
         <v>253</v>
       </c>
       <c r="P249" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="Q249">
         <v>2.6</v>
@@ -53056,7 +53089,7 @@
         <v>96</v>
       </c>
       <c r="P251" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53468,7 +53501,7 @@
         <v>96</v>
       </c>
       <c r="P253" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -54498,7 +54531,7 @@
         <v>258</v>
       </c>
       <c r="P258" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q258">
         <v>2.5</v>
@@ -54803,13 +54836,13 @@
         <v>3</v>
       </c>
       <c r="AW259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX259">
         <v>2</v>
       </c>
       <c r="AY259">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ259">
         <v>6</v>
@@ -55116,7 +55149,7 @@
         <v>261</v>
       </c>
       <c r="P261" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q261">
         <v>2.75</v>
@@ -55433,13 +55466,13 @@
         <v>7</v>
       </c>
       <c r="BA262">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB262">
         <v>7</v>
       </c>
       <c r="BC262">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD262">
         <v>1.34</v>
@@ -55528,7 +55561,7 @@
         <v>160</v>
       </c>
       <c r="P263" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q263">
         <v>3.1</v>
@@ -55734,7 +55767,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q264">
         <v>2.38</v>
@@ -56097,6 +56130,2066 @@
       </c>
       <c r="BP265">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7727133</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F266">
+        <v>24</v>
+      </c>
+      <c r="G266" t="s">
+        <v>89</v>
+      </c>
+      <c r="H266" t="s">
+        <v>85</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
+        <v>96</v>
+      </c>
+      <c r="P266" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q266">
+        <v>2.63</v>
+      </c>
+      <c r="R266">
+        <v>2.1</v>
+      </c>
+      <c r="S266">
+        <v>4.33</v>
+      </c>
+      <c r="T266">
+        <v>1.44</v>
+      </c>
+      <c r="U266">
+        <v>2.63</v>
+      </c>
+      <c r="V266">
+        <v>3.25</v>
+      </c>
+      <c r="W266">
+        <v>1.33</v>
+      </c>
+      <c r="X266">
+        <v>9</v>
+      </c>
+      <c r="Y266">
+        <v>1.07</v>
+      </c>
+      <c r="Z266">
+        <v>1.95</v>
+      </c>
+      <c r="AA266">
+        <v>3.6</v>
+      </c>
+      <c r="AB266">
+        <v>3.5</v>
+      </c>
+      <c r="AC266">
+        <v>1.05</v>
+      </c>
+      <c r="AD266">
+        <v>9</v>
+      </c>
+      <c r="AE266">
+        <v>1.35</v>
+      </c>
+      <c r="AF266">
+        <v>3.1</v>
+      </c>
+      <c r="AG266">
+        <v>2.1</v>
+      </c>
+      <c r="AH266">
+        <v>1.67</v>
+      </c>
+      <c r="AI266">
+        <v>1.95</v>
+      </c>
+      <c r="AJ266">
+        <v>1.8</v>
+      </c>
+      <c r="AK266">
+        <v>1.28</v>
+      </c>
+      <c r="AL266">
+        <v>1.22</v>
+      </c>
+      <c r="AM266">
+        <v>1.8</v>
+      </c>
+      <c r="AN266">
+        <v>1.7</v>
+      </c>
+      <c r="AO266">
+        <v>0.6</v>
+      </c>
+      <c r="AP266">
+        <v>1.55</v>
+      </c>
+      <c r="AQ266">
+        <v>0.82</v>
+      </c>
+      <c r="AR266">
+        <v>1.38</v>
+      </c>
+      <c r="AS266">
+        <v>1.26</v>
+      </c>
+      <c r="AT266">
+        <v>2.64</v>
+      </c>
+      <c r="AU266">
+        <v>3</v>
+      </c>
+      <c r="AV266">
+        <v>10</v>
+      </c>
+      <c r="AW266">
+        <v>3</v>
+      </c>
+      <c r="AX266">
+        <v>4</v>
+      </c>
+      <c r="AY266">
+        <v>9</v>
+      </c>
+      <c r="AZ266">
+        <v>16</v>
+      </c>
+      <c r="BA266">
+        <v>1</v>
+      </c>
+      <c r="BB266">
+        <v>2</v>
+      </c>
+      <c r="BC266">
+        <v>3</v>
+      </c>
+      <c r="BD266">
+        <v>1.72</v>
+      </c>
+      <c r="BE266">
+        <v>6.75</v>
+      </c>
+      <c r="BF266">
+        <v>2.33</v>
+      </c>
+      <c r="BG266">
+        <v>1.26</v>
+      </c>
+      <c r="BH266">
+        <v>3.4</v>
+      </c>
+      <c r="BI266">
+        <v>1.46</v>
+      </c>
+      <c r="BJ266">
+        <v>2.5</v>
+      </c>
+      <c r="BK266">
+        <v>1.73</v>
+      </c>
+      <c r="BL266">
+        <v>1.96</v>
+      </c>
+      <c r="BM266">
+        <v>2.14</v>
+      </c>
+      <c r="BN266">
+        <v>1.61</v>
+      </c>
+      <c r="BO266">
+        <v>2.7</v>
+      </c>
+      <c r="BP266">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7727131</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F267">
+        <v>24</v>
+      </c>
+      <c r="G267" t="s">
+        <v>88</v>
+      </c>
+      <c r="H267" t="s">
+        <v>84</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>3</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267" t="s">
+        <v>178</v>
+      </c>
+      <c r="P267" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q267">
+        <v>3.25</v>
+      </c>
+      <c r="R267">
+        <v>2.3</v>
+      </c>
+      <c r="S267">
+        <v>3</v>
+      </c>
+      <c r="T267">
+        <v>1.33</v>
+      </c>
+      <c r="U267">
+        <v>3.25</v>
+      </c>
+      <c r="V267">
+        <v>2.5</v>
+      </c>
+      <c r="W267">
+        <v>1.5</v>
+      </c>
+      <c r="X267">
+        <v>6.5</v>
+      </c>
+      <c r="Y267">
+        <v>1.11</v>
+      </c>
+      <c r="Z267">
+        <v>2.75</v>
+      </c>
+      <c r="AA267">
+        <v>3.5</v>
+      </c>
+      <c r="AB267">
+        <v>2.38</v>
+      </c>
+      <c r="AC267">
+        <v>1.04</v>
+      </c>
+      <c r="AD267">
+        <v>10</v>
+      </c>
+      <c r="AE267">
+        <v>1.22</v>
+      </c>
+      <c r="AF267">
+        <v>4.2</v>
+      </c>
+      <c r="AG267">
+        <v>1.65</v>
+      </c>
+      <c r="AH267">
+        <v>2.14</v>
+      </c>
+      <c r="AI267">
+        <v>1.57</v>
+      </c>
+      <c r="AJ267">
+        <v>2.25</v>
+      </c>
+      <c r="AK267">
+        <v>1.55</v>
+      </c>
+      <c r="AL267">
+        <v>1.25</v>
+      </c>
+      <c r="AM267">
+        <v>1.42</v>
+      </c>
+      <c r="AN267">
+        <v>1.2</v>
+      </c>
+      <c r="AO267">
+        <v>0.91</v>
+      </c>
+      <c r="AP267">
+        <v>1.09</v>
+      </c>
+      <c r="AQ267">
+        <v>1.08</v>
+      </c>
+      <c r="AR267">
+        <v>1.3</v>
+      </c>
+      <c r="AS267">
+        <v>1.18</v>
+      </c>
+      <c r="AT267">
+        <v>2.48</v>
+      </c>
+      <c r="AU267">
+        <v>6</v>
+      </c>
+      <c r="AV267">
+        <v>7</v>
+      </c>
+      <c r="AW267">
+        <v>3</v>
+      </c>
+      <c r="AX267">
+        <v>4</v>
+      </c>
+      <c r="AY267">
+        <v>17</v>
+      </c>
+      <c r="AZ267">
+        <v>14</v>
+      </c>
+      <c r="BA267">
+        <v>9</v>
+      </c>
+      <c r="BB267">
+        <v>3</v>
+      </c>
+      <c r="BC267">
+        <v>12</v>
+      </c>
+      <c r="BD267">
+        <v>2.07</v>
+      </c>
+      <c r="BE267">
+        <v>6.75</v>
+      </c>
+      <c r="BF267">
+        <v>1.9</v>
+      </c>
+      <c r="BG267">
+        <v>1.21</v>
+      </c>
+      <c r="BH267">
+        <v>3.7</v>
+      </c>
+      <c r="BI267">
+        <v>1.4</v>
+      </c>
+      <c r="BJ267">
+        <v>2.7</v>
+      </c>
+      <c r="BK267">
+        <v>1.65</v>
+      </c>
+      <c r="BL267">
+        <v>2.08</v>
+      </c>
+      <c r="BM267">
+        <v>2</v>
+      </c>
+      <c r="BN267">
+        <v>1.71</v>
+      </c>
+      <c r="BO267">
+        <v>2.5</v>
+      </c>
+      <c r="BP267">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7727138</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F268">
+        <v>24</v>
+      </c>
+      <c r="G268" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" t="s">
+        <v>81</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>264</v>
+      </c>
+      <c r="P268" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q268">
+        <v>2.2</v>
+      </c>
+      <c r="R268">
+        <v>2.25</v>
+      </c>
+      <c r="S268">
+        <v>6</v>
+      </c>
+      <c r="T268">
+        <v>1.4</v>
+      </c>
+      <c r="U268">
+        <v>2.75</v>
+      </c>
+      <c r="V268">
+        <v>2.75</v>
+      </c>
+      <c r="W268">
+        <v>1.4</v>
+      </c>
+      <c r="X268">
+        <v>8</v>
+      </c>
+      <c r="Y268">
+        <v>1.08</v>
+      </c>
+      <c r="Z268">
+        <v>1.57</v>
+      </c>
+      <c r="AA268">
+        <v>4.2</v>
+      </c>
+      <c r="AB268">
+        <v>5.25</v>
+      </c>
+      <c r="AC268">
+        <v>1.04</v>
+      </c>
+      <c r="AD268">
+        <v>12</v>
+      </c>
+      <c r="AE268">
+        <v>1.28</v>
+      </c>
+      <c r="AF268">
+        <v>3.6</v>
+      </c>
+      <c r="AG268">
+        <v>1.87</v>
+      </c>
+      <c r="AH268">
+        <v>1.87</v>
+      </c>
+      <c r="AI268">
+        <v>1.95</v>
+      </c>
+      <c r="AJ268">
+        <v>1.8</v>
+      </c>
+      <c r="AK268">
+        <v>1.15</v>
+      </c>
+      <c r="AL268">
+        <v>1.23</v>
+      </c>
+      <c r="AM268">
+        <v>2.3</v>
+      </c>
+      <c r="AN268">
+        <v>2.22</v>
+      </c>
+      <c r="AO268">
+        <v>1.3</v>
+      </c>
+      <c r="AP268">
+        <v>2.3</v>
+      </c>
+      <c r="AQ268">
+        <v>1.18</v>
+      </c>
+      <c r="AR268">
+        <v>1.34</v>
+      </c>
+      <c r="AS268">
+        <v>0.92</v>
+      </c>
+      <c r="AT268">
+        <v>2.26</v>
+      </c>
+      <c r="AU268">
+        <v>5</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>6</v>
+      </c>
+      <c r="AX268">
+        <v>4</v>
+      </c>
+      <c r="AY268">
+        <v>14</v>
+      </c>
+      <c r="AZ268">
+        <v>9</v>
+      </c>
+      <c r="BA268">
+        <v>2</v>
+      </c>
+      <c r="BB268">
+        <v>4</v>
+      </c>
+      <c r="BC268">
+        <v>6</v>
+      </c>
+      <c r="BD268">
+        <v>1.5</v>
+      </c>
+      <c r="BE268">
+        <v>7</v>
+      </c>
+      <c r="BF268">
+        <v>2.8</v>
+      </c>
+      <c r="BG268">
+        <v>1.22</v>
+      </c>
+      <c r="BH268">
+        <v>3.65</v>
+      </c>
+      <c r="BI268">
+        <v>1.41</v>
+      </c>
+      <c r="BJ268">
+        <v>2.65</v>
+      </c>
+      <c r="BK268">
+        <v>1.66</v>
+      </c>
+      <c r="BL268">
+        <v>2.07</v>
+      </c>
+      <c r="BM268">
+        <v>1.91</v>
+      </c>
+      <c r="BN268">
+        <v>1.8</v>
+      </c>
+      <c r="BO268">
+        <v>2.55</v>
+      </c>
+      <c r="BP268">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7727136</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F269">
+        <v>24</v>
+      </c>
+      <c r="G269" t="s">
+        <v>73</v>
+      </c>
+      <c r="H269" t="s">
+        <v>80</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>265</v>
+      </c>
+      <c r="P269" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q269">
+        <v>3.75</v>
+      </c>
+      <c r="R269">
+        <v>2.2</v>
+      </c>
+      <c r="S269">
+        <v>2.88</v>
+      </c>
+      <c r="T269">
+        <v>1.4</v>
+      </c>
+      <c r="U269">
+        <v>2.75</v>
+      </c>
+      <c r="V269">
+        <v>2.75</v>
+      </c>
+      <c r="W269">
+        <v>1.4</v>
+      </c>
+      <c r="X269">
+        <v>8</v>
+      </c>
+      <c r="Y269">
+        <v>1.08</v>
+      </c>
+      <c r="Z269">
+        <v>3.2</v>
+      </c>
+      <c r="AA269">
+        <v>3.5</v>
+      </c>
+      <c r="AB269">
+        <v>2.15</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>11</v>
+      </c>
+      <c r="AE269">
+        <v>1.3</v>
+      </c>
+      <c r="AF269">
+        <v>3.4</v>
+      </c>
+      <c r="AG269">
+        <v>1.92</v>
+      </c>
+      <c r="AH269">
+        <v>1.82</v>
+      </c>
+      <c r="AI269">
+        <v>1.75</v>
+      </c>
+      <c r="AJ269">
+        <v>2</v>
+      </c>
+      <c r="AK269">
+        <v>1.66</v>
+      </c>
+      <c r="AL269">
+        <v>1.29</v>
+      </c>
+      <c r="AM269">
+        <v>1.34</v>
+      </c>
+      <c r="AN269">
+        <v>2.09</v>
+      </c>
+      <c r="AO269">
+        <v>2.2</v>
+      </c>
+      <c r="AP269">
+        <v>2</v>
+      </c>
+      <c r="AQ269">
+        <v>2.09</v>
+      </c>
+      <c r="AR269">
+        <v>1.61</v>
+      </c>
+      <c r="AS269">
+        <v>1.2</v>
+      </c>
+      <c r="AT269">
+        <v>2.81</v>
+      </c>
+      <c r="AU269">
+        <v>6</v>
+      </c>
+      <c r="AV269">
+        <v>4</v>
+      </c>
+      <c r="AW269">
+        <v>5</v>
+      </c>
+      <c r="AX269">
+        <v>2</v>
+      </c>
+      <c r="AY269">
+        <v>17</v>
+      </c>
+      <c r="AZ269">
+        <v>7</v>
+      </c>
+      <c r="BA269">
+        <v>9</v>
+      </c>
+      <c r="BB269">
+        <v>3</v>
+      </c>
+      <c r="BC269">
+        <v>12</v>
+      </c>
+      <c r="BD269">
+        <v>2.17</v>
+      </c>
+      <c r="BE269">
+        <v>6.4</v>
+      </c>
+      <c r="BF269">
+        <v>1.84</v>
+      </c>
+      <c r="BG269">
+        <v>1.3</v>
+      </c>
+      <c r="BH269">
+        <v>3.15</v>
+      </c>
+      <c r="BI269">
+        <v>1.52</v>
+      </c>
+      <c r="BJ269">
+        <v>2.33</v>
+      </c>
+      <c r="BK269">
+        <v>1.8</v>
+      </c>
+      <c r="BL269">
+        <v>1.91</v>
+      </c>
+      <c r="BM269">
+        <v>2.32</v>
+      </c>
+      <c r="BN269">
+        <v>1.53</v>
+      </c>
+      <c r="BO269">
+        <v>2.95</v>
+      </c>
+      <c r="BP269">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7727135</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F270">
+        <v>24</v>
+      </c>
+      <c r="G270" t="s">
+        <v>87</v>
+      </c>
+      <c r="H270" t="s">
+        <v>76</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270" t="s">
+        <v>96</v>
+      </c>
+      <c r="P270" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q270">
+        <v>4</v>
+      </c>
+      <c r="R270">
+        <v>1.95</v>
+      </c>
+      <c r="S270">
+        <v>3.2</v>
+      </c>
+      <c r="T270">
+        <v>1.53</v>
+      </c>
+      <c r="U270">
+        <v>2.38</v>
+      </c>
+      <c r="V270">
+        <v>3.75</v>
+      </c>
+      <c r="W270">
+        <v>1.25</v>
+      </c>
+      <c r="X270">
+        <v>11</v>
+      </c>
+      <c r="Y270">
+        <v>1.05</v>
+      </c>
+      <c r="Z270">
+        <v>3</v>
+      </c>
+      <c r="AA270">
+        <v>3.3</v>
+      </c>
+      <c r="AB270">
+        <v>2.3</v>
+      </c>
+      <c r="AC270">
+        <v>1.08</v>
+      </c>
+      <c r="AD270">
+        <v>7.5</v>
+      </c>
+      <c r="AE270">
+        <v>1.45</v>
+      </c>
+      <c r="AF270">
+        <v>2.7</v>
+      </c>
+      <c r="AG270">
+        <v>2.25</v>
+      </c>
+      <c r="AH270">
+        <v>1.58</v>
+      </c>
+      <c r="AI270">
+        <v>2.05</v>
+      </c>
+      <c r="AJ270">
+        <v>1.7</v>
+      </c>
+      <c r="AK270">
+        <v>1.57</v>
+      </c>
+      <c r="AL270">
+        <v>1.25</v>
+      </c>
+      <c r="AM270">
+        <v>1.38</v>
+      </c>
+      <c r="AN270">
+        <v>1.4</v>
+      </c>
+      <c r="AO270">
+        <v>0.75</v>
+      </c>
+      <c r="AP270">
+        <v>1.36</v>
+      </c>
+      <c r="AQ270">
+        <v>0.78</v>
+      </c>
+      <c r="AR270">
+        <v>1.19</v>
+      </c>
+      <c r="AS270">
+        <v>1.06</v>
+      </c>
+      <c r="AT270">
+        <v>2.25</v>
+      </c>
+      <c r="AU270">
+        <v>4</v>
+      </c>
+      <c r="AV270">
+        <v>3</v>
+      </c>
+      <c r="AW270">
+        <v>5</v>
+      </c>
+      <c r="AX270">
+        <v>4</v>
+      </c>
+      <c r="AY270">
+        <v>12</v>
+      </c>
+      <c r="AZ270">
+        <v>9</v>
+      </c>
+      <c r="BA270">
+        <v>6</v>
+      </c>
+      <c r="BB270">
+        <v>4</v>
+      </c>
+      <c r="BC270">
+        <v>10</v>
+      </c>
+      <c r="BD270">
+        <v>2.4</v>
+      </c>
+      <c r="BE270">
+        <v>6.5</v>
+      </c>
+      <c r="BF270">
+        <v>1.68</v>
+      </c>
+      <c r="BG270">
+        <v>1.3</v>
+      </c>
+      <c r="BH270">
+        <v>3.05</v>
+      </c>
+      <c r="BI270">
+        <v>1.54</v>
+      </c>
+      <c r="BJ270">
+        <v>2.3</v>
+      </c>
+      <c r="BK270">
+        <v>1.86</v>
+      </c>
+      <c r="BL270">
+        <v>1.82</v>
+      </c>
+      <c r="BM270">
+        <v>2.33</v>
+      </c>
+      <c r="BN270">
+        <v>1.5</v>
+      </c>
+      <c r="BO270">
+        <v>3.05</v>
+      </c>
+      <c r="BP270">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7727134</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F271">
+        <v>24</v>
+      </c>
+      <c r="G271" t="s">
+        <v>92</v>
+      </c>
+      <c r="H271" t="s">
+        <v>93</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>266</v>
+      </c>
+      <c r="P271" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q271">
+        <v>3.1</v>
+      </c>
+      <c r="R271">
+        <v>2.2</v>
+      </c>
+      <c r="S271">
+        <v>3.4</v>
+      </c>
+      <c r="T271">
+        <v>1.4</v>
+      </c>
+      <c r="U271">
+        <v>2.75</v>
+      </c>
+      <c r="V271">
+        <v>2.75</v>
+      </c>
+      <c r="W271">
+        <v>1.4</v>
+      </c>
+      <c r="X271">
+        <v>8</v>
+      </c>
+      <c r="Y271">
+        <v>1.08</v>
+      </c>
+      <c r="Z271">
+        <v>2.5</v>
+      </c>
+      <c r="AA271">
+        <v>3.3</v>
+      </c>
+      <c r="AB271">
+        <v>2.75</v>
+      </c>
+      <c r="AC271">
+        <v>1.06</v>
+      </c>
+      <c r="AD271">
+        <v>8.5</v>
+      </c>
+      <c r="AE271">
+        <v>1.3</v>
+      </c>
+      <c r="AF271">
+        <v>3.4</v>
+      </c>
+      <c r="AG271">
+        <v>1.87</v>
+      </c>
+      <c r="AH271">
+        <v>1.87</v>
+      </c>
+      <c r="AI271">
+        <v>1.7</v>
+      </c>
+      <c r="AJ271">
+        <v>2.05</v>
+      </c>
+      <c r="AK271">
+        <v>1.42</v>
+      </c>
+      <c r="AL271">
+        <v>1.28</v>
+      </c>
+      <c r="AM271">
+        <v>1.5</v>
+      </c>
+      <c r="AN271">
+        <v>1.5</v>
+      </c>
+      <c r="AO271">
+        <v>1.56</v>
+      </c>
+      <c r="AP271">
+        <v>1.64</v>
+      </c>
+      <c r="AQ271">
+        <v>1.4</v>
+      </c>
+      <c r="AR271">
+        <v>1.35</v>
+      </c>
+      <c r="AS271">
+        <v>1.09</v>
+      </c>
+      <c r="AT271">
+        <v>2.44</v>
+      </c>
+      <c r="AU271">
+        <v>6</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>6</v>
+      </c>
+      <c r="AX271">
+        <v>5</v>
+      </c>
+      <c r="AY271">
+        <v>15</v>
+      </c>
+      <c r="AZ271">
+        <v>13</v>
+      </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
+      <c r="BB271">
+        <v>8</v>
+      </c>
+      <c r="BC271">
+        <v>12</v>
+      </c>
+      <c r="BD271">
+        <v>1.95</v>
+      </c>
+      <c r="BE271">
+        <v>6.5</v>
+      </c>
+      <c r="BF271">
+        <v>2.05</v>
+      </c>
+      <c r="BG271">
+        <v>1.29</v>
+      </c>
+      <c r="BH271">
+        <v>3.2</v>
+      </c>
+      <c r="BI271">
+        <v>1.49</v>
+      </c>
+      <c r="BJ271">
+        <v>2.4</v>
+      </c>
+      <c r="BK271">
+        <v>1.81</v>
+      </c>
+      <c r="BL271">
+        <v>1.88</v>
+      </c>
+      <c r="BM271">
+        <v>2.23</v>
+      </c>
+      <c r="BN271">
+        <v>1.56</v>
+      </c>
+      <c r="BO271">
+        <v>2.9</v>
+      </c>
+      <c r="BP271">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7727130</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F272">
+        <v>24</v>
+      </c>
+      <c r="G272" t="s">
+        <v>78</v>
+      </c>
+      <c r="H272" t="s">
+        <v>74</v>
+      </c>
+      <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>3</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+      <c r="N272">
+        <v>4</v>
+      </c>
+      <c r="O272" t="s">
+        <v>267</v>
+      </c>
+      <c r="P272" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q272">
+        <v>3.2</v>
+      </c>
+      <c r="R272">
+        <v>2.3</v>
+      </c>
+      <c r="S272">
+        <v>3</v>
+      </c>
+      <c r="T272">
+        <v>1.33</v>
+      </c>
+      <c r="U272">
+        <v>3.25</v>
+      </c>
+      <c r="V272">
+        <v>2.5</v>
+      </c>
+      <c r="W272">
+        <v>1.5</v>
+      </c>
+      <c r="X272">
+        <v>6.5</v>
+      </c>
+      <c r="Y272">
+        <v>1.11</v>
+      </c>
+      <c r="Z272">
+        <v>2.75</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>2.5</v>
+      </c>
+      <c r="AC272">
+        <v>1.05</v>
+      </c>
+      <c r="AD272">
+        <v>9.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.22</v>
+      </c>
+      <c r="AF272">
+        <v>4.2</v>
+      </c>
+      <c r="AG272">
+        <v>1.57</v>
+      </c>
+      <c r="AH272">
+        <v>2.25</v>
+      </c>
+      <c r="AI272">
+        <v>1.53</v>
+      </c>
+      <c r="AJ272">
+        <v>2.38</v>
+      </c>
+      <c r="AK272">
+        <v>1.5</v>
+      </c>
+      <c r="AL272">
+        <v>1.25</v>
+      </c>
+      <c r="AM272">
+        <v>1.42</v>
+      </c>
+      <c r="AN272">
+        <v>0.45</v>
+      </c>
+      <c r="AO272">
+        <v>0.78</v>
+      </c>
+      <c r="AP272">
+        <v>0.5</v>
+      </c>
+      <c r="AQ272">
+        <v>0.8</v>
+      </c>
+      <c r="AR272">
+        <v>1</v>
+      </c>
+      <c r="AS272">
+        <v>1.16</v>
+      </c>
+      <c r="AT272">
+        <v>2.16</v>
+      </c>
+      <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>7</v>
+      </c>
+      <c r="AW272">
+        <v>2</v>
+      </c>
+      <c r="AX272">
+        <v>6</v>
+      </c>
+      <c r="AY272">
+        <v>7</v>
+      </c>
+      <c r="AZ272">
+        <v>15</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>11</v>
+      </c>
+      <c r="BC272">
+        <v>14</v>
+      </c>
+      <c r="BD272">
+        <v>2.2</v>
+      </c>
+      <c r="BE272">
+        <v>6.75</v>
+      </c>
+      <c r="BF272">
+        <v>1.8</v>
+      </c>
+      <c r="BG272">
+        <v>1.26</v>
+      </c>
+      <c r="BH272">
+        <v>3.4</v>
+      </c>
+      <c r="BI272">
+        <v>1.46</v>
+      </c>
+      <c r="BJ272">
+        <v>2.5</v>
+      </c>
+      <c r="BK272">
+        <v>1.73</v>
+      </c>
+      <c r="BL272">
+        <v>1.97</v>
+      </c>
+      <c r="BM272">
+        <v>2.15</v>
+      </c>
+      <c r="BN272">
+        <v>1.61</v>
+      </c>
+      <c r="BO272">
+        <v>2.7</v>
+      </c>
+      <c r="BP272">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7727127</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F273">
+        <v>24</v>
+      </c>
+      <c r="G273" t="s">
+        <v>70</v>
+      </c>
+      <c r="H273" t="s">
+        <v>71</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>3</v>
+      </c>
+      <c r="O273" t="s">
+        <v>268</v>
+      </c>
+      <c r="P273" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q273">
+        <v>3</v>
+      </c>
+      <c r="R273">
+        <v>2.05</v>
+      </c>
+      <c r="S273">
+        <v>3.75</v>
+      </c>
+      <c r="T273">
+        <v>1.44</v>
+      </c>
+      <c r="U273">
+        <v>2.63</v>
+      </c>
+      <c r="V273">
+        <v>3.25</v>
+      </c>
+      <c r="W273">
+        <v>1.33</v>
+      </c>
+      <c r="X273">
+        <v>9</v>
+      </c>
+      <c r="Y273">
+        <v>1.07</v>
+      </c>
+      <c r="Z273">
+        <v>2.25</v>
+      </c>
+      <c r="AA273">
+        <v>3.5</v>
+      </c>
+      <c r="AB273">
+        <v>3</v>
+      </c>
+      <c r="AC273">
+        <v>1.05</v>
+      </c>
+      <c r="AD273">
+        <v>11</v>
+      </c>
+      <c r="AE273">
+        <v>1.33</v>
+      </c>
+      <c r="AF273">
+        <v>3.3</v>
+      </c>
+      <c r="AG273">
+        <v>1.9</v>
+      </c>
+      <c r="AH273">
+        <v>1.82</v>
+      </c>
+      <c r="AI273">
+        <v>1.91</v>
+      </c>
+      <c r="AJ273">
+        <v>1.91</v>
+      </c>
+      <c r="AK273">
+        <v>1.37</v>
+      </c>
+      <c r="AL273">
+        <v>1.3</v>
+      </c>
+      <c r="AM273">
+        <v>1.6</v>
+      </c>
+      <c r="AN273">
+        <v>1</v>
+      </c>
+      <c r="AO273">
+        <v>1.3</v>
+      </c>
+      <c r="AP273">
+        <v>1.17</v>
+      </c>
+      <c r="AQ273">
+        <v>1.18</v>
+      </c>
+      <c r="AR273">
+        <v>1.64</v>
+      </c>
+      <c r="AS273">
+        <v>1.14</v>
+      </c>
+      <c r="AT273">
+        <v>2.78</v>
+      </c>
+      <c r="AU273">
+        <v>4</v>
+      </c>
+      <c r="AV273">
+        <v>7</v>
+      </c>
+      <c r="AW273">
+        <v>5</v>
+      </c>
+      <c r="AX273">
+        <v>8</v>
+      </c>
+      <c r="AY273">
+        <v>9</v>
+      </c>
+      <c r="AZ273">
+        <v>21</v>
+      </c>
+      <c r="BA273">
+        <v>5</v>
+      </c>
+      <c r="BB273">
+        <v>11</v>
+      </c>
+      <c r="BC273">
+        <v>16</v>
+      </c>
+      <c r="BD273">
+        <v>1.77</v>
+      </c>
+      <c r="BE273">
+        <v>6.75</v>
+      </c>
+      <c r="BF273">
+        <v>2.23</v>
+      </c>
+      <c r="BG273">
+        <v>1.26</v>
+      </c>
+      <c r="BH273">
+        <v>3.4</v>
+      </c>
+      <c r="BI273">
+        <v>1.46</v>
+      </c>
+      <c r="BJ273">
+        <v>2.48</v>
+      </c>
+      <c r="BK273">
+        <v>1.73</v>
+      </c>
+      <c r="BL273">
+        <v>1.96</v>
+      </c>
+      <c r="BM273">
+        <v>1.95</v>
+      </c>
+      <c r="BN273">
+        <v>1.77</v>
+      </c>
+      <c r="BO273">
+        <v>2.7</v>
+      </c>
+      <c r="BP273">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7727128</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F274">
+        <v>24</v>
+      </c>
+      <c r="G274" t="s">
+        <v>91</v>
+      </c>
+      <c r="H274" t="s">
+        <v>82</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>269</v>
+      </c>
+      <c r="P274" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q274">
+        <v>2.05</v>
+      </c>
+      <c r="R274">
+        <v>2.4</v>
+      </c>
+      <c r="S274">
+        <v>5.5</v>
+      </c>
+      <c r="T274">
+        <v>1.3</v>
+      </c>
+      <c r="U274">
+        <v>3.4</v>
+      </c>
+      <c r="V274">
+        <v>2.5</v>
+      </c>
+      <c r="W274">
+        <v>1.5</v>
+      </c>
+      <c r="X274">
+        <v>6</v>
+      </c>
+      <c r="Y274">
+        <v>1.13</v>
+      </c>
+      <c r="Z274">
+        <v>1.53</v>
+      </c>
+      <c r="AA274">
+        <v>4.33</v>
+      </c>
+      <c r="AB274">
+        <v>5.5</v>
+      </c>
+      <c r="AC274">
+        <v>1.04</v>
+      </c>
+      <c r="AD274">
+        <v>10</v>
+      </c>
+      <c r="AE274">
+        <v>1.2</v>
+      </c>
+      <c r="AF274">
+        <v>4</v>
+      </c>
+      <c r="AG274">
+        <v>1.6</v>
+      </c>
+      <c r="AH274">
+        <v>2.23</v>
+      </c>
+      <c r="AI274">
+        <v>1.75</v>
+      </c>
+      <c r="AJ274">
+        <v>2</v>
+      </c>
+      <c r="AK274">
+        <v>1.13</v>
+      </c>
+      <c r="AL274">
+        <v>1.17</v>
+      </c>
+      <c r="AM274">
+        <v>2.4</v>
+      </c>
+      <c r="AN274">
+        <v>1.22</v>
+      </c>
+      <c r="AO274">
+        <v>0.5</v>
+      </c>
+      <c r="AP274">
+        <v>1.2</v>
+      </c>
+      <c r="AQ274">
+        <v>0.55</v>
+      </c>
+      <c r="AR274">
+        <v>1.54</v>
+      </c>
+      <c r="AS274">
+        <v>1.12</v>
+      </c>
+      <c r="AT274">
+        <v>2.66</v>
+      </c>
+      <c r="AU274">
+        <v>5</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>10</v>
+      </c>
+      <c r="AX274">
+        <v>4</v>
+      </c>
+      <c r="AY274">
+        <v>15</v>
+      </c>
+      <c r="AZ274">
+        <v>9</v>
+      </c>
+      <c r="BA274">
+        <v>3</v>
+      </c>
+      <c r="BB274">
+        <v>3</v>
+      </c>
+      <c r="BC274">
+        <v>6</v>
+      </c>
+      <c r="BD274">
+        <v>1.38</v>
+      </c>
+      <c r="BE274">
+        <v>7</v>
+      </c>
+      <c r="BF274">
+        <v>3.3</v>
+      </c>
+      <c r="BG274">
+        <v>1.25</v>
+      </c>
+      <c r="BH274">
+        <v>3.45</v>
+      </c>
+      <c r="BI274">
+        <v>1.44</v>
+      </c>
+      <c r="BJ274">
+        <v>2.55</v>
+      </c>
+      <c r="BK274">
+        <v>1.71</v>
+      </c>
+      <c r="BL274">
+        <v>2</v>
+      </c>
+      <c r="BM274">
+        <v>2.1</v>
+      </c>
+      <c r="BN274">
+        <v>1.64</v>
+      </c>
+      <c r="BO274">
+        <v>2.65</v>
+      </c>
+      <c r="BP274">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7727129</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F275">
+        <v>24</v>
+      </c>
+      <c r="G275" t="s">
+        <v>79</v>
+      </c>
+      <c r="H275" t="s">
+        <v>75</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>2</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>3</v>
+      </c>
+      <c r="N275">
+        <v>5</v>
+      </c>
+      <c r="O275" t="s">
+        <v>270</v>
+      </c>
+      <c r="P275" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q275">
+        <v>3.75</v>
+      </c>
+      <c r="R275">
+        <v>2.05</v>
+      </c>
+      <c r="S275">
+        <v>3.1</v>
+      </c>
+      <c r="T275">
+        <v>1.44</v>
+      </c>
+      <c r="U275">
+        <v>2.63</v>
+      </c>
+      <c r="V275">
+        <v>3.25</v>
+      </c>
+      <c r="W275">
+        <v>1.33</v>
+      </c>
+      <c r="X275">
+        <v>10</v>
+      </c>
+      <c r="Y275">
+        <v>1.06</v>
+      </c>
+      <c r="Z275">
+        <v>3</v>
+      </c>
+      <c r="AA275">
+        <v>3.3</v>
+      </c>
+      <c r="AB275">
+        <v>2.3</v>
+      </c>
+      <c r="AC275">
+        <v>1.06</v>
+      </c>
+      <c r="AD275">
+        <v>8.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.36</v>
+      </c>
+      <c r="AF275">
+        <v>3.1</v>
+      </c>
+      <c r="AG275">
+        <v>2.1</v>
+      </c>
+      <c r="AH275">
+        <v>1.67</v>
+      </c>
+      <c r="AI275">
+        <v>1.91</v>
+      </c>
+      <c r="AJ275">
+        <v>1.91</v>
+      </c>
+      <c r="AK275">
+        <v>1.57</v>
+      </c>
+      <c r="AL275">
+        <v>1.28</v>
+      </c>
+      <c r="AM275">
+        <v>1.36</v>
+      </c>
+      <c r="AN275">
+        <v>1.5</v>
+      </c>
+      <c r="AO275">
+        <v>1.3</v>
+      </c>
+      <c r="AP275">
+        <v>1.36</v>
+      </c>
+      <c r="AQ275">
+        <v>1.45</v>
+      </c>
+      <c r="AR275">
+        <v>1.06</v>
+      </c>
+      <c r="AS275">
+        <v>0.96</v>
+      </c>
+      <c r="AT275">
+        <v>2.02</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>7</v>
+      </c>
+      <c r="AW275">
+        <v>2</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>11</v>
+      </c>
+      <c r="AZ275">
+        <v>12</v>
+      </c>
+      <c r="BA275">
+        <v>5</v>
+      </c>
+      <c r="BB275">
+        <v>6</v>
+      </c>
+      <c r="BC275">
+        <v>11</v>
+      </c>
+      <c r="BD275">
+        <v>2.48</v>
+      </c>
+      <c r="BE275">
+        <v>6.75</v>
+      </c>
+      <c r="BF275">
+        <v>1.65</v>
+      </c>
+      <c r="BG275">
+        <v>1.29</v>
+      </c>
+      <c r="BH275">
+        <v>3.2</v>
+      </c>
+      <c r="BI275">
+        <v>1.49</v>
+      </c>
+      <c r="BJ275">
+        <v>2.4</v>
+      </c>
+      <c r="BK275">
+        <v>1.8</v>
+      </c>
+      <c r="BL275">
+        <v>1.88</v>
+      </c>
+      <c r="BM275">
+        <v>2.23</v>
+      </c>
+      <c r="BN275">
+        <v>1.56</v>
+      </c>
+      <c r="BO275">
+        <v>2.9</v>
+      </c>
+      <c r="BP275">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -56287,7 +56287,7 @@
         <v>9</v>
       </c>
       <c r="AZ266">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA266">
         <v>1</v>
@@ -56896,13 +56896,13 @@
         <v>4</v>
       </c>
       <c r="AW269">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX269">
         <v>2</v>
       </c>
       <c r="AY269">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ269">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['32', '74']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['11', '51', '54']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -965,9 +971,6 @@
   </si>
   <si>
     <t>['44', '86']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
   <si>
     <t>['12', '90+2']</t>
@@ -1175,6 +1178,15 @@
   </si>
   <si>
     <t>['9', '39', '53']</t>
+  </si>
+  <si>
+    <t>['18', '30', '61']</t>
+  </si>
+  <si>
+    <t>['12', '39']</t>
+  </si>
+  <si>
+    <t>['88', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,7 +1807,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1873,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ2">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2079,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ3">
         <v>2.08</v>
@@ -2207,7 +2219,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ4">
         <v>1.27</v>
@@ -2491,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ5">
         <v>0.42</v>
@@ -2619,7 +2631,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2825,7 +2837,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2903,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3112,7 +3124,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ8">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3318,7 +3330,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ9">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3443,7 +3455,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3521,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ10">
         <v>1.08</v>
@@ -3730,7 +3742,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3855,7 +3867,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4139,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4267,7 +4279,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4348,7 +4360,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4551,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1.45</v>
@@ -4966,7 +4978,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ17">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5091,7 +5103,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5169,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ18">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5581,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5709,7 +5721,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5787,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>2.08</v>
@@ -5915,7 +5927,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5993,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ22">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6121,7 +6133,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6327,7 +6339,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6817,10 +6829,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ26">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -7023,10 +7035,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ27">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1.26</v>
@@ -7229,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ28">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR28">
         <v>0.87</v>
@@ -7435,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ29">
         <v>1.08</v>
@@ -7641,10 +7653,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
         <v>0.89</v>
@@ -7769,7 +7781,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7847,10 +7859,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7975,7 +7987,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8053,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -8259,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ33">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.14</v>
@@ -8387,7 +8399,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8465,10 +8477,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR34">
         <v>1.76</v>
@@ -8671,10 +8683,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR35">
         <v>1.31</v>
@@ -8799,7 +8811,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8877,10 +8889,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ36">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR36">
         <v>1.62</v>
@@ -9005,7 +9017,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9083,10 +9095,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ37">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -9211,7 +9223,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -10241,7 +10253,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10653,7 +10665,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -11065,7 +11077,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11477,7 +11489,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11683,7 +11695,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11761,10 +11773,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ50">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11967,10 +11979,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ51">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12173,10 +12185,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -12507,7 +12519,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -13125,7 +13137,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13331,7 +13343,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13743,7 +13755,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14361,7 +14373,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14567,7 +14579,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14851,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -15057,10 +15069,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -15185,7 +15197,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15266,7 +15278,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15391,7 +15403,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15469,10 +15481,10 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15597,7 +15609,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15675,10 +15687,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15803,7 +15815,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q70">
         <v>4.33</v>
@@ -15881,7 +15893,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ70">
         <v>2.08</v>
@@ -16009,7 +16021,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16087,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ71">
         <v>1.45</v>
@@ -16215,7 +16227,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16296,7 +16308,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ72">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR72">
         <v>0.98</v>
@@ -16499,10 +16511,10 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16705,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ74">
         <v>0.42</v>
@@ -16833,7 +16845,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17039,7 +17051,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17120,7 +17132,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ76">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR76">
         <v>1.79</v>
@@ -17323,10 +17335,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ77">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>0.73</v>
@@ -17451,7 +17463,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17529,10 +17541,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ78">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.35</v>
@@ -17657,7 +17669,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17735,10 +17747,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR79">
         <v>1.23</v>
@@ -18069,7 +18081,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18150,7 +18162,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ81">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR81">
         <v>0.8100000000000001</v>
@@ -18356,7 +18368,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ82">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
         <v>1.22</v>
@@ -18765,7 +18777,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ84">
         <v>1.18</v>
@@ -18893,7 +18905,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18974,7 +18986,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ85">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR85">
         <v>1.19</v>
@@ -19177,7 +19189,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
         <v>1.18</v>
@@ -19305,7 +19317,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19717,7 +19729,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19798,7 +19810,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
         <v>1.7</v>
@@ -19923,7 +19935,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20001,7 +20013,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.08</v>
@@ -20129,7 +20141,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20207,7 +20219,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ91">
         <v>1.17</v>
@@ -20335,7 +20347,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20416,7 +20428,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ92">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20619,10 +20631,10 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR93">
         <v>0.93</v>
@@ -20953,7 +20965,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21159,7 +21171,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21237,7 +21249,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ96">
         <v>1.18</v>
@@ -21365,7 +21377,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21446,7 +21458,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ97">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR97">
         <v>0.86</v>
@@ -21649,10 +21661,10 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR98">
         <v>1.36</v>
@@ -21777,7 +21789,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21983,7 +21995,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -22395,7 +22407,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22473,7 +22485,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ102">
         <v>2.08</v>
@@ -22807,7 +22819,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22888,7 +22900,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ104">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR104">
         <v>1.16</v>
@@ -23091,7 +23103,7 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ105">
         <v>2.08</v>
@@ -23300,7 +23312,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ106">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR106">
         <v>1.42</v>
@@ -23709,7 +23721,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
         <v>1.45</v>
@@ -23915,7 +23927,7 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>0.42</v>
@@ -24121,7 +24133,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -24249,7 +24261,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24327,10 +24339,10 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ111">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR111">
         <v>0.92</v>
@@ -24455,7 +24467,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24536,7 +24548,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24739,10 +24751,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24945,10 +24957,10 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -25151,10 +25163,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ115">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25279,7 +25291,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25360,7 +25372,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ116">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR116">
         <v>1.13</v>
@@ -25485,7 +25497,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25566,7 +25578,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>0.93</v>
@@ -25691,7 +25703,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25975,10 +25987,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ119">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -26184,7 +26196,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ120">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26596,7 +26608,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26721,7 +26733,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26799,10 +26811,10 @@
         <v>2.25</v>
       </c>
       <c r="AP123">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR123">
         <v>1.41</v>
@@ -26927,7 +26939,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -27005,10 +27017,10 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ124">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -27133,7 +27145,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27211,7 +27223,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125">
         <v>1.17</v>
@@ -27417,7 +27429,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>1.25</v>
@@ -27751,7 +27763,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -28244,7 +28256,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ130">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR130">
         <v>1.19</v>
@@ -28369,7 +28381,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28447,7 +28459,7 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ131">
         <v>2.08</v>
@@ -28656,7 +28668,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ132">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR132">
         <v>1.15</v>
@@ -28862,7 +28874,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ133">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR133">
         <v>1.64</v>
@@ -29065,10 +29077,10 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ134">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -29193,7 +29205,7 @@
         <v>96</v>
       </c>
       <c r="P135" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29399,7 +29411,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29477,7 +29489,7 @@
         <v>1.2</v>
       </c>
       <c r="AP136">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ136">
         <v>1.27</v>
@@ -29683,10 +29695,10 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ137">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -29811,7 +29823,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29889,10 +29901,10 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ138">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR138">
         <v>0.95</v>
@@ -30095,7 +30107,7 @@
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ139">
         <v>1.7</v>
@@ -30223,7 +30235,7 @@
         <v>99</v>
       </c>
       <c r="P140" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30301,7 +30313,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
         <v>1.08</v>
@@ -30716,7 +30728,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ142">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -30922,7 +30934,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ143">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR143">
         <v>1.29</v>
@@ -31047,7 +31059,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31125,7 +31137,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
         <v>1.18</v>
@@ -31331,7 +31343,7 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -31537,7 +31549,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
         <v>1.17</v>
@@ -31746,7 +31758,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31952,7 +31964,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ148">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.62</v>
@@ -32077,7 +32089,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32361,7 +32373,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ150">
         <v>1.45</v>
@@ -32570,7 +32582,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR151">
         <v>1.5</v>
@@ -32773,7 +32785,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>0.73</v>
@@ -32901,7 +32913,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -33107,7 +33119,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33185,10 +33197,10 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR154">
         <v>1.34</v>
@@ -33391,7 +33403,7 @@
         <v>0.8</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ155">
         <v>1.08</v>
@@ -33519,7 +33531,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33600,7 +33612,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ156">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR156">
         <v>1.12</v>
@@ -33803,10 +33815,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ157">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157">
         <v>1.02</v>
@@ -33931,7 +33943,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34009,7 +34021,7 @@
         <v>1.83</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ158">
         <v>2.08</v>
@@ -34215,10 +34227,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ159">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34421,10 +34433,10 @@
         <v>0.57</v>
       </c>
       <c r="AP160">
+        <v>0.46</v>
+      </c>
+      <c r="AQ160">
         <v>0.5</v>
-      </c>
-      <c r="AQ160">
-        <v>0.55</v>
       </c>
       <c r="AR160">
         <v>1.04</v>
@@ -34627,10 +34639,10 @@
         <v>2.4</v>
       </c>
       <c r="AP161">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ161">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR161">
         <v>1.49</v>
@@ -34833,7 +34845,7 @@
         <v>1.17</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162">
         <v>1.27</v>
@@ -34961,7 +34973,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35167,7 +35179,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>3.6</v>
@@ -35454,7 +35466,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ165">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35657,10 +35669,10 @@
         <v>1.17</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ166">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35991,7 +36003,7 @@
         <v>96</v>
       </c>
       <c r="P168" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -36069,7 +36081,7 @@
         <v>2</v>
       </c>
       <c r="AP168">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ168">
         <v>2.08</v>
@@ -36275,10 +36287,10 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ169">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR169">
         <v>1.5</v>
@@ -36403,7 +36415,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36687,7 +36699,7 @@
         <v>1.71</v>
       </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>1.08</v>
@@ -36893,7 +36905,7 @@
         <v>2.14</v>
       </c>
       <c r="AP172">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ172">
         <v>2.08</v>
@@ -37102,7 +37114,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ173">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR173">
         <v>1.6</v>
@@ -37308,7 +37320,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ174">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR174">
         <v>1.16</v>
@@ -37511,7 +37523,7 @@
         <v>1.29</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ175">
         <v>1.18</v>
@@ -37639,7 +37651,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q176">
         <v>7.5</v>
@@ -37720,7 +37732,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ176">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR176">
         <v>0.99</v>
@@ -37926,7 +37938,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR177">
         <v>1.67</v>
@@ -38257,7 +38269,7 @@
         <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38335,7 +38347,7 @@
         <v>1.43</v>
       </c>
       <c r="AP179">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ179">
         <v>1.17</v>
@@ -38544,7 +38556,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ180">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR180">
         <v>0.97</v>
@@ -38747,7 +38759,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ181">
         <v>1.27</v>
@@ -38875,7 +38887,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38953,7 +38965,7 @@
         <v>2.13</v>
       </c>
       <c r="AP182">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>2.08</v>
@@ -39081,7 +39093,7 @@
         <v>96</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39162,7 +39174,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ183">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR183">
         <v>1.27</v>
@@ -39493,7 +39505,7 @@
         <v>143</v>
       </c>
       <c r="P185" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39777,7 +39789,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ186">
         <v>1.18</v>
@@ -39905,7 +39917,7 @@
         <v>96</v>
       </c>
       <c r="P187" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39983,7 +39995,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ187">
         <v>1.25</v>
@@ -40111,7 +40123,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40189,10 +40201,10 @@
         <v>0.88</v>
       </c>
       <c r="AP188">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ188">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR188">
         <v>1.1</v>
@@ -40395,7 +40407,7 @@
         <v>1.63</v>
       </c>
       <c r="AP189">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ189">
         <v>1.08</v>
@@ -40523,7 +40535,7 @@
         <v>219</v>
       </c>
       <c r="P190" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40601,7 +40613,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ190">
         <v>1.08</v>
@@ -40729,7 +40741,7 @@
         <v>96</v>
       </c>
       <c r="P191" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40807,7 +40819,7 @@
         <v>1.14</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ191">
         <v>1.7</v>
@@ -40935,7 +40947,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41013,7 +41025,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ192">
         <v>1.27</v>
@@ -41219,10 +41231,10 @@
         <v>1.71</v>
       </c>
       <c r="AP193">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ193">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -41347,7 +41359,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41425,10 +41437,10 @@
         <v>1.86</v>
       </c>
       <c r="AP194">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ194">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR194">
         <v>1.36</v>
@@ -41553,7 +41565,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41634,7 +41646,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ195">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR195">
         <v>1.16</v>
@@ -41837,10 +41849,10 @@
         <v>2</v>
       </c>
       <c r="AP196">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ196">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR196">
         <v>1.45</v>
@@ -41965,7 +41977,7 @@
         <v>222</v>
       </c>
       <c r="P197" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42043,7 +42055,7 @@
         <v>2.22</v>
       </c>
       <c r="AP197">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ197">
         <v>2.08</v>
@@ -42249,10 +42261,10 @@
         <v>0.88</v>
       </c>
       <c r="AP198">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ198">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR198">
         <v>1.4</v>
@@ -42458,7 +42470,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ199">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
         <v>1.07</v>
@@ -42661,7 +42673,7 @@
         <v>2</v>
       </c>
       <c r="AP200">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ200">
         <v>2.08</v>
@@ -42789,7 +42801,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q201">
         <v>2.2</v>
@@ -42870,7 +42882,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ201">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR201">
         <v>1.67</v>
@@ -42995,7 +43007,7 @@
         <v>137</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>2.25</v>
@@ -43073,10 +43085,10 @@
         <v>0.63</v>
       </c>
       <c r="AP202">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ202">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR202">
         <v>1.37</v>
@@ -43279,7 +43291,7 @@
         <v>1.13</v>
       </c>
       <c r="AP203">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ203">
         <v>1.25</v>
@@ -43819,7 +43831,7 @@
         <v>96</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q206">
         <v>2.05</v>
@@ -44231,7 +44243,7 @@
         <v>119</v>
       </c>
       <c r="P208" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44312,7 +44324,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ208">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR208">
         <v>0.99</v>
@@ -44515,7 +44527,7 @@
         <v>1.11</v>
       </c>
       <c r="AP209">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
         <v>1.27</v>
@@ -44643,7 +44655,7 @@
         <v>96</v>
       </c>
       <c r="P210" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44721,7 +44733,7 @@
         <v>0.88</v>
       </c>
       <c r="AP210">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ210">
         <v>1.45</v>
@@ -44849,7 +44861,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -45133,7 +45145,7 @@
         <v>1.25</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ212">
         <v>1.18</v>
@@ -45339,7 +45351,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ213">
         <v>1.08</v>
@@ -45467,7 +45479,7 @@
         <v>99</v>
       </c>
       <c r="P214" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q214">
         <v>4.33</v>
@@ -45545,10 +45557,10 @@
         <v>2</v>
       </c>
       <c r="AP214">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ214">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR214">
         <v>1.76</v>
@@ -45751,7 +45763,7 @@
         <v>1.13</v>
       </c>
       <c r="AP215">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ215">
         <v>1.18</v>
@@ -45957,10 +45969,10 @@
         <v>0.5</v>
       </c>
       <c r="AP216">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ216">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR216">
         <v>1.31</v>
@@ -46085,7 +46097,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q217">
         <v>3.75</v>
@@ -46166,7 +46178,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ217">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR217">
         <v>1.24</v>
@@ -46291,7 +46303,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q218">
         <v>2.3</v>
@@ -46575,7 +46587,7 @@
         <v>0.75</v>
       </c>
       <c r="AP219">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ219">
         <v>0.73</v>
@@ -46703,7 +46715,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46781,7 +46793,7 @@
         <v>1.3</v>
       </c>
       <c r="AP220">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ220">
         <v>1.08</v>
@@ -46909,7 +46921,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q221">
         <v>2.88</v>
@@ -46990,7 +47002,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ221">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR221">
         <v>1.39</v>
@@ -47196,7 +47208,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ222">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47321,7 +47333,7 @@
         <v>132</v>
       </c>
       <c r="P223" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -47733,7 +47745,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47811,7 +47823,7 @@
         <v>0.44</v>
       </c>
       <c r="AP225">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ225">
         <v>0.42</v>
@@ -47939,7 +47951,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q226">
         <v>3.75</v>
@@ -48017,7 +48029,7 @@
         <v>1.78</v>
       </c>
       <c r="AP226">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ226">
         <v>2.08</v>
@@ -48145,7 +48157,7 @@
         <v>239</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48226,7 +48238,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ227">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR227">
         <v>1.25</v>
@@ -48432,7 +48444,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ228">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR228">
         <v>1.64</v>
@@ -48635,10 +48647,10 @@
         <v>1.5</v>
       </c>
       <c r="AP229">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ229">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR229">
         <v>1.36</v>
@@ -48763,7 +48775,7 @@
         <v>241</v>
       </c>
       <c r="P230" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q230">
         <v>2.38</v>
@@ -48841,10 +48853,10 @@
         <v>0.88</v>
       </c>
       <c r="AP230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ230">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR230">
         <v>1.64</v>
@@ -49047,10 +49059,10 @@
         <v>1.63</v>
       </c>
       <c r="AP231">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ231">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR231">
         <v>1.34</v>
@@ -49175,7 +49187,7 @@
         <v>96</v>
       </c>
       <c r="P232" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49253,7 +49265,7 @@
         <v>1.56</v>
       </c>
       <c r="AP232">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ232">
         <v>1.7</v>
@@ -49459,7 +49471,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ233">
         <v>1.08</v>
@@ -49793,7 +49805,7 @@
         <v>244</v>
       </c>
       <c r="P235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q235">
         <v>2.38</v>
@@ -49871,10 +49883,10 @@
         <v>0.44</v>
       </c>
       <c r="AP235">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ235">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR235">
         <v>1.17</v>
@@ -49999,7 +50011,7 @@
         <v>96</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50286,7 +50298,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ237">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR237">
         <v>1.39</v>
@@ -50411,7 +50423,7 @@
         <v>96</v>
       </c>
       <c r="P238" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50489,7 +50501,7 @@
         <v>1.11</v>
       </c>
       <c r="AP238">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ238">
         <v>1.45</v>
@@ -50698,7 +50710,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ239">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR239">
         <v>1.6</v>
@@ -50823,7 +50835,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q240">
         <v>3.5</v>
@@ -50901,7 +50913,7 @@
         <v>1.11</v>
       </c>
       <c r="AP240">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ240">
         <v>1.18</v>
@@ -51029,7 +51041,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51110,7 +51122,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ241">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR241">
         <v>0.97</v>
@@ -51313,10 +51325,10 @@
         <v>0.8</v>
       </c>
       <c r="AP242">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ242">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR242">
         <v>1.45</v>
@@ -51441,7 +51453,7 @@
         <v>248</v>
       </c>
       <c r="P243" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q243">
         <v>2.2</v>
@@ -51522,7 +51534,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ243">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR243">
         <v>1.35</v>
@@ -51647,7 +51659,7 @@
         <v>96</v>
       </c>
       <c r="P244" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q244">
         <v>3.75</v>
@@ -51853,7 +51865,7 @@
         <v>249</v>
       </c>
       <c r="P245" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51931,10 +51943,10 @@
         <v>1.45</v>
       </c>
       <c r="AP245">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ245">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR245">
         <v>1.4</v>
@@ -52265,7 +52277,7 @@
         <v>251</v>
       </c>
       <c r="P247" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -52471,7 +52483,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q248">
         <v>2.4</v>
@@ -52549,7 +52561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP248">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ248">
         <v>0.42</v>
@@ -52755,10 +52767,10 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ249">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR249">
         <v>1.22</v>
@@ -52961,7 +52973,7 @@
         <v>1.3</v>
       </c>
       <c r="AP250">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ250">
         <v>1.17</v>
@@ -53089,7 +53101,7 @@
         <v>96</v>
       </c>
       <c r="P251" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53170,7 +53182,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ251">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR251">
         <v>1.32</v>
@@ -53501,7 +53513,7 @@
         <v>96</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53991,7 +54003,7 @@
         <v>2.25</v>
       </c>
       <c r="AP255">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ255">
         <v>2.08</v>
@@ -54200,7 +54212,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ256">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR256">
         <v>1.67</v>
@@ -54531,7 +54543,7 @@
         <v>258</v>
       </c>
       <c r="P258" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q258">
         <v>2.5</v>
@@ -54609,10 +54621,10 @@
         <v>0.73</v>
       </c>
       <c r="AP258">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ258">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR258">
         <v>1.25</v>
@@ -54818,7 +54830,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ259">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR259">
         <v>1.11</v>
@@ -55024,7 +55036,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ260">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR260">
         <v>1</v>
@@ -55149,7 +55161,7 @@
         <v>261</v>
       </c>
       <c r="P261" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q261">
         <v>2.75</v>
@@ -55230,7 +55242,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ261">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR261">
         <v>1.34</v>
@@ -55433,7 +55445,7 @@
         <v>0.45</v>
       </c>
       <c r="AP262">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ262">
         <v>0.42</v>
@@ -55561,7 +55573,7 @@
         <v>160</v>
       </c>
       <c r="P263" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q263">
         <v>3.1</v>
@@ -55767,7 +55779,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q264">
         <v>2.38</v>
@@ -55845,7 +55857,7 @@
         <v>1.36</v>
       </c>
       <c r="AP264">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ264">
         <v>1.25</v>
@@ -56051,7 +56063,7 @@
         <v>0.7</v>
       </c>
       <c r="AP265">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ265">
         <v>0.73</v>
@@ -56179,7 +56191,7 @@
         <v>96</v>
       </c>
       <c r="P266" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q266">
         <v>2.63</v>
@@ -56257,10 +56269,10 @@
         <v>0.6</v>
       </c>
       <c r="AP266">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ266">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR266">
         <v>1.38</v>
@@ -56385,7 +56397,7 @@
         <v>178</v>
       </c>
       <c r="P267" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q267">
         <v>3.25</v>
@@ -56463,7 +56475,7 @@
         <v>0.91</v>
       </c>
       <c r="AP267">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ267">
         <v>1.08</v>
@@ -56478,22 +56490,22 @@
         <v>2.48</v>
       </c>
       <c r="AU267">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV267">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW267">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX267">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY267">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ267">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA267">
         <v>9</v>
@@ -56669,7 +56681,7 @@
         <v>1.3</v>
       </c>
       <c r="AP268">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ268">
         <v>1.18</v>
@@ -56797,7 +56809,7 @@
         <v>265</v>
       </c>
       <c r="P269" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q269">
         <v>3.75</v>
@@ -56875,10 +56887,10 @@
         <v>2.2</v>
       </c>
       <c r="AP269">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ269">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR269">
         <v>1.61</v>
@@ -57084,7 +57096,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ270">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR270">
         <v>1.19</v>
@@ -57209,7 +57221,7 @@
         <v>266</v>
       </c>
       <c r="P271" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57290,7 +57302,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ271">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR271">
         <v>1.35</v>
@@ -57308,13 +57320,13 @@
         <v>4</v>
       </c>
       <c r="AW271">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX271">
         <v>5</v>
       </c>
       <c r="AY271">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ271">
         <v>13</v>
@@ -57415,7 +57427,7 @@
         <v>267</v>
       </c>
       <c r="P272" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q272">
         <v>3.2</v>
@@ -57493,10 +57505,10 @@
         <v>0.78</v>
       </c>
       <c r="AP272">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ272">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR272">
         <v>1</v>
@@ -57699,7 +57711,7 @@
         <v>1.3</v>
       </c>
       <c r="AP273">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ273">
         <v>1.18</v>
@@ -57720,13 +57732,13 @@
         <v>7</v>
       </c>
       <c r="AW273">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX273">
         <v>8</v>
       </c>
       <c r="AY273">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ273">
         <v>21</v>
@@ -57908,7 +57920,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ274">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR274">
         <v>1.54</v>
@@ -58033,7 +58045,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q275">
         <v>3.75</v>
@@ -58138,7 +58150,7 @@
         <v>3</v>
       </c>
       <c r="AY275">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ275">
         <v>12</v>
@@ -58190,6 +58202,2478 @@
       </c>
       <c r="BP275">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7727140</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F276">
+        <v>25</v>
+      </c>
+      <c r="G276" t="s">
+        <v>78</v>
+      </c>
+      <c r="H276" t="s">
+        <v>87</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>96</v>
+      </c>
+      <c r="P276" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q276">
+        <v>3</v>
+      </c>
+      <c r="R276">
+        <v>2.1</v>
+      </c>
+      <c r="S276">
+        <v>3.6</v>
+      </c>
+      <c r="T276">
+        <v>1.4</v>
+      </c>
+      <c r="U276">
+        <v>2.75</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="W276">
+        <v>1.36</v>
+      </c>
+      <c r="X276">
+        <v>8</v>
+      </c>
+      <c r="Y276">
+        <v>1.08</v>
+      </c>
+      <c r="Z276">
+        <v>2.1</v>
+      </c>
+      <c r="AA276">
+        <v>3.15</v>
+      </c>
+      <c r="AB276">
+        <v>3.4</v>
+      </c>
+      <c r="AC276">
+        <v>1.06</v>
+      </c>
+      <c r="AD276">
+        <v>8.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.3</v>
+      </c>
+      <c r="AF276">
+        <v>3.4</v>
+      </c>
+      <c r="AG276">
+        <v>1.92</v>
+      </c>
+      <c r="AH276">
+        <v>1.82</v>
+      </c>
+      <c r="AI276">
+        <v>1.75</v>
+      </c>
+      <c r="AJ276">
+        <v>2</v>
+      </c>
+      <c r="AK276">
+        <v>1.38</v>
+      </c>
+      <c r="AL276">
+        <v>1.25</v>
+      </c>
+      <c r="AM276">
+        <v>1.57</v>
+      </c>
+      <c r="AN276">
+        <v>0.5</v>
+      </c>
+      <c r="AO276">
+        <v>0.62</v>
+      </c>
+      <c r="AP276">
+        <v>0.46</v>
+      </c>
+      <c r="AQ276">
+        <v>0.79</v>
+      </c>
+      <c r="AR276">
+        <v>0.99</v>
+      </c>
+      <c r="AS276">
+        <v>0.99</v>
+      </c>
+      <c r="AT276">
+        <v>1.98</v>
+      </c>
+      <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>3</v>
+      </c>
+      <c r="AW276">
+        <v>5</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>12</v>
+      </c>
+      <c r="AZ276">
+        <v>9</v>
+      </c>
+      <c r="BA276">
+        <v>4</v>
+      </c>
+      <c r="BB276">
+        <v>1</v>
+      </c>
+      <c r="BC276">
+        <v>5</v>
+      </c>
+      <c r="BD276">
+        <v>1.83</v>
+      </c>
+      <c r="BE276">
+        <v>6.4</v>
+      </c>
+      <c r="BF276">
+        <v>2.18</v>
+      </c>
+      <c r="BG276">
+        <v>1.35</v>
+      </c>
+      <c r="BH276">
+        <v>2.88</v>
+      </c>
+      <c r="BI276">
+        <v>1.6</v>
+      </c>
+      <c r="BJ276">
+        <v>2.17</v>
+      </c>
+      <c r="BK276">
+        <v>1.98</v>
+      </c>
+      <c r="BL276">
+        <v>1.72</v>
+      </c>
+      <c r="BM276">
+        <v>2.5</v>
+      </c>
+      <c r="BN276">
+        <v>1.46</v>
+      </c>
+      <c r="BO276">
+        <v>3.3</v>
+      </c>
+      <c r="BP276">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7727141</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F277">
+        <v>25</v>
+      </c>
+      <c r="G277" t="s">
+        <v>88</v>
+      </c>
+      <c r="H277" t="s">
+        <v>79</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>96</v>
+      </c>
+      <c r="P277" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="R277">
+        <v>2.1</v>
+      </c>
+      <c r="S277">
+        <v>3.6</v>
+      </c>
+      <c r="T277">
+        <v>1.4</v>
+      </c>
+      <c r="U277">
+        <v>2.75</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+      <c r="W277">
+        <v>1.36</v>
+      </c>
+      <c r="X277">
+        <v>8</v>
+      </c>
+      <c r="Y277">
+        <v>1.08</v>
+      </c>
+      <c r="Z277">
+        <v>2.05</v>
+      </c>
+      <c r="AA277">
+        <v>3.35</v>
+      </c>
+      <c r="AB277">
+        <v>3.45</v>
+      </c>
+      <c r="AC277">
+        <v>1.05</v>
+      </c>
+      <c r="AD277">
+        <v>9</v>
+      </c>
+      <c r="AE277">
+        <v>1.3</v>
+      </c>
+      <c r="AF277">
+        <v>3.35</v>
+      </c>
+      <c r="AG277">
+        <v>1.92</v>
+      </c>
+      <c r="AH277">
+        <v>1.82</v>
+      </c>
+      <c r="AI277">
+        <v>1.75</v>
+      </c>
+      <c r="AJ277">
+        <v>2</v>
+      </c>
+      <c r="AK277">
+        <v>1.35</v>
+      </c>
+      <c r="AL277">
+        <v>1.25</v>
+      </c>
+      <c r="AM277">
+        <v>1.62</v>
+      </c>
+      <c r="AN277">
+        <v>1.09</v>
+      </c>
+      <c r="AO277">
+        <v>0.58</v>
+      </c>
+      <c r="AP277">
+        <v>1</v>
+      </c>
+      <c r="AQ277">
+        <v>0.77</v>
+      </c>
+      <c r="AR277">
+        <v>1.34</v>
+      </c>
+      <c r="AS277">
+        <v>0.99</v>
+      </c>
+      <c r="AT277">
+        <v>2.33</v>
+      </c>
+      <c r="AU277">
+        <v>8</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>8</v>
+      </c>
+      <c r="AX277">
+        <v>5</v>
+      </c>
+      <c r="AY277">
+        <v>19</v>
+      </c>
+      <c r="AZ277">
+        <v>9</v>
+      </c>
+      <c r="BA277">
+        <v>4</v>
+      </c>
+      <c r="BB277">
+        <v>2</v>
+      </c>
+      <c r="BC277">
+        <v>6</v>
+      </c>
+      <c r="BD277">
+        <v>1.7</v>
+      </c>
+      <c r="BE277">
+        <v>6.5</v>
+      </c>
+      <c r="BF277">
+        <v>2.4</v>
+      </c>
+      <c r="BG277">
+        <v>1.35</v>
+      </c>
+      <c r="BH277">
+        <v>2.9</v>
+      </c>
+      <c r="BI277">
+        <v>1.61</v>
+      </c>
+      <c r="BJ277">
+        <v>2.15</v>
+      </c>
+      <c r="BK277">
+        <v>1.98</v>
+      </c>
+      <c r="BL277">
+        <v>1.72</v>
+      </c>
+      <c r="BM277">
+        <v>2.5</v>
+      </c>
+      <c r="BN277">
+        <v>1.46</v>
+      </c>
+      <c r="BO277">
+        <v>3.3</v>
+      </c>
+      <c r="BP277">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7727149</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F278">
+        <v>25</v>
+      </c>
+      <c r="G278" t="s">
+        <v>71</v>
+      </c>
+      <c r="H278" t="s">
+        <v>74</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278" t="s">
+        <v>103</v>
+      </c>
+      <c r="P278" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q278">
+        <v>2.3</v>
+      </c>
+      <c r="R278">
+        <v>2.25</v>
+      </c>
+      <c r="S278">
+        <v>5</v>
+      </c>
+      <c r="T278">
+        <v>1.36</v>
+      </c>
+      <c r="U278">
+        <v>3</v>
+      </c>
+      <c r="V278">
+        <v>2.63</v>
+      </c>
+      <c r="W278">
+        <v>1.44</v>
+      </c>
+      <c r="X278">
+        <v>7</v>
+      </c>
+      <c r="Y278">
+        <v>1.1</v>
+      </c>
+      <c r="Z278">
+        <v>1.65</v>
+      </c>
+      <c r="AA278">
+        <v>3.8</v>
+      </c>
+      <c r="AB278">
+        <v>4.5</v>
+      </c>
+      <c r="AC278">
+        <v>1.02</v>
+      </c>
+      <c r="AD278">
+        <v>15</v>
+      </c>
+      <c r="AE278">
+        <v>1.22</v>
+      </c>
+      <c r="AF278">
+        <v>4.2</v>
+      </c>
+      <c r="AG278">
+        <v>1.65</v>
+      </c>
+      <c r="AH278">
+        <v>2.1</v>
+      </c>
+      <c r="AI278">
+        <v>1.8</v>
+      </c>
+      <c r="AJ278">
+        <v>1.95</v>
+      </c>
+      <c r="AK278">
+        <v>1.18</v>
+      </c>
+      <c r="AL278">
+        <v>1.22</v>
+      </c>
+      <c r="AM278">
+        <v>2.2</v>
+      </c>
+      <c r="AN278">
+        <v>2.69</v>
+      </c>
+      <c r="AO278">
+        <v>0.8</v>
+      </c>
+      <c r="AP278">
+        <v>2.71</v>
+      </c>
+      <c r="AQ278">
+        <v>0.73</v>
+      </c>
+      <c r="AR278">
+        <v>1.38</v>
+      </c>
+      <c r="AS278">
+        <v>1.23</v>
+      </c>
+      <c r="AT278">
+        <v>2.61</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>2</v>
+      </c>
+      <c r="AW278">
+        <v>9</v>
+      </c>
+      <c r="AX278">
+        <v>3</v>
+      </c>
+      <c r="AY278">
+        <v>19</v>
+      </c>
+      <c r="AZ278">
+        <v>7</v>
+      </c>
+      <c r="BA278">
+        <v>7</v>
+      </c>
+      <c r="BB278">
+        <v>6</v>
+      </c>
+      <c r="BC278">
+        <v>13</v>
+      </c>
+      <c r="BD278">
+        <v>1.58</v>
+      </c>
+      <c r="BE278">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF278">
+        <v>2.84</v>
+      </c>
+      <c r="BG278">
+        <v>1.21</v>
+      </c>
+      <c r="BH278">
+        <v>3.8</v>
+      </c>
+      <c r="BI278">
+        <v>1.28</v>
+      </c>
+      <c r="BJ278">
+        <v>3.2</v>
+      </c>
+      <c r="BK278">
+        <v>1.52</v>
+      </c>
+      <c r="BL278">
+        <v>2.3</v>
+      </c>
+      <c r="BM278">
+        <v>1.88</v>
+      </c>
+      <c r="BN278">
+        <v>1.75</v>
+      </c>
+      <c r="BO278">
+        <v>2.5</v>
+      </c>
+      <c r="BP278">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7727148</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F279">
+        <v>25</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279" t="s">
+        <v>80</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>3</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>96</v>
+      </c>
+      <c r="P279" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q279">
+        <v>5.5</v>
+      </c>
+      <c r="R279">
+        <v>2.1</v>
+      </c>
+      <c r="S279">
+        <v>2.3</v>
+      </c>
+      <c r="T279">
+        <v>1.44</v>
+      </c>
+      <c r="U279">
+        <v>2.63</v>
+      </c>
+      <c r="V279">
+        <v>3</v>
+      </c>
+      <c r="W279">
+        <v>1.36</v>
+      </c>
+      <c r="X279">
+        <v>9</v>
+      </c>
+      <c r="Y279">
+        <v>1.07</v>
+      </c>
+      <c r="Z279">
+        <v>4.33</v>
+      </c>
+      <c r="AA279">
+        <v>3.4</v>
+      </c>
+      <c r="AB279">
+        <v>1.78</v>
+      </c>
+      <c r="AC279">
+        <v>1.06</v>
+      </c>
+      <c r="AD279">
+        <v>9.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.36</v>
+      </c>
+      <c r="AF279">
+        <v>3.1</v>
+      </c>
+      <c r="AG279">
+        <v>2.1</v>
+      </c>
+      <c r="AH279">
+        <v>1.67</v>
+      </c>
+      <c r="AI279">
+        <v>1.95</v>
+      </c>
+      <c r="AJ279">
+        <v>1.8</v>
+      </c>
+      <c r="AK279">
+        <v>2.1</v>
+      </c>
+      <c r="AL279">
+        <v>1.22</v>
+      </c>
+      <c r="AM279">
+        <v>1.18</v>
+      </c>
+      <c r="AN279">
+        <v>1.2</v>
+      </c>
+      <c r="AO279">
+        <v>2.09</v>
+      </c>
+      <c r="AP279">
+        <v>1.09</v>
+      </c>
+      <c r="AQ279">
+        <v>2.17</v>
+      </c>
+      <c r="AR279">
+        <v>1.16</v>
+      </c>
+      <c r="AS279">
+        <v>1.17</v>
+      </c>
+      <c r="AT279">
+        <v>2.33</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>6</v>
+      </c>
+      <c r="AW279">
+        <v>4</v>
+      </c>
+      <c r="AX279">
+        <v>1</v>
+      </c>
+      <c r="AY279">
+        <v>17</v>
+      </c>
+      <c r="AZ279">
+        <v>8</v>
+      </c>
+      <c r="BA279">
+        <v>4</v>
+      </c>
+      <c r="BB279">
+        <v>2</v>
+      </c>
+      <c r="BC279">
+        <v>6</v>
+      </c>
+      <c r="BD279">
+        <v>2.85</v>
+      </c>
+      <c r="BE279">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF279">
+        <v>1.59</v>
+      </c>
+      <c r="BG279">
+        <v>1.24</v>
+      </c>
+      <c r="BH279">
+        <v>3.34</v>
+      </c>
+      <c r="BI279">
+        <v>1.47</v>
+      </c>
+      <c r="BJ279">
+        <v>2.42</v>
+      </c>
+      <c r="BK279">
+        <v>1.77</v>
+      </c>
+      <c r="BL279">
+        <v>1.95</v>
+      </c>
+      <c r="BM279">
+        <v>2.32</v>
+      </c>
+      <c r="BN279">
+        <v>1.51</v>
+      </c>
+      <c r="BO279">
+        <v>3.08</v>
+      </c>
+      <c r="BP279">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7727147</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F280">
+        <v>25</v>
+      </c>
+      <c r="G280" t="s">
+        <v>73</v>
+      </c>
+      <c r="H280" t="s">
+        <v>92</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>2</v>
+      </c>
+      <c r="K280">
+        <v>3</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>118</v>
+      </c>
+      <c r="P280" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q280">
+        <v>2.6</v>
+      </c>
+      <c r="R280">
+        <v>2.1</v>
+      </c>
+      <c r="S280">
+        <v>4.5</v>
+      </c>
+      <c r="T280">
+        <v>1.44</v>
+      </c>
+      <c r="U280">
+        <v>2.63</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+      <c r="W280">
+        <v>1.36</v>
+      </c>
+      <c r="X280">
+        <v>9</v>
+      </c>
+      <c r="Y280">
+        <v>1.07</v>
+      </c>
+      <c r="Z280">
+        <v>1.95</v>
+      </c>
+      <c r="AA280">
+        <v>3.5</v>
+      </c>
+      <c r="AB280">
+        <v>3.4</v>
+      </c>
+      <c r="AC280">
+        <v>1.04</v>
+      </c>
+      <c r="AD280">
+        <v>11</v>
+      </c>
+      <c r="AE280">
+        <v>1.3</v>
+      </c>
+      <c r="AF280">
+        <v>3.4</v>
+      </c>
+      <c r="AG280">
+        <v>1.91</v>
+      </c>
+      <c r="AH280">
+        <v>1.8</v>
+      </c>
+      <c r="AI280">
+        <v>1.91</v>
+      </c>
+      <c r="AJ280">
+        <v>1.91</v>
+      </c>
+      <c r="AK280">
+        <v>1.26</v>
+      </c>
+      <c r="AL280">
+        <v>1.29</v>
+      </c>
+      <c r="AM280">
+        <v>1.82</v>
+      </c>
+      <c r="AN280">
+        <v>2</v>
+      </c>
+      <c r="AO280">
+        <v>1.45</v>
+      </c>
+      <c r="AP280">
+        <v>1.85</v>
+      </c>
+      <c r="AQ280">
+        <v>1.58</v>
+      </c>
+      <c r="AR280">
+        <v>1.62</v>
+      </c>
+      <c r="AS280">
+        <v>1.25</v>
+      </c>
+      <c r="AT280">
+        <v>2.87</v>
+      </c>
+      <c r="AU280">
+        <v>5</v>
+      </c>
+      <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>4</v>
+      </c>
+      <c r="AX280">
+        <v>4</v>
+      </c>
+      <c r="AY280">
+        <v>10</v>
+      </c>
+      <c r="AZ280">
+        <v>9</v>
+      </c>
+      <c r="BA280">
+        <v>7</v>
+      </c>
+      <c r="BB280">
+        <v>3</v>
+      </c>
+      <c r="BC280">
+        <v>10</v>
+      </c>
+      <c r="BD280">
+        <v>1.56</v>
+      </c>
+      <c r="BE280">
+        <v>6.9</v>
+      </c>
+      <c r="BF280">
+        <v>3.25</v>
+      </c>
+      <c r="BG280">
+        <v>1.27</v>
+      </c>
+      <c r="BH280">
+        <v>3.3</v>
+      </c>
+      <c r="BI280">
+        <v>1.51</v>
+      </c>
+      <c r="BJ280">
+        <v>2.3</v>
+      </c>
+      <c r="BK280">
+        <v>1.9</v>
+      </c>
+      <c r="BL280">
+        <v>1.75</v>
+      </c>
+      <c r="BM280">
+        <v>2.5</v>
+      </c>
+      <c r="BN280">
+        <v>1.44</v>
+      </c>
+      <c r="BO280">
+        <v>3.5</v>
+      </c>
+      <c r="BP280">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7727146</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F281">
+        <v>25</v>
+      </c>
+      <c r="G281" t="s">
+        <v>89</v>
+      </c>
+      <c r="H281" t="s">
+        <v>76</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281" t="s">
+        <v>96</v>
+      </c>
+      <c r="P281" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q281">
+        <v>2.63</v>
+      </c>
+      <c r="R281">
+        <v>2.05</v>
+      </c>
+      <c r="S281">
+        <v>4.5</v>
+      </c>
+      <c r="T281">
+        <v>1.5</v>
+      </c>
+      <c r="U281">
+        <v>2.5</v>
+      </c>
+      <c r="V281">
+        <v>3.4</v>
+      </c>
+      <c r="W281">
+        <v>1.3</v>
+      </c>
+      <c r="X281">
+        <v>10</v>
+      </c>
+      <c r="Y281">
+        <v>1.06</v>
+      </c>
+      <c r="Z281">
+        <v>2</v>
+      </c>
+      <c r="AA281">
+        <v>3.1</v>
+      </c>
+      <c r="AB281">
+        <v>3.75</v>
+      </c>
+      <c r="AC281">
+        <v>1.08</v>
+      </c>
+      <c r="AD281">
+        <v>7.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.5</v>
+      </c>
+      <c r="AF281">
+        <v>2.4</v>
+      </c>
+      <c r="AG281">
+        <v>2.1</v>
+      </c>
+      <c r="AH281">
+        <v>1.65</v>
+      </c>
+      <c r="AI281">
+        <v>1.95</v>
+      </c>
+      <c r="AJ281">
+        <v>1.8</v>
+      </c>
+      <c r="AK281">
+        <v>1.22</v>
+      </c>
+      <c r="AL281">
+        <v>1.25</v>
+      </c>
+      <c r="AM281">
+        <v>1.8</v>
+      </c>
+      <c r="AN281">
+        <v>1.55</v>
+      </c>
+      <c r="AO281">
+        <v>0.78</v>
+      </c>
+      <c r="AP281">
+        <v>1.5</v>
+      </c>
+      <c r="AQ281">
+        <v>0.8</v>
+      </c>
+      <c r="AR281">
+        <v>1.32</v>
+      </c>
+      <c r="AS281">
+        <v>1.04</v>
+      </c>
+      <c r="AT281">
+        <v>2.36</v>
+      </c>
+      <c r="AU281">
+        <v>4</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>2</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>9</v>
+      </c>
+      <c r="AZ281">
+        <v>12</v>
+      </c>
+      <c r="BA281">
+        <v>7</v>
+      </c>
+      <c r="BB281">
+        <v>6</v>
+      </c>
+      <c r="BC281">
+        <v>13</v>
+      </c>
+      <c r="BD281">
+        <v>1.71</v>
+      </c>
+      <c r="BE281">
+        <v>6.75</v>
+      </c>
+      <c r="BF281">
+        <v>2.35</v>
+      </c>
+      <c r="BG281">
+        <v>1.27</v>
+      </c>
+      <c r="BH281">
+        <v>3.3</v>
+      </c>
+      <c r="BI281">
+        <v>1.48</v>
+      </c>
+      <c r="BJ281">
+        <v>2.45</v>
+      </c>
+      <c r="BK281">
+        <v>1.75</v>
+      </c>
+      <c r="BL281">
+        <v>1.95</v>
+      </c>
+      <c r="BM281">
+        <v>2.17</v>
+      </c>
+      <c r="BN281">
+        <v>1.6</v>
+      </c>
+      <c r="BO281">
+        <v>2.75</v>
+      </c>
+      <c r="BP281">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7727145</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F282">
+        <v>25</v>
+      </c>
+      <c r="G282" t="s">
+        <v>75</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>161</v>
+      </c>
+      <c r="P282" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q282">
+        <v>2.2</v>
+      </c>
+      <c r="R282">
+        <v>2.2</v>
+      </c>
+      <c r="S282">
+        <v>6</v>
+      </c>
+      <c r="T282">
+        <v>1.4</v>
+      </c>
+      <c r="U282">
+        <v>2.75</v>
+      </c>
+      <c r="V282">
+        <v>3</v>
+      </c>
+      <c r="W282">
+        <v>1.36</v>
+      </c>
+      <c r="X282">
+        <v>8</v>
+      </c>
+      <c r="Y282">
+        <v>1.08</v>
+      </c>
+      <c r="Z282">
+        <v>1.5</v>
+      </c>
+      <c r="AA282">
+        <v>4</v>
+      </c>
+      <c r="AB282">
+        <v>5.75</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>9</v>
+      </c>
+      <c r="AE282">
+        <v>1.3</v>
+      </c>
+      <c r="AF282">
+        <v>3.35</v>
+      </c>
+      <c r="AG282">
+        <v>2</v>
+      </c>
+      <c r="AH282">
+        <v>1.73</v>
+      </c>
+      <c r="AI282">
+        <v>2.05</v>
+      </c>
+      <c r="AJ282">
+        <v>1.7</v>
+      </c>
+      <c r="AK282">
+        <v>1.12</v>
+      </c>
+      <c r="AL282">
+        <v>1.2</v>
+      </c>
+      <c r="AM282">
+        <v>2.4</v>
+      </c>
+      <c r="AN282">
+        <v>1.5</v>
+      </c>
+      <c r="AO282">
+        <v>0.55</v>
+      </c>
+      <c r="AP282">
+        <v>1.62</v>
+      </c>
+      <c r="AQ282">
+        <v>0.5</v>
+      </c>
+      <c r="AR282">
+        <v>1.5</v>
+      </c>
+      <c r="AS282">
+        <v>1.11</v>
+      </c>
+      <c r="AT282">
+        <v>2.61</v>
+      </c>
+      <c r="AU282">
+        <v>6</v>
+      </c>
+      <c r="AV282">
+        <v>0</v>
+      </c>
+      <c r="AW282">
+        <v>6</v>
+      </c>
+      <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
+        <v>14</v>
+      </c>
+      <c r="AZ282">
+        <v>9</v>
+      </c>
+      <c r="BA282">
+        <v>9</v>
+      </c>
+      <c r="BB282">
+        <v>7</v>
+      </c>
+      <c r="BC282">
+        <v>16</v>
+      </c>
+      <c r="BD282">
+        <v>1.32</v>
+      </c>
+      <c r="BE282">
+        <v>7.5</v>
+      </c>
+      <c r="BF282">
+        <v>3.7</v>
+      </c>
+      <c r="BG282">
+        <v>1.3</v>
+      </c>
+      <c r="BH282">
+        <v>3.15</v>
+      </c>
+      <c r="BI282">
+        <v>1.5</v>
+      </c>
+      <c r="BJ282">
+        <v>2.38</v>
+      </c>
+      <c r="BK282">
+        <v>1.81</v>
+      </c>
+      <c r="BL282">
+        <v>1.88</v>
+      </c>
+      <c r="BM282">
+        <v>2.25</v>
+      </c>
+      <c r="BN282">
+        <v>1.55</v>
+      </c>
+      <c r="BO282">
+        <v>2.9</v>
+      </c>
+      <c r="BP282">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7727144</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F283">
+        <v>25</v>
+      </c>
+      <c r="G283" t="s">
+        <v>90</v>
+      </c>
+      <c r="H283" t="s">
+        <v>85</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283" t="s">
+        <v>96</v>
+      </c>
+      <c r="P283" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q283">
+        <v>2.3</v>
+      </c>
+      <c r="R283">
+        <v>2.1</v>
+      </c>
+      <c r="S283">
+        <v>5.5</v>
+      </c>
+      <c r="T283">
+        <v>1.44</v>
+      </c>
+      <c r="U283">
+        <v>2.63</v>
+      </c>
+      <c r="V283">
+        <v>3.25</v>
+      </c>
+      <c r="W283">
+        <v>1.33</v>
+      </c>
+      <c r="X283">
+        <v>9</v>
+      </c>
+      <c r="Y283">
+        <v>1.07</v>
+      </c>
+      <c r="Z283">
+        <v>1.73</v>
+      </c>
+      <c r="AA283">
+        <v>3.6</v>
+      </c>
+      <c r="AB283">
+        <v>4.33</v>
+      </c>
+      <c r="AC283">
+        <v>1.07</v>
+      </c>
+      <c r="AD283">
+        <v>8</v>
+      </c>
+      <c r="AE283">
+        <v>1.36</v>
+      </c>
+      <c r="AF283">
+        <v>3.1</v>
+      </c>
+      <c r="AG283">
+        <v>2.1</v>
+      </c>
+      <c r="AH283">
+        <v>1.67</v>
+      </c>
+      <c r="AI283">
+        <v>2</v>
+      </c>
+      <c r="AJ283">
+        <v>1.75</v>
+      </c>
+      <c r="AK283">
+        <v>1.15</v>
+      </c>
+      <c r="AL283">
+        <v>1.22</v>
+      </c>
+      <c r="AM283">
+        <v>2.1</v>
+      </c>
+      <c r="AN283">
+        <v>2.17</v>
+      </c>
+      <c r="AO283">
+        <v>0.82</v>
+      </c>
+      <c r="AP283">
+        <v>2.08</v>
+      </c>
+      <c r="AQ283">
+        <v>0.83</v>
+      </c>
+      <c r="AR283">
+        <v>1.41</v>
+      </c>
+      <c r="AS283">
+        <v>1.33</v>
+      </c>
+      <c r="AT283">
+        <v>2.74</v>
+      </c>
+      <c r="AU283">
+        <v>10</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>7</v>
+      </c>
+      <c r="AX283">
+        <v>4</v>
+      </c>
+      <c r="AY283">
+        <v>25</v>
+      </c>
+      <c r="AZ283">
+        <v>12</v>
+      </c>
+      <c r="BA283">
+        <v>6</v>
+      </c>
+      <c r="BB283">
+        <v>3</v>
+      </c>
+      <c r="BC283">
+        <v>9</v>
+      </c>
+      <c r="BD283">
+        <v>1.48</v>
+      </c>
+      <c r="BE283">
+        <v>7</v>
+      </c>
+      <c r="BF283">
+        <v>2.9</v>
+      </c>
+      <c r="BG283">
+        <v>1.23</v>
+      </c>
+      <c r="BH283">
+        <v>3.65</v>
+      </c>
+      <c r="BI283">
+        <v>1.41</v>
+      </c>
+      <c r="BJ283">
+        <v>2.65</v>
+      </c>
+      <c r="BK283">
+        <v>1.65</v>
+      </c>
+      <c r="BL283">
+        <v>2.07</v>
+      </c>
+      <c r="BM283">
+        <v>2.02</v>
+      </c>
+      <c r="BN283">
+        <v>1.68</v>
+      </c>
+      <c r="BO283">
+        <v>2.55</v>
+      </c>
+      <c r="BP283">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7727143</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F284">
+        <v>25</v>
+      </c>
+      <c r="G284" t="s">
+        <v>81</v>
+      </c>
+      <c r="H284" t="s">
+        <v>93</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>172</v>
+      </c>
+      <c r="P284" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q284">
+        <v>3.6</v>
+      </c>
+      <c r="R284">
+        <v>2.1</v>
+      </c>
+      <c r="S284">
+        <v>3</v>
+      </c>
+      <c r="T284">
+        <v>1.4</v>
+      </c>
+      <c r="U284">
+        <v>2.75</v>
+      </c>
+      <c r="V284">
+        <v>3</v>
+      </c>
+      <c r="W284">
+        <v>1.36</v>
+      </c>
+      <c r="X284">
+        <v>9</v>
+      </c>
+      <c r="Y284">
+        <v>1.07</v>
+      </c>
+      <c r="Z284">
+        <v>3.1</v>
+      </c>
+      <c r="AA284">
+        <v>3.3</v>
+      </c>
+      <c r="AB284">
+        <v>2.15</v>
+      </c>
+      <c r="AC284">
+        <v>1.05</v>
+      </c>
+      <c r="AD284">
+        <v>9</v>
+      </c>
+      <c r="AE284">
+        <v>1.3</v>
+      </c>
+      <c r="AF284">
+        <v>3.35</v>
+      </c>
+      <c r="AG284">
+        <v>1.8</v>
+      </c>
+      <c r="AH284">
+        <v>1.91</v>
+      </c>
+      <c r="AI284">
+        <v>1.8</v>
+      </c>
+      <c r="AJ284">
+        <v>1.95</v>
+      </c>
+      <c r="AK284">
+        <v>1.6</v>
+      </c>
+      <c r="AL284">
+        <v>1.25</v>
+      </c>
+      <c r="AM284">
+        <v>1.38</v>
+      </c>
+      <c r="AN284">
+        <v>1.5</v>
+      </c>
+      <c r="AO284">
+        <v>1.4</v>
+      </c>
+      <c r="AP284">
+        <v>1.38</v>
+      </c>
+      <c r="AQ284">
+        <v>1.55</v>
+      </c>
+      <c r="AR284">
+        <v>1.31</v>
+      </c>
+      <c r="AS284">
+        <v>1.11</v>
+      </c>
+      <c r="AT284">
+        <v>2.42</v>
+      </c>
+      <c r="AU284">
+        <v>4</v>
+      </c>
+      <c r="AV284">
+        <v>5</v>
+      </c>
+      <c r="AW284">
+        <v>2</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>9</v>
+      </c>
+      <c r="AZ284">
+        <v>14</v>
+      </c>
+      <c r="BA284">
+        <v>5</v>
+      </c>
+      <c r="BB284">
+        <v>8</v>
+      </c>
+      <c r="BC284">
+        <v>13</v>
+      </c>
+      <c r="BD284">
+        <v>2.18</v>
+      </c>
+      <c r="BE284">
+        <v>6.75</v>
+      </c>
+      <c r="BF284">
+        <v>1.81</v>
+      </c>
+      <c r="BG284">
+        <v>1.19</v>
+      </c>
+      <c r="BH284">
+        <v>4.1</v>
+      </c>
+      <c r="BI284">
+        <v>1.34</v>
+      </c>
+      <c r="BJ284">
+        <v>2.9</v>
+      </c>
+      <c r="BK284">
+        <v>1.55</v>
+      </c>
+      <c r="BL284">
+        <v>2.25</v>
+      </c>
+      <c r="BM284">
+        <v>1.88</v>
+      </c>
+      <c r="BN284">
+        <v>1.81</v>
+      </c>
+      <c r="BO284">
+        <v>2.33</v>
+      </c>
+      <c r="BP284">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7727142</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F285">
+        <v>25</v>
+      </c>
+      <c r="G285" t="s">
+        <v>83</v>
+      </c>
+      <c r="H285" t="s">
+        <v>84</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285" t="s">
+        <v>96</v>
+      </c>
+      <c r="P285" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q285">
+        <v>2.63</v>
+      </c>
+      <c r="R285">
+        <v>2.1</v>
+      </c>
+      <c r="S285">
+        <v>4.33</v>
+      </c>
+      <c r="T285">
+        <v>1.4</v>
+      </c>
+      <c r="U285">
+        <v>2.75</v>
+      </c>
+      <c r="V285">
+        <v>3</v>
+      </c>
+      <c r="W285">
+        <v>1.36</v>
+      </c>
+      <c r="X285">
+        <v>8</v>
+      </c>
+      <c r="Y285">
+        <v>1.08</v>
+      </c>
+      <c r="Z285">
+        <v>1.75</v>
+      </c>
+      <c r="AA285">
+        <v>3.75</v>
+      </c>
+      <c r="AB285">
+        <v>4</v>
+      </c>
+      <c r="AC285">
+        <v>1.05</v>
+      </c>
+      <c r="AD285">
+        <v>9</v>
+      </c>
+      <c r="AE285">
+        <v>1.3</v>
+      </c>
+      <c r="AF285">
+        <v>3.35</v>
+      </c>
+      <c r="AG285">
+        <v>1.8</v>
+      </c>
+      <c r="AH285">
+        <v>1.91</v>
+      </c>
+      <c r="AI285">
+        <v>1.8</v>
+      </c>
+      <c r="AJ285">
+        <v>1.95</v>
+      </c>
+      <c r="AK285">
+        <v>1.28</v>
+      </c>
+      <c r="AL285">
+        <v>1.25</v>
+      </c>
+      <c r="AM285">
+        <v>1.77</v>
+      </c>
+      <c r="AN285">
+        <v>1.73</v>
+      </c>
+      <c r="AO285">
+        <v>1.08</v>
+      </c>
+      <c r="AP285">
+        <v>1.67</v>
+      </c>
+      <c r="AQ285">
+        <v>1.08</v>
+      </c>
+      <c r="AR285">
+        <v>1.3</v>
+      </c>
+      <c r="AS285">
+        <v>1.22</v>
+      </c>
+      <c r="AT285">
+        <v>2.52</v>
+      </c>
+      <c r="AU285">
+        <v>7</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>8</v>
+      </c>
+      <c r="AX285">
+        <v>4</v>
+      </c>
+      <c r="AY285">
+        <v>19</v>
+      </c>
+      <c r="AZ285">
+        <v>10</v>
+      </c>
+      <c r="BA285">
+        <v>7</v>
+      </c>
+      <c r="BB285">
+        <v>5</v>
+      </c>
+      <c r="BC285">
+        <v>12</v>
+      </c>
+      <c r="BD285">
+        <v>1.65</v>
+      </c>
+      <c r="BE285">
+        <v>6.75</v>
+      </c>
+      <c r="BF285">
+        <v>2.45</v>
+      </c>
+      <c r="BG285">
+        <v>1.26</v>
+      </c>
+      <c r="BH285">
+        <v>3.4</v>
+      </c>
+      <c r="BI285">
+        <v>1.44</v>
+      </c>
+      <c r="BJ285">
+        <v>2.55</v>
+      </c>
+      <c r="BK285">
+        <v>1.73</v>
+      </c>
+      <c r="BL285">
+        <v>1.96</v>
+      </c>
+      <c r="BM285">
+        <v>2.17</v>
+      </c>
+      <c r="BN285">
+        <v>1.6</v>
+      </c>
+      <c r="BO285">
+        <v>2.8</v>
+      </c>
+      <c r="BP285">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7727421</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F286">
+        <v>25</v>
+      </c>
+      <c r="G286" t="s">
+        <v>86</v>
+      </c>
+      <c r="H286" t="s">
+        <v>91</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>271</v>
+      </c>
+      <c r="P286" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q286">
+        <v>2.3</v>
+      </c>
+      <c r="R286">
+        <v>2.3</v>
+      </c>
+      <c r="S286">
+        <v>4.75</v>
+      </c>
+      <c r="T286">
+        <v>1.36</v>
+      </c>
+      <c r="U286">
+        <v>3</v>
+      </c>
+      <c r="V286">
+        <v>2.63</v>
+      </c>
+      <c r="W286">
+        <v>1.44</v>
+      </c>
+      <c r="X286">
+        <v>7</v>
+      </c>
+      <c r="Y286">
+        <v>1.1</v>
+      </c>
+      <c r="Z286">
+        <v>1.85</v>
+      </c>
+      <c r="AA286">
+        <v>3.5</v>
+      </c>
+      <c r="AB286">
+        <v>3.75</v>
+      </c>
+      <c r="AC286">
+        <v>1.03</v>
+      </c>
+      <c r="AD286">
+        <v>13</v>
+      </c>
+      <c r="AE286">
+        <v>1.25</v>
+      </c>
+      <c r="AF286">
+        <v>3.75</v>
+      </c>
+      <c r="AG286">
+        <v>1.8</v>
+      </c>
+      <c r="AH286">
+        <v>1.91</v>
+      </c>
+      <c r="AI286">
+        <v>1.75</v>
+      </c>
+      <c r="AJ286">
+        <v>2</v>
+      </c>
+      <c r="AK286">
+        <v>1.22</v>
+      </c>
+      <c r="AL286">
+        <v>1.26</v>
+      </c>
+      <c r="AM286">
+        <v>1.98</v>
+      </c>
+      <c r="AN286">
+        <v>2.3</v>
+      </c>
+      <c r="AO286">
+        <v>1.31</v>
+      </c>
+      <c r="AP286">
+        <v>2.18</v>
+      </c>
+      <c r="AQ286">
+        <v>1.29</v>
+      </c>
+      <c r="AR286">
+        <v>1.35</v>
+      </c>
+      <c r="AS286">
+        <v>1.26</v>
+      </c>
+      <c r="AT286">
+        <v>2.61</v>
+      </c>
+      <c r="AU286">
+        <v>2</v>
+      </c>
+      <c r="AV286">
+        <v>5</v>
+      </c>
+      <c r="AW286">
+        <v>2</v>
+      </c>
+      <c r="AX286">
+        <v>9</v>
+      </c>
+      <c r="AY286">
+        <v>5</v>
+      </c>
+      <c r="AZ286">
+        <v>17</v>
+      </c>
+      <c r="BA286">
+        <v>2</v>
+      </c>
+      <c r="BB286">
+        <v>6</v>
+      </c>
+      <c r="BC286">
+        <v>8</v>
+      </c>
+      <c r="BD286">
+        <v>1.56</v>
+      </c>
+      <c r="BE286">
+        <v>8.9</v>
+      </c>
+      <c r="BF286">
+        <v>2.94</v>
+      </c>
+      <c r="BG286">
+        <v>1.21</v>
+      </c>
+      <c r="BH286">
+        <v>3.8</v>
+      </c>
+      <c r="BI286">
+        <v>1.4</v>
+      </c>
+      <c r="BJ286">
+        <v>2.6</v>
+      </c>
+      <c r="BK286">
+        <v>1.72</v>
+      </c>
+      <c r="BL286">
+        <v>1.93</v>
+      </c>
+      <c r="BM286">
+        <v>2.2</v>
+      </c>
+      <c r="BN286">
+        <v>1.55</v>
+      </c>
+      <c r="BO286">
+        <v>3</v>
+      </c>
+      <c r="BP286">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7727139</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F287">
+        <v>25</v>
+      </c>
+      <c r="G287" t="s">
+        <v>70</v>
+      </c>
+      <c r="H287" t="s">
+        <v>77</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>272</v>
+      </c>
+      <c r="P287" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q287">
+        <v>2.1</v>
+      </c>
+      <c r="R287">
+        <v>2.25</v>
+      </c>
+      <c r="S287">
+        <v>6</v>
+      </c>
+      <c r="T287">
+        <v>1.4</v>
+      </c>
+      <c r="U287">
+        <v>2.75</v>
+      </c>
+      <c r="V287">
+        <v>2.75</v>
+      </c>
+      <c r="W287">
+        <v>1.4</v>
+      </c>
+      <c r="X287">
+        <v>8</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>1.53</v>
+      </c>
+      <c r="AA287">
+        <v>4.2</v>
+      </c>
+      <c r="AB287">
+        <v>5</v>
+      </c>
+      <c r="AC287">
+        <v>1.05</v>
+      </c>
+      <c r="AD287">
+        <v>9.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.28</v>
+      </c>
+      <c r="AF287">
+        <v>3.5</v>
+      </c>
+      <c r="AG287">
+        <v>1.57</v>
+      </c>
+      <c r="AH287">
+        <v>2.25</v>
+      </c>
+      <c r="AI287">
+        <v>1.95</v>
+      </c>
+      <c r="AJ287">
+        <v>1.8</v>
+      </c>
+      <c r="AK287">
+        <v>1.12</v>
+      </c>
+      <c r="AL287">
+        <v>1.2</v>
+      </c>
+      <c r="AM287">
+        <v>2.4</v>
+      </c>
+      <c r="AN287">
+        <v>1.17</v>
+      </c>
+      <c r="AO287">
+        <v>0.75</v>
+      </c>
+      <c r="AP287">
+        <v>1.31</v>
+      </c>
+      <c r="AQ287">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR287">
+        <v>1.6</v>
+      </c>
+      <c r="AS287">
+        <v>1.33</v>
+      </c>
+      <c r="AT287">
+        <v>2.93</v>
+      </c>
+      <c r="AU287">
+        <v>9</v>
+      </c>
+      <c r="AV287">
+        <v>7</v>
+      </c>
+      <c r="AW287">
+        <v>6</v>
+      </c>
+      <c r="AX287">
+        <v>6</v>
+      </c>
+      <c r="AY287">
+        <v>19</v>
+      </c>
+      <c r="AZ287">
+        <v>14</v>
+      </c>
+      <c r="BA287">
+        <v>4</v>
+      </c>
+      <c r="BB287">
+        <v>4</v>
+      </c>
+      <c r="BC287">
+        <v>8</v>
+      </c>
+      <c r="BD287">
+        <v>1.4</v>
+      </c>
+      <c r="BE287">
+        <v>7.5</v>
+      </c>
+      <c r="BF287">
+        <v>3.3</v>
+      </c>
+      <c r="BG287">
+        <v>1.17</v>
+      </c>
+      <c r="BH287">
+        <v>4.3</v>
+      </c>
+      <c r="BI287">
+        <v>1.32</v>
+      </c>
+      <c r="BJ287">
+        <v>3.05</v>
+      </c>
+      <c r="BK287">
+        <v>1.53</v>
+      </c>
+      <c r="BL287">
+        <v>2.3</v>
+      </c>
+      <c r="BM287">
+        <v>1.84</v>
+      </c>
+      <c r="BN287">
+        <v>1.84</v>
+      </c>
+      <c r="BO287">
+        <v>2.25</v>
+      </c>
+      <c r="BP287">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -60001,13 +60001,13 @@
         <v>2</v>
       </c>
       <c r="AX284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY284">
         <v>9</v>
       </c>
       <c r="AZ284">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA284">
         <v>5</v>
@@ -60213,7 +60213,7 @@
         <v>19</v>
       </c>
       <c r="AZ285">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA285">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -58968,13 +58968,13 @@
         <v>6</v>
       </c>
       <c r="AW279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX279">
         <v>1</v>
       </c>
       <c r="AY279">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ279">
         <v>8</v>
@@ -59180,7 +59180,7 @@
         <v>4</v>
       </c>
       <c r="AY280">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ280">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -60819,19 +60819,19 @@
         <v>4</v>
       </c>
       <c r="AV288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW288">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX288">
         <v>2</v>
       </c>
       <c r="AY288">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ288">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA288">
         <v>8</v>
